--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6AB37F8C-1E1D-5C4F-A806-5F634723DEA7}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9D8695D1-9F3D-2047-84AB-322D44EF7B6C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6180" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="961" firstSheet="1" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
     <definedName name="frac_mam_1month">'Nutritional status distribution'!$C$10</definedName>
     <definedName name="frac_mam_24_59months">'Nutritional status distribution'!$G$10</definedName>
     <definedName name="frac_mam_6_11months">'Nutritional status distribution'!$E$10</definedName>
-    <definedName name="frac_MAMtoSAM">'Baseline year population inputs'!$C$52</definedName>
+    <definedName name="frac_MAMtoSAM">'Baseline year population inputs'!#REF!</definedName>
     <definedName name="frac_other_staples">'Baseline year population inputs'!$C$19</definedName>
     <definedName name="frac_PW_health_facility">'Baseline year population inputs'!$C$10</definedName>
     <definedName name="frac_rice">'Baseline year population inputs'!$C$16</definedName>
@@ -55,7 +55,7 @@
     <definedName name="frac_sam_1month">'Nutritional status distribution'!$C$11</definedName>
     <definedName name="frac_sam_24_59months">'Nutritional status distribution'!$G$11</definedName>
     <definedName name="frac_sam_6_11months">'Nutritional status distribution'!$E$11</definedName>
-    <definedName name="frac_SAMtoMAM">'Baseline year population inputs'!$C$53</definedName>
+    <definedName name="frac_SAMtoMAM">'Baseline year population inputs'!#REF!</definedName>
     <definedName name="frac_subsistence_farming">'Baseline year population inputs'!$C$15</definedName>
     <definedName name="frac_wheat">'Baseline year population inputs'!$C$17</definedName>
     <definedName name="infant_mortality">'Baseline year population inputs'!$C$30</definedName>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="216">
   <si>
     <t>year</t>
   </si>
@@ -629,12 +629,6 @@
   </si>
   <si>
     <t>Other risks</t>
-  </si>
-  <si>
-    <t>Percentage of SAM cases that develop from MAM</t>
-  </si>
-  <si>
-    <t>Percentage of SAM cases that only recover to MAM</t>
   </si>
   <si>
     <t>Baseline year mortality and risk factors</t>
@@ -4203,10 +4197,10 @@
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4221,15 +4215,15 @@
         <v>110</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C1" s="62" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
@@ -4237,7 +4231,7 @@
     <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C3" s="101">
         <v>2017</v>
@@ -4246,7 +4240,7 @@
     <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C4" s="102">
         <v>2030</v>
@@ -4376,7 +4370,7 @@
     <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
@@ -4410,7 +4404,7 @@
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="19" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C32" s="25"/>
     </row>
@@ -4527,24 +4521,8 @@
       </c>
       <c r="C51" s="24"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="C52" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="19" t="s">
-        <v>149</v>
-      </c>
-      <c r="C53" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="4"/>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4581,10 +4559,10 @@
         <v>baseline (2017) coverage</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -4634,7 +4612,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="78" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B5" s="79">
         <v>0</v>
@@ -4695,7 +4673,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="98" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B9" s="79">
         <v>0</v>
@@ -4709,7 +4687,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="98" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B10" s="79">
         <v>0</v>
@@ -4723,7 +4701,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="98" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B11" s="79">
         <v>0</v>
@@ -4737,7 +4715,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="98" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B12" s="79">
         <v>0</v>
@@ -4751,7 +4729,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B13" s="79">
         <v>0</v>
@@ -4765,7 +4743,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B14" s="79">
         <v>0</v>
@@ -4809,7 +4787,7 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B17" s="79">
         <v>0</v>
@@ -4824,7 +4802,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="78" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B18" s="79">
         <v>0</v>
@@ -4839,7 +4817,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="78" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B19" s="79">
         <v>0</v>
@@ -4854,7 +4832,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="78" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B20" s="79">
         <v>0</v>
@@ -4868,7 +4846,7 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B21" s="79">
         <v>0</v>
@@ -4928,7 +4906,7 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B25" s="79">
         <v>0</v>
@@ -5143,24 +5121,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
       <c r="A1" s="93" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B1" s="92" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C1" s="92" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D1" s="92" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E1" s="92" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" s="90" t="s">
         <v>32</v>
@@ -5260,7 +5238,7 @@
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -5277,15 +5255,15 @@
         <v>69</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>59</v>
@@ -5294,7 +5272,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>59</v>
@@ -5306,16 +5284,16 @@
         <v>58</v>
       </c>
       <c r="B4" s="72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C4" s="72"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B5" s="72" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="72"/>
     </row>
@@ -5374,7 +5352,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="72" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
@@ -5685,7 +5663,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C3" s="54">
         <v>1</v>
@@ -5729,7 +5707,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C4" s="54">
         <v>1</v>
@@ -5773,7 +5751,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C5" s="54">
         <v>0</v>
@@ -5819,7 +5797,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C6" s="54">
         <v>0</v>
@@ -6236,7 +6214,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C16" s="55">
         <v>0</v>
@@ -6285,7 +6263,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C17" s="55">
         <v>0</v>
@@ -6523,7 +6501,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C23" s="55">
         <v>0</v>
@@ -6567,7 +6545,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="98" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C24" s="55">
         <v>0</v>
@@ -6615,7 +6593,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="98" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C25" s="55">
         <v>0</v>
@@ -6663,7 +6641,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="98" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C26" s="55">
         <v>0</v>
@@ -6711,7 +6689,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="98" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C27" s="55">
         <v>0</v>
@@ -7288,24 +7266,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="61" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D1" s="61" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E1" s="61" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="60" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B2" s="59">
         <v>0.9</v>
@@ -7323,7 +7301,7 @@
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B3" s="59">
         <v>1</v>
@@ -7341,7 +7319,7 @@
     </row>
     <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="60" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B4" s="59">
         <v>1</v>
@@ -7359,7 +7337,7 @@
     </row>
     <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="60" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B5" s="59">
         <v>1</v>
@@ -7377,7 +7355,7 @@
     </row>
     <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="60" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B6" s="59">
         <v>1</v>
@@ -7395,7 +7373,7 @@
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B7" s="59">
         <v>0.93</v>
@@ -7413,7 +7391,7 @@
     </row>
     <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B8" s="59">
         <v>0.5</v>
@@ -7431,7 +7409,7 @@
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="60" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B9" s="59">
         <v>0.5</v>
@@ -7449,7 +7427,7 @@
     </row>
     <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="60" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10" s="59">
         <v>0.98</v>
@@ -9416,7 +9394,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -9426,7 +9404,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="65" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -9436,7 +9414,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="65" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -9446,7 +9424,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C5" s="49">
         <f>1-SUM(C2:C4)</f>
@@ -9493,10 +9471,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -9528,10 +9506,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -9548,10 +9526,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -9568,10 +9546,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>156</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>158</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -9599,7 +9577,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -9613,10 +9591,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -9630,7 +9608,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="53" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -9647,7 +9625,7 @@
         <v>74</v>
       </c>
       <c r="B13" s="53" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -9661,7 +9639,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -9703,7 +9681,7 @@
         <v>136</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C1" s="43" t="str">
         <f>"Percentage of births in category in baseline year ("&amp;start_year&amp;")"</f>
@@ -9843,24 +9821,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="76" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="74" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B2" s="69" t="s">
         <v>32</v>
@@ -9923,7 +9901,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="70"/>
       <c r="B7" s="69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C7" s="68"/>
       <c r="D7" s="67"/>
@@ -9931,7 +9909,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="76" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B9" s="75" t="s">
         <v>32</v>
@@ -9979,7 +9957,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="70"/>
       <c r="B14" s="69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C14" s="68"/>
       <c r="D14" s="67"/>
@@ -9987,7 +9965,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="74" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B16" s="69" t="s">
         <v>32</v>
@@ -10050,7 +10028,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="70"/>
       <c r="B21" s="69" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C21" s="68"/>
       <c r="D21" s="67"/>
@@ -10083,16 +10061,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="99" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B1" s="77" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C1" s="100" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D1" s="100" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -10103,19 +10081,19 @@
         <v>67</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D2" s="72"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="100" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3" s="69" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D3" s="72"/>
     </row>

--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9D8695D1-9F3D-2047-84AB-322D44EF7B6C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21135" windowWidth="28920" windowHeight="16320" tabRatio="961" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -74,7 +68,7 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$39</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$31</definedName>
   </definedNames>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="144525" calcMode="manual"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -84,12 +78,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +107,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -142,12 +136,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -769,9 +763,6 @@
     <t>IYCF package</t>
   </si>
   <si>
-    <t>saturation coverage of target population</t>
-  </si>
-  <si>
     <t>Threshold dependency</t>
   </si>
   <si>
@@ -823,9 +814,6 @@
     <t>Baseline year (projection start year)</t>
   </si>
   <si>
-    <t>unit cost (US$)</t>
-  </si>
-  <si>
     <t>Unit costs (US$) by delivery modality and target population</t>
   </si>
   <si>
@@ -833,12 +821,18 @@
   </si>
   <si>
     <t>Family planning</t>
+  </si>
+  <si>
+    <t>Saturation coverage of target population</t>
+  </si>
+  <si>
+    <t>Unit cost (US$)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2752,8 +2746,8 @@
     <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
-    <cellStyle name="Normal 3" xfId="726" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="Normal 2" xfId="725"/>
+    <cellStyle name="Normal 3" xfId="726"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -2812,7 +2806,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2869,7 +2863,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2926,7 +2920,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2983,7 +2977,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3040,7 +3034,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3097,7 +3091,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3154,7 +3148,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3211,7 +3205,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3268,7 +3262,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3325,7 +3319,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3382,7 +3376,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3439,7 +3433,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3496,7 +3490,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3553,7 +3547,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3610,7 +3604,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3667,7 +3661,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3724,7 +3718,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3781,7 +3775,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3830,7 +3824,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4193,24 +4187,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="14.5" style="15"/>
+    <col min="1" max="1" width="27.7109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="19" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
@@ -4221,112 +4213,112 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" s="101">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C4" s="102">
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>117</v>
       </c>
       <c r="C8" s="23"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="12" t="s">
         <v>104</v>
       </c>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C16" s="23"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C17" s="23"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C18" s="23"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="12" t="s">
         <v>108</v>
       </c>
@@ -4335,58 +4327,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="27" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="23"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="27" t="s">
         <v>112</v>
       </c>
       <c r="C23" s="23"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="27" t="s">
         <v>113</v>
       </c>
       <c r="C24" s="23"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="27" t="s">
         <v>114</v>
       </c>
       <c r="C25" s="23"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="64" t="s">
         <v>102</v>
       </c>
       <c r="C29" s="25"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="19" t="s">
         <v>101</v>
       </c>
@@ -4394,7 +4386,7 @@
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="19" t="s">
         <v>100</v>
       </c>
@@ -4402,48 +4394,48 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="19" t="s">
         <v>184</v>
       </c>
       <c r="C32" s="25"/>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="23"/>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="64" t="s">
         <v>103</v>
       </c>
       <c r="C34" s="25"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D35" s="20"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
         <v>146</v>
       </c>
       <c r="D36" s="20"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="20"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="20"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="19" t="s">
         <v>12</v>
       </c>
@@ -4451,7 +4443,7 @@
       <c r="D39" s="20"/>
       <c r="E39" s="21"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="19" t="s">
         <v>26</v>
       </c>
@@ -4462,52 +4454,52 @@
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D41" s="20"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D42" s="20"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="19" t="s">
         <v>137</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="19" t="s">
         <v>138</v>
       </c>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="19" t="s">
         <v>139</v>
       </c>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="19" t="s">
         <v>140</v>
       </c>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="19" t="s">
         <v>141</v>
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="9" t="s">
         <v>121</v>
       </c>
@@ -4515,13 +4507,13 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="19" t="s">
         <v>145</v>
       </c>
       <c r="C51" s="24"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4"/>
     </row>
   </sheetData>
@@ -4531,41 +4523,41 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="56" style="78" customWidth="1"/>
     <col min="2" max="2" width="20" style="57" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="56" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="56" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="56"/>
+    <col min="3" max="3" width="20.42578125" style="56" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="56" customWidth="1"/>
+    <col min="5" max="16384" width="14.42578125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A1" s="87" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="103" t="str">
-        <f>"baseline ("&amp;start_year&amp;") coverage"</f>
-        <v>baseline (2017) coverage</v>
+        <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
+        <v>Baseline (2017) coverage</v>
       </c>
       <c r="C1" s="86" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="D1" s="85" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="78" t="s">
         <v>29</v>
       </c>
@@ -4579,7 +4571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="78" t="s">
         <v>96</v>
       </c>
@@ -4594,7 +4586,7 @@
       </c>
       <c r="E3" s="65"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="78" t="s">
         <v>61</v>
       </c>
@@ -4610,9 +4602,9 @@
       </c>
       <c r="E4" s="65"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="78" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B5" s="79">
         <v>0</v>
@@ -4626,7 +4618,7 @@
       </c>
       <c r="E5" s="84"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="78" t="s">
         <v>63</v>
       </c>
@@ -4641,7 +4633,7 @@
       </c>
       <c r="E6" s="83"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="78" t="s">
         <v>64</v>
       </c>
@@ -4656,7 +4648,7 @@
       </c>
       <c r="E7" s="83"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="78" t="s">
         <v>62</v>
       </c>
@@ -4671,9 +4663,9 @@
       </c>
       <c r="E8" s="83"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9" s="79">
         <v>0</v>
@@ -4685,9 +4677,9 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" s="79">
         <v>0</v>
@@ -4699,9 +4691,9 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B11" s="79">
         <v>0</v>
@@ -4713,9 +4705,9 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B12" s="79">
         <v>0</v>
@@ -4727,9 +4719,9 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B13" s="79">
         <v>0</v>
@@ -4741,9 +4733,9 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B14" s="79">
         <v>0</v>
@@ -4755,7 +4747,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="78" t="s">
         <v>57</v>
       </c>
@@ -4770,7 +4762,7 @@
       </c>
       <c r="E15" s="65"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="78" t="s">
         <v>47</v>
       </c>
@@ -4785,7 +4777,7 @@
       </c>
       <c r="E16" s="65"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="78" t="s">
         <v>188</v>
       </c>
@@ -4800,7 +4792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="78" t="s">
         <v>187</v>
       </c>
@@ -4815,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="78" t="s">
         <v>186</v>
       </c>
@@ -4830,9 +4822,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="78" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B20" s="79">
         <v>0</v>
@@ -4844,7 +4836,7 @@
         <v>8.84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="78" t="s">
         <v>149</v>
       </c>
@@ -4859,7 +4851,7 @@
       </c>
       <c r="E21" s="65"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="78" t="s">
         <v>34</v>
       </c>
@@ -4874,7 +4866,7 @@
       </c>
       <c r="E22" s="65"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="78" t="s">
         <v>98</v>
       </c>
@@ -4889,7 +4881,7 @@
       </c>
       <c r="E23" s="65"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="78" t="s">
         <v>97</v>
       </c>
@@ -4904,7 +4896,7 @@
       </c>
       <c r="E24" s="82"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="78" t="s">
         <v>150</v>
       </c>
@@ -4919,7 +4911,7 @@
       </c>
       <c r="E25" s="65"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="78" t="s">
         <v>59</v>
       </c>
@@ -4934,7 +4926,7 @@
       </c>
       <c r="E26" s="65"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="78" t="s">
         <v>94</v>
       </c>
@@ -4948,7 +4940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="78" t="s">
         <v>58</v>
       </c>
@@ -4962,7 +4954,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="78" t="s">
         <v>67</v>
       </c>
@@ -4977,7 +4969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="78" t="s">
         <v>28</v>
       </c>
@@ -4991,7 +4983,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="78" t="s">
         <v>93</v>
       </c>
@@ -5005,7 +4997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="78" t="s">
         <v>92</v>
       </c>
@@ -5019,7 +5011,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="78" t="s">
         <v>91</v>
       </c>
@@ -5033,7 +5025,7 @@
         <v>50.26</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="78" t="s">
         <v>89</v>
       </c>
@@ -5047,7 +5039,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="78" t="s">
         <v>90</v>
       </c>
@@ -5062,7 +5054,7 @@
       </c>
       <c r="F35" s="56"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="78" t="s">
         <v>95</v>
       </c>
@@ -5076,7 +5068,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="78" t="s">
         <v>60</v>
       </c>
@@ -5090,7 +5082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F38" s="57"/>
     </row>
   </sheetData>
@@ -5103,7 +5095,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5113,15 +5105,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="88" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="88"/>
+    <col min="1" max="1" width="18.7109375" style="88" customWidth="1"/>
+    <col min="2" max="16384" width="10.85546875" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A1" s="93" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B1" s="92" t="s">
         <v>192</v>
@@ -5136,7 +5128,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="91" t="s">
         <v>177</v>
       </c>
@@ -5155,7 +5147,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
         <v>1</v>
@@ -5172,7 +5164,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="90"/>
       <c r="B4" s="90" t="s">
         <v>2</v>
@@ -5189,7 +5181,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
         <v>3</v>
@@ -5206,7 +5198,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="90"/>
       <c r="B6" s="90" t="s">
         <v>4</v>
@@ -5223,7 +5215,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="89"/>
     </row>
   </sheetData>
@@ -5232,7 +5224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5242,44 +5234,44 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="78" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" style="56" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="56" customWidth="1"/>
-    <col min="4" max="16384" width="11.5" style="56"/>
+    <col min="2" max="2" width="47.85546875" style="56" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
         <v>69</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C1" s="61" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B2" s="72" t="s">
         <v>59</v>
       </c>
       <c r="C2" s="72"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="72" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="72"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="78" t="s">
         <v>58</v>
       </c>
@@ -5288,7 +5280,7 @@
       </c>
       <c r="C4" s="72"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="78" t="s">
         <v>150</v>
       </c>
@@ -5297,28 +5289,28 @@
       </c>
       <c r="C5" s="72"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="52"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="52"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="52"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="52"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="52"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="52"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
     </row>
   </sheetData>
@@ -5329,7 +5321,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5339,85 +5331,85 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" style="56" customWidth="1"/>
-    <col min="2" max="16384" width="11.5" style="56"/>
+    <col min="1" max="1" width="30.140625" style="56" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="72" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="72" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="72" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="72" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="72" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="72" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="72" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="72" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="72"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="72"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="72"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="72"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="72"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="72"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="72"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="72"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="72"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="72"/>
     </row>
   </sheetData>
@@ -5427,7 +5419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -5437,9 +5429,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -5459,7 +5451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -5484,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -5509,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -5541,7 +5533,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5551,19 +5543,19 @@
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -5610,7 +5602,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -5661,7 +5653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="9" t="s">
         <v>162</v>
       </c>
@@ -5705,9 +5697,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C4" s="54">
         <v>1</v>
@@ -5749,7 +5741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="14" t="s">
         <v>149</v>
       </c>
@@ -5795,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="14" t="s">
         <v>150</v>
       </c>
@@ -5842,7 +5834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="52" t="s">
         <v>94</v>
       </c>
@@ -5886,7 +5878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>58</v>
       </c>
@@ -5932,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="14" t="s">
         <v>67</v>
       </c>
@@ -5980,7 +5972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
@@ -6024,7 +6016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="52" t="s">
         <v>95</v>
       </c>
@@ -6068,7 +6060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="14" t="s">
         <v>60</v>
       </c>
@@ -6112,10 +6104,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="52"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -6166,7 +6158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="14" t="s">
         <v>96</v>
@@ -6211,10 +6203,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C16" s="55">
         <v>0</v>
@@ -6260,10 +6252,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="55">
         <v>0</v>
@@ -6309,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="52" t="s">
         <v>57</v>
       </c>
@@ -6357,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="14" t="s">
         <v>98</v>
       </c>
@@ -6401,7 +6393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="14" t="s">
         <v>97</v>
       </c>
@@ -6445,7 +6437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="52" t="s">
         <v>59</v>
       </c>
@@ -6493,15 +6485,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="52"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="96" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C23" s="55">
         <v>0</v>
@@ -6543,9 +6535,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="98" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C24" s="55">
         <v>0</v>
@@ -6591,9 +6583,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="98" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C25" s="55">
         <v>0</v>
@@ -6639,9 +6631,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="98" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C26" s="55">
         <v>0</v>
@@ -6687,9 +6679,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="98" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C27" s="55">
         <v>0</v>
@@ -6732,7 +6724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="14"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -6742,7 +6734,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -6800,7 +6792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="14" t="s">
         <v>64</v>
       </c>
@@ -6855,7 +6847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="14" t="s">
         <v>62</v>
       </c>
@@ -6910,7 +6902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="14" t="s">
         <v>47</v>
       </c>
@@ -6954,7 +6946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="14" t="s">
         <v>34</v>
       </c>
@@ -7011,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="52" t="s">
         <v>93</v>
       </c>
@@ -7055,7 +7047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="52" t="s">
         <v>92</v>
@@ -7100,7 +7092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="52" t="s">
         <v>91</v>
       </c>
@@ -7144,7 +7136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="52" t="s">
         <v>89</v>
       </c>
@@ -7188,7 +7180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="52" t="s">
         <v>90</v>
       </c>
@@ -7232,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="52"/>
     </row>
   </sheetData>
@@ -7245,7 +7237,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -7255,16 +7247,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="56" customWidth="1"/>
-    <col min="3" max="4" width="11.5" style="56"/>
-    <col min="5" max="5" width="17.5" style="56" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="56"/>
+    <col min="1" max="1" width="33.7109375" style="56" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="56" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="56"/>
+    <col min="5" max="5" width="17.42578125" style="56" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="61" t="s">
         <v>176</v>
       </c>
@@ -7281,7 +7273,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="60" t="s">
         <v>171</v>
       </c>
@@ -7299,7 +7291,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="60" t="s">
         <v>170</v>
       </c>
@@ -7317,7 +7309,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="60" t="s">
         <v>169</v>
       </c>
@@ -7335,7 +7327,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="60" t="s">
         <v>168</v>
       </c>
@@ -7353,7 +7345,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="60" t="s">
         <v>167</v>
       </c>
@@ -7371,7 +7363,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="60" t="s">
         <v>166</v>
       </c>
@@ -7389,7 +7381,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="60" t="s">
         <v>165</v>
       </c>
@@ -7407,7 +7399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="60" t="s">
         <v>164</v>
       </c>
@@ -7425,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="60" t="s">
         <v>163</v>
       </c>
@@ -7443,7 +7435,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="57"/>
     </row>
   </sheetData>
@@ -7454,7 +7446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -7464,14 +7456,14 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="15" customWidth="1"/>
-    <col min="2" max="10" width="16.83203125" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="14.5" style="15"/>
+    <col min="1" max="1" width="8.42578125" style="15" customWidth="1"/>
+    <col min="2" max="10" width="16.85546875" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -7503,7 +7495,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="9">
         <f>start_year</f>
         <v>2017</v>
@@ -7527,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -7551,7 +7543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -7575,7 +7567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -7599,7 +7591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -7623,7 +7615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -7647,7 +7639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -7671,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -7695,7 +7687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -7719,7 +7711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -7743,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -7767,7 +7759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -7791,7 +7783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -7815,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -7839,7 +7831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7863,7 +7855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7887,7 +7879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7911,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7935,7 +7927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7959,7 +7951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -7983,7 +7975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8007,7 +7999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8031,7 +8023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8055,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8079,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8103,7 +8095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8127,7 +8119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8151,7 +8143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8175,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8199,7 +8191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8223,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8247,7 +8239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8271,7 +8263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8295,7 +8287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8319,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8343,7 +8335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8367,7 +8359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8391,7 +8383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8415,7 +8407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8451,7 +8443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -8461,13 +8453,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -8491,7 +8483,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="32" t="s">
         <v>73</v>
       </c>
@@ -8512,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
@@ -8533,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
@@ -8554,7 +8546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="32" t="s">
         <v>10</v>
       </c>
@@ -8575,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
@@ -8596,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="32" t="s">
         <v>14</v>
       </c>
@@ -8617,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="32" t="s">
         <v>27</v>
       </c>
@@ -8638,7 +8630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="32" t="s">
         <v>15</v>
       </c>
@@ -8659,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="32" t="s">
         <v>71</v>
       </c>
@@ -8674,7 +8666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>16</v>
       </c>
@@ -8689,7 +8681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>17</v>
       </c>
@@ -8704,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
@@ -8719,7 +8711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="32" t="s">
         <v>19</v>
       </c>
@@ -8734,7 +8726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="32" t="s">
         <v>20</v>
       </c>
@@ -8749,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="32" t="s">
         <v>21</v>
       </c>
@@ -8764,7 +8756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="32" t="s">
         <v>22</v>
       </c>
@@ -8779,7 +8771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="32" t="s">
         <v>23</v>
       </c>
@@ -8794,7 +8786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="32" t="s">
         <v>38</v>
       </c>
@@ -8815,7 +8807,7 @@
       </c>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="32" t="s">
         <v>39</v>
       </c>
@@ -8836,7 +8828,7 @@
       </c>
       <c r="G20" s="35"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="32" t="s">
         <v>40</v>
       </c>
@@ -8857,7 +8849,7 @@
       </c>
       <c r="G21" s="35"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
         <v>41</v>
       </c>
@@ -8878,7 +8870,7 @@
       </c>
       <c r="G22" s="35"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="32" t="s">
         <v>42</v>
       </c>
@@ -8899,7 +8891,7 @@
       </c>
       <c r="G23" s="35"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="32" t="s">
         <v>43</v>
       </c>
@@ -8920,7 +8912,7 @@
       </c>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="32" t="s">
         <v>44</v>
       </c>
@@ -8941,7 +8933,7 @@
       </c>
       <c r="G25" s="35"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
         <v>45</v>
       </c>
@@ -8962,7 +8954,7 @@
       </c>
       <c r="G26" s="35"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="32" t="s">
         <v>46</v>
       </c>
@@ -8991,7 +8983,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -8999,13 +8991,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -9029,7 +9021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>126</v>
       </c>
@@ -9057,33 +9049,33 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="14" t="s">
         <v>129</v>
       </c>
       <c r="C3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C4:C5), "")</f>
         <v/>
       </c>
       <c r="D3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D4:D5), "")</f>
         <v/>
       </c>
       <c r="E3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E4:E5), "")</f>
         <v/>
       </c>
       <c r="F3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F4:F5), "")</f>
         <v/>
       </c>
       <c r="G3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G4:G5), "")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="14" t="s">
         <v>127</v>
@@ -9094,7 +9086,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="14" t="s">
         <v>130</v>
@@ -9105,7 +9097,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="17"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -9113,7 +9105,7 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="17"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -9121,7 +9113,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>125</v>
       </c>
@@ -9149,32 +9141,32 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C10:C11), "")</f>
         <v/>
       </c>
       <c r="D9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D10:D11), "")</f>
         <v/>
       </c>
       <c r="E9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E10:E11), "")</f>
         <v/>
       </c>
       <c r="F9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F10:F11), "")</f>
         <v/>
       </c>
       <c r="G9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G10:G11), "")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>133</v>
       </c>
@@ -9184,7 +9176,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>134</v>
       </c>
@@ -9194,7 +9186,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -9208,7 +9200,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>70</v>
       </c>
@@ -9252,7 +9244,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>144</v>
       </c>
@@ -9270,7 +9262,7 @@
       <c r="N14" s="51"/>
       <c r="O14" s="51"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="19" t="s">
         <v>68</v>
       </c>
@@ -9327,14 +9319,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -9349,7 +9341,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -9359,13 +9351,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="7" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1"/>
+    <col min="2" max="7" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="38" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -9389,7 +9381,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -9402,7 +9394,7 @@
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="65" t="s">
         <v>180</v>
       </c>
@@ -9412,7 +9404,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="65" t="s">
         <v>181</v>
       </c>
@@ -9422,7 +9414,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5" s="65" t="s">
         <v>182</v>
       </c>
@@ -9453,7 +9445,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -9463,13 +9455,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>151</v>
       </c>
@@ -9504,7 +9496,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -9521,10 +9513,10 @@
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -9541,10 +9533,10 @@
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -9561,7 +9553,7 @@
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
@@ -9575,7 +9567,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
         <v>157</v>
       </c>
@@ -9589,7 +9581,7 @@
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -9606,7 +9598,7 @@
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B11" s="53" t="s">
         <v>159</v>
       </c>
@@ -9620,7 +9612,7 @@
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
         <v>74</v>
       </c>
@@ -9637,7 +9629,7 @@
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B14" s="19" t="s">
         <v>183</v>
       </c>
@@ -9658,7 +9650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -9668,15 +9660,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.1640625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.5" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="11.5" style="15"/>
+    <col min="1" max="1" width="37.140625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="44" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="44" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>136</v>
       </c>
@@ -9688,7 +9680,7 @@
         <v>Percentage of births in category in baseline year (2017)</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>135</v>
       </c>
@@ -9697,55 +9689,55 @@
       </c>
       <c r="C2" s="45"/>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="45"/>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="41" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="45"/>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="41" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="45"/>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="41" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="45"/>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="41" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="45"/>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="41" t="s">
         <v>81</v>
       </c>
       <c r="C8" s="45"/>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="41" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="45"/>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C10" s="45"/>
     </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="48" t="s">
         <v>142</v>
       </c>
@@ -9754,11 +9746,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
     </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>84</v>
       </c>
@@ -9767,25 +9759,25 @@
       </c>
       <c r="C13" s="45"/>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="41" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="45"/>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C15" s="45"/>
     </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="41" t="s">
         <v>88</v>
       </c>
       <c r="C16" s="45"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="48" t="s">
         <v>142</v>
       </c>
@@ -9801,7 +9793,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -9811,15 +9803,15 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17" style="56" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="56" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="56" customWidth="1"/>
-    <col min="4" max="16384" width="11.5" style="56"/>
+    <col min="2" max="2" width="19.140625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="76" t="s">
         <v>193</v>
       </c>
@@ -9836,7 +9828,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="74" t="s">
         <v>188</v>
       </c>
@@ -9850,7 +9842,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="70"/>
       <c r="B3" s="69" t="s">
         <v>1</v>
@@ -9862,7 +9854,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="70"/>
       <c r="B4" s="69" t="s">
         <v>2</v>
@@ -9874,7 +9866,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="70"/>
       <c r="B5" s="69" t="s">
         <v>3</v>
@@ -9886,7 +9878,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="70"/>
       <c r="B6" s="69" t="s">
         <v>4</v>
@@ -9898,7 +9890,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="70"/>
       <c r="B7" s="69" t="s">
         <v>185</v>
@@ -9907,7 +9899,7 @@
       <c r="D7" s="67"/>
       <c r="E7" s="72"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="76" t="s">
         <v>187</v>
       </c>
@@ -9918,7 +9910,7 @@
       <c r="D9" s="72"/>
       <c r="E9" s="95"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="70"/>
       <c r="B10" s="69" t="s">
         <v>1</v>
@@ -9927,7 +9919,7 @@
       <c r="D10" s="72"/>
       <c r="E10" s="94"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="70"/>
       <c r="B11" s="69" t="s">
         <v>2</v>
@@ -9936,7 +9928,7 @@
       <c r="D11" s="72"/>
       <c r="E11" s="94"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="70"/>
       <c r="B12" s="69" t="s">
         <v>3</v>
@@ -9945,7 +9937,7 @@
       <c r="D12" s="72"/>
       <c r="E12" s="94"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="70"/>
       <c r="B13" s="69" t="s">
         <v>4</v>
@@ -9954,7 +9946,7 @@
       <c r="D13" s="72"/>
       <c r="E13" s="94"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="70"/>
       <c r="B14" s="69" t="s">
         <v>185</v>
@@ -9963,7 +9955,7 @@
       <c r="D14" s="67"/>
       <c r="E14" s="72"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="74" t="s">
         <v>186</v>
       </c>
@@ -9977,7 +9969,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="70"/>
       <c r="B17" s="69" t="s">
         <v>1</v>
@@ -9989,7 +9981,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="70"/>
       <c r="B18" s="69" t="s">
         <v>2</v>
@@ -10001,7 +9993,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="70"/>
       <c r="B19" s="69" t="s">
         <v>3</v>
@@ -10013,7 +10005,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="70"/>
       <c r="B20" s="69" t="s">
         <v>4</v>
@@ -10025,7 +10017,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="70"/>
       <c r="B21" s="69" t="s">
         <v>185</v>
@@ -10041,7 +10033,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10051,29 +10043,29 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="99" t="s">
         <v>177</v>
       </c>
       <c r="B1" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="100" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="100" t="s">
-        <v>198</v>
-      </c>
       <c r="D1" s="100" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="100" t="s">
         <v>69</v>
       </c>
@@ -10081,19 +10073,19 @@
         <v>67</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D2" s="72"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" s="69" t="s">
         <v>191</v>
       </c>
       <c r="C3" s="69" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D3" s="72"/>
     </row>

--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9D8695D1-9F3D-2047-84AB-322D44EF7B6C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F8EAD480-C635-AF42-BB09-3360B0B1A901}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21140" windowWidth="38400" windowHeight="21140" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -4199,8 +4199,8 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10047,8 +10047,8 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>

--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -68,7 +68,7 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$39</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$31</definedName>
   </definedNames>
-  <calcPr calcId="144525" calcMode="manual"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -2806,7 +2806,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2863,7 +2863,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2920,7 +2920,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2977,7 +2977,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3034,7 +3034,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3091,7 +3091,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3148,7 +3148,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +3205,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3262,7 +3262,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3319,7 +3319,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3376,7 +3376,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3433,7 +3433,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3490,7 +3490,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3547,7 +3547,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3604,7 +3604,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3661,7 +3661,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3718,7 +3718,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3775,7 +3775,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3824,7 +3824,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4530,7 +4530,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21135" windowWidth="28920" windowHeight="16320" tabRatio="961" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="-21135" windowWidth="28920" windowHeight="16320" tabRatio="961" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -69,11 +69,6 @@
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$31</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1086,7 +1081,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="727">
+  <cellStyleXfs count="1449">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1814,6 +1809,728 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2021,7 +2738,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="727">
+  <cellStyles count="1449">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -2384,6 +3101,367 @@
     <cellStyle name="Followed Hyperlink" xfId="720" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="722" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="724" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="728" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="730" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="732" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="734" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="736" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="738" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="740" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="742" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="744" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="746" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="748" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="750" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="752" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="754" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="756" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="758" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="760" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="762" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="764" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="766" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="768" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="770" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="772" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="774" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="776" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="778" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="780" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="782" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="784" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="786" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="788" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="790" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="792" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="794" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="796" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="798" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="800" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="802" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="804" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="806" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="808" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="810" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="812" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="814" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="816" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="818" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="820" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="822" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="824" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="826" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="828" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="830" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="832" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="834" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="836" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="838" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="840" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="842" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="844" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="846" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="848" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="850" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="852" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="854" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="856" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="858" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="860" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="862" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="864" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="866" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="868" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="870" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="872" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="874" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="876" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="878" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="880" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="882" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="884" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="886" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="888" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="890" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="892" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="894" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="896" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="898" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="900" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="902" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="904" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="906" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="908" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="910" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="912" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="914" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="916" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="918" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="920" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="922" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="924" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="926" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="928" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="930" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="932" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="934" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="936" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="938" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="940" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="942" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="944" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="946" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="948" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="950" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="952" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="954" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="956" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="958" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="960" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="962" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="964" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="966" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="968" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="970" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="972" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="974" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="976" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="978" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="980" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="982" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="984" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="986" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="988" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="990" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="992" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="994" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="996" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="998" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1000" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1002" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1004" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1006" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1008" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1010" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1012" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1014" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1016" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1018" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1020" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1022" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1024" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1026" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1028" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1030" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1032" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1034" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1036" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1038" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1040" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1042" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1044" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1046" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1048" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1050" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1052" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1054" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1056" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1058" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1060" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1062" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1064" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1066" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1068" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1070" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1072" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1074" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1076" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1078" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1080" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1082" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1084" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1086" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1088" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1090" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1092" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1094" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1096" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1098" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="1448" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2745,6 +3823,367 @@
     <cellStyle name="Hyperlink" xfId="719" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="721" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="723" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="727" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="729" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="731" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="733" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="735" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="737" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="739" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="741" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="743" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="745" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="747" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="749" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="751" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="753" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="755" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="757" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="759" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="761" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="763" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="765" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="767" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="769" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="771" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="773" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="775" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="777" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="779" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="781" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="783" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="785" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="787" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="789" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="791" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="793" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="795" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="797" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="799" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="801" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="803" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="805" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="807" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="809" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="811" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="813" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="815" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="817" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="819" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="821" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="823" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="825" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="827" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="829" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="831" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="833" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="835" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="837" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="839" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="841" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="843" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="845" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="847" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="849" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="851" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="853" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="855" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="857" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="859" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="861" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="863" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="865" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="867" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="869" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="871" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="873" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="875" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="877" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="879" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="881" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="883" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="885" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="887" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="889" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="891" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="893" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="895" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="897" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="899" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="901" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="903" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="905" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="907" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="909" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="911" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="913" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="915" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="917" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="919" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="921" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="923" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="925" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="927" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="929" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="931" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="933" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="935" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="937" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="939" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="941" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="943" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="945" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="947" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="949" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="951" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="953" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="955" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="957" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="959" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="961" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="963" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="965" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="967" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="969" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="971" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="973" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="975" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="977" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="979" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="981" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="983" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="985" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="987" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="989" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="991" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="993" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="995" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="997" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="999" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1001" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1003" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1005" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1007" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1009" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1011" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1013" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1015" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1017" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1019" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1021" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1023" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1025" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1027" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1029" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1031" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1033" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1035" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1037" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1039" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1041" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1043" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1045" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1047" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1049" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1051" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1053" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1055" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1057" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1059" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1061" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1063" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1065" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1067" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1069" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1071" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1073" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1075" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1077" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1079" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1081" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1083" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1085" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1087" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1089" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1091" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1093" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1095" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1097" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1099" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1447" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="725"/>
     <cellStyle name="Normal 3" xfId="726"/>
@@ -2779,9 +4218,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2806,7 +4242,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2863,7 +4299,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2920,7 +4356,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2977,7 +4413,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3034,7 +4470,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3091,7 +4527,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3148,7 +4584,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3205,7 +4641,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3262,7 +4698,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3319,7 +4755,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3376,7 +4812,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3433,7 +4869,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3490,7 +4926,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3547,7 +4983,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3604,7 +5040,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3661,7 +5097,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3718,7 +5154,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3775,7 +5211,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3824,7 +5260,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4529,7 +5965,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -10039,11 +11475,11 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" customWidth="1"/>

--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\applications\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21135" windowWidth="28920" windowHeight="16320" tabRatio="961" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="-21132" windowWidth="28920" windowHeight="16320" tabRatio="961" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -21,13 +26,18 @@
     <sheet name="Program dependencies" sheetId="58" r:id="rId12"/>
     <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId13"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId14"/>
-    <sheet name="Programs target population" sheetId="21" state="hidden" r:id="rId15"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId15"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="abortion" localSheetId="7">'Baseline year population inputs'!$C$30</definedName>
     <definedName name="abortion">'Baseline year population inputs'!$C$33</definedName>
     <definedName name="comm_deliv">'Treatment of SAM'!$D$3</definedName>
+    <definedName name="diarrhoea_1_5mo">'Baseline year population inputs'!$C$44</definedName>
+    <definedName name="diarrhoea_12_23mo">'Baseline year population inputs'!$C$46</definedName>
+    <definedName name="diarrhoea_1mo">'Baseline year population inputs'!$C$43</definedName>
+    <definedName name="diarrhoea_24_59mo">'Baseline year population inputs'!$C$47</definedName>
+    <definedName name="diarrhoea_6_11mo">'Baseline year population inputs'!$C$45</definedName>
     <definedName name="end_year">'Baseline year population inputs'!$C$4</definedName>
     <definedName name="famplan_unmet_need">'Baseline year population inputs'!$C$12</definedName>
     <definedName name="food_insecure">'Baseline year population inputs'!$C$7</definedName>
@@ -68,7 +78,7 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$39</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$31</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -78,7 +88,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -136,7 +146,7 @@
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -827,12 +837,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1091,7 +1101,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2575,8 +2585,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2592,8 +2602,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2612,16 +2622,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2634,7 +2644,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2646,11 +2656,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2679,20 +2689,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2721,8 +2731,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="21" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="21" fillId="3" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4218,6 +4228,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -4242,7 +4255,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4299,7 +4312,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4356,7 +4369,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4413,7 +4426,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4470,7 +4483,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4527,7 +4540,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4584,7 +4597,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4641,7 +4654,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4698,7 +4711,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4755,7 +4768,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4812,7 +4825,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4869,7 +4882,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4926,7 +4939,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4983,7 +4996,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5040,7 +5053,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5097,7 +5110,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5154,7 +5167,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5211,7 +5224,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5260,7 +5273,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5629,16 +5642,18 @@
   </sheetPr>
   <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.7109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="14.42578125" style="15"/>
+    <col min="1" max="1" width="27.6640625" style="15" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="19" customWidth="1"/>
+    <col min="3" max="16384" width="14.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>110</v>
       </c>
@@ -5649,14 +5664,14 @@
         <v>178</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>208</v>
       </c>
       <c r="B2" s="62"/>
       <c r="C2" s="62"/>
     </row>
-    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
         <v>210</v>
@@ -5665,7 +5680,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
         <v>209</v>
@@ -5674,87 +5689,87 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="62"/>
       <c r="C5" s="62"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>117</v>
       </c>
       <c r="C8" s="23"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>115</v>
       </c>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>104</v>
       </c>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C16" s="23"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>106</v>
       </c>
       <c r="C17" s="23"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C18" s="23"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>108</v>
       </c>
@@ -5763,58 +5778,58 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="27" t="s">
         <v>111</v>
       </c>
       <c r="C22" s="23"/>
     </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
         <v>112</v>
       </c>
       <c r="C23" s="23"/>
     </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
         <v>113</v>
       </c>
       <c r="C24" s="23"/>
     </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
         <v>114</v>
       </c>
       <c r="C25" s="23"/>
     </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="16"/>
     </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="64" t="s">
         <v>102</v>
       </c>
       <c r="C29" s="25"/>
     </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="19" t="s">
         <v>101</v>
       </c>
@@ -5822,7 +5837,7 @@
       <c r="D30" s="20"/>
       <c r="E30" s="21"/>
     </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="19" t="s">
         <v>100</v>
       </c>
@@ -5830,48 +5845,48 @@
       <c r="D31" s="20"/>
       <c r="E31" s="20"/>
     </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="19" t="s">
         <v>184</v>
       </c>
       <c r="C32" s="25"/>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="19" t="s">
         <v>99</v>
       </c>
       <c r="C33" s="23"/>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="64" t="s">
         <v>103</v>
       </c>
       <c r="C34" s="25"/>
     </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D35" s="20"/>
     </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
         <v>146</v>
       </c>
       <c r="D36" s="20"/>
     </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C37" s="23"/>
       <c r="D37" s="20"/>
     </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C38" s="23"/>
       <c r="D38" s="20"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
         <v>12</v>
       </c>
@@ -5879,7 +5894,7 @@
       <c r="D39" s="20"/>
       <c r="E39" s="21"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="19" t="s">
         <v>26</v>
       </c>
@@ -5890,52 +5905,52 @@
       <c r="D40" s="20"/>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D41" s="20"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D42" s="20"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="19" t="s">
         <v>137</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="19" t="s">
         <v>138</v>
       </c>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
         <v>139</v>
       </c>
       <c r="C45" s="7"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
         <v>140</v>
       </c>
       <c r="C46" s="7"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="19" t="s">
         <v>141</v>
       </c>
       <c r="C47" s="7"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>121</v>
       </c>
@@ -5943,13 +5958,13 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>145</v>
       </c>
       <c r="C51" s="24"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
     </row>
   </sheetData>
@@ -5969,16 +5984,16 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="78" customWidth="1"/>
     <col min="2" max="2" width="20" style="57" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="56" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="56" customWidth="1"/>
-    <col min="5" max="16384" width="14.42578125" style="56"/>
+    <col min="3" max="3" width="20.44140625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="56" customWidth="1"/>
+    <col min="5" max="16384" width="14.44140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="87" t="s">
         <v>69</v>
       </c>
@@ -5993,7 +6008,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="78" t="s">
         <v>29</v>
       </c>
@@ -6007,7 +6022,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
         <v>96</v>
       </c>
@@ -6022,7 +6037,7 @@
       </c>
       <c r="E3" s="65"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>61</v>
       </c>
@@ -6038,7 +6053,7 @@
       </c>
       <c r="E4" s="65"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
         <v>213</v>
       </c>
@@ -6054,7 +6069,7 @@
       </c>
       <c r="E5" s="84"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="78" t="s">
         <v>63</v>
       </c>
@@ -6069,7 +6084,7 @@
       </c>
       <c r="E6" s="83"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="78" t="s">
         <v>64</v>
       </c>
@@ -6084,7 +6099,7 @@
       </c>
       <c r="E7" s="83"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="78" t="s">
         <v>62</v>
       </c>
@@ -6099,7 +6114,7 @@
       </c>
       <c r="E8" s="83"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="98" t="s">
         <v>203</v>
       </c>
@@ -6113,7 +6128,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="98" t="s">
         <v>204</v>
       </c>
@@ -6127,7 +6142,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="98" t="s">
         <v>205</v>
       </c>
@@ -6141,7 +6156,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="s">
         <v>206</v>
       </c>
@@ -6155,7 +6170,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>202</v>
       </c>
@@ -6169,7 +6184,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>207</v>
       </c>
@@ -6183,7 +6198,7 @@
         <v>1.78</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="78" t="s">
         <v>57</v>
       </c>
@@ -6198,7 +6213,7 @@
       </c>
       <c r="E15" s="65"/>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="78" t="s">
         <v>47</v>
       </c>
@@ -6213,7 +6228,7 @@
       </c>
       <c r="E16" s="65"/>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="78" t="s">
         <v>188</v>
       </c>
@@ -6228,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="78" t="s">
         <v>187</v>
       </c>
@@ -6243,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="78" t="s">
         <v>186</v>
       </c>
@@ -6258,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="78" t="s">
         <v>212</v>
       </c>
@@ -6272,7 +6287,7 @@
         <v>8.84</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="78" t="s">
         <v>149</v>
       </c>
@@ -6287,7 +6302,7 @@
       </c>
       <c r="E21" s="65"/>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="78" t="s">
         <v>34</v>
       </c>
@@ -6302,7 +6317,7 @@
       </c>
       <c r="E22" s="65"/>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="78" t="s">
         <v>98</v>
       </c>
@@ -6317,7 +6332,7 @@
       </c>
       <c r="E23" s="65"/>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78" t="s">
         <v>97</v>
       </c>
@@ -6332,7 +6347,7 @@
       </c>
       <c r="E24" s="82"/>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="78" t="s">
         <v>150</v>
       </c>
@@ -6347,7 +6362,7 @@
       </c>
       <c r="E25" s="65"/>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="78" t="s">
         <v>59</v>
       </c>
@@ -6362,7 +6377,7 @@
       </c>
       <c r="E26" s="65"/>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="78" t="s">
         <v>94</v>
       </c>
@@ -6376,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="78" t="s">
         <v>58</v>
       </c>
@@ -6390,7 +6405,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="78" t="s">
         <v>67</v>
       </c>
@@ -6405,7 +6420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="78" t="s">
         <v>28</v>
       </c>
@@ -6419,7 +6434,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="78" t="s">
         <v>93</v>
       </c>
@@ -6433,7 +6448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="78" t="s">
         <v>92</v>
       </c>
@@ -6447,7 +6462,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="78" t="s">
         <v>91</v>
       </c>
@@ -6461,7 +6476,7 @@
         <v>50.26</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="78" t="s">
         <v>89</v>
       </c>
@@ -6475,7 +6490,7 @@
         <v>36.1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="78" t="s">
         <v>90</v>
       </c>
@@ -6490,7 +6505,7 @@
       </c>
       <c r="F35" s="56"/>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="78" t="s">
         <v>95</v>
       </c>
@@ -6504,7 +6519,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="78" t="s">
         <v>60</v>
       </c>
@@ -6518,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F38" s="57"/>
     </row>
   </sheetData>
@@ -6541,13 +6556,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="88" customWidth="1"/>
-    <col min="2" max="16384" width="10.85546875" style="88"/>
+    <col min="1" max="1" width="18.6640625" style="88" customWidth="1"/>
+    <col min="2" max="16384" width="10.88671875" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
       <c r="A1" s="93" t="s">
         <v>211</v>
       </c>
@@ -6564,7 +6579,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="91" t="s">
         <v>177</v>
       </c>
@@ -6583,7 +6598,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="90"/>
       <c r="B3" s="90" t="s">
         <v>1</v>
@@ -6600,7 +6615,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="90"/>
       <c r="B4" s="90" t="s">
         <v>2</v>
@@ -6617,7 +6632,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="90"/>
       <c r="B5" s="90" t="s">
         <v>3</v>
@@ -6634,7 +6649,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="90"/>
       <c r="B6" s="90" t="s">
         <v>4</v>
@@ -6651,7 +6666,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C9" s="89"/>
     </row>
   </sheetData>
@@ -6670,15 +6685,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="78" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.85546875" style="56" customWidth="1"/>
-    <col min="3" max="3" width="42.42578125" style="56" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="56"/>
+    <col min="2" max="2" width="47.88671875" style="56" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>69</v>
       </c>
@@ -6689,7 +6704,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>202</v>
       </c>
@@ -6698,7 +6713,7 @@
       </c>
       <c r="C2" s="72"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>207</v>
       </c>
@@ -6707,7 +6722,7 @@
       </c>
       <c r="C3" s="72"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
         <v>58</v>
       </c>
@@ -6716,7 +6731,7 @@
       </c>
       <c r="C4" s="72"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="78" t="s">
         <v>150</v>
       </c>
@@ -6725,28 +6740,28 @@
       </c>
       <c r="C5" s="72"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="52"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="52"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="52"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="52"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="52"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="52"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="52"/>
     </row>
   </sheetData>
@@ -6767,85 +6782,85 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.140625" style="56" customWidth="1"/>
-    <col min="2" max="16384" width="11.42578125" style="56"/>
+    <col min="1" max="1" width="30.109375" style="56" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="72" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="72" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="72" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="72" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="72" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="72" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="72" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="72"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="72"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="72"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="72"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="72"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="72"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="72"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="72"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="72"/>
     </row>
   </sheetData>
@@ -6865,9 +6880,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6887,7 +6902,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -6912,7 +6927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -6937,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -6975,23 +6990,23 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -7038,7 +7053,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -7089,7 +7104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>162</v>
       </c>
@@ -7133,7 +7148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>212</v>
       </c>
@@ -7177,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>149</v>
       </c>
@@ -7223,7 +7238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>150</v>
       </c>
@@ -7270,24 +7285,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="52" t="s">
         <v>94</v>
       </c>
       <c r="C7" s="54">
-        <v>1</v>
+        <f>diarrhoea_1mo/26</f>
+        <v>0</v>
       </c>
       <c r="D7" s="54">
-        <v>1</v>
+        <f>diarrhoea_1_5mo/26</f>
+        <v>0</v>
       </c>
       <c r="E7" s="54">
-        <v>1</v>
+        <f>diarrhoea_6_11mo/26</f>
+        <v>0</v>
       </c>
       <c r="F7" s="54">
-        <v>1</v>
+        <f>diarrhoea_12_23mo/26</f>
+        <v>0</v>
       </c>
       <c r="G7" s="54">
-        <v>1</v>
+        <f>diarrhoea_24_59mo/26</f>
+        <v>0</v>
       </c>
       <c r="H7" s="55">
         <v>0</v>
@@ -7314,7 +7334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>58</v>
       </c>
@@ -7360,7 +7380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>67</v>
       </c>
@@ -7408,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
@@ -7452,24 +7472,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="52" t="s">
         <v>95</v>
       </c>
       <c r="C11" s="54">
-        <v>1</v>
+        <f>diarrhoea_1mo/26</f>
+        <v>0</v>
       </c>
       <c r="D11" s="54">
-        <v>1</v>
+        <f>diarrhoea_1_5mo/26</f>
+        <v>0</v>
       </c>
       <c r="E11" s="54">
-        <v>1</v>
+        <f>diarrhoea_6_11mo/26</f>
+        <v>0</v>
       </c>
       <c r="F11" s="54">
-        <v>1</v>
+        <f>diarrhoea_12_23mo/26</f>
+        <v>0</v>
       </c>
       <c r="G11" s="54">
-        <v>1</v>
+        <f>diarrhoea_24_59mo/26</f>
+        <v>0</v>
       </c>
       <c r="H11" s="55">
         <v>0</v>
@@ -7496,7 +7521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>60</v>
       </c>
@@ -7540,10 +7565,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -7594,7 +7619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="14" t="s">
         <v>96</v>
@@ -7639,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
         <v>202</v>
@@ -7688,7 +7713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="14" t="s">
         <v>207</v>
@@ -7737,7 +7762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="52" t="s">
         <v>57</v>
       </c>
@@ -7785,7 +7810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>98</v>
       </c>
@@ -7829,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>97</v>
       </c>
@@ -7873,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="52" t="s">
         <v>59</v>
       </c>
@@ -7921,10 +7946,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="96" t="s">
         <v>37</v>
       </c>
@@ -7971,7 +7996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="98" t="s">
         <v>203</v>
       </c>
@@ -8019,7 +8044,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="98" t="s">
         <v>204</v>
       </c>
@@ -8067,7 +8092,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="98" t="s">
         <v>205</v>
       </c>
@@ -8115,7 +8140,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="98" t="s">
         <v>206</v>
       </c>
@@ -8160,7 +8185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -8170,7 +8195,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -8228,7 +8253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>64</v>
       </c>
@@ -8283,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>62</v>
       </c>
@@ -8338,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>47</v>
       </c>
@@ -8382,7 +8407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>34</v>
       </c>
@@ -8439,7 +8464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52" t="s">
         <v>93</v>
       </c>
@@ -8483,7 +8508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="52" t="s">
         <v>92</v>
@@ -8528,7 +8553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="52" t="s">
         <v>91</v>
       </c>
@@ -8572,7 +8597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="52" t="s">
         <v>89</v>
       </c>
@@ -8616,7 +8641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52" t="s">
         <v>90</v>
       </c>
@@ -8660,7 +8685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52"/>
     </row>
   </sheetData>
@@ -8683,16 +8708,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7109375" style="56" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="56" customWidth="1"/>
-    <col min="3" max="4" width="11.42578125" style="56"/>
-    <col min="5" max="5" width="17.42578125" style="56" customWidth="1"/>
-    <col min="6" max="16384" width="11.42578125" style="56"/>
+    <col min="1" max="1" width="33.6640625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="56" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="56"/>
+    <col min="5" max="5" width="17.44140625" style="56" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>176</v>
       </c>
@@ -8709,7 +8734,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="60" t="s">
         <v>171</v>
       </c>
@@ -8727,7 +8752,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
         <v>170</v>
       </c>
@@ -8745,7 +8770,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="60" t="s">
         <v>169</v>
       </c>
@@ -8763,7 +8788,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="60" t="s">
         <v>168</v>
       </c>
@@ -8781,7 +8806,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="60" t="s">
         <v>167</v>
       </c>
@@ -8799,7 +8824,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="60" t="s">
         <v>166</v>
       </c>
@@ -8817,7 +8842,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="60" t="s">
         <v>165</v>
       </c>
@@ -8835,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
         <v>164</v>
       </c>
@@ -8853,7 +8878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="60" t="s">
         <v>163</v>
       </c>
@@ -8871,7 +8896,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="57"/>
     </row>
   </sheetData>
@@ -8892,14 +8917,14 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="15" customWidth="1"/>
-    <col min="2" max="10" width="16.85546875" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="15"/>
+    <col min="1" max="1" width="8.44140625" style="15" customWidth="1"/>
+    <col min="2" max="10" width="16.88671875" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="14.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -8931,7 +8956,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <f>start_year</f>
         <v>2017</v>
@@ -8955,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -8979,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -9003,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -9027,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -9051,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -9075,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -9099,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -9123,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -9147,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -9171,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -9195,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -9219,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -9243,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -9267,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9291,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9315,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9339,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9363,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9387,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9411,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9435,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9459,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9483,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9507,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9531,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9555,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9579,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9603,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9627,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9651,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9675,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9699,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9723,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9747,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9771,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9795,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9819,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9843,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9889,13 +9914,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1"/>
+    <col min="1" max="1" width="31.33203125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -9919,7 +9944,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>73</v>
       </c>
@@ -9940,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
@@ -9961,7 +9986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
@@ -9982,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>10</v>
       </c>
@@ -10003,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
@@ -10024,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>14</v>
       </c>
@@ -10045,7 +10070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>27</v>
       </c>
@@ -10066,7 +10091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>15</v>
       </c>
@@ -10087,7 +10112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>71</v>
       </c>
@@ -10102,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>16</v>
       </c>
@@ -10117,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>17</v>
       </c>
@@ -10132,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
@@ -10147,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>19</v>
       </c>
@@ -10162,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>20</v>
       </c>
@@ -10177,7 +10202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>21</v>
       </c>
@@ -10192,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>22</v>
       </c>
@@ -10207,7 +10232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>23</v>
       </c>
@@ -10222,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>38</v>
       </c>
@@ -10243,7 +10268,7 @@
       </c>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>39</v>
       </c>
@@ -10264,7 +10289,7 @@
       </c>
       <c r="G20" s="35"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>40</v>
       </c>
@@ -10285,7 +10310,7 @@
       </c>
       <c r="G21" s="35"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>41</v>
       </c>
@@ -10306,7 +10331,7 @@
       </c>
       <c r="G22" s="35"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>42</v>
       </c>
@@ -10327,7 +10352,7 @@
       </c>
       <c r="G23" s="35"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>43</v>
       </c>
@@ -10348,7 +10373,7 @@
       </c>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>44</v>
       </c>
@@ -10369,7 +10394,7 @@
       </c>
       <c r="G25" s="35"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>45</v>
       </c>
@@ -10390,7 +10415,7 @@
       </c>
       <c r="G26" s="35"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>46</v>
       </c>
@@ -10427,13 +10452,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -10457,7 +10482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>126</v>
       </c>
@@ -10485,33 +10510,33 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="14" t="s">
         <v>129</v>
       </c>
       <c r="C3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C4:C5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v/>
       </c>
       <c r="D3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D4:D5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v/>
       </c>
       <c r="E3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E4:E5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v/>
       </c>
       <c r="F3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F4:F5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v/>
       </c>
       <c r="G3" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G4:G5), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="14" t="s">
         <v>127</v>
@@ -10522,7 +10547,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="14" t="s">
         <v>130</v>
@@ -10533,7 +10558,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -10541,7 +10566,7 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -10549,7 +10574,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>125</v>
       </c>
@@ -10577,32 +10602,32 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(C10:C11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v/>
       </c>
       <c r="D9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(D10:D11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v/>
       </c>
       <c r="E9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(E10:E11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v/>
       </c>
       <c r="F9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(F10:F11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v/>
       </c>
       <c r="G9" s="49" t="str">
-        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - _xlfn.SUM(G10:G11), "")</f>
+        <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>133</v>
       </c>
@@ -10612,7 +10637,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>134</v>
       </c>
@@ -10622,7 +10647,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -10636,7 +10661,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>70</v>
       </c>
@@ -10680,7 +10705,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>144</v>
       </c>
@@ -10698,7 +10723,7 @@
       <c r="N14" s="51"/>
       <c r="O14" s="51"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>68</v>
       </c>
@@ -10755,14 +10780,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -10787,13 +10812,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1"/>
-    <col min="2" max="7" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -10817,7 +10842,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -10830,7 +10855,7 @@
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="65" t="s">
         <v>180</v>
       </c>
@@ -10840,7 +10865,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="65" t="s">
         <v>181</v>
       </c>
@@ -10850,7 +10875,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="65" t="s">
         <v>182</v>
       </c>
@@ -10888,16 +10913,16 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>151</v>
       </c>
@@ -10932,7 +10957,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>152</v>
       </c>
@@ -10949,10 +10974,10 @@
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>153</v>
       </c>
@@ -10969,10 +10994,10 @@
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>154</v>
       </c>
@@ -10989,7 +11014,7 @@
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
@@ -11003,7 +11028,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>157</v>
       </c>
@@ -11017,7 +11042,7 @@
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -11034,7 +11059,7 @@
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="53" t="s">
         <v>159</v>
       </c>
@@ -11048,7 +11073,7 @@
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>74</v>
       </c>
@@ -11065,7 +11090,7 @@
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>183</v>
       </c>
@@ -11096,15 +11121,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="15" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="15"/>
+    <col min="1" max="1" width="37.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="44" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="44" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="42" t="s">
         <v>136</v>
       </c>
@@ -11116,7 +11141,7 @@
         <v>Percentage of births in category in baseline year (2017)</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>135</v>
       </c>
@@ -11125,55 +11150,55 @@
       </c>
       <c r="C2" s="45"/>
     </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C3" s="45"/>
     </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
         <v>77</v>
       </c>
       <c r="C4" s="45"/>
     </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="41" t="s">
         <v>78</v>
       </c>
       <c r="C5" s="45"/>
     </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="41" t="s">
         <v>79</v>
       </c>
       <c r="C6" s="45"/>
     </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="41" t="s">
         <v>80</v>
       </c>
       <c r="C7" s="45"/>
     </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="41" t="s">
         <v>81</v>
       </c>
       <c r="C8" s="45"/>
     </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="41" t="s">
         <v>82</v>
       </c>
       <c r="C9" s="45"/>
     </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="41" t="s">
         <v>83</v>
       </c>
       <c r="C10" s="45"/>
     </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="48" t="s">
         <v>142</v>
       </c>
@@ -11182,11 +11207,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
     </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>84</v>
       </c>
@@ -11195,25 +11220,25 @@
       </c>
       <c r="C13" s="45"/>
     </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="41" t="s">
         <v>86</v>
       </c>
       <c r="C14" s="45"/>
     </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="41" t="s">
         <v>87</v>
       </c>
       <c r="C15" s="45"/>
     </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="41" t="s">
         <v>88</v>
       </c>
       <c r="C16" s="45"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="48" t="s">
         <v>142</v>
       </c>
@@ -11239,15 +11264,15 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="56" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="56" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="56" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="56"/>
+    <col min="2" max="2" width="19.109375" style="56" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="76" t="s">
         <v>193</v>
       </c>
@@ -11264,7 +11289,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>188</v>
       </c>
@@ -11278,7 +11303,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="70"/>
       <c r="B3" s="69" t="s">
         <v>1</v>
@@ -11290,7 +11315,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="70"/>
       <c r="B4" s="69" t="s">
         <v>2</v>
@@ -11302,7 +11327,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="70"/>
       <c r="B5" s="69" t="s">
         <v>3</v>
@@ -11314,7 +11339,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="70"/>
       <c r="B6" s="69" t="s">
         <v>4</v>
@@ -11326,7 +11351,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="70"/>
       <c r="B7" s="69" t="s">
         <v>185</v>
@@ -11335,7 +11360,7 @@
       <c r="D7" s="67"/>
       <c r="E7" s="72"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="76" t="s">
         <v>187</v>
       </c>
@@ -11346,7 +11371,7 @@
       <c r="D9" s="72"/>
       <c r="E9" s="95"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="70"/>
       <c r="B10" s="69" t="s">
         <v>1</v>
@@ -11355,7 +11380,7 @@
       <c r="D10" s="72"/>
       <c r="E10" s="94"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="70"/>
       <c r="B11" s="69" t="s">
         <v>2</v>
@@ -11364,7 +11389,7 @@
       <c r="D11" s="72"/>
       <c r="E11" s="94"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="70"/>
       <c r="B12" s="69" t="s">
         <v>3</v>
@@ -11373,7 +11398,7 @@
       <c r="D12" s="72"/>
       <c r="E12" s="94"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="70"/>
       <c r="B13" s="69" t="s">
         <v>4</v>
@@ -11382,7 +11407,7 @@
       <c r="D13" s="72"/>
       <c r="E13" s="94"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="70"/>
       <c r="B14" s="69" t="s">
         <v>185</v>
@@ -11391,7 +11416,7 @@
       <c r="D14" s="67"/>
       <c r="E14" s="72"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="s">
         <v>186</v>
       </c>
@@ -11405,7 +11430,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="70"/>
       <c r="B17" s="69" t="s">
         <v>1</v>
@@ -11417,7 +11442,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="70"/>
       <c r="B18" s="69" t="s">
         <v>2</v>
@@ -11429,7 +11454,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="70"/>
       <c r="B19" s="69" t="s">
         <v>3</v>
@@ -11441,7 +11466,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="70"/>
       <c r="B20" s="69" t="s">
         <v>4</v>
@@ -11453,7 +11478,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="70"/>
       <c r="B21" s="69" t="s">
         <v>185</v>
@@ -11475,19 +11500,19 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>177</v>
       </c>
@@ -11501,7 +11526,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="100" t="s">
         <v>69</v>
       </c>
@@ -11513,7 +11538,7 @@
       </c>
       <c r="D2" s="72"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="100" t="s">
         <v>200</v>
       </c>

--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\applications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E77CBEB-9E4B-044D-85A9-F9E76E974872}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21132" windowWidth="28920" windowHeight="16320" tabRatio="961" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -18,31 +19,30 @@
     <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
     <sheet name="Time trends" sheetId="51" r:id="rId6"/>
-    <sheet name="Fertility risks" sheetId="42" r:id="rId7"/>
-    <sheet name="IYCF packages" sheetId="55" r:id="rId8"/>
-    <sheet name="Treatment of SAM" sheetId="60" r:id="rId9"/>
-    <sheet name="Programs cost and coverage" sheetId="56" r:id="rId10"/>
-    <sheet name="IYCF cost" sheetId="57" r:id="rId11"/>
-    <sheet name="Program dependencies" sheetId="58" r:id="rId12"/>
-    <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId13"/>
-    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId14"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId15"/>
-    <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId16"/>
+    <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
+    <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
+    <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
+    <sheet name="IYCF cost" sheetId="57" r:id="rId10"/>
+    <sheet name="Program dependencies" sheetId="58" r:id="rId11"/>
+    <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId12"/>
+    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId13"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId14"/>
+    <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
   </sheets>
   <definedNames>
-    <definedName name="abortion" localSheetId="7">'Baseline year population inputs'!$C$30</definedName>
-    <definedName name="abortion">'Baseline year population inputs'!$C$33</definedName>
+    <definedName name="abortion" localSheetId="6">'Baseline year population inputs'!$C$37</definedName>
+    <definedName name="abortion">'Baseline year population inputs'!$C$40</definedName>
     <definedName name="comm_deliv">'Treatment of SAM'!$D$3</definedName>
-    <definedName name="diarrhoea_1_5mo">'Baseline year population inputs'!$C$44</definedName>
-    <definedName name="diarrhoea_12_23mo">'Baseline year population inputs'!$C$46</definedName>
-    <definedName name="diarrhoea_1mo">'Baseline year population inputs'!$C$43</definedName>
-    <definedName name="diarrhoea_24_59mo">'Baseline year population inputs'!$C$47</definedName>
-    <definedName name="diarrhoea_6_11mo">'Baseline year population inputs'!$C$45</definedName>
+    <definedName name="diarrhoea_1_5mo">'Baseline year population inputs'!$C$51</definedName>
+    <definedName name="diarrhoea_12_23mo">'Baseline year population inputs'!$C$53</definedName>
+    <definedName name="diarrhoea_1mo">'Baseline year population inputs'!$C$50</definedName>
+    <definedName name="diarrhoea_24_59mo">'Baseline year population inputs'!$C$54</definedName>
+    <definedName name="diarrhoea_6_11mo">'Baseline year population inputs'!$C$52</definedName>
     <definedName name="end_year">'Baseline year population inputs'!$C$4</definedName>
     <definedName name="famplan_unmet_need">'Baseline year population inputs'!$C$12</definedName>
     <definedName name="food_insecure">'Baseline year population inputs'!$C$7</definedName>
     <definedName name="frac_children_health_facility">'Baseline year population inputs'!$C$11</definedName>
-    <definedName name="frac_diarrhea_severe">'Baseline year population inputs'!$C$50</definedName>
+    <definedName name="frac_diarrhea_severe">'Baseline year population inputs'!$C$57</definedName>
     <definedName name="frac_maize">'Baseline year population inputs'!$C$18</definedName>
     <definedName name="frac_malaria_risk">'Baseline year population inputs'!$C$8</definedName>
     <definedName name="frac_mam_1_5months">'Nutritional status distribution'!$D$10</definedName>
@@ -62,33 +62,33 @@
     <definedName name="frac_SAMtoMAM">'Baseline year population inputs'!#REF!</definedName>
     <definedName name="frac_subsistence_farming">'Baseline year population inputs'!$C$15</definedName>
     <definedName name="frac_wheat">'Baseline year population inputs'!$C$17</definedName>
-    <definedName name="infant_mortality">'Baseline year population inputs'!$C$30</definedName>
-    <definedName name="iron_deficiency_anaemia">'Baseline year population inputs'!$C$51</definedName>
+    <definedName name="infant_mortality">'Baseline year population inputs'!$C$37</definedName>
+    <definedName name="iron_deficiency_anaemia">'Baseline year population inputs'!$C$58</definedName>
     <definedName name="manage_mam">'Treatment of SAM'!$D$2</definedName>
-    <definedName name="maternal_mortality">'Baseline year population inputs'!$C$32</definedName>
-    <definedName name="neonatal_mortality">'Baseline year population inputs'!$C$29</definedName>
+    <definedName name="maternal_mortality">'Baseline year population inputs'!$C$39</definedName>
+    <definedName name="neonatal_mortality">'Baseline year population inputs'!$C$36</definedName>
     <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Baseline year population inputs'!$C$10</definedName>
-    <definedName name="preterm_AGA">'Baseline year population inputs'!$C$38</definedName>
-    <definedName name="preterm_SGA">'Baseline year population inputs'!$C$37</definedName>
+    <definedName name="preterm_AGA">'Baseline year population inputs'!$C$45</definedName>
+    <definedName name="preterm_SGA">'Baseline year population inputs'!$C$44</definedName>
     <definedName name="school_attendance">'Baseline year population inputs'!$C$9</definedName>
     <definedName name="start_year">'Baseline year population inputs'!$C$3</definedName>
-    <definedName name="stillbirth" localSheetId="7">'Baseline year population inputs'!$C$31</definedName>
-    <definedName name="stillbirth">'Baseline year population inputs'!$C$34</definedName>
-    <definedName name="term_AGA">'Baseline year population inputs'!$C$40</definedName>
-    <definedName name="term_SGA">'Baseline year population inputs'!$C$39</definedName>
-    <definedName name="U5_mortality">'Baseline year population inputs'!$C$31</definedName>
+    <definedName name="stillbirth" localSheetId="6">'Baseline year population inputs'!$C$38</definedName>
+    <definedName name="stillbirth">'Baseline year population inputs'!$C$41</definedName>
+    <definedName name="term_AGA">'Baseline year population inputs'!$C$47</definedName>
+    <definedName name="term_SGA">'Baseline year population inputs'!$C$46</definedName>
+    <definedName name="U5_mortality">'Baseline year population inputs'!$C$38</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -141,12 +141,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="205">
   <si>
     <t>year</t>
   </si>
@@ -411,36 +411,6 @@
     <t>Mortality</t>
   </si>
   <si>
-    <t>Less than 18 years first birth</t>
-  </si>
-  <si>
-    <t>Less than 18 years second and third births</t>
-  </si>
-  <si>
-    <t>Less than 18 years greater than third birth</t>
-  </si>
-  <si>
-    <t>18 - 34 years old first birth</t>
-  </si>
-  <si>
-    <t>18 - 34 years old second and third births</t>
-  </si>
-  <si>
-    <t>18 - 34 years old greater than third birth</t>
-  </si>
-  <si>
-    <t>35-49 years old first birth</t>
-  </si>
-  <si>
-    <t>35-49 years old second and third births</t>
-  </si>
-  <si>
-    <t>35-49 years old greater than third birth</t>
-  </si>
-  <si>
-    <t>Birth intervals</t>
-  </si>
-  <si>
     <t>First birth</t>
   </si>
   <si>
@@ -591,12 +561,6 @@
     <t>SAM   (WHZ-score &lt; -3)</t>
   </si>
   <si>
-    <t>Birth age and order</t>
-  </si>
-  <si>
-    <t>Type of risk</t>
-  </si>
-  <si>
     <t>Average episodes per year: &lt;1 month</t>
   </si>
   <si>
@@ -832,17 +796,20 @@
   </si>
   <si>
     <t>Unit cost (US$)</t>
+  </si>
+  <si>
+    <t>Birth spacing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1101,7 +1068,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2542,7 +2509,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2585,8 +2552,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2602,8 +2569,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2622,29 +2589,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2656,11 +2614,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2682,27 +2640,24 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2731,8 +2686,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="21" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="21" fillId="3" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="21" fillId="3" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4195,8 +4150,8 @@
     <cellStyle name="Hyperlink" xfId="1445" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1447" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="725"/>
-    <cellStyle name="Normal 3" xfId="726"/>
+    <cellStyle name="Normal 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000A6050000}"/>
+    <cellStyle name="Normal 3" xfId="726" xr:uid="{00000000-0005-0000-0000-0000A7050000}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -5636,336 +5591,378 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:E55"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="15" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="15"/>
+    <col min="3" max="16384" width="14.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="62" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="62" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="B1" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-    </row>
-    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>196</v>
+      </c>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+    </row>
+    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="101">
+        <v>198</v>
+      </c>
+      <c r="C3" s="97">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="102">
+        <v>197</v>
+      </c>
+      <c r="C4" s="98">
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="62"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="12" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C8" s="23"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="12" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="12" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="C16" s="23"/>
     </row>
-    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="C17" s="23"/>
     </row>
-    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="C18" s="23"/>
     </row>
-    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="12" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="C19" s="26">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C22" s="23"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="23"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="42"/>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="42"/>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="42"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C31" s="42"/>
+    </row>
+    <row r="32" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="B32" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32" s="44">
+        <f>SUM(C28:C31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="60" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="25"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="25"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="21"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" s="25"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C40" s="23"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="25"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D42" s="20"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D43" s="20"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" s="23"/>
+      <c r="D44" s="20"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="23"/>
+      <c r="D45" s="20"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="21"/>
+    </row>
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C47" s="26">
+        <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
+        <v>1</v>
+      </c>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D48" s="20"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B50" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C51" s="7"/>
+    </row>
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="7"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="7"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="C54" s="7"/>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B57" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="23"/>
-    </row>
-    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="23"/>
-    </row>
-    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="23"/>
-    </row>
-    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="23"/>
-    </row>
-    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="16"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="C29" s="25"/>
-    </row>
-    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="21"/>
-    </row>
-    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="19" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="20"/>
-      <c r="E31" s="20"/>
-    </row>
-    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="19" t="s">
-        <v>184</v>
-      </c>
-      <c r="C32" s="25"/>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="23"/>
-    </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="25"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="20"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="D36" s="20"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37" s="23"/>
-      <c r="D37" s="20"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="23"/>
-      <c r="D38" s="20"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="21"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C40" s="26">
-        <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
-        <v>1</v>
-      </c>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="20"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D42" s="20"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="20"/>
-    </row>
-    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C50" s="24">
+      <c r="C57" s="24">
         <v>0.2</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="C51" s="24"/>
-    </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="4"/>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="19" t="s">
+        <v>133</v>
+      </c>
+      <c r="C58" s="24"/>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5974,579 +5971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:F38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="56" style="78" customWidth="1"/>
-    <col min="2" max="2" width="20" style="57" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="56" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="56" customWidth="1"/>
-    <col min="5" max="16384" width="14.44140625" style="56"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="103" t="str">
-        <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
-        <v>Baseline (2017) coverage</v>
-      </c>
-      <c r="C1" s="86" t="s">
-        <v>214</v>
-      </c>
-      <c r="D1" s="85" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="79">
-        <v>0</v>
-      </c>
-      <c r="C2" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D2" s="80">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="79">
-        <v>0</v>
-      </c>
-      <c r="C3" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D3" s="80">
-        <v>1</v>
-      </c>
-      <c r="E3" s="65"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="79">
-        <v>0</v>
-      </c>
-      <c r="C4" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D4" s="80">
-        <f>180</f>
-        <v>180</v>
-      </c>
-      <c r="E4" s="65"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
-        <v>213</v>
-      </c>
-      <c r="B5" s="79">
-        <v>0</v>
-      </c>
-      <c r="C5" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D5" s="81">
-        <f>SUM('Programs family planning'!E2:E10)</f>
-        <v>0.82100000000000006</v>
-      </c>
-      <c r="E5" s="84"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="78" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="79">
-        <v>0</v>
-      </c>
-      <c r="C6" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D6" s="80">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E6" s="83"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="79">
-        <v>0</v>
-      </c>
-      <c r="C7" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D7" s="80">
-        <v>0.75</v>
-      </c>
-      <c r="E7" s="83"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="78" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="79">
-        <v>0</v>
-      </c>
-      <c r="C8" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D8" s="80">
-        <v>0.19</v>
-      </c>
-      <c r="E8" s="83"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="98" t="s">
-        <v>203</v>
-      </c>
-      <c r="B9" s="79">
-        <v>0</v>
-      </c>
-      <c r="C9" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D9" s="80">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="98" t="s">
-        <v>204</v>
-      </c>
-      <c r="B10" s="79">
-        <v>0</v>
-      </c>
-      <c r="C10" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D10" s="80">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="B11" s="79">
-        <v>0</v>
-      </c>
-      <c r="C11" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D11" s="80">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="98" t="s">
-        <v>206</v>
-      </c>
-      <c r="B12" s="79">
-        <v>0</v>
-      </c>
-      <c r="C12" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D12" s="80">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13" s="79">
-        <v>0</v>
-      </c>
-      <c r="C13" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D13" s="80">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="B14" s="79">
-        <v>0</v>
-      </c>
-      <c r="C14" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D14" s="80">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="79">
-        <v>0</v>
-      </c>
-      <c r="C15" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D15" s="80">
-        <v>2.06</v>
-      </c>
-      <c r="E15" s="65"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="78" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="79">
-        <v>0</v>
-      </c>
-      <c r="C16" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D16" s="80">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="65"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="78" t="s">
-        <v>188</v>
-      </c>
-      <c r="B17" s="79">
-        <v>0</v>
-      </c>
-      <c r="C17" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D17" s="97">
-        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;""))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="78" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="79">
-        <v>0</v>
-      </c>
-      <c r="C18" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D18" s="97">
-        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;""))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
-        <v>186</v>
-      </c>
-      <c r="B19" s="79">
-        <v>0</v>
-      </c>
-      <c r="C19" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D19" s="97">
-        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="78" t="s">
-        <v>212</v>
-      </c>
-      <c r="B20" s="79">
-        <v>0</v>
-      </c>
-      <c r="C20" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D20" s="80">
-        <v>8.84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
-        <v>149</v>
-      </c>
-      <c r="B21" s="79">
-        <v>0</v>
-      </c>
-      <c r="C21" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D21" s="80">
-        <v>50</v>
-      </c>
-      <c r="E21" s="65"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="79">
-        <v>0</v>
-      </c>
-      <c r="C22" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D22" s="80">
-        <v>2.61</v>
-      </c>
-      <c r="E22" s="65"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="79">
-        <v>0</v>
-      </c>
-      <c r="C23" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D23" s="80">
-        <v>1</v>
-      </c>
-      <c r="E23" s="65"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="79">
-        <v>0</v>
-      </c>
-      <c r="C24" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D24" s="80">
-        <v>1</v>
-      </c>
-      <c r="E24" s="82"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="B25" s="79">
-        <v>0</v>
-      </c>
-      <c r="C25" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D25" s="80">
-        <v>1</v>
-      </c>
-      <c r="E25" s="65"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="79">
-        <v>0</v>
-      </c>
-      <c r="C26" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D26" s="80">
-        <v>2.99</v>
-      </c>
-      <c r="E26" s="65"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="78" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="79">
-        <v>0</v>
-      </c>
-      <c r="C27" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D27" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="79">
-        <v>0</v>
-      </c>
-      <c r="C28" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D28" s="80">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="79">
-        <v>0</v>
-      </c>
-      <c r="C29" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D29" s="81">
-        <f>90*AVERAGE('Incidence of conditions'!B4:F4) + 40*AVERAGE('Incidence of conditions'!B3:F3)*IF(ISBLANK(manage_mam), 0, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="79">
-        <v>0</v>
-      </c>
-      <c r="C30" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D30" s="80">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="78" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="79">
-        <v>0</v>
-      </c>
-      <c r="C31" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D31" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="78" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="79">
-        <v>0</v>
-      </c>
-      <c r="C32" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D32" s="80">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="78" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="79">
-        <v>0</v>
-      </c>
-      <c r="C33" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D33" s="80">
-        <v>50.26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="B34" s="79">
-        <v>0</v>
-      </c>
-      <c r="C34" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D34" s="80">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="78" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="79">
-        <v>0</v>
-      </c>
-      <c r="C35" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D35" s="80">
-        <v>231.85</v>
-      </c>
-      <c r="F35" s="56"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="78" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="79">
-        <v>0</v>
-      </c>
-      <c r="C36" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D36" s="80">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="78" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="79">
-        <v>0</v>
-      </c>
-      <c r="C37" s="79">
-        <v>0.95</v>
-      </c>
-      <c r="D37" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F38" s="57"/>
-    </row>
-  </sheetData>
-  <sortState ref="A2:D37">
-    <sortCondition ref="A2:A37"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6556,126 +5981,126 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="88" customWidth="1"/>
-    <col min="2" max="16384" width="10.88671875" style="88"/>
+    <col min="1" max="1" width="18.6640625" style="84" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="93" t="s">
-        <v>211</v>
-      </c>
-      <c r="B1" s="92" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="92" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="92" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" s="92" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="91" t="s">
+    <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
+      <c r="A1" s="89" t="s">
+        <v>199</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="88" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="88" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="90" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="87" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="80">
+      <c r="C2" s="76">
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D2" s="80">
+      <c r="D2" s="76">
         <f>0.5*0.61</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="E2" s="80">
+      <c r="E2" s="76">
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="90"/>
-      <c r="B3" s="90" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="80">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="86"/>
+      <c r="B3" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="76">
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D3" s="80">
+      <c r="D3" s="76">
         <f>0.5*0.61</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="E3" s="80">
+      <c r="E3" s="76">
         <v>0.05</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="90"/>
-      <c r="B4" s="90" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="86"/>
+      <c r="B4" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="80">
+      <c r="C4" s="76">
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D4" s="80">
+      <c r="D4" s="76">
         <f>0.5*0.61</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="E4" s="80">
+      <c r="E4" s="76">
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="90"/>
-      <c r="B5" s="90" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="86"/>
+      <c r="B5" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="80">
+      <c r="C5" s="76">
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D5" s="80">
+      <c r="D5" s="76">
         <f>0.5*0.61</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="E5" s="80">
+      <c r="E5" s="76">
         <v>0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="90"/>
-      <c r="B6" s="90" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="86"/>
+      <c r="B6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="76">
         <f>1.5*0.61</f>
         <v>0.91500000000000004</v>
       </c>
-      <c r="D6" s="80">
+      <c r="D6" s="76">
         <f>0.5*0.61</f>
         <v>0.30499999999999999</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="76">
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="89"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="85"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6685,84 +6110,84 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="53" style="78" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.88671875" style="56" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" style="56" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="56"/>
+    <col min="1" max="1" width="53" style="74" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="68"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
         <v>195</v>
       </c>
-      <c r="C1" s="61" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="72" t="s">
+      <c r="B3" s="68" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="72"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="B3" s="72" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="72"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="78" t="s">
+      <c r="C3" s="68"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="74" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="72"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="78" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="72" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="72"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="52"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="52"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="52"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="52"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="52"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="52"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="52"/>
+      <c r="B4" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="68"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="68"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="49"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="49"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="49"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="49"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="49"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="49"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="49"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6771,8 +6196,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6782,86 +6207,86 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="56" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="56"/>
+    <col min="1" max="1" width="30.1640625" style="53" customWidth="1"/>
+    <col min="2" max="16384" width="11.5" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="72" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="68" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="68" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="68" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="72" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="72" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="72" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="72"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="68" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="68" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="68" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="68"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="68"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="68"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="68"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="68"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="68"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="68"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="68"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="68"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6869,8 +6294,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -6880,9 +6305,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6902,32 +6327,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="37">
-        <f>'Baseline year population inputs'!C43</f>
+        <f>'Baseline year population inputs'!C50</f>
         <v>0</v>
       </c>
       <c r="C2" s="37">
-        <f>'Baseline year population inputs'!C44</f>
+        <f>'Baseline year population inputs'!C51</f>
         <v>0</v>
       </c>
       <c r="D2" s="37">
-        <f>'Baseline year population inputs'!C45</f>
+        <f>'Baseline year population inputs'!C52</f>
         <v>0</v>
       </c>
       <c r="E2" s="37">
-        <f>'Baseline year population inputs'!C46</f>
+        <f>'Baseline year population inputs'!C53</f>
         <v>0</v>
       </c>
       <c r="F2" s="37">
-        <f>'Baseline year population inputs'!C47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>'Baseline year population inputs'!C54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -6952,7 +6377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -6983,30 +6408,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:G7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.88671875" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -7053,1139 +6478,1139 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="54">
-        <v>0</v>
-      </c>
-      <c r="D2" s="54">
+      <c r="C2" s="51">
+        <v>0</v>
+      </c>
+      <c r="D2" s="51">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2" s="51">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2" s="51">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="G2" s="54">
+      <c r="G2" s="51">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="H2" s="55">
-        <v>0</v>
-      </c>
-      <c r="I2" s="55">
-        <v>0</v>
-      </c>
-      <c r="J2" s="55">
-        <v>0</v>
-      </c>
-      <c r="K2" s="55">
-        <v>0</v>
-      </c>
-      <c r="L2" s="55">
-        <v>0</v>
-      </c>
-      <c r="M2" s="55">
-        <v>0</v>
-      </c>
-      <c r="N2" s="55">
-        <v>0</v>
-      </c>
-      <c r="O2" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="52">
+        <v>0</v>
+      </c>
+      <c r="I2" s="52">
+        <v>0</v>
+      </c>
+      <c r="J2" s="52">
+        <v>0</v>
+      </c>
+      <c r="K2" s="52">
+        <v>0</v>
+      </c>
+      <c r="L2" s="52">
+        <v>0</v>
+      </c>
+      <c r="M2" s="52">
+        <v>0</v>
+      </c>
+      <c r="N2" s="52">
+        <v>0</v>
+      </c>
+      <c r="O2" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C3" s="54">
-        <v>1</v>
-      </c>
-      <c r="D3" s="54">
-        <v>0</v>
-      </c>
-      <c r="E3" s="54">
-        <v>0</v>
-      </c>
-      <c r="F3" s="54">
-        <v>0</v>
-      </c>
-      <c r="G3" s="54">
-        <v>0</v>
-      </c>
-      <c r="H3" s="55">
-        <v>0</v>
-      </c>
-      <c r="I3" s="55">
-        <v>0</v>
-      </c>
-      <c r="J3" s="55">
-        <v>0</v>
-      </c>
-      <c r="K3" s="55">
-        <v>0</v>
-      </c>
-      <c r="L3" s="55">
-        <v>0</v>
-      </c>
-      <c r="M3" s="55">
-        <v>0</v>
-      </c>
-      <c r="N3" s="55">
-        <v>0</v>
-      </c>
-      <c r="O3" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="C3" s="51">
+        <v>1</v>
+      </c>
+      <c r="D3" s="51">
+        <v>0</v>
+      </c>
+      <c r="E3" s="51">
+        <v>0</v>
+      </c>
+      <c r="F3" s="51">
+        <v>0</v>
+      </c>
+      <c r="G3" s="51">
+        <v>0</v>
+      </c>
+      <c r="H3" s="52">
+        <v>0</v>
+      </c>
+      <c r="I3" s="52">
+        <v>0</v>
+      </c>
+      <c r="J3" s="52">
+        <v>0</v>
+      </c>
+      <c r="K3" s="52">
+        <v>0</v>
+      </c>
+      <c r="L3" s="52">
+        <v>0</v>
+      </c>
+      <c r="M3" s="52">
+        <v>0</v>
+      </c>
+      <c r="N3" s="52">
+        <v>0</v>
+      </c>
+      <c r="O3" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="C4" s="54">
-        <v>1</v>
-      </c>
-      <c r="D4" s="54">
-        <v>0</v>
-      </c>
-      <c r="E4" s="54">
-        <v>0</v>
-      </c>
-      <c r="F4" s="54">
-        <v>0</v>
-      </c>
-      <c r="G4" s="54">
-        <v>0</v>
-      </c>
-      <c r="H4" s="55">
-        <v>0</v>
-      </c>
-      <c r="I4" s="55">
-        <v>0</v>
-      </c>
-      <c r="J4" s="55">
-        <v>0</v>
-      </c>
-      <c r="K4" s="55">
-        <v>0</v>
-      </c>
-      <c r="L4" s="55">
-        <v>0</v>
-      </c>
-      <c r="M4" s="55">
-        <v>0</v>
-      </c>
-      <c r="N4" s="55">
-        <v>0</v>
-      </c>
-      <c r="O4" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+      <c r="C4" s="51">
+        <v>1</v>
+      </c>
+      <c r="D4" s="51">
+        <v>0</v>
+      </c>
+      <c r="E4" s="51">
+        <v>0</v>
+      </c>
+      <c r="F4" s="51">
+        <v>0</v>
+      </c>
+      <c r="G4" s="51">
+        <v>0</v>
+      </c>
+      <c r="H4" s="52">
+        <v>0</v>
+      </c>
+      <c r="I4" s="52">
+        <v>0</v>
+      </c>
+      <c r="J4" s="52">
+        <v>0</v>
+      </c>
+      <c r="K4" s="52">
+        <v>0</v>
+      </c>
+      <c r="L4" s="52">
+        <v>0</v>
+      </c>
+      <c r="M4" s="52">
+        <v>0</v>
+      </c>
+      <c r="N4" s="52">
+        <v>0</v>
+      </c>
+      <c r="O4" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="54">
-        <v>0</v>
-      </c>
-      <c r="D5" s="54">
-        <v>0</v>
-      </c>
-      <c r="E5" s="54">
+        <v>137</v>
+      </c>
+      <c r="C5" s="51">
+        <v>0</v>
+      </c>
+      <c r="D5" s="51">
+        <v>0</v>
+      </c>
+      <c r="E5" s="51">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="51">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="G5" s="54">
-        <v>0</v>
-      </c>
-      <c r="H5" s="55">
-        <v>0</v>
-      </c>
-      <c r="I5" s="55">
-        <v>0</v>
-      </c>
-      <c r="J5" s="55">
-        <v>0</v>
-      </c>
-      <c r="K5" s="55">
-        <v>0</v>
-      </c>
-      <c r="L5" s="55">
-        <v>0</v>
-      </c>
-      <c r="M5" s="55">
-        <v>0</v>
-      </c>
-      <c r="N5" s="55">
-        <v>0</v>
-      </c>
-      <c r="O5" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="51">
+        <v>0</v>
+      </c>
+      <c r="H5" s="52">
+        <v>0</v>
+      </c>
+      <c r="I5" s="52">
+        <v>0</v>
+      </c>
+      <c r="J5" s="52">
+        <v>0</v>
+      </c>
+      <c r="K5" s="52">
+        <v>0</v>
+      </c>
+      <c r="L5" s="52">
+        <v>0</v>
+      </c>
+      <c r="M5" s="52">
+        <v>0</v>
+      </c>
+      <c r="N5" s="52">
+        <v>0</v>
+      </c>
+      <c r="O5" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C6" s="54">
-        <v>0</v>
-      </c>
-      <c r="D6" s="54">
-        <v>0</v>
-      </c>
-      <c r="E6" s="54">
+        <v>138</v>
+      </c>
+      <c r="C6" s="51">
+        <v>0</v>
+      </c>
+      <c r="D6" s="51">
+        <v>0</v>
+      </c>
+      <c r="E6" s="51">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="F6" s="54">
+      <c r="F6" s="51">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="G6" s="54">
+      <c r="G6" s="51">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H6" s="55">
-        <v>0</v>
-      </c>
-      <c r="I6" s="55">
-        <v>0</v>
-      </c>
-      <c r="J6" s="55">
-        <v>0</v>
-      </c>
-      <c r="K6" s="55">
-        <v>0</v>
-      </c>
-      <c r="L6" s="55">
-        <v>0</v>
-      </c>
-      <c r="M6" s="55">
-        <v>0</v>
-      </c>
-      <c r="N6" s="55">
-        <v>0</v>
-      </c>
-      <c r="O6" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="C7" s="54">
+      <c r="H6" s="52">
+        <v>0</v>
+      </c>
+      <c r="I6" s="52">
+        <v>0</v>
+      </c>
+      <c r="J6" s="52">
+        <v>0</v>
+      </c>
+      <c r="K6" s="52">
+        <v>0</v>
+      </c>
+      <c r="L6" s="52">
+        <v>0</v>
+      </c>
+      <c r="M6" s="52">
+        <v>0</v>
+      </c>
+      <c r="N6" s="52">
+        <v>0</v>
+      </c>
+      <c r="O6" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="51">
         <f>diarrhoea_1mo/26</f>
         <v>0</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="51">
         <f>diarrhoea_1_5mo/26</f>
         <v>0</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="51">
         <f>diarrhoea_6_11mo/26</f>
         <v>0</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="51">
         <f>diarrhoea_12_23mo/26</f>
         <v>0</v>
       </c>
-      <c r="G7" s="54">
+      <c r="G7" s="51">
         <f>diarrhoea_24_59mo/26</f>
         <v>0</v>
       </c>
-      <c r="H7" s="55">
-        <v>0</v>
-      </c>
-      <c r="I7" s="55">
-        <v>0</v>
-      </c>
-      <c r="J7" s="55">
-        <v>0</v>
-      </c>
-      <c r="K7" s="55">
-        <v>0</v>
-      </c>
-      <c r="L7" s="55">
-        <v>0</v>
-      </c>
-      <c r="M7" s="55">
-        <v>0</v>
-      </c>
-      <c r="N7" s="55">
-        <v>0</v>
-      </c>
-      <c r="O7" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H7" s="52">
+        <v>0</v>
+      </c>
+      <c r="I7" s="52">
+        <v>0</v>
+      </c>
+      <c r="J7" s="52">
+        <v>0</v>
+      </c>
+      <c r="K7" s="52">
+        <v>0</v>
+      </c>
+      <c r="L7" s="52">
+        <v>0</v>
+      </c>
+      <c r="M7" s="52">
+        <v>0</v>
+      </c>
+      <c r="N7" s="52">
+        <v>0</v>
+      </c>
+      <c r="O7" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="54">
-        <v>0</v>
-      </c>
-      <c r="D8" s="54">
-        <v>0</v>
-      </c>
-      <c r="E8" s="54">
+      <c r="C8" s="51">
+        <v>0</v>
+      </c>
+      <c r="D8" s="51">
+        <v>0</v>
+      </c>
+      <c r="E8" s="51">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="F8" s="54">
+      <c r="F8" s="51">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="G8" s="54">
-        <v>0</v>
-      </c>
-      <c r="H8" s="55">
-        <v>0</v>
-      </c>
-      <c r="I8" s="55">
-        <v>0</v>
-      </c>
-      <c r="J8" s="55">
-        <v>0</v>
-      </c>
-      <c r="K8" s="55">
-        <v>0</v>
-      </c>
-      <c r="L8" s="55">
-        <v>0</v>
-      </c>
-      <c r="M8" s="55">
-        <v>0</v>
-      </c>
-      <c r="N8" s="55">
-        <v>0</v>
-      </c>
-      <c r="O8" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="51">
+        <v>0</v>
+      </c>
+      <c r="H8" s="52">
+        <v>0</v>
+      </c>
+      <c r="I8" s="52">
+        <v>0</v>
+      </c>
+      <c r="J8" s="52">
+        <v>0</v>
+      </c>
+      <c r="K8" s="52">
+        <v>0</v>
+      </c>
+      <c r="L8" s="52">
+        <v>0</v>
+      </c>
+      <c r="M8" s="52">
+        <v>0</v>
+      </c>
+      <c r="N8" s="52">
+        <v>0</v>
+      </c>
+      <c r="O8" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="54">
-        <v>0</v>
-      </c>
-      <c r="D9" s="54">
+      <c r="C9" s="51">
+        <v>0</v>
+      </c>
+      <c r="D9" s="51">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="51">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="51">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="54">
+      <c r="G9" s="51">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="55">
-        <v>0</v>
-      </c>
-      <c r="I9" s="55">
-        <v>0</v>
-      </c>
-      <c r="J9" s="55">
-        <v>0</v>
-      </c>
-      <c r="K9" s="55">
-        <v>0</v>
-      </c>
-      <c r="L9" s="55">
-        <v>0</v>
-      </c>
-      <c r="M9" s="55">
-        <v>0</v>
-      </c>
-      <c r="N9" s="55">
-        <v>0</v>
-      </c>
-      <c r="O9" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="52">
+        <v>0</v>
+      </c>
+      <c r="I9" s="52">
+        <v>0</v>
+      </c>
+      <c r="J9" s="52">
+        <v>0</v>
+      </c>
+      <c r="K9" s="52">
+        <v>0</v>
+      </c>
+      <c r="L9" s="52">
+        <v>0</v>
+      </c>
+      <c r="M9" s="52">
+        <v>0</v>
+      </c>
+      <c r="N9" s="52">
+        <v>0</v>
+      </c>
+      <c r="O9" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="54">
-        <v>0</v>
-      </c>
-      <c r="D10" s="54">
-        <v>0</v>
-      </c>
-      <c r="E10" s="54">
-        <v>1</v>
-      </c>
-      <c r="F10" s="54">
-        <v>1</v>
-      </c>
-      <c r="G10" s="54">
-        <v>1</v>
-      </c>
-      <c r="H10" s="55">
-        <v>0</v>
-      </c>
-      <c r="I10" s="55">
-        <v>0</v>
-      </c>
-      <c r="J10" s="55">
-        <v>0</v>
-      </c>
-      <c r="K10" s="55">
-        <v>0</v>
-      </c>
-      <c r="L10" s="55">
-        <v>0</v>
-      </c>
-      <c r="M10" s="55">
-        <v>0</v>
-      </c>
-      <c r="N10" s="55">
-        <v>0</v>
-      </c>
-      <c r="O10" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="52" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" s="54">
+      <c r="C10" s="51">
+        <v>0</v>
+      </c>
+      <c r="D10" s="51">
+        <v>0</v>
+      </c>
+      <c r="E10" s="51">
+        <v>1</v>
+      </c>
+      <c r="F10" s="51">
+        <v>1</v>
+      </c>
+      <c r="G10" s="51">
+        <v>1</v>
+      </c>
+      <c r="H10" s="52">
+        <v>0</v>
+      </c>
+      <c r="I10" s="52">
+        <v>0</v>
+      </c>
+      <c r="J10" s="52">
+        <v>0</v>
+      </c>
+      <c r="K10" s="52">
+        <v>0</v>
+      </c>
+      <c r="L10" s="52">
+        <v>0</v>
+      </c>
+      <c r="M10" s="52">
+        <v>0</v>
+      </c>
+      <c r="N10" s="52">
+        <v>0</v>
+      </c>
+      <c r="O10" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="49" t="s">
+        <v>85</v>
+      </c>
+      <c r="C11" s="51">
         <f>diarrhoea_1mo/26</f>
         <v>0</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="51">
         <f>diarrhoea_1_5mo/26</f>
         <v>0</v>
       </c>
-      <c r="E11" s="54">
+      <c r="E11" s="51">
         <f>diarrhoea_6_11mo/26</f>
         <v>0</v>
       </c>
-      <c r="F11" s="54">
+      <c r="F11" s="51">
         <f>diarrhoea_12_23mo/26</f>
         <v>0</v>
       </c>
-      <c r="G11" s="54">
+      <c r="G11" s="51">
         <f>diarrhoea_24_59mo/26</f>
         <v>0</v>
       </c>
-      <c r="H11" s="55">
-        <v>0</v>
-      </c>
-      <c r="I11" s="55">
-        <v>0</v>
-      </c>
-      <c r="J11" s="55">
-        <v>0</v>
-      </c>
-      <c r="K11" s="55">
-        <v>0</v>
-      </c>
-      <c r="L11" s="55">
-        <v>0</v>
-      </c>
-      <c r="M11" s="55">
-        <v>0</v>
-      </c>
-      <c r="N11" s="55">
-        <v>0</v>
-      </c>
-      <c r="O11" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H11" s="52">
+        <v>0</v>
+      </c>
+      <c r="I11" s="52">
+        <v>0</v>
+      </c>
+      <c r="J11" s="52">
+        <v>0</v>
+      </c>
+      <c r="K11" s="52">
+        <v>0</v>
+      </c>
+      <c r="L11" s="52">
+        <v>0</v>
+      </c>
+      <c r="M11" s="52">
+        <v>0</v>
+      </c>
+      <c r="N11" s="52">
+        <v>0</v>
+      </c>
+      <c r="O11" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="54">
-        <v>0</v>
-      </c>
-      <c r="D12" s="54">
-        <v>0</v>
-      </c>
-      <c r="E12" s="54">
-        <v>1</v>
-      </c>
-      <c r="F12" s="54">
-        <v>1</v>
-      </c>
-      <c r="G12" s="54">
-        <v>1</v>
-      </c>
-      <c r="H12" s="55">
-        <v>0</v>
-      </c>
-      <c r="I12" s="55">
-        <v>0</v>
-      </c>
-      <c r="J12" s="55">
-        <v>0</v>
-      </c>
-      <c r="K12" s="55">
-        <v>0</v>
-      </c>
-      <c r="L12" s="55">
-        <v>0</v>
-      </c>
-      <c r="M12" s="55">
-        <v>0</v>
-      </c>
-      <c r="N12" s="55">
-        <v>0</v>
-      </c>
-      <c r="O12" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="52"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="51">
+        <v>0</v>
+      </c>
+      <c r="D12" s="51">
+        <v>0</v>
+      </c>
+      <c r="E12" s="51">
+        <v>1</v>
+      </c>
+      <c r="F12" s="51">
+        <v>1</v>
+      </c>
+      <c r="G12" s="51">
+        <v>1</v>
+      </c>
+      <c r="H12" s="52">
+        <v>0</v>
+      </c>
+      <c r="I12" s="52">
+        <v>0</v>
+      </c>
+      <c r="J12" s="52">
+        <v>0</v>
+      </c>
+      <c r="K12" s="52">
+        <v>0</v>
+      </c>
+      <c r="L12" s="52">
+        <v>0</v>
+      </c>
+      <c r="M12" s="52">
+        <v>0</v>
+      </c>
+      <c r="N12" s="52">
+        <v>0</v>
+      </c>
+      <c r="O12" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="49"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="55">
-        <v>0</v>
-      </c>
-      <c r="D14" s="55">
-        <v>0</v>
-      </c>
-      <c r="E14" s="55">
-        <v>0</v>
-      </c>
-      <c r="F14" s="55">
-        <v>0</v>
-      </c>
-      <c r="G14" s="55">
-        <v>0</v>
-      </c>
-      <c r="H14" s="54">
+      <c r="C14" s="52">
+        <v>0</v>
+      </c>
+      <c r="D14" s="52">
+        <v>0</v>
+      </c>
+      <c r="E14" s="52">
+        <v>0</v>
+      </c>
+      <c r="F14" s="52">
+        <v>0</v>
+      </c>
+      <c r="G14" s="52">
+        <v>0</v>
+      </c>
+      <c r="H14" s="51">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="I14" s="54">
+      <c r="I14" s="51">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="J14" s="54">
+      <c r="J14" s="51">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="K14" s="54">
+      <c r="K14" s="51">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="L14" s="55">
-        <v>0</v>
-      </c>
-      <c r="M14" s="55">
-        <v>0</v>
-      </c>
-      <c r="N14" s="55">
-        <v>0</v>
-      </c>
-      <c r="O14" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="52">
+        <v>0</v>
+      </c>
+      <c r="M14" s="52">
+        <v>0</v>
+      </c>
+      <c r="N14" s="52">
+        <v>0</v>
+      </c>
+      <c r="O14" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="55">
-        <v>0</v>
-      </c>
-      <c r="D15" s="55">
-        <v>0</v>
-      </c>
-      <c r="E15" s="55">
-        <v>0</v>
-      </c>
-      <c r="F15" s="55">
-        <v>0</v>
-      </c>
-      <c r="G15" s="55">
-        <v>0</v>
-      </c>
-      <c r="H15" s="54">
-        <v>1</v>
-      </c>
-      <c r="I15" s="54">
-        <v>1</v>
-      </c>
-      <c r="J15" s="54">
-        <v>1</v>
-      </c>
-      <c r="K15" s="54">
-        <v>1</v>
-      </c>
-      <c r="L15" s="55">
-        <v>0</v>
-      </c>
-      <c r="M15" s="55">
-        <v>0</v>
-      </c>
-      <c r="N15" s="55">
-        <v>0</v>
-      </c>
-      <c r="O15" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="C15" s="52">
+        <v>0</v>
+      </c>
+      <c r="D15" s="52">
+        <v>0</v>
+      </c>
+      <c r="E15" s="52">
+        <v>0</v>
+      </c>
+      <c r="F15" s="52">
+        <v>0</v>
+      </c>
+      <c r="G15" s="52">
+        <v>0</v>
+      </c>
+      <c r="H15" s="51">
+        <v>1</v>
+      </c>
+      <c r="I15" s="51">
+        <v>1</v>
+      </c>
+      <c r="J15" s="51">
+        <v>1</v>
+      </c>
+      <c r="K15" s="51">
+        <v>1</v>
+      </c>
+      <c r="L15" s="52">
+        <v>0</v>
+      </c>
+      <c r="M15" s="52">
+        <v>0</v>
+      </c>
+      <c r="N15" s="52">
+        <v>0</v>
+      </c>
+      <c r="O15" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="C16" s="55">
-        <v>0</v>
-      </c>
-      <c r="D16" s="55">
-        <v>0</v>
-      </c>
-      <c r="E16" s="55">
-        <v>0</v>
-      </c>
-      <c r="F16" s="55">
-        <v>0</v>
-      </c>
-      <c r="G16" s="55">
-        <v>0</v>
-      </c>
-      <c r="H16" s="54">
+        <v>190</v>
+      </c>
+      <c r="C16" s="52">
+        <v>0</v>
+      </c>
+      <c r="D16" s="52">
+        <v>0</v>
+      </c>
+      <c r="E16" s="52">
+        <v>0</v>
+      </c>
+      <c r="F16" s="52">
+        <v>0</v>
+      </c>
+      <c r="G16" s="52">
+        <v>0</v>
+      </c>
+      <c r="H16" s="51">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="I16" s="54">
+      <c r="I16" s="51">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="J16" s="54">
+      <c r="J16" s="51">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="K16" s="54">
+      <c r="K16" s="51">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="L16" s="55">
-        <v>0</v>
-      </c>
-      <c r="M16" s="55">
-        <v>0</v>
-      </c>
-      <c r="N16" s="55">
-        <v>0</v>
-      </c>
-      <c r="O16" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="52">
+        <v>0</v>
+      </c>
+      <c r="M16" s="52">
+        <v>0</v>
+      </c>
+      <c r="N16" s="52">
+        <v>0</v>
+      </c>
+      <c r="O16" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="C17" s="55">
-        <v>0</v>
-      </c>
-      <c r="D17" s="55">
-        <v>0</v>
-      </c>
-      <c r="E17" s="55">
-        <v>0</v>
-      </c>
-      <c r="F17" s="55">
-        <v>0</v>
-      </c>
-      <c r="G17" s="55">
-        <v>0</v>
-      </c>
-      <c r="H17" s="54">
+        <v>195</v>
+      </c>
+      <c r="C17" s="52">
+        <v>0</v>
+      </c>
+      <c r="D17" s="52">
+        <v>0</v>
+      </c>
+      <c r="E17" s="52">
+        <v>0</v>
+      </c>
+      <c r="F17" s="52">
+        <v>0</v>
+      </c>
+      <c r="G17" s="52">
+        <v>0</v>
+      </c>
+      <c r="H17" s="51">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="I17" s="54">
+      <c r="I17" s="51">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="J17" s="54">
+      <c r="J17" s="51">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="K17" s="54">
+      <c r="K17" s="51">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="L17" s="55">
-        <v>0</v>
-      </c>
-      <c r="M17" s="55">
-        <v>0</v>
-      </c>
-      <c r="N17" s="55">
-        <v>0</v>
-      </c>
-      <c r="O17" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="52" t="s">
+      <c r="L17" s="52">
+        <v>0</v>
+      </c>
+      <c r="M17" s="52">
+        <v>0</v>
+      </c>
+      <c r="N17" s="52">
+        <v>0</v>
+      </c>
+      <c r="O17" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="55">
-        <v>0</v>
-      </c>
-      <c r="D18" s="55">
-        <v>0</v>
-      </c>
-      <c r="E18" s="55">
-        <v>0</v>
-      </c>
-      <c r="F18" s="55">
-        <v>0</v>
-      </c>
-      <c r="G18" s="55">
-        <v>0</v>
-      </c>
-      <c r="H18" s="54">
+      <c r="C18" s="52">
+        <v>0</v>
+      </c>
+      <c r="D18" s="52">
+        <v>0</v>
+      </c>
+      <c r="E18" s="52">
+        <v>0</v>
+      </c>
+      <c r="F18" s="52">
+        <v>0</v>
+      </c>
+      <c r="G18" s="52">
+        <v>0</v>
+      </c>
+      <c r="H18" s="51">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="I18" s="54">
+      <c r="I18" s="51">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="J18" s="54">
+      <c r="J18" s="51">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="K18" s="54">
+      <c r="K18" s="51">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="L18" s="55">
-        <v>0</v>
-      </c>
-      <c r="M18" s="55">
-        <v>0</v>
-      </c>
-      <c r="N18" s="55">
-        <v>0</v>
-      </c>
-      <c r="O18" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="52">
+        <v>0</v>
+      </c>
+      <c r="M18" s="52">
+        <v>0</v>
+      </c>
+      <c r="N18" s="52">
+        <v>0</v>
+      </c>
+      <c r="O18" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" s="55">
-        <v>0</v>
-      </c>
-      <c r="D19" s="55">
-        <v>0</v>
-      </c>
-      <c r="E19" s="55">
-        <v>0</v>
-      </c>
-      <c r="F19" s="55">
-        <v>0</v>
-      </c>
-      <c r="G19" s="55">
-        <v>0</v>
-      </c>
-      <c r="H19" s="54">
-        <v>1</v>
-      </c>
-      <c r="I19" s="54">
-        <v>1</v>
-      </c>
-      <c r="J19" s="54">
-        <v>1</v>
-      </c>
-      <c r="K19" s="54">
-        <v>1</v>
-      </c>
-      <c r="L19" s="55">
-        <v>0</v>
-      </c>
-      <c r="M19" s="55">
-        <v>0</v>
-      </c>
-      <c r="N19" s="55">
-        <v>0</v>
-      </c>
-      <c r="O19" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="C19" s="52">
+        <v>0</v>
+      </c>
+      <c r="D19" s="52">
+        <v>0</v>
+      </c>
+      <c r="E19" s="52">
+        <v>0</v>
+      </c>
+      <c r="F19" s="52">
+        <v>0</v>
+      </c>
+      <c r="G19" s="52">
+        <v>0</v>
+      </c>
+      <c r="H19" s="51">
+        <v>1</v>
+      </c>
+      <c r="I19" s="51">
+        <v>1</v>
+      </c>
+      <c r="J19" s="51">
+        <v>1</v>
+      </c>
+      <c r="K19" s="51">
+        <v>1</v>
+      </c>
+      <c r="L19" s="52">
+        <v>0</v>
+      </c>
+      <c r="M19" s="52">
+        <v>0</v>
+      </c>
+      <c r="N19" s="52">
+        <v>0</v>
+      </c>
+      <c r="O19" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C20" s="55">
-        <v>0</v>
-      </c>
-      <c r="D20" s="55">
-        <v>0</v>
-      </c>
-      <c r="E20" s="55">
-        <v>0</v>
-      </c>
-      <c r="F20" s="55">
-        <v>0</v>
-      </c>
-      <c r="G20" s="55">
-        <v>0</v>
-      </c>
-      <c r="H20" s="54">
-        <v>1</v>
-      </c>
-      <c r="I20" s="54">
-        <v>1</v>
-      </c>
-      <c r="J20" s="54">
-        <v>1</v>
-      </c>
-      <c r="K20" s="54">
-        <v>1</v>
-      </c>
-      <c r="L20" s="55">
-        <v>0</v>
-      </c>
-      <c r="M20" s="55">
-        <v>0</v>
-      </c>
-      <c r="N20" s="55">
-        <v>0</v>
-      </c>
-      <c r="O20" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="52">
+        <v>0</v>
+      </c>
+      <c r="D20" s="52">
+        <v>0</v>
+      </c>
+      <c r="E20" s="52">
+        <v>0</v>
+      </c>
+      <c r="F20" s="52">
+        <v>0</v>
+      </c>
+      <c r="G20" s="52">
+        <v>0</v>
+      </c>
+      <c r="H20" s="51">
+        <v>1</v>
+      </c>
+      <c r="I20" s="51">
+        <v>1</v>
+      </c>
+      <c r="J20" s="51">
+        <v>1</v>
+      </c>
+      <c r="K20" s="51">
+        <v>1</v>
+      </c>
+      <c r="L20" s="52">
+        <v>0</v>
+      </c>
+      <c r="M20" s="52">
+        <v>0</v>
+      </c>
+      <c r="N20" s="52">
+        <v>0</v>
+      </c>
+      <c r="O20" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="55">
-        <v>0</v>
-      </c>
-      <c r="D21" s="55">
-        <v>0</v>
-      </c>
-      <c r="E21" s="55">
-        <v>0</v>
-      </c>
-      <c r="F21" s="55">
-        <v>0</v>
-      </c>
-      <c r="G21" s="55">
-        <v>0</v>
-      </c>
-      <c r="H21" s="54">
+      <c r="C21" s="52">
+        <v>0</v>
+      </c>
+      <c r="D21" s="52">
+        <v>0</v>
+      </c>
+      <c r="E21" s="52">
+        <v>0</v>
+      </c>
+      <c r="F21" s="52">
+        <v>0</v>
+      </c>
+      <c r="G21" s="52">
+        <v>0</v>
+      </c>
+      <c r="H21" s="51">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="I21" s="54">
+      <c r="I21" s="51">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="J21" s="54">
+      <c r="J21" s="51">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="K21" s="54">
+      <c r="K21" s="51">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L21" s="55">
-        <v>0</v>
-      </c>
-      <c r="M21" s="55">
-        <v>0</v>
-      </c>
-      <c r="N21" s="55">
-        <v>0</v>
-      </c>
-      <c r="O21" s="55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="52"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="96" t="s">
+      <c r="L21" s="52">
+        <v>0</v>
+      </c>
+      <c r="M21" s="52">
+        <v>0</v>
+      </c>
+      <c r="N21" s="52">
+        <v>0</v>
+      </c>
+      <c r="O21" s="52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="98" t="s">
-        <v>213</v>
-      </c>
-      <c r="C23" s="55">
-        <v>0</v>
-      </c>
-      <c r="D23" s="55">
-        <v>0</v>
-      </c>
-      <c r="E23" s="55">
-        <v>0</v>
-      </c>
-      <c r="F23" s="55">
-        <v>0</v>
-      </c>
-      <c r="G23" s="55">
-        <v>0</v>
-      </c>
-      <c r="H23" s="55">
-        <v>0</v>
-      </c>
-      <c r="I23" s="55">
-        <v>0</v>
-      </c>
-      <c r="J23" s="55">
-        <v>0</v>
-      </c>
-      <c r="K23" s="55">
-        <v>0</v>
-      </c>
-      <c r="L23" s="54">
-        <v>1</v>
-      </c>
-      <c r="M23" s="54">
-        <v>1</v>
-      </c>
-      <c r="N23" s="54">
-        <v>1</v>
-      </c>
-      <c r="O23" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="98" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" s="55">
-        <v>0</v>
-      </c>
-      <c r="D24" s="55">
-        <v>0</v>
-      </c>
-      <c r="E24" s="55">
-        <v>0</v>
-      </c>
-      <c r="F24" s="55">
-        <v>0</v>
-      </c>
-      <c r="G24" s="55">
-        <v>0</v>
-      </c>
-      <c r="H24" s="55">
-        <v>0</v>
-      </c>
-      <c r="I24" s="55">
-        <v>0</v>
-      </c>
-      <c r="J24" s="55">
-        <v>0</v>
-      </c>
-      <c r="K24" s="55">
-        <v>0</v>
-      </c>
-      <c r="L24" s="54">
+      <c r="B23" s="94" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="52">
+        <v>0</v>
+      </c>
+      <c r="D23" s="52">
+        <v>0</v>
+      </c>
+      <c r="E23" s="52">
+        <v>0</v>
+      </c>
+      <c r="F23" s="52">
+        <v>0</v>
+      </c>
+      <c r="G23" s="52">
+        <v>0</v>
+      </c>
+      <c r="H23" s="52">
+        <v>0</v>
+      </c>
+      <c r="I23" s="52">
+        <v>0</v>
+      </c>
+      <c r="J23" s="52">
+        <v>0</v>
+      </c>
+      <c r="K23" s="52">
+        <v>0</v>
+      </c>
+      <c r="L23" s="51">
+        <v>1</v>
+      </c>
+      <c r="M23" s="51">
+        <v>1</v>
+      </c>
+      <c r="N23" s="51">
+        <v>1</v>
+      </c>
+      <c r="O23" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="94" t="s">
+        <v>191</v>
+      </c>
+      <c r="C24" s="52">
+        <v>0</v>
+      </c>
+      <c r="D24" s="52">
+        <v>0</v>
+      </c>
+      <c r="E24" s="52">
+        <v>0</v>
+      </c>
+      <c r="F24" s="52">
+        <v>0</v>
+      </c>
+      <c r="G24" s="52">
+        <v>0</v>
+      </c>
+      <c r="H24" s="52">
+        <v>0</v>
+      </c>
+      <c r="I24" s="52">
+        <v>0</v>
+      </c>
+      <c r="J24" s="52">
+        <v>0</v>
+      </c>
+      <c r="K24" s="52">
+        <v>0</v>
+      </c>
+      <c r="L24" s="51">
         <f>(1-food_insecure)*(0.49)*(1-school_attendance) + food_insecure*(0.7)*(1-school_attendance)</f>
         <v>0.49</v>
       </c>
-      <c r="M24" s="54">
+      <c r="M24" s="51">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
-      <c r="N24" s="54">
+      <c r="N24" s="51">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
-      <c r="O24" s="54">
+      <c r="O24" s="51">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="98" t="s">
-        <v>204</v>
-      </c>
-      <c r="C25" s="55">
-        <v>0</v>
-      </c>
-      <c r="D25" s="55">
-        <v>0</v>
-      </c>
-      <c r="E25" s="55">
-        <v>0</v>
-      </c>
-      <c r="F25" s="55">
-        <v>0</v>
-      </c>
-      <c r="G25" s="55">
-        <v>0</v>
-      </c>
-      <c r="H25" s="55">
-        <v>0</v>
-      </c>
-      <c r="I25" s="55">
-        <v>0</v>
-      </c>
-      <c r="J25" s="55">
-        <v>0</v>
-      </c>
-      <c r="K25" s="55">
-        <v>0</v>
-      </c>
-      <c r="L25" s="54">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="52">
+        <v>0</v>
+      </c>
+      <c r="D25" s="52">
+        <v>0</v>
+      </c>
+      <c r="E25" s="52">
+        <v>0</v>
+      </c>
+      <c r="F25" s="52">
+        <v>0</v>
+      </c>
+      <c r="G25" s="52">
+        <v>0</v>
+      </c>
+      <c r="H25" s="52">
+        <v>0</v>
+      </c>
+      <c r="I25" s="52">
+        <v>0</v>
+      </c>
+      <c r="J25" s="52">
+        <v>0</v>
+      </c>
+      <c r="K25" s="52">
+        <v>0</v>
+      </c>
+      <c r="L25" s="51">
         <f>(1-food_insecure)*(0.21)*(1-school_attendance) + food_insecure*(0.3)*(1-school_attendance)</f>
         <v>0.21</v>
       </c>
-      <c r="M25" s="54">
+      <c r="M25" s="51">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
-      <c r="N25" s="54">
+      <c r="N25" s="51">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
-      <c r="O25" s="54">
+      <c r="O25" s="51">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="98" t="s">
-        <v>205</v>
-      </c>
-      <c r="C26" s="55">
-        <v>0</v>
-      </c>
-      <c r="D26" s="55">
-        <v>0</v>
-      </c>
-      <c r="E26" s="55">
-        <v>0</v>
-      </c>
-      <c r="F26" s="55">
-        <v>0</v>
-      </c>
-      <c r="G26" s="55">
-        <v>0</v>
-      </c>
-      <c r="H26" s="55">
-        <v>0</v>
-      </c>
-      <c r="I26" s="55">
-        <v>0</v>
-      </c>
-      <c r="J26" s="55">
-        <v>0</v>
-      </c>
-      <c r="K26" s="55">
-        <v>0</v>
-      </c>
-      <c r="L26" s="54">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="C26" s="52">
+        <v>0</v>
+      </c>
+      <c r="D26" s="52">
+        <v>0</v>
+      </c>
+      <c r="E26" s="52">
+        <v>0</v>
+      </c>
+      <c r="F26" s="52">
+        <v>0</v>
+      </c>
+      <c r="G26" s="52">
+        <v>0</v>
+      </c>
+      <c r="H26" s="52">
+        <v>0</v>
+      </c>
+      <c r="I26" s="52">
+        <v>0</v>
+      </c>
+      <c r="J26" s="52">
+        <v>0</v>
+      </c>
+      <c r="K26" s="52">
+        <v>0</v>
+      </c>
+      <c r="L26" s="51">
         <f>(1-food_insecure)*(0.3)*(1-school_attendance)</f>
         <v>0.3</v>
       </c>
-      <c r="M26" s="54">
+      <c r="M26" s="51">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
-      <c r="N26" s="54">
+      <c r="N26" s="51">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
-      <c r="O26" s="54">
+      <c r="O26" s="51">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="98" t="s">
-        <v>206</v>
-      </c>
-      <c r="C27" s="55">
-        <v>0</v>
-      </c>
-      <c r="D27" s="55">
-        <v>0</v>
-      </c>
-      <c r="E27" s="55">
-        <v>0</v>
-      </c>
-      <c r="F27" s="55">
-        <v>0</v>
-      </c>
-      <c r="G27" s="55">
-        <v>0</v>
-      </c>
-      <c r="H27" s="55">
-        <v>0</v>
-      </c>
-      <c r="I27" s="55">
-        <v>0</v>
-      </c>
-      <c r="J27" s="55">
-        <v>0</v>
-      </c>
-      <c r="K27" s="55">
-        <v>0</v>
-      </c>
-      <c r="L27" s="54">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="94" t="s">
+        <v>194</v>
+      </c>
+      <c r="C27" s="52">
+        <v>0</v>
+      </c>
+      <c r="D27" s="52">
+        <v>0</v>
+      </c>
+      <c r="E27" s="52">
+        <v>0</v>
+      </c>
+      <c r="F27" s="52">
+        <v>0</v>
+      </c>
+      <c r="G27" s="52">
+        <v>0</v>
+      </c>
+      <c r="H27" s="52">
+        <v>0</v>
+      </c>
+      <c r="I27" s="52">
+        <v>0</v>
+      </c>
+      <c r="J27" s="52">
+        <v>0</v>
+      </c>
+      <c r="K27" s="52">
+        <v>0</v>
+      </c>
+      <c r="L27" s="51">
         <f>(1-food_insecure)*1*school_attendance + food_insecure*1*school_attendance</f>
         <v>0</v>
       </c>
-      <c r="M27" s="54">
-        <v>0</v>
-      </c>
-      <c r="N27" s="54">
-        <v>0</v>
-      </c>
-      <c r="O27" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M27" s="51">
+        <v>0</v>
+      </c>
+      <c r="N27" s="51">
+        <v>0</v>
+      </c>
+      <c r="O27" s="51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="14"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -8195,498 +7620,498 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="54">
-        <v>0</v>
-      </c>
-      <c r="D29" s="54">
-        <v>0</v>
-      </c>
-      <c r="E29" s="54">
+      <c r="C29" s="51">
+        <v>0</v>
+      </c>
+      <c r="D29" s="51">
+        <v>0</v>
+      </c>
+      <c r="E29" s="51">
         <f t="shared" ref="E29:O29" si="0">frac_maize</f>
         <v>0</v>
       </c>
-      <c r="F29" s="54">
+      <c r="F29" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="54">
+      <c r="G29" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="54">
+      <c r="H29" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="54">
+      <c r="I29" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="54">
+      <c r="J29" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="54">
+      <c r="K29" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" s="54">
+      <c r="L29" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="54">
+      <c r="M29" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N29" s="54">
+      <c r="N29" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O29" s="54">
+      <c r="O29" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="54">
-        <v>0</v>
-      </c>
-      <c r="D30" s="54">
-        <v>0</v>
-      </c>
-      <c r="E30" s="54">
+      <c r="C30" s="51">
+        <v>0</v>
+      </c>
+      <c r="D30" s="51">
+        <v>0</v>
+      </c>
+      <c r="E30" s="51">
         <f t="shared" ref="E30:O30" si="1">frac_rice</f>
         <v>0</v>
       </c>
-      <c r="F30" s="54">
+      <c r="F30" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="54">
+      <c r="G30" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="54">
+      <c r="H30" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="54">
+      <c r="I30" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J30" s="54">
+      <c r="J30" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K30" s="54">
+      <c r="K30" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L30" s="54">
+      <c r="L30" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M30" s="54">
+      <c r="M30" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N30" s="54">
+      <c r="N30" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O30" s="54">
+      <c r="O30" s="51">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="54">
-        <v>0</v>
-      </c>
-      <c r="D31" s="54">
-        <v>0</v>
-      </c>
-      <c r="E31" s="54">
+      <c r="C31" s="51">
+        <v>0</v>
+      </c>
+      <c r="D31" s="51">
+        <v>0</v>
+      </c>
+      <c r="E31" s="51">
         <f t="shared" ref="E31:O31" si="2">frac_wheat</f>
         <v>0</v>
       </c>
-      <c r="F31" s="54">
+      <c r="F31" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G31" s="54">
+      <c r="G31" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H31" s="54">
+      <c r="H31" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I31" s="54">
+      <c r="I31" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31" s="54">
+      <c r="J31" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K31" s="54">
+      <c r="K31" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L31" s="54">
+      <c r="L31" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M31" s="54">
+      <c r="M31" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="54">
+      <c r="N31" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O31" s="54">
+      <c r="O31" s="51">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="54">
-        <v>0</v>
-      </c>
-      <c r="D32" s="54">
-        <v>0</v>
-      </c>
-      <c r="E32" s="54">
-        <v>1</v>
-      </c>
-      <c r="F32" s="54">
-        <v>1</v>
-      </c>
-      <c r="G32" s="54">
-        <v>1</v>
-      </c>
-      <c r="H32" s="54">
-        <v>1</v>
-      </c>
-      <c r="I32" s="54">
-        <v>1</v>
-      </c>
-      <c r="J32" s="54">
-        <v>1</v>
-      </c>
-      <c r="K32" s="54">
-        <v>1</v>
-      </c>
-      <c r="L32" s="54">
-        <v>1</v>
-      </c>
-      <c r="M32" s="54">
-        <v>1</v>
-      </c>
-      <c r="N32" s="54">
-        <v>1</v>
-      </c>
-      <c r="O32" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="51">
+        <v>0</v>
+      </c>
+      <c r="D32" s="51">
+        <v>0</v>
+      </c>
+      <c r="E32" s="51">
+        <v>1</v>
+      </c>
+      <c r="F32" s="51">
+        <v>1</v>
+      </c>
+      <c r="G32" s="51">
+        <v>1</v>
+      </c>
+      <c r="H32" s="51">
+        <v>1</v>
+      </c>
+      <c r="I32" s="51">
+        <v>1</v>
+      </c>
+      <c r="J32" s="51">
+        <v>1</v>
+      </c>
+      <c r="K32" s="51">
+        <v>1</v>
+      </c>
+      <c r="L32" s="51">
+        <v>1</v>
+      </c>
+      <c r="M32" s="51">
+        <v>1</v>
+      </c>
+      <c r="N32" s="51">
+        <v>1</v>
+      </c>
+      <c r="O32" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="54">
+      <c r="C33" s="51">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="D33" s="54">
+      <c r="D33" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E33" s="54">
+      <c r="E33" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F33" s="54">
+      <c r="F33" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="54">
+      <c r="G33" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H33" s="54">
+      <c r="H33" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I33" s="54">
+      <c r="I33" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J33" s="54">
+      <c r="J33" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="54">
+      <c r="K33" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L33" s="54">
+      <c r="L33" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M33" s="54">
+      <c r="M33" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N33" s="54">
+      <c r="N33" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O33" s="54">
+      <c r="O33" s="51">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="C34" s="54">
-        <v>1</v>
-      </c>
-      <c r="D34" s="54">
-        <v>1</v>
-      </c>
-      <c r="E34" s="54">
-        <v>1</v>
-      </c>
-      <c r="F34" s="54">
-        <v>1</v>
-      </c>
-      <c r="G34" s="54">
-        <v>1</v>
-      </c>
-      <c r="H34" s="54">
-        <v>1</v>
-      </c>
-      <c r="I34" s="54">
-        <v>1</v>
-      </c>
-      <c r="J34" s="54">
-        <v>1</v>
-      </c>
-      <c r="K34" s="54">
-        <v>1</v>
-      </c>
-      <c r="L34" s="54">
-        <v>1</v>
-      </c>
-      <c r="M34" s="54">
-        <v>1</v>
-      </c>
-      <c r="N34" s="54">
-        <v>1</v>
-      </c>
-      <c r="O34" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="51">
+        <v>1</v>
+      </c>
+      <c r="D34" s="51">
+        <v>1</v>
+      </c>
+      <c r="E34" s="51">
+        <v>1</v>
+      </c>
+      <c r="F34" s="51">
+        <v>1</v>
+      </c>
+      <c r="G34" s="51">
+        <v>1</v>
+      </c>
+      <c r="H34" s="51">
+        <v>1</v>
+      </c>
+      <c r="I34" s="51">
+        <v>1</v>
+      </c>
+      <c r="J34" s="51">
+        <v>1</v>
+      </c>
+      <c r="K34" s="51">
+        <v>1</v>
+      </c>
+      <c r="L34" s="51">
+        <v>1</v>
+      </c>
+      <c r="M34" s="51">
+        <v>1</v>
+      </c>
+      <c r="N34" s="51">
+        <v>1</v>
+      </c>
+      <c r="O34" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
-      <c r="B35" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="C35" s="54">
-        <v>1</v>
-      </c>
-      <c r="D35" s="54">
-        <v>1</v>
-      </c>
-      <c r="E35" s="54">
-        <v>1</v>
-      </c>
-      <c r="F35" s="54">
-        <v>1</v>
-      </c>
-      <c r="G35" s="54">
-        <v>1</v>
-      </c>
-      <c r="H35" s="54">
-        <v>1</v>
-      </c>
-      <c r="I35" s="54">
-        <v>1</v>
-      </c>
-      <c r="J35" s="54">
-        <v>1</v>
-      </c>
-      <c r="K35" s="54">
-        <v>1</v>
-      </c>
-      <c r="L35" s="54">
-        <v>1</v>
-      </c>
-      <c r="M35" s="54">
-        <v>1</v>
-      </c>
-      <c r="N35" s="54">
-        <v>1</v>
-      </c>
-      <c r="O35" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="52" t="s">
-        <v>91</v>
-      </c>
-      <c r="C36" s="54">
-        <v>1</v>
-      </c>
-      <c r="D36" s="54">
-        <v>1</v>
-      </c>
-      <c r="E36" s="54">
-        <v>1</v>
-      </c>
-      <c r="F36" s="54">
-        <v>1</v>
-      </c>
-      <c r="G36" s="54">
-        <v>1</v>
-      </c>
-      <c r="H36" s="54">
-        <v>1</v>
-      </c>
-      <c r="I36" s="54">
-        <v>1</v>
-      </c>
-      <c r="J36" s="54">
-        <v>1</v>
-      </c>
-      <c r="K36" s="54">
-        <v>1</v>
-      </c>
-      <c r="L36" s="54">
-        <v>1</v>
-      </c>
-      <c r="M36" s="54">
-        <v>1</v>
-      </c>
-      <c r="N36" s="54">
-        <v>1</v>
-      </c>
-      <c r="O36" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="52" t="s">
-        <v>89</v>
-      </c>
-      <c r="C37" s="54">
-        <v>1</v>
-      </c>
-      <c r="D37" s="54">
-        <v>1</v>
-      </c>
-      <c r="E37" s="54">
-        <v>1</v>
-      </c>
-      <c r="F37" s="54">
-        <v>1</v>
-      </c>
-      <c r="G37" s="54">
-        <v>1</v>
-      </c>
-      <c r="H37" s="54">
-        <v>1</v>
-      </c>
-      <c r="I37" s="54">
-        <v>1</v>
-      </c>
-      <c r="J37" s="54">
-        <v>1</v>
-      </c>
-      <c r="K37" s="54">
-        <v>1</v>
-      </c>
-      <c r="L37" s="54">
-        <v>1</v>
-      </c>
-      <c r="M37" s="54">
-        <v>1</v>
-      </c>
-      <c r="N37" s="54">
-        <v>1</v>
-      </c>
-      <c r="O37" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="52" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="54">
-        <v>1</v>
-      </c>
-      <c r="D38" s="54">
-        <v>1</v>
-      </c>
-      <c r="E38" s="54">
-        <v>1</v>
-      </c>
-      <c r="F38" s="54">
-        <v>1</v>
-      </c>
-      <c r="G38" s="54">
-        <v>1</v>
-      </c>
-      <c r="H38" s="54">
-        <v>1</v>
-      </c>
-      <c r="I38" s="54">
-        <v>1</v>
-      </c>
-      <c r="J38" s="54">
-        <v>1</v>
-      </c>
-      <c r="K38" s="54">
-        <v>1</v>
-      </c>
-      <c r="L38" s="54">
-        <v>1</v>
-      </c>
-      <c r="M38" s="54">
-        <v>1</v>
-      </c>
-      <c r="N38" s="54">
-        <v>1</v>
-      </c>
-      <c r="O38" s="54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="52"/>
+      <c r="B35" s="49" t="s">
+        <v>82</v>
+      </c>
+      <c r="C35" s="51">
+        <v>1</v>
+      </c>
+      <c r="D35" s="51">
+        <v>1</v>
+      </c>
+      <c r="E35" s="51">
+        <v>1</v>
+      </c>
+      <c r="F35" s="51">
+        <v>1</v>
+      </c>
+      <c r="G35" s="51">
+        <v>1</v>
+      </c>
+      <c r="H35" s="51">
+        <v>1</v>
+      </c>
+      <c r="I35" s="51">
+        <v>1</v>
+      </c>
+      <c r="J35" s="51">
+        <v>1</v>
+      </c>
+      <c r="K35" s="51">
+        <v>1</v>
+      </c>
+      <c r="L35" s="51">
+        <v>1</v>
+      </c>
+      <c r="M35" s="51">
+        <v>1</v>
+      </c>
+      <c r="N35" s="51">
+        <v>1</v>
+      </c>
+      <c r="O35" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="49" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="51">
+        <v>1</v>
+      </c>
+      <c r="D36" s="51">
+        <v>1</v>
+      </c>
+      <c r="E36" s="51">
+        <v>1</v>
+      </c>
+      <c r="F36" s="51">
+        <v>1</v>
+      </c>
+      <c r="G36" s="51">
+        <v>1</v>
+      </c>
+      <c r="H36" s="51">
+        <v>1</v>
+      </c>
+      <c r="I36" s="51">
+        <v>1</v>
+      </c>
+      <c r="J36" s="51">
+        <v>1</v>
+      </c>
+      <c r="K36" s="51">
+        <v>1</v>
+      </c>
+      <c r="L36" s="51">
+        <v>1</v>
+      </c>
+      <c r="M36" s="51">
+        <v>1</v>
+      </c>
+      <c r="N36" s="51">
+        <v>1</v>
+      </c>
+      <c r="O36" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="C37" s="51">
+        <v>1</v>
+      </c>
+      <c r="D37" s="51">
+        <v>1</v>
+      </c>
+      <c r="E37" s="51">
+        <v>1</v>
+      </c>
+      <c r="F37" s="51">
+        <v>1</v>
+      </c>
+      <c r="G37" s="51">
+        <v>1</v>
+      </c>
+      <c r="H37" s="51">
+        <v>1</v>
+      </c>
+      <c r="I37" s="51">
+        <v>1</v>
+      </c>
+      <c r="J37" s="51">
+        <v>1</v>
+      </c>
+      <c r="K37" s="51">
+        <v>1</v>
+      </c>
+      <c r="L37" s="51">
+        <v>1</v>
+      </c>
+      <c r="M37" s="51">
+        <v>1</v>
+      </c>
+      <c r="N37" s="51">
+        <v>1</v>
+      </c>
+      <c r="O37" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="51">
+        <v>1</v>
+      </c>
+      <c r="D38" s="51">
+        <v>1</v>
+      </c>
+      <c r="E38" s="51">
+        <v>1</v>
+      </c>
+      <c r="F38" s="51">
+        <v>1</v>
+      </c>
+      <c r="G38" s="51">
+        <v>1</v>
+      </c>
+      <c r="H38" s="51">
+        <v>1</v>
+      </c>
+      <c r="I38" s="51">
+        <v>1</v>
+      </c>
+      <c r="J38" s="51">
+        <v>1</v>
+      </c>
+      <c r="K38" s="51">
+        <v>1</v>
+      </c>
+      <c r="L38" s="51">
+        <v>1</v>
+      </c>
+      <c r="M38" s="51">
+        <v>1</v>
+      </c>
+      <c r="N38" s="51">
+        <v>1</v>
+      </c>
+      <c r="O38" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="49"/>
     </row>
   </sheetData>
   <sortState ref="B14:O21">
@@ -8697,8 +8122,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -8708,196 +8133,196 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="56" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="56" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="56"/>
-    <col min="5" max="5" width="17.44140625" style="56" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="56"/>
+    <col min="1" max="1" width="33.6640625" style="53" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="53" customWidth="1"/>
+    <col min="3" max="4" width="11.5" style="53"/>
+    <col min="5" max="5" width="17.5" style="53" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
-        <v>176</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>175</v>
-      </c>
-      <c r="C1" s="61" t="s">
-        <v>174</v>
-      </c>
-      <c r="D1" s="61" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="61" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="B2" s="59">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="56">
         <v>0.9</v>
       </c>
-      <c r="C2" s="58">
+      <c r="C2" s="55">
         <v>0.09</v>
       </c>
-      <c r="D2" s="56">
+      <c r="D2" s="53">
         <v>0.8</v>
       </c>
-      <c r="E2" s="56">
+      <c r="E2" s="53">
         <f t="shared" ref="E2:E10" si="0">C2*D2</f>
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
-        <v>170</v>
-      </c>
-      <c r="B3" s="59">
-        <v>1</v>
-      </c>
-      <c r="C3" s="58">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="B3" s="56">
+        <v>1</v>
+      </c>
+      <c r="C3" s="55">
         <v>0.02</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D3" s="53">
         <v>1.9</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E3" s="53">
         <f t="shared" si="0"/>
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="B4" s="59">
-        <v>1</v>
-      </c>
-      <c r="C4" s="58">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="56">
+        <v>1</v>
+      </c>
+      <c r="C4" s="55">
         <v>0.08</v>
       </c>
-      <c r="D4" s="56">
+      <c r="D4" s="53">
         <v>2</v>
       </c>
-      <c r="E4" s="56">
+      <c r="E4" s="53">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="59">
-        <v>1</v>
-      </c>
-      <c r="C5" s="58">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="57" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="56">
+        <v>1</v>
+      </c>
+      <c r="C5" s="55">
         <v>0.18</v>
       </c>
-      <c r="D5" s="56">
+      <c r="D5" s="53">
         <v>0.7</v>
       </c>
-      <c r="E5" s="56">
+      <c r="E5" s="53">
         <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" s="59">
-        <v>1</v>
-      </c>
-      <c r="C6" s="58">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="56">
+        <v>1</v>
+      </c>
+      <c r="C6" s="55">
         <v>0.02</v>
       </c>
-      <c r="D6" s="56">
+      <c r="D6" s="53">
         <v>0.7</v>
       </c>
-      <c r="E6" s="56">
+      <c r="E6" s="53">
         <f t="shared" si="0"/>
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="B7" s="59">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="56">
         <v>0.93</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="55">
         <v>0.45</v>
       </c>
-      <c r="D7" s="56">
+      <c r="D7" s="53">
         <v>0.9</v>
       </c>
-      <c r="E7" s="56">
+      <c r="E7" s="53">
         <f t="shared" si="0"/>
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="B8" s="59">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="56">
         <v>0.5</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="55">
         <v>0.03</v>
       </c>
-      <c r="D8" s="56">
-        <v>0</v>
-      </c>
-      <c r="E8" s="56">
+      <c r="D8" s="53">
+        <v>0</v>
+      </c>
+      <c r="E8" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="59">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="57" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="56">
         <v>0.5</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="55">
         <v>0.11</v>
       </c>
-      <c r="D9" s="56">
-        <v>0</v>
-      </c>
-      <c r="E9" s="56">
+      <c r="D9" s="53">
+        <v>0</v>
+      </c>
+      <c r="E9" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="59">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" s="56">
         <v>0.98</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="55">
         <v>0.01</v>
       </c>
-      <c r="D10" s="56">
+      <c r="D10" s="53">
         <v>0.6</v>
       </c>
-      <c r="E10" s="56">
+      <c r="E10" s="53">
         <f t="shared" si="0"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="57"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C11" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8907,7 +8332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -8917,22 +8342,22 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="15" customWidth="1"/>
-    <col min="2" max="10" width="16.88671875" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="14.44140625" style="15"/>
+    <col min="1" max="1" width="8.5" style="15" customWidth="1"/>
+    <col min="2" max="10" width="16.83203125" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>49</v>
@@ -8947,16 +8372,16 @@
         <v>52</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <f>start_year</f>
         <v>2017</v>
@@ -8980,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -9004,7 +8429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -9028,7 +8453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -9052,7 +8477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -9076,7 +8501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -9100,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -9124,7 +8549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -9148,7 +8573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -9172,7 +8597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -9196,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -9220,7 +8645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -9244,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -9268,7 +8693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -9292,7 +8717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9316,7 +8741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9340,7 +8765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9364,7 +8789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9388,7 +8813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9412,7 +8837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9436,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9460,7 +8885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9484,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9508,7 +8933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9532,7 +8957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9556,7 +8981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9580,7 +9005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9604,7 +9029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9628,7 +9053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9652,7 +9077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9676,7 +9101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9700,7 +9125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9724,7 +9149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9748,7 +9173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9772,7 +9197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9796,7 +9221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9820,7 +9245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9844,7 +9269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9868,7 +9293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9904,7 +9329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -9914,13 +9339,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.33203125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -9944,7 +9369,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>73</v>
       </c>
@@ -9965,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
@@ -9986,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
@@ -10007,7 +9432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>10</v>
       </c>
@@ -10028,7 +9453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
@@ -10049,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
         <v>14</v>
       </c>
@@ -10070,7 +9495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
         <v>27</v>
       </c>
@@ -10091,7 +9516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
         <v>15</v>
       </c>
@@ -10112,7 +9537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
         <v>71</v>
       </c>
@@ -10127,7 +9552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
         <v>16</v>
       </c>
@@ -10142,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>17</v>
       </c>
@@ -10157,7 +9582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
@@ -10172,7 +9597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="32" t="s">
         <v>19</v>
       </c>
@@ -10187,7 +9612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="32" t="s">
         <v>20</v>
       </c>
@@ -10202,7 +9627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
         <v>21</v>
       </c>
@@ -10217,7 +9642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="32" t="s">
         <v>22</v>
       </c>
@@ -10232,7 +9657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
         <v>23</v>
       </c>
@@ -10247,7 +9672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="32" t="s">
         <v>38</v>
       </c>
@@ -10268,7 +9693,7 @@
       </c>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="32" t="s">
         <v>39</v>
       </c>
@@ -10289,7 +9714,7 @@
       </c>
       <c r="G20" s="35"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="32" t="s">
         <v>40</v>
       </c>
@@ -10310,7 +9735,7 @@
       </c>
       <c r="G21" s="35"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="32" t="s">
         <v>41</v>
       </c>
@@ -10331,7 +9756,7 @@
       </c>
       <c r="G22" s="35"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="32" t="s">
         <v>42</v>
       </c>
@@ -10352,7 +9777,7 @@
       </c>
       <c r="G23" s="35"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="32" t="s">
         <v>43</v>
       </c>
@@ -10373,7 +9798,7 @@
       </c>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="32" t="s">
         <v>44</v>
       </c>
@@ -10394,7 +9819,7 @@
       </c>
       <c r="G25" s="35"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="32" t="s">
         <v>45</v>
       </c>
@@ -10415,7 +9840,7 @@
       </c>
       <c r="G26" s="35"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="32" t="s">
         <v>46</v>
       </c>
@@ -10444,7 +9869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -10452,13 +9877,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -10482,64 +9907,64 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="49" t="str">
+        <v>118</v>
+      </c>
+      <c r="C2" s="46" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="D2" s="49" t="str">
+      <c r="D2" s="46" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="E2" s="49" t="str">
+      <c r="E2" s="46" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="F2" s="49" t="str">
+      <c r="F2" s="46" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="G2" s="49" t="str">
+      <c r="G2" s="46" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="49" t="str">
+        <v>119</v>
+      </c>
+      <c r="C3" s="46" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v/>
       </c>
-      <c r="D3" s="49" t="str">
+      <c r="D3" s="46" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v/>
       </c>
-      <c r="E3" s="49" t="str">
+      <c r="E3" s="46" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v/>
       </c>
-      <c r="F3" s="49" t="str">
+      <c r="F3" s="46" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v/>
       </c>
-      <c r="G3" s="49" t="str">
+      <c r="G3" s="46" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="14" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -10547,10 +9972,10 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="14" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
@@ -10558,7 +9983,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="17"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -10566,7 +9991,7 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="17"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -10574,62 +9999,62 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="49" t="str">
+        <v>121</v>
+      </c>
+      <c r="C8" s="46" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="D8" s="49" t="str">
+      <c r="D8" s="46" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="E8" s="49" t="str">
+      <c r="E8" s="46" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="F8" s="49" t="str">
+      <c r="F8" s="46" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="G8" s="49" t="str">
+      <c r="G8" s="46" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="C9" s="49" t="str">
+        <v>122</v>
+      </c>
+      <c r="C9" s="46" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v/>
       </c>
-      <c r="D9" s="49" t="str">
+      <c r="D9" s="46" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v/>
       </c>
-      <c r="E9" s="49" t="str">
+      <c r="E9" s="46" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v/>
       </c>
-      <c r="F9" s="49" t="str">
+      <c r="F9" s="46" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v/>
       </c>
-      <c r="G9" s="49" t="str">
+      <c r="G9" s="46" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -10637,9 +10062,9 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -10647,7 +10072,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -10661,7 +10086,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>70</v>
       </c>
@@ -10705,89 +10130,89 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="51"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="48"/>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+      <c r="N14" s="48"/>
+      <c r="O14" s="48"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="46">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="49">
+      <c r="D15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="49">
+      <c r="E15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="49">
+      <c r="F15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="49">
+      <c r="G15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="49">
+      <c r="H15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="49">
+      <c r="I15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="49">
+      <c r="J15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="49">
+      <c r="K15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="49">
+      <c r="L15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="49">
+      <c r="M15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N15" s="49">
+      <c r="N15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="49">
+      <c r="O15" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -10802,7 +10227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -10812,13 +10237,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" customWidth="1"/>
-    <col min="2" max="7" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -10842,12 +10267,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>179</v>
+      <c r="B2" s="61" t="s">
+        <v>167</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -10855,9 +10280,9 @@
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="65" t="s">
-        <v>180</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="61" t="s">
+        <v>168</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -10865,9 +10290,9 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="65" t="s">
-        <v>181</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="61" t="s">
+        <v>169</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -10875,27 +10300,27 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="65" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="49">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="61" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="46">
         <f>1-SUM(C2:C4)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="49">
+      <c r="D5" s="46">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="49">
+      <c r="E5" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F5" s="49">
+      <c r="F5" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="49">
+      <c r="G5" s="46">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -10906,7 +10331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -10916,18 +10341,18 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -10957,12 +10382,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -10974,15 +10399,15 @@
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -10994,15 +10419,15 @@
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -11014,7 +10439,7 @@
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
@@ -11028,9 +10453,9 @@
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="17" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -11042,12 +10467,12 @@
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -11059,9 +10484,9 @@
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="53" t="s">
-        <v>159</v>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="50" t="s">
+        <v>147</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -11073,12 +10498,12 @@
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="53" t="s">
-        <v>161</v>
+      <c r="B13" s="50" t="s">
+        <v>149</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -11090,9 +10515,9 @@
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -11111,150 +10536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF007600"/>
-  </sheetPr>
-  <dimension ref="A1:C17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="37.109375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" style="15" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" style="15" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="15"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="44" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
-        <v>136</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="43" t="str">
-        <f>"Percentage of births in category in baseline year ("&amp;start_year&amp;")"</f>
-        <v>Percentage of births in category in baseline year (2017)</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="45"/>
-    </row>
-    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="45"/>
-    </row>
-    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="45"/>
-    </row>
-    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="45"/>
-    </row>
-    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="45"/>
-    </row>
-    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="45"/>
-    </row>
-    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="41" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="45"/>
-    </row>
-    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="45"/>
-    </row>
-    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C10" s="45"/>
-    </row>
-    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C11" s="47">
-        <f>SUM(C2:C10)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-    </row>
-    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="45"/>
-    </row>
-    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="45"/>
-    </row>
-    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="41" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="45"/>
-    </row>
-    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="41" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="45"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B17" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="47">
-        <f>SUM(C13:C16)</f>
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -11264,228 +10546,228 @@
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17" style="56" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="56" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="56" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="56"/>
+    <col min="1" max="1" width="17" style="53" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>193</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>192</v>
-      </c>
-      <c r="C1" s="77" t="s">
-        <v>191</v>
-      </c>
-      <c r="D1" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
-        <v>188</v>
-      </c>
-      <c r="B2" s="69" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="72" t="s">
+        <v>181</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="73" t="s">
+        <v>179</v>
+      </c>
+      <c r="D1" s="73" t="s">
+        <v>178</v>
+      </c>
+      <c r="E1" s="73" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="94" t="str">
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="90" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="70"/>
-      <c r="B3" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="94" t="str">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="66"/>
+      <c r="B3" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="90" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="70"/>
-      <c r="B4" s="69" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="66"/>
+      <c r="B4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="94" t="str">
+      <c r="C4" s="68"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="90" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="70"/>
-      <c r="B5" s="69" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="66"/>
+      <c r="B5" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="94" t="str">
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="90" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="70"/>
-      <c r="B6" s="69" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="66"/>
+      <c r="B6" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="94" t="str">
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="90" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="70"/>
-      <c r="B7" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="C7" s="68"/>
-      <c r="D7" s="67"/>
-      <c r="E7" s="72"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="76" t="s">
-        <v>187</v>
-      </c>
-      <c r="B9" s="75" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="66"/>
+      <c r="B7" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="C7" s="64"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="68"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="72" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="72"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="95"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="70"/>
-      <c r="B10" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="94"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="70"/>
-      <c r="B11" s="69" t="s">
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="91"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="66"/>
+      <c r="B10" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="90"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="66"/>
+      <c r="B11" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="72"/>
-      <c r="D11" s="72"/>
-      <c r="E11" s="94"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="70"/>
-      <c r="B12" s="69" t="s">
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="90"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="66"/>
+      <c r="B12" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="72"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="94"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="70"/>
-      <c r="B13" s="69" t="s">
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="90"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="66"/>
+      <c r="B13" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="72"/>
-      <c r="D13" s="72"/>
-      <c r="E13" s="94"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="70"/>
-      <c r="B14" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="72"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
-        <v>186</v>
-      </c>
-      <c r="B16" s="69" t="s">
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="90"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="66"/>
+      <c r="B14" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="64"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="68"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="70" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="95" t="str">
+      <c r="C16" s="62"/>
+      <c r="D16" s="69"/>
+      <c r="E16" s="91" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="70"/>
-      <c r="B17" s="69" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="94" t="str">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="66"/>
+      <c r="B17" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="62"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="90" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="70"/>
-      <c r="B18" s="69" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="66"/>
+      <c r="B18" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="94" t="str">
+      <c r="C18" s="62"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="90" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="70"/>
-      <c r="B19" s="69" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="66"/>
+      <c r="B19" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="72"/>
-      <c r="E19" s="94" t="str">
+      <c r="C19" s="62"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="90" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="70"/>
-      <c r="B20" s="69" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="66"/>
+      <c r="B20" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="71"/>
-      <c r="E20" s="94" t="str">
+      <c r="C20" s="62"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="90" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="70"/>
-      <c r="B21" s="69" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="68"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="66"/>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="66"/>
+      <c r="B21" s="65" t="s">
+        <v>173</v>
+      </c>
+      <c r="C21" s="64"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="62"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11493,8 +10775,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -11504,53 +10786,625 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="77" t="s">
-        <v>196</v>
-      </c>
-      <c r="C1" s="100" t="s">
-        <v>197</v>
-      </c>
-      <c r="D1" s="100" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="95" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="73" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="96" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="96" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="65" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="69" t="s">
-        <v>198</v>
-      </c>
-      <c r="D2" s="72"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
-        <v>200</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>191</v>
-      </c>
-      <c r="C3" s="69" t="s">
-        <v>199</v>
-      </c>
-      <c r="D3" s="72"/>
+      <c r="C2" s="65" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="68"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="96" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="68"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="56" style="74" customWidth="1"/>
+    <col min="2" max="2" width="20" style="54" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="53" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="53" customWidth="1"/>
+    <col min="5" max="16384" width="14.5" style="53"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+      <c r="A1" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="99" t="str">
+        <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
+        <v>Baseline (2017) coverage</v>
+      </c>
+      <c r="C1" s="82" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="81" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="75">
+        <v>0</v>
+      </c>
+      <c r="C2" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D2" s="76">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="75">
+        <v>0</v>
+      </c>
+      <c r="C3" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D3" s="76">
+        <v>1</v>
+      </c>
+      <c r="E3" s="61"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="75">
+        <v>0</v>
+      </c>
+      <c r="C4" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D4" s="76">
+        <f>180</f>
+        <v>180</v>
+      </c>
+      <c r="E4" s="61"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="B5" s="75">
+        <v>0</v>
+      </c>
+      <c r="C5" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D5" s="77">
+        <f>SUM('Programs family planning'!E2:E10)</f>
+        <v>0.82100000000000006</v>
+      </c>
+      <c r="E5" s="80"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="74" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="75">
+        <v>0</v>
+      </c>
+      <c r="C6" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="76">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E6" s="79"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="74" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="75">
+        <v>0</v>
+      </c>
+      <c r="C7" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D7" s="76">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="79"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="74" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="75">
+        <v>0</v>
+      </c>
+      <c r="C8" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D8" s="76">
+        <v>0.19</v>
+      </c>
+      <c r="E8" s="79"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="94" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="75">
+        <v>0</v>
+      </c>
+      <c r="C9" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D9" s="76">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="94" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" s="75">
+        <v>0</v>
+      </c>
+      <c r="C10" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D10" s="76">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="94" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="75">
+        <v>0</v>
+      </c>
+      <c r="C11" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D11" s="76">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="94" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="75">
+        <v>0</v>
+      </c>
+      <c r="C12" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D12" s="76">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="B13" s="75">
+        <v>0</v>
+      </c>
+      <c r="C13" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D13" s="76">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B14" s="75">
+        <v>0</v>
+      </c>
+      <c r="C14" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D14" s="76">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="74" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="75">
+        <v>0</v>
+      </c>
+      <c r="C15" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D15" s="76">
+        <v>2.06</v>
+      </c>
+      <c r="E15" s="61"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="74" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="75">
+        <v>0</v>
+      </c>
+      <c r="C16" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D16" s="76">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="61"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="75">
+        <v>0</v>
+      </c>
+      <c r="C17" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D17" s="93">
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="74" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" s="75">
+        <v>0</v>
+      </c>
+      <c r="C18" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D18" s="93">
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="74" t="s">
+        <v>174</v>
+      </c>
+      <c r="B19" s="75">
+        <v>0</v>
+      </c>
+      <c r="C19" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D19" s="93">
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="74" t="s">
+        <v>200</v>
+      </c>
+      <c r="B20" s="75">
+        <v>0</v>
+      </c>
+      <c r="C20" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D20" s="76">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="74" t="s">
+        <v>137</v>
+      </c>
+      <c r="B21" s="75">
+        <v>0</v>
+      </c>
+      <c r="C21" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D21" s="76">
+        <v>50</v>
+      </c>
+      <c r="E21" s="61"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="75">
+        <v>0</v>
+      </c>
+      <c r="C22" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D22" s="76">
+        <v>2.61</v>
+      </c>
+      <c r="E22" s="61"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="75">
+        <v>0</v>
+      </c>
+      <c r="C23" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D23" s="76">
+        <v>1</v>
+      </c>
+      <c r="E23" s="61"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="75">
+        <v>0</v>
+      </c>
+      <c r="C24" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D24" s="76">
+        <v>1</v>
+      </c>
+      <c r="E24" s="78"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="74" t="s">
+        <v>138</v>
+      </c>
+      <c r="B25" s="75">
+        <v>0</v>
+      </c>
+      <c r="C25" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D25" s="76">
+        <v>1</v>
+      </c>
+      <c r="E25" s="61"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="75">
+        <v>0</v>
+      </c>
+      <c r="C26" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D26" s="76">
+        <v>2.99</v>
+      </c>
+      <c r="E26" s="61"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="75">
+        <v>0</v>
+      </c>
+      <c r="C27" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D27" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="74" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="75">
+        <v>0</v>
+      </c>
+      <c r="C28" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D28" s="76">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="74" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="75">
+        <v>0</v>
+      </c>
+      <c r="C29" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D29" s="77">
+        <f>90*AVERAGE('Incidence of conditions'!B4:F4) + 40*AVERAGE('Incidence of conditions'!B3:F3)*IF(ISBLANK(manage_mam), 0, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="75">
+        <v>0</v>
+      </c>
+      <c r="C30" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D30" s="76">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="75">
+        <v>0</v>
+      </c>
+      <c r="C31" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D31" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="74" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="75">
+        <v>0</v>
+      </c>
+      <c r="C32" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D32" s="76">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="74" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="75">
+        <v>0</v>
+      </c>
+      <c r="C33" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D33" s="76">
+        <v>50.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B34" s="75">
+        <v>0</v>
+      </c>
+      <c r="C34" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D34" s="76">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B35" s="75">
+        <v>0</v>
+      </c>
+      <c r="C35" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D35" s="76">
+        <v>231.85</v>
+      </c>
+      <c r="F35" s="53"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B36" s="75">
+        <v>0</v>
+      </c>
+      <c r="C36" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D36" s="76">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="75">
+        <v>0</v>
+      </c>
+      <c r="C37" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D37" s="76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F38" s="54"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D37">
+    <sortCondition ref="A2:A37"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
 </file>
--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6E77CBEB-9E4B-044D-85A9-F9E76E974872}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{581F6C99-7ABC-A340-B723-D81E3155E3EE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5597,7 +5597,9 @@
   </sheetPr>
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -5978,7 +5980,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6011,85 +6013,45 @@
       <c r="B2" s="86" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="76">
-        <f>1.5*0.61</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D2" s="76">
-        <f>0.5*0.61</f>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="E2" s="76">
-        <v>0.05</v>
-      </c>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="86"/>
       <c r="B3" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="76">
-        <f>1.5*0.61</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D3" s="76">
-        <f>0.5*0.61</f>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="E3" s="76">
-        <v>0.05</v>
-      </c>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="86"/>
       <c r="B4" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="76">
-        <f>1.5*0.61</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D4" s="76">
-        <f>0.5*0.61</f>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="E4" s="76">
-        <v>0.05</v>
-      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="86"/>
       <c r="B5" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="76">
-        <f>1.5*0.61</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D5" s="76">
-        <f>0.5*0.61</f>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="E5" s="76">
-        <v>0.05</v>
-      </c>
+      <c r="C5" s="76"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="86"/>
       <c r="B6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="76">
-        <f>1.5*0.61</f>
-        <v>0.91500000000000004</v>
-      </c>
-      <c r="D6" s="76">
-        <f>0.5*0.61</f>
-        <v>0.30499999999999999</v>
-      </c>
-      <c r="E6" s="76">
-        <v>0.05</v>
-      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="85"/>
@@ -6415,7 +6377,7 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -8338,9 +8300,7 @@
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9335,9 +9295,7 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10233,9 +10191,7 @@
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10337,9 +10293,7 @@
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10542,9 +10496,7 @@
   </sheetPr>
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10782,9 +10734,7 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10844,9 +10794,7 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>

--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{581F6C99-7ABC-A340-B723-D81E3155E3EE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="-21132" windowWidth="28920" windowHeight="16320" tabRatio="961" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -19,30 +18,31 @@
     <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
     <sheet name="Time trends" sheetId="51" r:id="rId6"/>
-    <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
-    <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
-    <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
-    <sheet name="IYCF cost" sheetId="57" r:id="rId10"/>
-    <sheet name="Program dependencies" sheetId="58" r:id="rId11"/>
-    <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId12"/>
-    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId13"/>
-    <sheet name="Programs target population" sheetId="21" r:id="rId14"/>
-    <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
+    <sheet name="Fertility risks" sheetId="42" r:id="rId7"/>
+    <sheet name="IYCF packages" sheetId="55" r:id="rId8"/>
+    <sheet name="Treatment of SAM" sheetId="60" r:id="rId9"/>
+    <sheet name="Programs cost and coverage" sheetId="56" r:id="rId10"/>
+    <sheet name="IYCF cost" sheetId="57" r:id="rId11"/>
+    <sheet name="Program dependencies" sheetId="58" r:id="rId12"/>
+    <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId13"/>
+    <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId14"/>
+    <sheet name="Programs target population" sheetId="21" r:id="rId15"/>
+    <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="abortion" localSheetId="6">'Baseline year population inputs'!$C$37</definedName>
-    <definedName name="abortion">'Baseline year population inputs'!$C$40</definedName>
+    <definedName name="abortion" localSheetId="7">'Baseline year population inputs'!$C$30</definedName>
+    <definedName name="abortion">'Baseline year population inputs'!$C$33</definedName>
     <definedName name="comm_deliv">'Treatment of SAM'!$D$3</definedName>
-    <definedName name="diarrhoea_1_5mo">'Baseline year population inputs'!$C$51</definedName>
-    <definedName name="diarrhoea_12_23mo">'Baseline year population inputs'!$C$53</definedName>
-    <definedName name="diarrhoea_1mo">'Baseline year population inputs'!$C$50</definedName>
-    <definedName name="diarrhoea_24_59mo">'Baseline year population inputs'!$C$54</definedName>
-    <definedName name="diarrhoea_6_11mo">'Baseline year population inputs'!$C$52</definedName>
+    <definedName name="diarrhoea_1_5mo">'Baseline year population inputs'!$C$44</definedName>
+    <definedName name="diarrhoea_12_23mo">'Baseline year population inputs'!$C$46</definedName>
+    <definedName name="diarrhoea_1mo">'Baseline year population inputs'!$C$43</definedName>
+    <definedName name="diarrhoea_24_59mo">'Baseline year population inputs'!$C$47</definedName>
+    <definedName name="diarrhoea_6_11mo">'Baseline year population inputs'!$C$45</definedName>
     <definedName name="end_year">'Baseline year population inputs'!$C$4</definedName>
     <definedName name="famplan_unmet_need">'Baseline year population inputs'!$C$12</definedName>
     <definedName name="food_insecure">'Baseline year population inputs'!$C$7</definedName>
     <definedName name="frac_children_health_facility">'Baseline year population inputs'!$C$11</definedName>
-    <definedName name="frac_diarrhea_severe">'Baseline year population inputs'!$C$57</definedName>
+    <definedName name="frac_diarrhea_severe">'Baseline year population inputs'!$C$50</definedName>
     <definedName name="frac_maize">'Baseline year population inputs'!$C$18</definedName>
     <definedName name="frac_malaria_risk">'Baseline year population inputs'!$C$8</definedName>
     <definedName name="frac_mam_1_5months">'Nutritional status distribution'!$D$10</definedName>
@@ -62,33 +62,33 @@
     <definedName name="frac_SAMtoMAM">'Baseline year population inputs'!#REF!</definedName>
     <definedName name="frac_subsistence_farming">'Baseline year population inputs'!$C$15</definedName>
     <definedName name="frac_wheat">'Baseline year population inputs'!$C$17</definedName>
-    <definedName name="infant_mortality">'Baseline year population inputs'!$C$37</definedName>
-    <definedName name="iron_deficiency_anaemia">'Baseline year population inputs'!$C$58</definedName>
+    <definedName name="infant_mortality">'Baseline year population inputs'!$C$30</definedName>
+    <definedName name="iron_deficiency_anaemia">'Baseline year population inputs'!$C$51</definedName>
     <definedName name="manage_mam">'Treatment of SAM'!$D$2</definedName>
-    <definedName name="maternal_mortality">'Baseline year population inputs'!$C$39</definedName>
-    <definedName name="neonatal_mortality">'Baseline year population inputs'!$C$36</definedName>
+    <definedName name="maternal_mortality">'Baseline year population inputs'!$C$32</definedName>
+    <definedName name="neonatal_mortality">'Baseline year population inputs'!$C$29</definedName>
     <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Baseline year population inputs'!$C$10</definedName>
-    <definedName name="preterm_AGA">'Baseline year population inputs'!$C$45</definedName>
-    <definedName name="preterm_SGA">'Baseline year population inputs'!$C$44</definedName>
+    <definedName name="preterm_AGA">'Baseline year population inputs'!$C$38</definedName>
+    <definedName name="preterm_SGA">'Baseline year population inputs'!$C$37</definedName>
     <definedName name="school_attendance">'Baseline year population inputs'!$C$9</definedName>
     <definedName name="start_year">'Baseline year population inputs'!$C$3</definedName>
-    <definedName name="stillbirth" localSheetId="6">'Baseline year population inputs'!$C$38</definedName>
-    <definedName name="stillbirth">'Baseline year population inputs'!$C$41</definedName>
-    <definedName name="term_AGA">'Baseline year population inputs'!$C$47</definedName>
-    <definedName name="term_SGA">'Baseline year population inputs'!$C$46</definedName>
-    <definedName name="U5_mortality">'Baseline year population inputs'!$C$38</definedName>
+    <definedName name="stillbirth" localSheetId="7">'Baseline year population inputs'!$C$31</definedName>
+    <definedName name="stillbirth">'Baseline year population inputs'!$C$34</definedName>
+    <definedName name="term_AGA">'Baseline year population inputs'!$C$40</definedName>
+    <definedName name="term_SGA">'Baseline year population inputs'!$C$39</definedName>
+    <definedName name="U5_mortality">'Baseline year population inputs'!$C$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -112,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,12 +141,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -184,7 +184,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="216">
   <si>
     <t>year</t>
   </si>
@@ -411,6 +411,36 @@
     <t>Mortality</t>
   </si>
   <si>
+    <t>Less than 18 years first birth</t>
+  </si>
+  <si>
+    <t>Less than 18 years second and third births</t>
+  </si>
+  <si>
+    <t>Less than 18 years greater than third birth</t>
+  </si>
+  <si>
+    <t>18 - 34 years old first birth</t>
+  </si>
+  <si>
+    <t>18 - 34 years old second and third births</t>
+  </si>
+  <si>
+    <t>18 - 34 years old greater than third birth</t>
+  </si>
+  <si>
+    <t>35-49 years old first birth</t>
+  </si>
+  <si>
+    <t>35-49 years old second and third births</t>
+  </si>
+  <si>
+    <t>35-49 years old greater than third birth</t>
+  </si>
+  <si>
+    <t>Birth intervals</t>
+  </si>
+  <si>
     <t>First birth</t>
   </si>
   <si>
@@ -561,6 +591,12 @@
     <t>SAM   (WHZ-score &lt; -3)</t>
   </si>
   <si>
+    <t>Birth age and order</t>
+  </si>
+  <si>
+    <t>Type of risk</t>
+  </si>
+  <si>
     <t>Average episodes per year: &lt;1 month</t>
   </si>
   <si>
@@ -796,20 +832,17 @@
   </si>
   <si>
     <t>Unit cost (US$)</t>
-  </si>
-  <si>
-    <t>Birth spacing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
     <font>
@@ -1068,7 +1101,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2509,7 +2542,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2552,8 +2585,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2569,8 +2602,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2589,20 +2622,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2614,11 +2656,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2640,24 +2682,27 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2686,8 +2731,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="21" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="21" fillId="3" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4150,8 +4195,8 @@
     <cellStyle name="Hyperlink" xfId="1445" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1447" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000A6050000}"/>
-    <cellStyle name="Normal 3" xfId="726" xr:uid="{00000000-0005-0000-0000-0000A7050000}"/>
+    <cellStyle name="Normal 2" xfId="725"/>
+    <cellStyle name="Normal 3" xfId="726"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -5591,380 +5636,336 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="15" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="14.5" style="15"/>
+    <col min="3" max="16384" width="14.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="59" t="s">
-        <v>165</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>110</v>
+      </c>
+      <c r="B1" s="62" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="62" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="59"/>
-      <c r="C2" s="59"/>
-    </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+        <v>208</v>
+      </c>
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+    </row>
+    <row r="3" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="C3" s="97">
+        <v>210</v>
+      </c>
+      <c r="C3" s="101">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C4" s="98">
+        <v>209</v>
+      </c>
+      <c r="C4" s="102">
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C8" s="23"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="C16" s="23"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="C17" s="23"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C18" s="23"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C19" s="26">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="23"/>
+    </row>
+    <row r="24" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C24" s="23"/>
+    </row>
+    <row r="25" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="9"/>
+      <c r="C28" s="16"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="C29" s="25"/>
+    </row>
+    <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="21"/>
+    </row>
+    <row r="31" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="25"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="20"/>
+    </row>
+    <row r="32" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C32" s="25"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="19" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="23"/>
-    </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23" s="23"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="27" t="s">
+      <c r="C33" s="23"/>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="23"/>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="C25" s="23"/>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-    </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="42"/>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C29" s="42"/>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="41" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="42"/>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="42"/>
-    </row>
-    <row r="32" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B32" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="44">
-        <f>SUM(C28:C31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="16"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="60" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="25"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C34" s="25"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D35" s="20"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D36" s="20"/>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="25"/>
+        <v>9</v>
+      </c>
+      <c r="C37" s="23"/>
       <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="25"/>
+        <v>11</v>
+      </c>
+      <c r="C38" s="23"/>
       <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C39" s="25"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="21"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="C40" s="23"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" s="25"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+      <c r="C40" s="26">
+        <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
+        <v>1</v>
+      </c>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D41" s="20"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="D42" s="20"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="15" t="s">
-        <v>134</v>
-      </c>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="C43" s="7"/>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="23"/>
-      <c r="D44" s="20"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>138</v>
+      </c>
+      <c r="C44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="23"/>
-      <c r="D45" s="20"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>139</v>
+      </c>
+      <c r="C45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="23"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>140</v>
+      </c>
+      <c r="C46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C47" s="26">
-        <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
-        <v>1</v>
-      </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D48" s="20"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>141</v>
+      </c>
+      <c r="C47" s="7"/>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="19" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B53" s="19" t="s">
-        <v>128</v>
-      </c>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B54" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="C57" s="24">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="24"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4"/>
+        <v>145</v>
+      </c>
+      <c r="C51" s="24"/>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5973,96 +5974,708 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="56" style="78" customWidth="1"/>
+    <col min="2" max="2" width="20" style="57" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="56" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="56" customWidth="1"/>
+    <col min="5" max="16384" width="14.44140625" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="103" t="str">
+        <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
+        <v>Baseline (2017) coverage</v>
+      </c>
+      <c r="C1" s="86" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="85" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="78" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="79">
+        <v>0</v>
+      </c>
+      <c r="C2" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D2" s="80">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="79">
+        <v>0</v>
+      </c>
+      <c r="C3" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D3" s="80">
+        <v>1</v>
+      </c>
+      <c r="E3" s="65"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="79">
+        <v>0</v>
+      </c>
+      <c r="C4" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D4" s="80">
+        <f>180</f>
+        <v>180</v>
+      </c>
+      <c r="E4" s="65"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="79">
+        <v>0</v>
+      </c>
+      <c r="C5" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D5" s="81">
+        <f>SUM('Programs family planning'!E2:E10)</f>
+        <v>0.82100000000000006</v>
+      </c>
+      <c r="E5" s="84"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="78" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="79">
+        <v>0</v>
+      </c>
+      <c r="C6" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="80">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="E6" s="83"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="78" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="79">
+        <v>0</v>
+      </c>
+      <c r="C7" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D7" s="80">
+        <v>0.75</v>
+      </c>
+      <c r="E7" s="83"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="78" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="79">
+        <v>0</v>
+      </c>
+      <c r="C8" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D8" s="80">
+        <v>0.19</v>
+      </c>
+      <c r="E8" s="83"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="B9" s="79">
+        <v>0</v>
+      </c>
+      <c r="C9" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D9" s="80">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="98" t="s">
+        <v>204</v>
+      </c>
+      <c r="B10" s="79">
+        <v>0</v>
+      </c>
+      <c r="C10" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D10" s="80">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="B11" s="79">
+        <v>0</v>
+      </c>
+      <c r="C11" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D11" s="80">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="B12" s="79">
+        <v>0</v>
+      </c>
+      <c r="C12" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D12" s="80">
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B13" s="79">
+        <v>0</v>
+      </c>
+      <c r="C13" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D13" s="80">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="B14" s="79">
+        <v>0</v>
+      </c>
+      <c r="C14" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D14" s="80">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="78" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="79">
+        <v>0</v>
+      </c>
+      <c r="C15" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D15" s="80">
+        <v>2.06</v>
+      </c>
+      <c r="E15" s="65"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="79">
+        <v>0</v>
+      </c>
+      <c r="C16" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D16" s="80">
+        <v>0.25</v>
+      </c>
+      <c r="E16" s="65"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="78" t="s">
+        <v>188</v>
+      </c>
+      <c r="B17" s="79">
+        <v>0</v>
+      </c>
+      <c r="C17" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D17" s="97">
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="78" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="79">
+        <v>0</v>
+      </c>
+      <c r="C18" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D18" s="97">
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="78" t="s">
+        <v>186</v>
+      </c>
+      <c r="B19" s="79">
+        <v>0</v>
+      </c>
+      <c r="C19" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D19" s="97">
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="78" t="s">
+        <v>212</v>
+      </c>
+      <c r="B20" s="79">
+        <v>0</v>
+      </c>
+      <c r="C20" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D20" s="80">
+        <v>8.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="B21" s="79">
+        <v>0</v>
+      </c>
+      <c r="C21" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D21" s="80">
+        <v>50</v>
+      </c>
+      <c r="E21" s="65"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="78" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="79">
+        <v>0</v>
+      </c>
+      <c r="C22" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D22" s="80">
+        <v>2.61</v>
+      </c>
+      <c r="E22" s="65"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="79">
+        <v>0</v>
+      </c>
+      <c r="C23" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D23" s="80">
+        <v>1</v>
+      </c>
+      <c r="E23" s="65"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="78" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="79">
+        <v>0</v>
+      </c>
+      <c r="C24" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D24" s="80">
+        <v>1</v>
+      </c>
+      <c r="E24" s="82"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B25" s="79">
+        <v>0</v>
+      </c>
+      <c r="C25" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D25" s="80">
+        <v>1</v>
+      </c>
+      <c r="E25" s="65"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="78" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="79">
+        <v>0</v>
+      </c>
+      <c r="C26" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D26" s="80">
+        <v>2.99</v>
+      </c>
+      <c r="E26" s="65"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="78" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="79">
+        <v>0</v>
+      </c>
+      <c r="C27" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D27" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="79">
+        <v>0</v>
+      </c>
+      <c r="C28" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D28" s="80">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="78" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="79">
+        <v>0</v>
+      </c>
+      <c r="C29" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D29" s="81">
+        <f>90*AVERAGE('Incidence of conditions'!B4:F4) + 40*AVERAGE('Incidence of conditions'!B3:F3)*IF(ISBLANK(manage_mam), 0, 1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" s="79">
+        <v>0</v>
+      </c>
+      <c r="C30" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D30" s="80">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="78" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="79">
+        <v>0</v>
+      </c>
+      <c r="C31" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D31" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="78" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="79">
+        <v>0</v>
+      </c>
+      <c r="C32" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D32" s="80">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="79">
+        <v>0</v>
+      </c>
+      <c r="C33" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D33" s="80">
+        <v>50.26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="79">
+        <v>0</v>
+      </c>
+      <c r="C34" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D34" s="80">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="78" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="79">
+        <v>0</v>
+      </c>
+      <c r="C35" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D35" s="80">
+        <v>231.85</v>
+      </c>
+      <c r="F35" s="56"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="78" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="79">
+        <v>0</v>
+      </c>
+      <c r="C36" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D36" s="80">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="78" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="79">
+        <v>0</v>
+      </c>
+      <c r="C37" s="79">
+        <v>0.95</v>
+      </c>
+      <c r="D37" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F38" s="57"/>
+    </row>
+  </sheetData>
+  <sortState ref="A2:D37">
+    <sortCondition ref="A2:A37"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="84" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="84"/>
+    <col min="1" max="1" width="18.6640625" style="88" customWidth="1"/>
+    <col min="2" max="16384" width="10.88671875" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
-        <v>199</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="88" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="88" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="88" t="s">
+    <row r="1" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="93" t="s">
+        <v>211</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="91" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
-        <v>165</v>
-      </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86" t="s">
+      <c r="C2" s="80">
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D2" s="80">
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E2" s="80">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="90"/>
+      <c r="B3" s="90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="80">
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D3" s="80">
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E3" s="80">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="90"/>
+      <c r="B4" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86" t="s">
+      <c r="C4" s="80">
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D4" s="80">
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E4" s="80">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="90"/>
+      <c r="B5" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="76"/>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86" t="s">
+      <c r="C5" s="80">
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D5" s="80">
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E5" s="80">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="90"/>
+      <c r="B6" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="85"/>
+      <c r="C6" s="80">
+        <f>1.5*0.61</f>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="D6" s="80">
+        <f>0.5*0.61</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="E6" s="80">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6072,84 +6685,84 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" style="74" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="53" customWidth="1"/>
-    <col min="4" max="16384" width="11.5" style="53"/>
+    <col min="1" max="1" width="53" style="78" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.88671875" style="56" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B1" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B2" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="68"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" s="72"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="B3" s="68" t="s">
+        <v>207</v>
+      </c>
+      <c r="B3" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="68"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" s="74" t="s">
+      <c r="C3" s="72"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="C4" s="68"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="68"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="49"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="49"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="49"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A14" s="49"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A15" s="49"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" s="49"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="49"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="49"/>
+      <c r="B4" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="72"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="72" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="72"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="52"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="52"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="52"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="52"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="52"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="52"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="52"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6158,8 +6771,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6169,86 +6782,86 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" style="53" customWidth="1"/>
-    <col min="2" max="16384" width="11.5" style="53"/>
+    <col min="1" max="1" width="30.109375" style="56" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="68" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="72" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="68" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="68" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="68" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="68"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A13" s="68"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A15" s="68"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A16" s="68"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" s="68"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" s="68"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" s="68"/>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="72" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="72" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="72" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="72"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="72"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="72"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="72"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="72"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="72"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="72"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="72"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="72"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6256,8 +6869,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -6267,9 +6880,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6289,32 +6902,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
       <c r="B2" s="37">
-        <f>'Baseline year population inputs'!C50</f>
+        <f>'Baseline year population inputs'!C43</f>
         <v>0</v>
       </c>
       <c r="C2" s="37">
-        <f>'Baseline year population inputs'!C51</f>
+        <f>'Baseline year population inputs'!C44</f>
         <v>0</v>
       </c>
       <c r="D2" s="37">
-        <f>'Baseline year population inputs'!C52</f>
+        <f>'Baseline year population inputs'!C45</f>
         <v>0</v>
       </c>
       <c r="E2" s="37">
-        <f>'Baseline year population inputs'!C53</f>
+        <f>'Baseline year population inputs'!C46</f>
         <v>0</v>
       </c>
       <c r="F2" s="37">
-        <f>'Baseline year population inputs'!C54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <f>'Baseline year population inputs'!C47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -6339,7 +6952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -6370,30 +6983,30 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.88671875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -6440,1139 +7053,1139 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="51">
-        <v>0</v>
-      </c>
-      <c r="D2" s="51">
+      <c r="C2" s="54">
+        <v>0</v>
+      </c>
+      <c r="D2" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="E2" s="51">
+      <c r="E2" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="G2" s="51">
+      <c r="G2" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="H2" s="52">
-        <v>0</v>
-      </c>
-      <c r="I2" s="52">
-        <v>0</v>
-      </c>
-      <c r="J2" s="52">
-        <v>0</v>
-      </c>
-      <c r="K2" s="52">
-        <v>0</v>
-      </c>
-      <c r="L2" s="52">
-        <v>0</v>
-      </c>
-      <c r="M2" s="52">
-        <v>0</v>
-      </c>
-      <c r="N2" s="52">
-        <v>0</v>
-      </c>
-      <c r="O2" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H2" s="55">
+        <v>0</v>
+      </c>
+      <c r="I2" s="55">
+        <v>0</v>
+      </c>
+      <c r="J2" s="55">
+        <v>0</v>
+      </c>
+      <c r="K2" s="55">
+        <v>0</v>
+      </c>
+      <c r="L2" s="55">
+        <v>0</v>
+      </c>
+      <c r="M2" s="55">
+        <v>0</v>
+      </c>
+      <c r="N2" s="55">
+        <v>0</v>
+      </c>
+      <c r="O2" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C3" s="54">
+        <v>1</v>
+      </c>
+      <c r="D3" s="54">
+        <v>0</v>
+      </c>
+      <c r="E3" s="54">
+        <v>0</v>
+      </c>
+      <c r="F3" s="54">
+        <v>0</v>
+      </c>
+      <c r="G3" s="54">
+        <v>0</v>
+      </c>
+      <c r="H3" s="55">
+        <v>0</v>
+      </c>
+      <c r="I3" s="55">
+        <v>0</v>
+      </c>
+      <c r="J3" s="55">
+        <v>0</v>
+      </c>
+      <c r="K3" s="55">
+        <v>0</v>
+      </c>
+      <c r="L3" s="55">
+        <v>0</v>
+      </c>
+      <c r="M3" s="55">
+        <v>0</v>
+      </c>
+      <c r="N3" s="55">
+        <v>0</v>
+      </c>
+      <c r="O3" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C4" s="54">
+        <v>1</v>
+      </c>
+      <c r="D4" s="54">
+        <v>0</v>
+      </c>
+      <c r="E4" s="54">
+        <v>0</v>
+      </c>
+      <c r="F4" s="54">
+        <v>0</v>
+      </c>
+      <c r="G4" s="54">
+        <v>0</v>
+      </c>
+      <c r="H4" s="55">
+        <v>0</v>
+      </c>
+      <c r="I4" s="55">
+        <v>0</v>
+      </c>
+      <c r="J4" s="55">
+        <v>0</v>
+      </c>
+      <c r="K4" s="55">
+        <v>0</v>
+      </c>
+      <c r="L4" s="55">
+        <v>0</v>
+      </c>
+      <c r="M4" s="55">
+        <v>0</v>
+      </c>
+      <c r="N4" s="55">
+        <v>0</v>
+      </c>
+      <c r="O4" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="54">
+        <v>0</v>
+      </c>
+      <c r="D5" s="54">
+        <v>0</v>
+      </c>
+      <c r="E5" s="54">
+        <f>food_insecure</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="54">
+        <f>food_insecure</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="54">
+        <v>0</v>
+      </c>
+      <c r="H5" s="55">
+        <v>0</v>
+      </c>
+      <c r="I5" s="55">
+        <v>0</v>
+      </c>
+      <c r="J5" s="55">
+        <v>0</v>
+      </c>
+      <c r="K5" s="55">
+        <v>0</v>
+      </c>
+      <c r="L5" s="55">
+        <v>0</v>
+      </c>
+      <c r="M5" s="55">
+        <v>0</v>
+      </c>
+      <c r="N5" s="55">
+        <v>0</v>
+      </c>
+      <c r="O5" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="C3" s="51">
-        <v>1</v>
-      </c>
-      <c r="D3" s="51">
-        <v>0</v>
-      </c>
-      <c r="E3" s="51">
-        <v>0</v>
-      </c>
-      <c r="F3" s="51">
-        <v>0</v>
-      </c>
-      <c r="G3" s="51">
-        <v>0</v>
-      </c>
-      <c r="H3" s="52">
-        <v>0</v>
-      </c>
-      <c r="I3" s="52">
-        <v>0</v>
-      </c>
-      <c r="J3" s="52">
-        <v>0</v>
-      </c>
-      <c r="K3" s="52">
-        <v>0</v>
-      </c>
-      <c r="L3" s="52">
-        <v>0</v>
-      </c>
-      <c r="M3" s="52">
-        <v>0</v>
-      </c>
-      <c r="N3" s="52">
-        <v>0</v>
-      </c>
-      <c r="O3" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" s="51">
-        <v>1</v>
-      </c>
-      <c r="D4" s="51">
-        <v>0</v>
-      </c>
-      <c r="E4" s="51">
-        <v>0</v>
-      </c>
-      <c r="F4" s="51">
-        <v>0</v>
-      </c>
-      <c r="G4" s="51">
-        <v>0</v>
-      </c>
-      <c r="H4" s="52">
-        <v>0</v>
-      </c>
-      <c r="I4" s="52">
-        <v>0</v>
-      </c>
-      <c r="J4" s="52">
-        <v>0</v>
-      </c>
-      <c r="K4" s="52">
-        <v>0</v>
-      </c>
-      <c r="L4" s="52">
-        <v>0</v>
-      </c>
-      <c r="M4" s="52">
-        <v>0</v>
-      </c>
-      <c r="N4" s="52">
-        <v>0</v>
-      </c>
-      <c r="O4" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="51">
-        <v>0</v>
-      </c>
-      <c r="D5" s="51">
-        <v>0</v>
-      </c>
-      <c r="E5" s="51">
-        <f>food_insecure</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="51">
-        <f>food_insecure</f>
-        <v>0</v>
-      </c>
-      <c r="G5" s="51">
-        <v>0</v>
-      </c>
-      <c r="H5" s="52">
-        <v>0</v>
-      </c>
-      <c r="I5" s="52">
-        <v>0</v>
-      </c>
-      <c r="J5" s="52">
-        <v>0</v>
-      </c>
-      <c r="K5" s="52">
-        <v>0</v>
-      </c>
-      <c r="L5" s="52">
-        <v>0</v>
-      </c>
-      <c r="M5" s="52">
-        <v>0</v>
-      </c>
-      <c r="N5" s="52">
-        <v>0</v>
-      </c>
-      <c r="O5" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C6" s="51">
-        <v>0</v>
-      </c>
-      <c r="D6" s="51">
-        <v>0</v>
-      </c>
-      <c r="E6" s="51">
+      <c r="C6" s="54">
+        <v>0</v>
+      </c>
+      <c r="D6" s="54">
+        <v>0</v>
+      </c>
+      <c r="E6" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="G6" s="51">
+      <c r="G6" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H6" s="52">
-        <v>0</v>
-      </c>
-      <c r="I6" s="52">
-        <v>0</v>
-      </c>
-      <c r="J6" s="52">
-        <v>0</v>
-      </c>
-      <c r="K6" s="52">
-        <v>0</v>
-      </c>
-      <c r="L6" s="52">
-        <v>0</v>
-      </c>
-      <c r="M6" s="52">
-        <v>0</v>
-      </c>
-      <c r="N6" s="52">
-        <v>0</v>
-      </c>
-      <c r="O6" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="49" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="51">
+      <c r="H6" s="55">
+        <v>0</v>
+      </c>
+      <c r="I6" s="55">
+        <v>0</v>
+      </c>
+      <c r="J6" s="55">
+        <v>0</v>
+      </c>
+      <c r="K6" s="55">
+        <v>0</v>
+      </c>
+      <c r="L6" s="55">
+        <v>0</v>
+      </c>
+      <c r="M6" s="55">
+        <v>0</v>
+      </c>
+      <c r="N6" s="55">
+        <v>0</v>
+      </c>
+      <c r="O6" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="52" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="54">
         <f>diarrhoea_1mo/26</f>
         <v>0</v>
       </c>
-      <c r="D7" s="51">
+      <c r="D7" s="54">
         <f>diarrhoea_1_5mo/26</f>
         <v>0</v>
       </c>
-      <c r="E7" s="51">
+      <c r="E7" s="54">
         <f>diarrhoea_6_11mo/26</f>
         <v>0</v>
       </c>
-      <c r="F7" s="51">
+      <c r="F7" s="54">
         <f>diarrhoea_12_23mo/26</f>
         <v>0</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="54">
         <f>diarrhoea_24_59mo/26</f>
         <v>0</v>
       </c>
-      <c r="H7" s="52">
-        <v>0</v>
-      </c>
-      <c r="I7" s="52">
-        <v>0</v>
-      </c>
-      <c r="J7" s="52">
-        <v>0</v>
-      </c>
-      <c r="K7" s="52">
-        <v>0</v>
-      </c>
-      <c r="L7" s="52">
-        <v>0</v>
-      </c>
-      <c r="M7" s="52">
-        <v>0</v>
-      </c>
-      <c r="N7" s="52">
-        <v>0</v>
-      </c>
-      <c r="O7" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H7" s="55">
+        <v>0</v>
+      </c>
+      <c r="I7" s="55">
+        <v>0</v>
+      </c>
+      <c r="J7" s="55">
+        <v>0</v>
+      </c>
+      <c r="K7" s="55">
+        <v>0</v>
+      </c>
+      <c r="L7" s="55">
+        <v>0</v>
+      </c>
+      <c r="M7" s="55">
+        <v>0</v>
+      </c>
+      <c r="N7" s="55">
+        <v>0</v>
+      </c>
+      <c r="O7" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="51">
-        <v>0</v>
-      </c>
-      <c r="D8" s="51">
-        <v>0</v>
-      </c>
-      <c r="E8" s="51">
+      <c r="C8" s="54">
+        <v>0</v>
+      </c>
+      <c r="D8" s="54">
+        <v>0</v>
+      </c>
+      <c r="E8" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="F8" s="51">
+      <c r="F8" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="G8" s="51">
-        <v>0</v>
-      </c>
-      <c r="H8" s="52">
-        <v>0</v>
-      </c>
-      <c r="I8" s="52">
-        <v>0</v>
-      </c>
-      <c r="J8" s="52">
-        <v>0</v>
-      </c>
-      <c r="K8" s="52">
-        <v>0</v>
-      </c>
-      <c r="L8" s="52">
-        <v>0</v>
-      </c>
-      <c r="M8" s="52">
-        <v>0</v>
-      </c>
-      <c r="N8" s="52">
-        <v>0</v>
-      </c>
-      <c r="O8" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G8" s="54">
+        <v>0</v>
+      </c>
+      <c r="H8" s="55">
+        <v>0</v>
+      </c>
+      <c r="I8" s="55">
+        <v>0</v>
+      </c>
+      <c r="J8" s="55">
+        <v>0</v>
+      </c>
+      <c r="K8" s="55">
+        <v>0</v>
+      </c>
+      <c r="L8" s="55">
+        <v>0</v>
+      </c>
+      <c r="M8" s="55">
+        <v>0</v>
+      </c>
+      <c r="N8" s="55">
+        <v>0</v>
+      </c>
+      <c r="O8" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="51">
-        <v>0</v>
-      </c>
-      <c r="D9" s="51">
+      <c r="C9" s="54">
+        <v>0</v>
+      </c>
+      <c r="D9" s="54">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="54">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="54">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="54">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="52">
-        <v>0</v>
-      </c>
-      <c r="I9" s="52">
-        <v>0</v>
-      </c>
-      <c r="J9" s="52">
-        <v>0</v>
-      </c>
-      <c r="K9" s="52">
-        <v>0</v>
-      </c>
-      <c r="L9" s="52">
-        <v>0</v>
-      </c>
-      <c r="M9" s="52">
-        <v>0</v>
-      </c>
-      <c r="N9" s="52">
-        <v>0</v>
-      </c>
-      <c r="O9" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H9" s="55">
+        <v>0</v>
+      </c>
+      <c r="I9" s="55">
+        <v>0</v>
+      </c>
+      <c r="J9" s="55">
+        <v>0</v>
+      </c>
+      <c r="K9" s="55">
+        <v>0</v>
+      </c>
+      <c r="L9" s="55">
+        <v>0</v>
+      </c>
+      <c r="M9" s="55">
+        <v>0</v>
+      </c>
+      <c r="N9" s="55">
+        <v>0</v>
+      </c>
+      <c r="O9" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="51">
-        <v>0</v>
-      </c>
-      <c r="D10" s="51">
-        <v>0</v>
-      </c>
-      <c r="E10" s="51">
-        <v>1</v>
-      </c>
-      <c r="F10" s="51">
-        <v>1</v>
-      </c>
-      <c r="G10" s="51">
-        <v>1</v>
-      </c>
-      <c r="H10" s="52">
-        <v>0</v>
-      </c>
-      <c r="I10" s="52">
-        <v>0</v>
-      </c>
-      <c r="J10" s="52">
-        <v>0</v>
-      </c>
-      <c r="K10" s="52">
-        <v>0</v>
-      </c>
-      <c r="L10" s="52">
-        <v>0</v>
-      </c>
-      <c r="M10" s="52">
-        <v>0</v>
-      </c>
-      <c r="N10" s="52">
-        <v>0</v>
-      </c>
-      <c r="O10" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="51">
+      <c r="C10" s="54">
+        <v>0</v>
+      </c>
+      <c r="D10" s="54">
+        <v>0</v>
+      </c>
+      <c r="E10" s="54">
+        <v>1</v>
+      </c>
+      <c r="F10" s="54">
+        <v>1</v>
+      </c>
+      <c r="G10" s="54">
+        <v>1</v>
+      </c>
+      <c r="H10" s="55">
+        <v>0</v>
+      </c>
+      <c r="I10" s="55">
+        <v>0</v>
+      </c>
+      <c r="J10" s="55">
+        <v>0</v>
+      </c>
+      <c r="K10" s="55">
+        <v>0</v>
+      </c>
+      <c r="L10" s="55">
+        <v>0</v>
+      </c>
+      <c r="M10" s="55">
+        <v>0</v>
+      </c>
+      <c r="N10" s="55">
+        <v>0</v>
+      </c>
+      <c r="O10" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" s="54">
         <f>diarrhoea_1mo/26</f>
         <v>0</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="54">
         <f>diarrhoea_1_5mo/26</f>
         <v>0</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="54">
         <f>diarrhoea_6_11mo/26</f>
         <v>0</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="54">
         <f>diarrhoea_12_23mo/26</f>
         <v>0</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="54">
         <f>diarrhoea_24_59mo/26</f>
         <v>0</v>
       </c>
-      <c r="H11" s="52">
-        <v>0</v>
-      </c>
-      <c r="I11" s="52">
-        <v>0</v>
-      </c>
-      <c r="J11" s="52">
-        <v>0</v>
-      </c>
-      <c r="K11" s="52">
-        <v>0</v>
-      </c>
-      <c r="L11" s="52">
-        <v>0</v>
-      </c>
-      <c r="M11" s="52">
-        <v>0</v>
-      </c>
-      <c r="N11" s="52">
-        <v>0</v>
-      </c>
-      <c r="O11" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H11" s="55">
+        <v>0</v>
+      </c>
+      <c r="I11" s="55">
+        <v>0</v>
+      </c>
+      <c r="J11" s="55">
+        <v>0</v>
+      </c>
+      <c r="K11" s="55">
+        <v>0</v>
+      </c>
+      <c r="L11" s="55">
+        <v>0</v>
+      </c>
+      <c r="M11" s="55">
+        <v>0</v>
+      </c>
+      <c r="N11" s="55">
+        <v>0</v>
+      </c>
+      <c r="O11" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="51">
-        <v>0</v>
-      </c>
-      <c r="D12" s="51">
-        <v>0</v>
-      </c>
-      <c r="E12" s="51">
-        <v>1</v>
-      </c>
-      <c r="F12" s="51">
-        <v>1</v>
-      </c>
-      <c r="G12" s="51">
-        <v>1</v>
-      </c>
-      <c r="H12" s="52">
-        <v>0</v>
-      </c>
-      <c r="I12" s="52">
-        <v>0</v>
-      </c>
-      <c r="J12" s="52">
-        <v>0</v>
-      </c>
-      <c r="K12" s="52">
-        <v>0</v>
-      </c>
-      <c r="L12" s="52">
-        <v>0</v>
-      </c>
-      <c r="M12" s="52">
-        <v>0</v>
-      </c>
-      <c r="N12" s="52">
-        <v>0</v>
-      </c>
-      <c r="O12" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="49"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C12" s="54">
+        <v>0</v>
+      </c>
+      <c r="D12" s="54">
+        <v>0</v>
+      </c>
+      <c r="E12" s="54">
+        <v>1</v>
+      </c>
+      <c r="F12" s="54">
+        <v>1</v>
+      </c>
+      <c r="G12" s="54">
+        <v>1</v>
+      </c>
+      <c r="H12" s="55">
+        <v>0</v>
+      </c>
+      <c r="I12" s="55">
+        <v>0</v>
+      </c>
+      <c r="J12" s="55">
+        <v>0</v>
+      </c>
+      <c r="K12" s="55">
+        <v>0</v>
+      </c>
+      <c r="L12" s="55">
+        <v>0</v>
+      </c>
+      <c r="M12" s="55">
+        <v>0</v>
+      </c>
+      <c r="N12" s="55">
+        <v>0</v>
+      </c>
+      <c r="O12" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="52"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="52">
-        <v>0</v>
-      </c>
-      <c r="D14" s="52">
-        <v>0</v>
-      </c>
-      <c r="E14" s="52">
-        <v>0</v>
-      </c>
-      <c r="F14" s="52">
-        <v>0</v>
-      </c>
-      <c r="G14" s="52">
-        <v>0</v>
-      </c>
-      <c r="H14" s="51">
+      <c r="C14" s="55">
+        <v>0</v>
+      </c>
+      <c r="D14" s="55">
+        <v>0</v>
+      </c>
+      <c r="E14" s="55">
+        <v>0</v>
+      </c>
+      <c r="F14" s="55">
+        <v>0</v>
+      </c>
+      <c r="G14" s="55">
+        <v>0</v>
+      </c>
+      <c r="H14" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="I14" s="51">
+      <c r="I14" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="J14" s="51">
+      <c r="J14" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="K14" s="51">
+      <c r="K14" s="54">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="L14" s="52">
-        <v>0</v>
-      </c>
-      <c r="M14" s="52">
-        <v>0</v>
-      </c>
-      <c r="N14" s="52">
-        <v>0</v>
-      </c>
-      <c r="O14" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L14" s="55">
+        <v>0</v>
+      </c>
+      <c r="M14" s="55">
+        <v>0</v>
+      </c>
+      <c r="N14" s="55">
+        <v>0</v>
+      </c>
+      <c r="O14" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="52">
-        <v>0</v>
-      </c>
-      <c r="D15" s="52">
-        <v>0</v>
-      </c>
-      <c r="E15" s="52">
-        <v>0</v>
-      </c>
-      <c r="F15" s="52">
-        <v>0</v>
-      </c>
-      <c r="G15" s="52">
-        <v>0</v>
-      </c>
-      <c r="H15" s="51">
-        <v>1</v>
-      </c>
-      <c r="I15" s="51">
-        <v>1</v>
-      </c>
-      <c r="J15" s="51">
-        <v>1</v>
-      </c>
-      <c r="K15" s="51">
-        <v>1</v>
-      </c>
-      <c r="L15" s="52">
-        <v>0</v>
-      </c>
-      <c r="M15" s="52">
-        <v>0</v>
-      </c>
-      <c r="N15" s="52">
-        <v>0</v>
-      </c>
-      <c r="O15" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>96</v>
+      </c>
+      <c r="C15" s="55">
+        <v>0</v>
+      </c>
+      <c r="D15" s="55">
+        <v>0</v>
+      </c>
+      <c r="E15" s="55">
+        <v>0</v>
+      </c>
+      <c r="F15" s="55">
+        <v>0</v>
+      </c>
+      <c r="G15" s="55">
+        <v>0</v>
+      </c>
+      <c r="H15" s="54">
+        <v>1</v>
+      </c>
+      <c r="I15" s="54">
+        <v>1</v>
+      </c>
+      <c r="J15" s="54">
+        <v>1</v>
+      </c>
+      <c r="K15" s="54">
+        <v>1</v>
+      </c>
+      <c r="L15" s="55">
+        <v>0</v>
+      </c>
+      <c r="M15" s="55">
+        <v>0</v>
+      </c>
+      <c r="N15" s="55">
+        <v>0</v>
+      </c>
+      <c r="O15" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="C16" s="52">
-        <v>0</v>
-      </c>
-      <c r="D16" s="52">
-        <v>0</v>
-      </c>
-      <c r="E16" s="52">
-        <v>0</v>
-      </c>
-      <c r="F16" s="52">
-        <v>0</v>
-      </c>
-      <c r="G16" s="52">
-        <v>0</v>
-      </c>
-      <c r="H16" s="51">
+        <v>202</v>
+      </c>
+      <c r="C16" s="55">
+        <v>0</v>
+      </c>
+      <c r="D16" s="55">
+        <v>0</v>
+      </c>
+      <c r="E16" s="55">
+        <v>0</v>
+      </c>
+      <c r="F16" s="55">
+        <v>0</v>
+      </c>
+      <c r="G16" s="55">
+        <v>0</v>
+      </c>
+      <c r="H16" s="54">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="I16" s="51">
+      <c r="I16" s="54">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="J16" s="51">
+      <c r="J16" s="54">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="K16" s="51">
+      <c r="K16" s="54">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="L16" s="52">
-        <v>0</v>
-      </c>
-      <c r="M16" s="52">
-        <v>0</v>
-      </c>
-      <c r="N16" s="52">
-        <v>0</v>
-      </c>
-      <c r="O16" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L16" s="55">
+        <v>0</v>
+      </c>
+      <c r="M16" s="55">
+        <v>0</v>
+      </c>
+      <c r="N16" s="55">
+        <v>0</v>
+      </c>
+      <c r="O16" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="C17" s="52">
-        <v>0</v>
-      </c>
-      <c r="D17" s="52">
-        <v>0</v>
-      </c>
-      <c r="E17" s="52">
-        <v>0</v>
-      </c>
-      <c r="F17" s="52">
-        <v>0</v>
-      </c>
-      <c r="G17" s="52">
-        <v>0</v>
-      </c>
-      <c r="H17" s="51">
+        <v>207</v>
+      </c>
+      <c r="C17" s="55">
+        <v>0</v>
+      </c>
+      <c r="D17" s="55">
+        <v>0</v>
+      </c>
+      <c r="E17" s="55">
+        <v>0</v>
+      </c>
+      <c r="F17" s="55">
+        <v>0</v>
+      </c>
+      <c r="G17" s="55">
+        <v>0</v>
+      </c>
+      <c r="H17" s="54">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="I17" s="51">
+      <c r="I17" s="54">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="J17" s="51">
+      <c r="J17" s="54">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="K17" s="51">
+      <c r="K17" s="54">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="L17" s="52">
-        <v>0</v>
-      </c>
-      <c r="M17" s="52">
-        <v>0</v>
-      </c>
-      <c r="N17" s="52">
-        <v>0</v>
-      </c>
-      <c r="O17" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="49" t="s">
+      <c r="L17" s="55">
+        <v>0</v>
+      </c>
+      <c r="M17" s="55">
+        <v>0</v>
+      </c>
+      <c r="N17" s="55">
+        <v>0</v>
+      </c>
+      <c r="O17" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="52">
-        <v>0</v>
-      </c>
-      <c r="D18" s="52">
-        <v>0</v>
-      </c>
-      <c r="E18" s="52">
-        <v>0</v>
-      </c>
-      <c r="F18" s="52">
-        <v>0</v>
-      </c>
-      <c r="G18" s="52">
-        <v>0</v>
-      </c>
-      <c r="H18" s="51">
+      <c r="C18" s="55">
+        <v>0</v>
+      </c>
+      <c r="D18" s="55">
+        <v>0</v>
+      </c>
+      <c r="E18" s="55">
+        <v>0</v>
+      </c>
+      <c r="F18" s="55">
+        <v>0</v>
+      </c>
+      <c r="G18" s="55">
+        <v>0</v>
+      </c>
+      <c r="H18" s="54">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="I18" s="51">
+      <c r="I18" s="54">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="J18" s="51">
+      <c r="J18" s="54">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="K18" s="51">
+      <c r="K18" s="54">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="L18" s="52">
-        <v>0</v>
-      </c>
-      <c r="M18" s="52">
-        <v>0</v>
-      </c>
-      <c r="N18" s="52">
-        <v>0</v>
-      </c>
-      <c r="O18" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L18" s="55">
+        <v>0</v>
+      </c>
+      <c r="M18" s="55">
+        <v>0</v>
+      </c>
+      <c r="N18" s="55">
+        <v>0</v>
+      </c>
+      <c r="O18" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="C19" s="52">
-        <v>0</v>
-      </c>
-      <c r="D19" s="52">
-        <v>0</v>
-      </c>
-      <c r="E19" s="52">
-        <v>0</v>
-      </c>
-      <c r="F19" s="52">
-        <v>0</v>
-      </c>
-      <c r="G19" s="52">
-        <v>0</v>
-      </c>
-      <c r="H19" s="51">
-        <v>1</v>
-      </c>
-      <c r="I19" s="51">
-        <v>1</v>
-      </c>
-      <c r="J19" s="51">
-        <v>1</v>
-      </c>
-      <c r="K19" s="51">
-        <v>1</v>
-      </c>
-      <c r="L19" s="52">
-        <v>0</v>
-      </c>
-      <c r="M19" s="52">
-        <v>0</v>
-      </c>
-      <c r="N19" s="52">
-        <v>0</v>
-      </c>
-      <c r="O19" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>98</v>
+      </c>
+      <c r="C19" s="55">
+        <v>0</v>
+      </c>
+      <c r="D19" s="55">
+        <v>0</v>
+      </c>
+      <c r="E19" s="55">
+        <v>0</v>
+      </c>
+      <c r="F19" s="55">
+        <v>0</v>
+      </c>
+      <c r="G19" s="55">
+        <v>0</v>
+      </c>
+      <c r="H19" s="54">
+        <v>1</v>
+      </c>
+      <c r="I19" s="54">
+        <v>1</v>
+      </c>
+      <c r="J19" s="54">
+        <v>1</v>
+      </c>
+      <c r="K19" s="54">
+        <v>1</v>
+      </c>
+      <c r="L19" s="55">
+        <v>0</v>
+      </c>
+      <c r="M19" s="55">
+        <v>0</v>
+      </c>
+      <c r="N19" s="55">
+        <v>0</v>
+      </c>
+      <c r="O19" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="52">
-        <v>0</v>
-      </c>
-      <c r="D20" s="52">
-        <v>0</v>
-      </c>
-      <c r="E20" s="52">
-        <v>0</v>
-      </c>
-      <c r="F20" s="52">
-        <v>0</v>
-      </c>
-      <c r="G20" s="52">
-        <v>0</v>
-      </c>
-      <c r="H20" s="51">
-        <v>1</v>
-      </c>
-      <c r="I20" s="51">
-        <v>1</v>
-      </c>
-      <c r="J20" s="51">
-        <v>1</v>
-      </c>
-      <c r="K20" s="51">
-        <v>1</v>
-      </c>
-      <c r="L20" s="52">
-        <v>0</v>
-      </c>
-      <c r="M20" s="52">
-        <v>0</v>
-      </c>
-      <c r="N20" s="52">
-        <v>0</v>
-      </c>
-      <c r="O20" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="49" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="55">
+        <v>0</v>
+      </c>
+      <c r="D20" s="55">
+        <v>0</v>
+      </c>
+      <c r="E20" s="55">
+        <v>0</v>
+      </c>
+      <c r="F20" s="55">
+        <v>0</v>
+      </c>
+      <c r="G20" s="55">
+        <v>0</v>
+      </c>
+      <c r="H20" s="54">
+        <v>1</v>
+      </c>
+      <c r="I20" s="54">
+        <v>1</v>
+      </c>
+      <c r="J20" s="54">
+        <v>1</v>
+      </c>
+      <c r="K20" s="54">
+        <v>1</v>
+      </c>
+      <c r="L20" s="55">
+        <v>0</v>
+      </c>
+      <c r="M20" s="55">
+        <v>0</v>
+      </c>
+      <c r="N20" s="55">
+        <v>0</v>
+      </c>
+      <c r="O20" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="52">
-        <v>0</v>
-      </c>
-      <c r="D21" s="52">
-        <v>0</v>
-      </c>
-      <c r="E21" s="52">
-        <v>0</v>
-      </c>
-      <c r="F21" s="52">
-        <v>0</v>
-      </c>
-      <c r="G21" s="52">
-        <v>0</v>
-      </c>
-      <c r="H21" s="51">
+      <c r="C21" s="55">
+        <v>0</v>
+      </c>
+      <c r="D21" s="55">
+        <v>0</v>
+      </c>
+      <c r="E21" s="55">
+        <v>0</v>
+      </c>
+      <c r="F21" s="55">
+        <v>0</v>
+      </c>
+      <c r="G21" s="55">
+        <v>0</v>
+      </c>
+      <c r="H21" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="I21" s="51">
+      <c r="I21" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="J21" s="51">
+      <c r="J21" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="K21" s="51">
+      <c r="K21" s="54">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L21" s="52">
-        <v>0</v>
-      </c>
-      <c r="M21" s="52">
-        <v>0</v>
-      </c>
-      <c r="N21" s="52">
-        <v>0</v>
-      </c>
-      <c r="O21" s="52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="49"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="92" t="s">
+      <c r="L21" s="55">
+        <v>0</v>
+      </c>
+      <c r="M21" s="55">
+        <v>0</v>
+      </c>
+      <c r="N21" s="55">
+        <v>0</v>
+      </c>
+      <c r="O21" s="55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="52"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="96" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="94" t="s">
-        <v>201</v>
-      </c>
-      <c r="C23" s="52">
-        <v>0</v>
-      </c>
-      <c r="D23" s="52">
-        <v>0</v>
-      </c>
-      <c r="E23" s="52">
-        <v>0</v>
-      </c>
-      <c r="F23" s="52">
-        <v>0</v>
-      </c>
-      <c r="G23" s="52">
-        <v>0</v>
-      </c>
-      <c r="H23" s="52">
-        <v>0</v>
-      </c>
-      <c r="I23" s="52">
-        <v>0</v>
-      </c>
-      <c r="J23" s="52">
-        <v>0</v>
-      </c>
-      <c r="K23" s="52">
-        <v>0</v>
-      </c>
-      <c r="L23" s="51">
-        <v>1</v>
-      </c>
-      <c r="M23" s="51">
-        <v>1</v>
-      </c>
-      <c r="N23" s="51">
-        <v>1</v>
-      </c>
-      <c r="O23" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="C24" s="52">
-        <v>0</v>
-      </c>
-      <c r="D24" s="52">
-        <v>0</v>
-      </c>
-      <c r="E24" s="52">
-        <v>0</v>
-      </c>
-      <c r="F24" s="52">
-        <v>0</v>
-      </c>
-      <c r="G24" s="52">
-        <v>0</v>
-      </c>
-      <c r="H24" s="52">
-        <v>0</v>
-      </c>
-      <c r="I24" s="52">
-        <v>0</v>
-      </c>
-      <c r="J24" s="52">
-        <v>0</v>
-      </c>
-      <c r="K24" s="52">
-        <v>0</v>
-      </c>
-      <c r="L24" s="51">
+      <c r="B23" s="98" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="55">
+        <v>0</v>
+      </c>
+      <c r="D23" s="55">
+        <v>0</v>
+      </c>
+      <c r="E23" s="55">
+        <v>0</v>
+      </c>
+      <c r="F23" s="55">
+        <v>0</v>
+      </c>
+      <c r="G23" s="55">
+        <v>0</v>
+      </c>
+      <c r="H23" s="55">
+        <v>0</v>
+      </c>
+      <c r="I23" s="55">
+        <v>0</v>
+      </c>
+      <c r="J23" s="55">
+        <v>0</v>
+      </c>
+      <c r="K23" s="55">
+        <v>0</v>
+      </c>
+      <c r="L23" s="54">
+        <v>1</v>
+      </c>
+      <c r="M23" s="54">
+        <v>1</v>
+      </c>
+      <c r="N23" s="54">
+        <v>1</v>
+      </c>
+      <c r="O23" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="98" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="55">
+        <v>0</v>
+      </c>
+      <c r="D24" s="55">
+        <v>0</v>
+      </c>
+      <c r="E24" s="55">
+        <v>0</v>
+      </c>
+      <c r="F24" s="55">
+        <v>0</v>
+      </c>
+      <c r="G24" s="55">
+        <v>0</v>
+      </c>
+      <c r="H24" s="55">
+        <v>0</v>
+      </c>
+      <c r="I24" s="55">
+        <v>0</v>
+      </c>
+      <c r="J24" s="55">
+        <v>0</v>
+      </c>
+      <c r="K24" s="55">
+        <v>0</v>
+      </c>
+      <c r="L24" s="54">
         <f>(1-food_insecure)*(0.49)*(1-school_attendance) + food_insecure*(0.7)*(1-school_attendance)</f>
         <v>0.49</v>
       </c>
-      <c r="M24" s="51">
+      <c r="M24" s="54">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
-      <c r="N24" s="51">
+      <c r="N24" s="54">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
-      <c r="O24" s="51">
+      <c r="O24" s="54">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="C25" s="52">
-        <v>0</v>
-      </c>
-      <c r="D25" s="52">
-        <v>0</v>
-      </c>
-      <c r="E25" s="52">
-        <v>0</v>
-      </c>
-      <c r="F25" s="52">
-        <v>0</v>
-      </c>
-      <c r="G25" s="52">
-        <v>0</v>
-      </c>
-      <c r="H25" s="52">
-        <v>0</v>
-      </c>
-      <c r="I25" s="52">
-        <v>0</v>
-      </c>
-      <c r="J25" s="52">
-        <v>0</v>
-      </c>
-      <c r="K25" s="52">
-        <v>0</v>
-      </c>
-      <c r="L25" s="51">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="98" t="s">
+        <v>204</v>
+      </c>
+      <c r="C25" s="55">
+        <v>0</v>
+      </c>
+      <c r="D25" s="55">
+        <v>0</v>
+      </c>
+      <c r="E25" s="55">
+        <v>0</v>
+      </c>
+      <c r="F25" s="55">
+        <v>0</v>
+      </c>
+      <c r="G25" s="55">
+        <v>0</v>
+      </c>
+      <c r="H25" s="55">
+        <v>0</v>
+      </c>
+      <c r="I25" s="55">
+        <v>0</v>
+      </c>
+      <c r="J25" s="55">
+        <v>0</v>
+      </c>
+      <c r="K25" s="55">
+        <v>0</v>
+      </c>
+      <c r="L25" s="54">
         <f>(1-food_insecure)*(0.21)*(1-school_attendance) + food_insecure*(0.3)*(1-school_attendance)</f>
         <v>0.21</v>
       </c>
-      <c r="M25" s="51">
+      <c r="M25" s="54">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
-      <c r="N25" s="51">
+      <c r="N25" s="54">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
-      <c r="O25" s="51">
+      <c r="O25" s="54">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="C26" s="52">
-        <v>0</v>
-      </c>
-      <c r="D26" s="52">
-        <v>0</v>
-      </c>
-      <c r="E26" s="52">
-        <v>0</v>
-      </c>
-      <c r="F26" s="52">
-        <v>0</v>
-      </c>
-      <c r="G26" s="52">
-        <v>0</v>
-      </c>
-      <c r="H26" s="52">
-        <v>0</v>
-      </c>
-      <c r="I26" s="52">
-        <v>0</v>
-      </c>
-      <c r="J26" s="52">
-        <v>0</v>
-      </c>
-      <c r="K26" s="52">
-        <v>0</v>
-      </c>
-      <c r="L26" s="51">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="98" t="s">
+        <v>205</v>
+      </c>
+      <c r="C26" s="55">
+        <v>0</v>
+      </c>
+      <c r="D26" s="55">
+        <v>0</v>
+      </c>
+      <c r="E26" s="55">
+        <v>0</v>
+      </c>
+      <c r="F26" s="55">
+        <v>0</v>
+      </c>
+      <c r="G26" s="55">
+        <v>0</v>
+      </c>
+      <c r="H26" s="55">
+        <v>0</v>
+      </c>
+      <c r="I26" s="55">
+        <v>0</v>
+      </c>
+      <c r="J26" s="55">
+        <v>0</v>
+      </c>
+      <c r="K26" s="55">
+        <v>0</v>
+      </c>
+      <c r="L26" s="54">
         <f>(1-food_insecure)*(0.3)*(1-school_attendance)</f>
         <v>0.3</v>
       </c>
-      <c r="M26" s="51">
+      <c r="M26" s="54">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
-      <c r="N26" s="51">
+      <c r="N26" s="54">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
-      <c r="O26" s="51">
+      <c r="O26" s="54">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="52">
-        <v>0</v>
-      </c>
-      <c r="D27" s="52">
-        <v>0</v>
-      </c>
-      <c r="E27" s="52">
-        <v>0</v>
-      </c>
-      <c r="F27" s="52">
-        <v>0</v>
-      </c>
-      <c r="G27" s="52">
-        <v>0</v>
-      </c>
-      <c r="H27" s="52">
-        <v>0</v>
-      </c>
-      <c r="I27" s="52">
-        <v>0</v>
-      </c>
-      <c r="J27" s="52">
-        <v>0</v>
-      </c>
-      <c r="K27" s="52">
-        <v>0</v>
-      </c>
-      <c r="L27" s="51">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="98" t="s">
+        <v>206</v>
+      </c>
+      <c r="C27" s="55">
+        <v>0</v>
+      </c>
+      <c r="D27" s="55">
+        <v>0</v>
+      </c>
+      <c r="E27" s="55">
+        <v>0</v>
+      </c>
+      <c r="F27" s="55">
+        <v>0</v>
+      </c>
+      <c r="G27" s="55">
+        <v>0</v>
+      </c>
+      <c r="H27" s="55">
+        <v>0</v>
+      </c>
+      <c r="I27" s="55">
+        <v>0</v>
+      </c>
+      <c r="J27" s="55">
+        <v>0</v>
+      </c>
+      <c r="K27" s="55">
+        <v>0</v>
+      </c>
+      <c r="L27" s="54">
         <f>(1-food_insecure)*1*school_attendance + food_insecure*1*school_attendance</f>
         <v>0</v>
       </c>
-      <c r="M27" s="51">
-        <v>0</v>
-      </c>
-      <c r="N27" s="51">
-        <v>0</v>
-      </c>
-      <c r="O27" s="51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M27" s="54">
+        <v>0</v>
+      </c>
+      <c r="N27" s="54">
+        <v>0</v>
+      </c>
+      <c r="O27" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -7582,498 +8195,498 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B29" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="51">
-        <v>0</v>
-      </c>
-      <c r="D29" s="51">
-        <v>0</v>
-      </c>
-      <c r="E29" s="51">
+      <c r="C29" s="54">
+        <v>0</v>
+      </c>
+      <c r="D29" s="54">
+        <v>0</v>
+      </c>
+      <c r="E29" s="54">
         <f t="shared" ref="E29:O29" si="0">frac_maize</f>
         <v>0</v>
       </c>
-      <c r="F29" s="51">
+      <c r="F29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="51">
+      <c r="G29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="51">
+      <c r="H29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="51">
+      <c r="I29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="51">
+      <c r="J29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="51">
+      <c r="K29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" s="51">
+      <c r="L29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="51">
+      <c r="M29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N29" s="51">
+      <c r="N29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O29" s="51">
+      <c r="O29" s="54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="51">
-        <v>0</v>
-      </c>
-      <c r="D30" s="51">
-        <v>0</v>
-      </c>
-      <c r="E30" s="51">
+      <c r="C30" s="54">
+        <v>0</v>
+      </c>
+      <c r="D30" s="54">
+        <v>0</v>
+      </c>
+      <c r="E30" s="54">
         <f t="shared" ref="E30:O30" si="1">frac_rice</f>
         <v>0</v>
       </c>
-      <c r="F30" s="51">
+      <c r="F30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="51">
+      <c r="G30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="51">
+      <c r="H30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="51">
+      <c r="I30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J30" s="51">
+      <c r="J30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K30" s="51">
+      <c r="K30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L30" s="51">
+      <c r="L30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M30" s="51">
+      <c r="M30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N30" s="51">
+      <c r="N30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O30" s="51">
+      <c r="O30" s="54">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="51">
-        <v>0</v>
-      </c>
-      <c r="D31" s="51">
-        <v>0</v>
-      </c>
-      <c r="E31" s="51">
+      <c r="C31" s="54">
+        <v>0</v>
+      </c>
+      <c r="D31" s="54">
+        <v>0</v>
+      </c>
+      <c r="E31" s="54">
         <f t="shared" ref="E31:O31" si="2">frac_wheat</f>
         <v>0</v>
       </c>
-      <c r="F31" s="51">
+      <c r="F31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G31" s="51">
+      <c r="G31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H31" s="51">
+      <c r="H31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I31" s="51">
+      <c r="I31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31" s="51">
+      <c r="J31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K31" s="51">
+      <c r="K31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L31" s="51">
+      <c r="L31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M31" s="51">
+      <c r="M31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="51">
+      <c r="N31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O31" s="51">
+      <c r="O31" s="54">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="51">
-        <v>0</v>
-      </c>
-      <c r="D32" s="51">
-        <v>0</v>
-      </c>
-      <c r="E32" s="51">
-        <v>1</v>
-      </c>
-      <c r="F32" s="51">
-        <v>1</v>
-      </c>
-      <c r="G32" s="51">
-        <v>1</v>
-      </c>
-      <c r="H32" s="51">
-        <v>1</v>
-      </c>
-      <c r="I32" s="51">
-        <v>1</v>
-      </c>
-      <c r="J32" s="51">
-        <v>1</v>
-      </c>
-      <c r="K32" s="51">
-        <v>1</v>
-      </c>
-      <c r="L32" s="51">
-        <v>1</v>
-      </c>
-      <c r="M32" s="51">
-        <v>1</v>
-      </c>
-      <c r="N32" s="51">
-        <v>1</v>
-      </c>
-      <c r="O32" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C32" s="54">
+        <v>0</v>
+      </c>
+      <c r="D32" s="54">
+        <v>0</v>
+      </c>
+      <c r="E32" s="54">
+        <v>1</v>
+      </c>
+      <c r="F32" s="54">
+        <v>1</v>
+      </c>
+      <c r="G32" s="54">
+        <v>1</v>
+      </c>
+      <c r="H32" s="54">
+        <v>1</v>
+      </c>
+      <c r="I32" s="54">
+        <v>1</v>
+      </c>
+      <c r="J32" s="54">
+        <v>1</v>
+      </c>
+      <c r="K32" s="54">
+        <v>1</v>
+      </c>
+      <c r="L32" s="54">
+        <v>1</v>
+      </c>
+      <c r="M32" s="54">
+        <v>1</v>
+      </c>
+      <c r="N32" s="54">
+        <v>1</v>
+      </c>
+      <c r="O32" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="54">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="D33" s="51">
+      <c r="D33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E33" s="51">
+      <c r="E33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F33" s="51">
+      <c r="F33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="51">
+      <c r="G33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H33" s="51">
+      <c r="H33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I33" s="51">
+      <c r="I33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J33" s="51">
+      <c r="J33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="51">
+      <c r="K33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L33" s="51">
+      <c r="L33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M33" s="51">
+      <c r="M33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N33" s="51">
+      <c r="N33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O33" s="51">
+      <c r="O33" s="54">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" s="51">
-        <v>1</v>
-      </c>
-      <c r="D34" s="51">
-        <v>1</v>
-      </c>
-      <c r="E34" s="51">
-        <v>1</v>
-      </c>
-      <c r="F34" s="51">
-        <v>1</v>
-      </c>
-      <c r="G34" s="51">
-        <v>1</v>
-      </c>
-      <c r="H34" s="51">
-        <v>1</v>
-      </c>
-      <c r="I34" s="51">
-        <v>1</v>
-      </c>
-      <c r="J34" s="51">
-        <v>1</v>
-      </c>
-      <c r="K34" s="51">
-        <v>1</v>
-      </c>
-      <c r="L34" s="51">
-        <v>1</v>
-      </c>
-      <c r="M34" s="51">
-        <v>1</v>
-      </c>
-      <c r="N34" s="51">
-        <v>1</v>
-      </c>
-      <c r="O34" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="52" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="54">
+        <v>1</v>
+      </c>
+      <c r="D34" s="54">
+        <v>1</v>
+      </c>
+      <c r="E34" s="54">
+        <v>1</v>
+      </c>
+      <c r="F34" s="54">
+        <v>1</v>
+      </c>
+      <c r="G34" s="54">
+        <v>1</v>
+      </c>
+      <c r="H34" s="54">
+        <v>1</v>
+      </c>
+      <c r="I34" s="54">
+        <v>1</v>
+      </c>
+      <c r="J34" s="54">
+        <v>1</v>
+      </c>
+      <c r="K34" s="54">
+        <v>1</v>
+      </c>
+      <c r="L34" s="54">
+        <v>1</v>
+      </c>
+      <c r="M34" s="54">
+        <v>1</v>
+      </c>
+      <c r="N34" s="54">
+        <v>1</v>
+      </c>
+      <c r="O34" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="51">
-        <v>1</v>
-      </c>
-      <c r="D35" s="51">
-        <v>1</v>
-      </c>
-      <c r="E35" s="51">
-        <v>1</v>
-      </c>
-      <c r="F35" s="51">
-        <v>1</v>
-      </c>
-      <c r="G35" s="51">
-        <v>1</v>
-      </c>
-      <c r="H35" s="51">
-        <v>1</v>
-      </c>
-      <c r="I35" s="51">
-        <v>1</v>
-      </c>
-      <c r="J35" s="51">
-        <v>1</v>
-      </c>
-      <c r="K35" s="51">
-        <v>1</v>
-      </c>
-      <c r="L35" s="51">
-        <v>1</v>
-      </c>
-      <c r="M35" s="51">
-        <v>1</v>
-      </c>
-      <c r="N35" s="51">
-        <v>1</v>
-      </c>
-      <c r="O35" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C36" s="51">
-        <v>1</v>
-      </c>
-      <c r="D36" s="51">
-        <v>1</v>
-      </c>
-      <c r="E36" s="51">
-        <v>1</v>
-      </c>
-      <c r="F36" s="51">
-        <v>1</v>
-      </c>
-      <c r="G36" s="51">
-        <v>1</v>
-      </c>
-      <c r="H36" s="51">
-        <v>1</v>
-      </c>
-      <c r="I36" s="51">
-        <v>1</v>
-      </c>
-      <c r="J36" s="51">
-        <v>1</v>
-      </c>
-      <c r="K36" s="51">
-        <v>1</v>
-      </c>
-      <c r="L36" s="51">
-        <v>1</v>
-      </c>
-      <c r="M36" s="51">
-        <v>1</v>
-      </c>
-      <c r="N36" s="51">
-        <v>1</v>
-      </c>
-      <c r="O36" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="C37" s="51">
-        <v>1</v>
-      </c>
-      <c r="D37" s="51">
-        <v>1</v>
-      </c>
-      <c r="E37" s="51">
-        <v>1</v>
-      </c>
-      <c r="F37" s="51">
-        <v>1</v>
-      </c>
-      <c r="G37" s="51">
-        <v>1</v>
-      </c>
-      <c r="H37" s="51">
-        <v>1</v>
-      </c>
-      <c r="I37" s="51">
-        <v>1</v>
-      </c>
-      <c r="J37" s="51">
-        <v>1</v>
-      </c>
-      <c r="K37" s="51">
-        <v>1</v>
-      </c>
-      <c r="L37" s="51">
-        <v>1</v>
-      </c>
-      <c r="M37" s="51">
-        <v>1</v>
-      </c>
-      <c r="N37" s="51">
-        <v>1</v>
-      </c>
-      <c r="O37" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="51">
-        <v>1</v>
-      </c>
-      <c r="D38" s="51">
-        <v>1</v>
-      </c>
-      <c r="E38" s="51">
-        <v>1</v>
-      </c>
-      <c r="F38" s="51">
-        <v>1</v>
-      </c>
-      <c r="G38" s="51">
-        <v>1</v>
-      </c>
-      <c r="H38" s="51">
-        <v>1</v>
-      </c>
-      <c r="I38" s="51">
-        <v>1</v>
-      </c>
-      <c r="J38" s="51">
-        <v>1</v>
-      </c>
-      <c r="K38" s="51">
-        <v>1</v>
-      </c>
-      <c r="L38" s="51">
-        <v>1</v>
-      </c>
-      <c r="M38" s="51">
-        <v>1</v>
-      </c>
-      <c r="N38" s="51">
-        <v>1</v>
-      </c>
-      <c r="O38" s="51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="49"/>
+      <c r="B35" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C35" s="54">
+        <v>1</v>
+      </c>
+      <c r="D35" s="54">
+        <v>1</v>
+      </c>
+      <c r="E35" s="54">
+        <v>1</v>
+      </c>
+      <c r="F35" s="54">
+        <v>1</v>
+      </c>
+      <c r="G35" s="54">
+        <v>1</v>
+      </c>
+      <c r="H35" s="54">
+        <v>1</v>
+      </c>
+      <c r="I35" s="54">
+        <v>1</v>
+      </c>
+      <c r="J35" s="54">
+        <v>1</v>
+      </c>
+      <c r="K35" s="54">
+        <v>1</v>
+      </c>
+      <c r="L35" s="54">
+        <v>1</v>
+      </c>
+      <c r="M35" s="54">
+        <v>1</v>
+      </c>
+      <c r="N35" s="54">
+        <v>1</v>
+      </c>
+      <c r="O35" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="52" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="54">
+        <v>1</v>
+      </c>
+      <c r="D36" s="54">
+        <v>1</v>
+      </c>
+      <c r="E36" s="54">
+        <v>1</v>
+      </c>
+      <c r="F36" s="54">
+        <v>1</v>
+      </c>
+      <c r="G36" s="54">
+        <v>1</v>
+      </c>
+      <c r="H36" s="54">
+        <v>1</v>
+      </c>
+      <c r="I36" s="54">
+        <v>1</v>
+      </c>
+      <c r="J36" s="54">
+        <v>1</v>
+      </c>
+      <c r="K36" s="54">
+        <v>1</v>
+      </c>
+      <c r="L36" s="54">
+        <v>1</v>
+      </c>
+      <c r="M36" s="54">
+        <v>1</v>
+      </c>
+      <c r="N36" s="54">
+        <v>1</v>
+      </c>
+      <c r="O36" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" s="54">
+        <v>1</v>
+      </c>
+      <c r="D37" s="54">
+        <v>1</v>
+      </c>
+      <c r="E37" s="54">
+        <v>1</v>
+      </c>
+      <c r="F37" s="54">
+        <v>1</v>
+      </c>
+      <c r="G37" s="54">
+        <v>1</v>
+      </c>
+      <c r="H37" s="54">
+        <v>1</v>
+      </c>
+      <c r="I37" s="54">
+        <v>1</v>
+      </c>
+      <c r="J37" s="54">
+        <v>1</v>
+      </c>
+      <c r="K37" s="54">
+        <v>1</v>
+      </c>
+      <c r="L37" s="54">
+        <v>1</v>
+      </c>
+      <c r="M37" s="54">
+        <v>1</v>
+      </c>
+      <c r="N37" s="54">
+        <v>1</v>
+      </c>
+      <c r="O37" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="C38" s="54">
+        <v>1</v>
+      </c>
+      <c r="D38" s="54">
+        <v>1</v>
+      </c>
+      <c r="E38" s="54">
+        <v>1</v>
+      </c>
+      <c r="F38" s="54">
+        <v>1</v>
+      </c>
+      <c r="G38" s="54">
+        <v>1</v>
+      </c>
+      <c r="H38" s="54">
+        <v>1</v>
+      </c>
+      <c r="I38" s="54">
+        <v>1</v>
+      </c>
+      <c r="J38" s="54">
+        <v>1</v>
+      </c>
+      <c r="K38" s="54">
+        <v>1</v>
+      </c>
+      <c r="L38" s="54">
+        <v>1</v>
+      </c>
+      <c r="M38" s="54">
+        <v>1</v>
+      </c>
+      <c r="N38" s="54">
+        <v>1</v>
+      </c>
+      <c r="O38" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="52"/>
     </row>
   </sheetData>
   <sortState ref="B14:O21">
@@ -8084,8 +8697,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -8095,196 +8708,196 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="53" customWidth="1"/>
-    <col min="3" max="4" width="11.5" style="53"/>
-    <col min="5" max="5" width="17.5" style="53" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="53"/>
+    <col min="1" max="1" width="33.6640625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="56" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="56"/>
+    <col min="5" max="5" width="17.44140625" style="56" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="D1" s="58" t="s">
-        <v>161</v>
-      </c>
-      <c r="E1" s="58" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" s="56">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
+        <v>176</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="61" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="61" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A2" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="59">
         <v>0.9</v>
       </c>
-      <c r="C2" s="55">
+      <c r="C2" s="58">
         <v>0.09</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="56">
         <v>0.8</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="56">
         <f t="shared" ref="E2:E10" si="0">C2*D2</f>
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A3" s="57" t="s">
-        <v>158</v>
-      </c>
-      <c r="B3" s="56">
-        <v>1</v>
-      </c>
-      <c r="C3" s="55">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A3" s="60" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="59">
+        <v>1</v>
+      </c>
+      <c r="C3" s="58">
         <v>0.02</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="56">
         <v>1.9</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="56">
         <f t="shared" si="0"/>
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="56">
-        <v>1</v>
-      </c>
-      <c r="C4" s="55">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A4" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="59">
+        <v>1</v>
+      </c>
+      <c r="C4" s="58">
         <v>0.08</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="56">
         <v>2</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="56">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="57" t="s">
-        <v>156</v>
-      </c>
-      <c r="B5" s="56">
-        <v>1</v>
-      </c>
-      <c r="C5" s="55">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" s="59">
+        <v>1</v>
+      </c>
+      <c r="C5" s="58">
         <v>0.18</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="56">
         <v>0.7</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="56">
         <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="57" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="56">
-        <v>1</v>
-      </c>
-      <c r="C6" s="55">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A6" s="60" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="59">
+        <v>1</v>
+      </c>
+      <c r="C6" s="58">
         <v>0.02</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="56">
         <v>0.7</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="56">
         <f t="shared" si="0"/>
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="56">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="59">
         <v>0.93</v>
       </c>
-      <c r="C7" s="55">
+      <c r="C7" s="58">
         <v>0.45</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="56">
         <v>0.9</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="56">
         <f t="shared" si="0"/>
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="56">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A8" s="60" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="59">
         <v>0.5</v>
       </c>
-      <c r="C8" s="55">
+      <c r="C8" s="58">
         <v>0.03</v>
       </c>
-      <c r="D8" s="53">
-        <v>0</v>
-      </c>
-      <c r="E8" s="53">
+      <c r="D8" s="56">
+        <v>0</v>
+      </c>
+      <c r="E8" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="57" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="56">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="60" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="59">
         <v>0.5</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="58">
         <v>0.11</v>
       </c>
-      <c r="D9" s="53">
-        <v>0</v>
-      </c>
-      <c r="E9" s="53">
+      <c r="D9" s="56">
+        <v>0</v>
+      </c>
+      <c r="E9" s="56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="57" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="56">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A10" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="59">
         <v>0.98</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="58">
         <v>0.01</v>
       </c>
-      <c r="D10" s="53">
+      <c r="D10" s="56">
         <v>0.6</v>
       </c>
-      <c r="E10" s="53">
+      <c r="E10" s="56">
         <f t="shared" si="0"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="C11" s="54"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8294,30 +8907,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="15" customWidth="1"/>
-    <col min="2" max="10" width="16.83203125" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="14.5" style="15"/>
+    <col min="1" max="1" width="8.44140625" style="15" customWidth="1"/>
+    <col min="2" max="10" width="16.88671875" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="14.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C1" s="31" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>49</v>
@@ -8332,16 +8947,16 @@
         <v>52</v>
       </c>
       <c r="H1" s="31" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="J1" s="31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <f>start_year</f>
         <v>2017</v>
@@ -8365,7 +8980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -8389,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -8413,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -8437,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -8461,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -8485,7 +9100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -8509,7 +9124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -8533,7 +9148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -8557,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -8581,7 +9196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -8605,7 +9220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -8629,7 +9244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -8653,7 +9268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -8677,7 +9292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8701,7 +9316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8725,7 +9340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8749,7 +9364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8773,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8797,7 +9412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8821,7 +9436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8845,7 +9460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8869,7 +9484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8893,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8917,7 +9532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8941,7 +9556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8965,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8989,7 +9604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9013,7 +9628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9037,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9061,7 +9676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9085,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9109,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9133,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9157,7 +9772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9181,7 +9796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9205,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9229,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9253,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9289,21 +9904,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.33203125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -9327,7 +9944,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>73</v>
       </c>
@@ -9348,7 +9965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
@@ -9369,7 +9986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
@@ -9390,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>10</v>
       </c>
@@ -9411,7 +10028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
@@ -9432,7 +10049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>14</v>
       </c>
@@ -9453,7 +10070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>27</v>
       </c>
@@ -9474,7 +10091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>15</v>
       </c>
@@ -9495,7 +10112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>71</v>
       </c>
@@ -9510,7 +10127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>16</v>
       </c>
@@ -9525,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>17</v>
       </c>
@@ -9540,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
@@ -9555,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>19</v>
       </c>
@@ -9570,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>20</v>
       </c>
@@ -9585,7 +10202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>21</v>
       </c>
@@ -9600,7 +10217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>22</v>
       </c>
@@ -9615,7 +10232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>23</v>
       </c>
@@ -9630,7 +10247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>38</v>
       </c>
@@ -9651,7 +10268,7 @@
       </c>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>39</v>
       </c>
@@ -9672,7 +10289,7 @@
       </c>
       <c r="G20" s="35"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>40</v>
       </c>
@@ -9693,7 +10310,7 @@
       </c>
       <c r="G21" s="35"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>41</v>
       </c>
@@ -9714,7 +10331,7 @@
       </c>
       <c r="G22" s="35"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>42</v>
       </c>
@@ -9735,7 +10352,7 @@
       </c>
       <c r="G23" s="35"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>43</v>
       </c>
@@ -9756,7 +10373,7 @@
       </c>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>44</v>
       </c>
@@ -9777,7 +10394,7 @@
       </c>
       <c r="G25" s="35"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>45</v>
       </c>
@@ -9798,7 +10415,7 @@
       </c>
       <c r="G26" s="35"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>46</v>
       </c>
@@ -9827,7 +10444,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -9835,13 +10452,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -9865,64 +10482,64 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="C2" s="46" t="str">
+        <v>128</v>
+      </c>
+      <c r="C2" s="49" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="D2" s="46" t="str">
+      <c r="D2" s="49" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="E2" s="46" t="str">
+      <c r="E2" s="49" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="F2" s="46" t="str">
+      <c r="F2" s="49" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="G2" s="46" t="str">
+      <c r="G2" s="49" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="46" t="str">
+        <v>129</v>
+      </c>
+      <c r="C3" s="49" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v/>
       </c>
-      <c r="D3" s="46" t="str">
+      <c r="D3" s="49" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v/>
       </c>
-      <c r="E3" s="46" t="str">
+      <c r="E3" s="49" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v/>
       </c>
-      <c r="F3" s="46" t="str">
+      <c r="F3" s="49" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v/>
       </c>
-      <c r="G3" s="46" t="str">
+      <c r="G3" s="49" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="14" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -9930,10 +10547,10 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="14" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
@@ -9941,7 +10558,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -9949,7 +10566,7 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -9957,62 +10574,62 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C8" s="46" t="str">
+        <v>131</v>
+      </c>
+      <c r="C8" s="49" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="D8" s="46" t="str">
+      <c r="D8" s="49" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="E8" s="46" t="str">
+      <c r="E8" s="49" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="F8" s="46" t="str">
+      <c r="F8" s="49" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="G8" s="46" t="str">
+      <c r="G8" s="49" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="46" t="str">
+        <v>132</v>
+      </c>
+      <c r="C9" s="49" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v/>
       </c>
-      <c r="D9" s="46" t="str">
+      <c r="D9" s="49" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v/>
       </c>
-      <c r="E9" s="46" t="str">
+      <c r="E9" s="49" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v/>
       </c>
-      <c r="F9" s="46" t="str">
+      <c r="F9" s="49" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v/>
       </c>
-      <c r="G9" s="46" t="str">
+      <c r="G9" s="49" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -10020,9 +10637,9 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -10030,7 +10647,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -10044,7 +10661,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>70</v>
       </c>
@@ -10088,89 +10705,89 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>144</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="49">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="46">
+      <c r="D15" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="46">
+      <c r="F15" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="46">
+      <c r="G15" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="46">
+      <c r="H15" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="46">
+      <c r="I15" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="46">
+      <c r="J15" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="46">
+      <c r="O15" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -10185,21 +10802,23 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="7" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="28.88671875" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -10223,12 +10842,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>167</v>
+      <c r="B2" s="65" t="s">
+        <v>179</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -10236,9 +10855,9 @@
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B3" s="61" t="s">
-        <v>168</v>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="65" t="s">
+        <v>180</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -10246,9 +10865,9 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B4" s="61" t="s">
-        <v>169</v>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="65" t="s">
+        <v>181</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -10256,27 +10875,27 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B5" s="61" t="s">
-        <v>170</v>
-      </c>
-      <c r="C5" s="46">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="65" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="49">
         <f>1-SUM(C2:C4)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="49">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="49">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -10287,26 +10906,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -10336,12 +10957,12 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -10353,15 +10974,15 @@
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -10373,15 +10994,15 @@
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -10393,7 +11014,7 @@
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
@@ -10407,9 +11028,9 @@
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -10421,12 +11042,12 @@
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -10438,9 +11059,9 @@
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="B11" s="50" t="s">
-        <v>147</v>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="53" t="s">
+        <v>159</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -10452,12 +11073,12 @@
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="50" t="s">
-        <v>149</v>
+      <c r="B13" s="53" t="s">
+        <v>161</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -10469,9 +11090,9 @@
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -10490,236 +11111,141 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
+    <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="53" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="53" customWidth="1"/>
-    <col min="4" max="16384" width="11.5" style="53"/>
+    <col min="1" max="1" width="37.109375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" style="15" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="15" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="72" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>180</v>
-      </c>
-      <c r="C1" s="73" t="s">
-        <v>179</v>
-      </c>
-      <c r="D1" s="73" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="73" t="s">
+    <row r="1" spans="1:3" s="44" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="63" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="70" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="90" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="66"/>
-      <c r="B3" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="90" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="66"/>
-      <c r="B4" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="90" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="66"/>
-      <c r="B5" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="90" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="66"/>
-      <c r="B6" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="90" t="str">
-        <f>IF(E$7="","",E$7)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="66"/>
-      <c r="B7" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="63"/>
-      <c r="E7" s="68"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="72" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="91"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="66"/>
-      <c r="B10" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="90"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="66"/>
-      <c r="B11" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="90"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A12" s="66"/>
-      <c r="B12" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="90"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A13" s="66"/>
-      <c r="B13" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="90"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="66"/>
-      <c r="B14" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="68"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="70" t="s">
-        <v>174</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="62"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="91" t="str">
-        <f>IF(E$21="","",E$21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A17" s="66"/>
-      <c r="B17" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="90" t="str">
-        <f>IF(E$21="","",E$21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="66"/>
-      <c r="B18" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="90" t="str">
-        <f>IF(E$21="","",E$21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="66"/>
-      <c r="B19" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="90" t="str">
-        <f>IF(E$21="","",E$21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="66"/>
-      <c r="B20" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="90" t="str">
-        <f>IF(E$21="","",E$21)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="66"/>
-      <c r="B21" s="65" t="s">
-        <v>173</v>
-      </c>
-      <c r="C21" s="64"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="62"/>
+      <c r="C1" s="43" t="str">
+        <f>"Percentage of births in category in baseline year ("&amp;start_year&amp;")"</f>
+        <v>Percentage of births in category in baseline year (2017)</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="45"/>
+    </row>
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="C3" s="45"/>
+    </row>
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="45"/>
+    </row>
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="45"/>
+    </row>
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="45"/>
+    </row>
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="45"/>
+    </row>
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="45"/>
+    </row>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="45"/>
+    </row>
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="45"/>
+    </row>
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C11" s="47">
+        <f>SUM(C2:C10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+    </row>
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" s="45"/>
+    </row>
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="45"/>
+    </row>
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="41" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="45"/>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="45"/>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="C17" s="47">
+        <f>SUM(C13:C16)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10728,631 +11254,303 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17" style="56" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="56" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="56" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="94" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="70"/>
+      <c r="B3" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="94" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="70"/>
+      <c r="B4" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="94" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="70"/>
+      <c r="B5" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="94" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="70"/>
+      <c r="B6" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="94" t="str">
+        <f>IF(E$7="","",E$7)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="70"/>
+      <c r="B7" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="72"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="B9" s="75" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="95"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="70"/>
+      <c r="B10" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="94"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="70"/>
+      <c r="B11" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="72"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="94"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="70"/>
+      <c r="B12" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="94"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="70"/>
+      <c r="B13" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="94"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="70"/>
+      <c r="B14" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="68"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="72"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="74" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="66"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="95" t="str">
+        <f>IF(E$21="","",E$21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="70"/>
+      <c r="B17" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="66"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="94" t="str">
+        <f>IF(E$21="","",E$21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="70"/>
+      <c r="B18" s="69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="66"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="94" t="str">
+        <f>IF(E$21="","",E$21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="70"/>
+      <c r="B19" s="69" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="66"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="94" t="str">
+        <f>IF(E$21="","",E$21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
+      <c r="B20" s="69" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="66"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="94" t="str">
+        <f>IF(E$21="","",E$21)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="70"/>
+      <c r="B21" s="69" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="68"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="66"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="96" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="96" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="96" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="99" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="77" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="100" t="s">
+        <v>197</v>
+      </c>
+      <c r="D1" s="100" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="65" t="s">
-        <v>186</v>
-      </c>
-      <c r="D2" s="68"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="96" t="s">
-        <v>188</v>
-      </c>
-      <c r="B3" s="65" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="68"/>
+      <c r="C2" s="69" t="s">
+        <v>198</v>
+      </c>
+      <c r="D2" s="72"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="100" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>191</v>
+      </c>
+      <c r="C3" s="69" t="s">
+        <v>199</v>
+      </c>
+      <c r="D3" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <sheetPr>
-    <tabColor theme="7" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:F38"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="56" style="74" customWidth="1"/>
-    <col min="2" max="2" width="20" style="54" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="53" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="53" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="53"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" s="99" t="str">
-        <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
-        <v>Baseline (2017) coverage</v>
-      </c>
-      <c r="C1" s="82" t="s">
-        <v>202</v>
-      </c>
-      <c r="D1" s="81" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="74" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="75">
-        <v>0</v>
-      </c>
-      <c r="C2" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D2" s="76">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="75">
-        <v>0</v>
-      </c>
-      <c r="C3" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D3" s="76">
-        <v>1</v>
-      </c>
-      <c r="E3" s="61"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="75">
-        <v>0</v>
-      </c>
-      <c r="C4" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D4" s="76">
-        <f>180</f>
-        <v>180</v>
-      </c>
-      <c r="E4" s="61"/>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="74" t="s">
-        <v>201</v>
-      </c>
-      <c r="B5" s="75">
-        <v>0</v>
-      </c>
-      <c r="C5" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D5" s="77">
-        <f>SUM('Programs family planning'!E2:E10)</f>
-        <v>0.82100000000000006</v>
-      </c>
-      <c r="E5" s="80"/>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="75">
-        <v>0</v>
-      </c>
-      <c r="C6" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D6" s="76">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E6" s="79"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="74" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="75">
-        <v>0</v>
-      </c>
-      <c r="C7" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D7" s="76">
-        <v>0.75</v>
-      </c>
-      <c r="E7" s="79"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="75">
-        <v>0</v>
-      </c>
-      <c r="C8" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D8" s="76">
-        <v>0.19</v>
-      </c>
-      <c r="E8" s="79"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="94" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="75">
-        <v>0</v>
-      </c>
-      <c r="C9" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D9" s="76">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="94" t="s">
-        <v>192</v>
-      </c>
-      <c r="B10" s="75">
-        <v>0</v>
-      </c>
-      <c r="C10" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D10" s="76">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="94" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="75">
-        <v>0</v>
-      </c>
-      <c r="C11" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D11" s="76">
-        <v>0.24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="94" t="s">
-        <v>194</v>
-      </c>
-      <c r="B12" s="75">
-        <v>0</v>
-      </c>
-      <c r="C12" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D12" s="76">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="75">
-        <v>0</v>
-      </c>
-      <c r="C13" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D13" s="76">
-        <v>0.73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="B14" s="75">
-        <v>0</v>
-      </c>
-      <c r="C14" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D14" s="76">
-        <v>1.78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="74" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="75">
-        <v>0</v>
-      </c>
-      <c r="C15" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D15" s="76">
-        <v>2.06</v>
-      </c>
-      <c r="E15" s="61"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="74" t="s">
-        <v>47</v>
-      </c>
-      <c r="B16" s="75">
-        <v>0</v>
-      </c>
-      <c r="C16" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D16" s="76">
-        <v>0.25</v>
-      </c>
-      <c r="E16" s="61"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="B17" s="75">
-        <v>0</v>
-      </c>
-      <c r="C17" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D17" s="93">
-        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;""))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="74" t="s">
-        <v>175</v>
-      </c>
-      <c r="B18" s="75">
-        <v>0</v>
-      </c>
-      <c r="C18" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D18" s="93">
-        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;""))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="74" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="75">
-        <v>0</v>
-      </c>
-      <c r="C19" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D19" s="93">
-        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="74" t="s">
-        <v>200</v>
-      </c>
-      <c r="B20" s="75">
-        <v>0</v>
-      </c>
-      <c r="C20" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D20" s="76">
-        <v>8.84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="74" t="s">
-        <v>137</v>
-      </c>
-      <c r="B21" s="75">
-        <v>0</v>
-      </c>
-      <c r="C21" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D21" s="76">
-        <v>50</v>
-      </c>
-      <c r="E21" s="61"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="75">
-        <v>0</v>
-      </c>
-      <c r="C22" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D22" s="76">
-        <v>2.61</v>
-      </c>
-      <c r="E22" s="61"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="74" t="s">
-        <v>88</v>
-      </c>
-      <c r="B23" s="75">
-        <v>0</v>
-      </c>
-      <c r="C23" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D23" s="76">
-        <v>1</v>
-      </c>
-      <c r="E23" s="61"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="74" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="75">
-        <v>0</v>
-      </c>
-      <c r="C24" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D24" s="76">
-        <v>1</v>
-      </c>
-      <c r="E24" s="78"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="74" t="s">
-        <v>138</v>
-      </c>
-      <c r="B25" s="75">
-        <v>0</v>
-      </c>
-      <c r="C25" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D25" s="76">
-        <v>1</v>
-      </c>
-      <c r="E25" s="61"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="75">
-        <v>0</v>
-      </c>
-      <c r="C26" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D26" s="76">
-        <v>2.99</v>
-      </c>
-      <c r="E26" s="61"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="74" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="75">
-        <v>0</v>
-      </c>
-      <c r="C27" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D27" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="74" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="75">
-        <v>0</v>
-      </c>
-      <c r="C28" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D28" s="76">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="B29" s="75">
-        <v>0</v>
-      </c>
-      <c r="C29" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D29" s="77">
-        <f>90*AVERAGE('Incidence of conditions'!B4:F4) + 40*AVERAGE('Incidence of conditions'!B3:F3)*IF(ISBLANK(manage_mam), 0, 1)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="75">
-        <v>0</v>
-      </c>
-      <c r="C30" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D30" s="76">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="B31" s="75">
-        <v>0</v>
-      </c>
-      <c r="C31" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D31" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="74" t="s">
-        <v>82</v>
-      </c>
-      <c r="B32" s="75">
-        <v>0</v>
-      </c>
-      <c r="C32" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D32" s="76">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="74" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="75">
-        <v>0</v>
-      </c>
-      <c r="C33" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D33" s="76">
-        <v>50.26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B34" s="75">
-        <v>0</v>
-      </c>
-      <c r="C34" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D34" s="76">
-        <v>36.1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="B35" s="75">
-        <v>0</v>
-      </c>
-      <c r="C35" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D35" s="76">
-        <v>231.85</v>
-      </c>
-      <c r="F35" s="53"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="74" t="s">
-        <v>85</v>
-      </c>
-      <c r="B36" s="75">
-        <v>0</v>
-      </c>
-      <c r="C36" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D36" s="76">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="B37" s="75">
-        <v>0</v>
-      </c>
-      <c r="C37" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D37" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="54"/>
-    </row>
-  </sheetData>
-  <sortState ref="A2:D37">
-    <sortCondition ref="A2:A37"/>
-  </sortState>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-</worksheet>
 </file>
--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{581F6C99-7ABC-A340-B723-D81E3155E3EE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{92303F1E-7919-8A4A-863E-99639579E5D2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,8 @@
     <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId12"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId13"/>
     <sheet name="Programs target population" sheetId="21" r:id="rId14"/>
-    <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId15"/>
+    <sheet name="Cost curve options" sheetId="61" r:id="rId15"/>
+    <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="abortion" localSheetId="6">'Baseline year population inputs'!$C$37</definedName>
@@ -184,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="210">
   <si>
     <t>year</t>
   </si>
@@ -799,6 +800,21 @@
   </si>
   <si>
     <t>Birth spacing</t>
+  </si>
+  <si>
+    <t>Constant (default)</t>
+  </si>
+  <si>
+    <t>Increasing</t>
+  </si>
+  <si>
+    <t>Decreasing</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Marginal cost to coverage relationship</t>
   </si>
 </sst>
 </file>
@@ -811,7 +827,7 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -939,12 +955,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="Arial"/>
@@ -2509,7 +2519,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2670,9 +2680,6 @@
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2686,14 +2693,14 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="21" fillId="3" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -5598,7 +5605,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5631,7 +5638,7 @@
       <c r="B3" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="97">
+      <c r="C3" s="94">
         <v>2017</v>
       </c>
     </row>
@@ -5640,7 +5647,7 @@
       <c r="B4" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="98">
+      <c r="C4" s="95">
         <v>2030</v>
       </c>
     </row>
@@ -5985,32 +5992,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="84" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="84"/>
+    <col min="1" max="1" width="18.6640625" style="81" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="81"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="86" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="85" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="88" t="s">
+      <c r="C1" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="88" t="s">
+      <c r="D1" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="88" t="s">
+      <c r="E1" s="85" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="87" t="s">
+      <c r="A2" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="83" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="76"/>
@@ -6018,8 +6025,8 @@
       <c r="E2" s="76"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86" t="s">
+      <c r="A3" s="83"/>
+      <c r="B3" s="83" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="76"/>
@@ -6027,8 +6034,8 @@
       <c r="E3" s="76"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="86"/>
-      <c r="B4" s="86" t="s">
+      <c r="A4" s="83"/>
+      <c r="B4" s="83" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="76"/>
@@ -6036,8 +6043,8 @@
       <c r="E4" s="76"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86" t="s">
+      <c r="A5" s="83"/>
+      <c r="B5" s="83" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="76"/>
@@ -6045,8 +6052,8 @@
       <c r="E5" s="76"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="86"/>
-      <c r="B6" s="86" t="s">
+      <c r="A6" s="83"/>
+      <c r="B6" s="83" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="76"/>
@@ -6054,7 +6061,7 @@
       <c r="E6" s="76"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="85"/>
+      <c r="C9" s="82"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7337,10 +7344,10 @@
       <c r="B22" s="49"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="92" t="s">
+      <c r="A23" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="94" t="s">
+      <c r="B23" s="91" t="s">
         <v>201</v>
       </c>
       <c r="C23" s="52">
@@ -7384,7 +7391,7 @@
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="94" t="s">
+      <c r="B24" s="91" t="s">
         <v>191</v>
       </c>
       <c r="C24" s="52">
@@ -7432,7 +7439,7 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="91" t="s">
         <v>192</v>
       </c>
       <c r="C25" s="52">
@@ -7480,7 +7487,7 @@
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="94" t="s">
+      <c r="B26" s="91" t="s">
         <v>193</v>
       </c>
       <c r="C26" s="52">
@@ -7528,7 +7535,7 @@
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="91" t="s">
         <v>194</v>
       </c>
       <c r="C27" s="52">
@@ -8085,6 +8092,39 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1A136D-8EBE-E34F-8C06-B810409B5736}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
@@ -10532,7 +10572,7 @@
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
-      <c r="E2" s="90" t="str">
+      <c r="E2" s="87" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
@@ -10544,7 +10584,7 @@
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
-      <c r="E3" s="90" t="str">
+      <c r="E3" s="87" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
@@ -10556,7 +10596,7 @@
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
-      <c r="E4" s="90" t="str">
+      <c r="E4" s="87" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
@@ -10568,7 +10608,7 @@
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
-      <c r="E5" s="90" t="str">
+      <c r="E5" s="87" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
@@ -10580,7 +10620,7 @@
       </c>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
-      <c r="E6" s="90" t="str">
+      <c r="E6" s="87" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
@@ -10603,7 +10643,7 @@
       </c>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
-      <c r="E9" s="91"/>
+      <c r="E9" s="88"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="66"/>
@@ -10612,7 +10652,7 @@
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
-      <c r="E10" s="90"/>
+      <c r="E10" s="87"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="66"/>
@@ -10621,7 +10661,7 @@
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
-      <c r="E11" s="90"/>
+      <c r="E11" s="87"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="66"/>
@@ -10630,7 +10670,7 @@
       </c>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
-      <c r="E12" s="90"/>
+      <c r="E12" s="87"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="66"/>
@@ -10639,7 +10679,7 @@
       </c>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
-      <c r="E13" s="90"/>
+      <c r="E13" s="87"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="66"/>
@@ -10659,7 +10699,7 @@
       </c>
       <c r="C16" s="62"/>
       <c r="D16" s="69"/>
-      <c r="E16" s="91" t="str">
+      <c r="E16" s="88" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
@@ -10671,7 +10711,7 @@
       </c>
       <c r="C17" s="62"/>
       <c r="D17" s="68"/>
-      <c r="E17" s="90" t="str">
+      <c r="E17" s="87" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
@@ -10683,7 +10723,7 @@
       </c>
       <c r="C18" s="62"/>
       <c r="D18" s="68"/>
-      <c r="E18" s="90" t="str">
+      <c r="E18" s="87" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
@@ -10695,7 +10735,7 @@
       </c>
       <c r="C19" s="62"/>
       <c r="D19" s="68"/>
-      <c r="E19" s="90" t="str">
+      <c r="E19" s="87" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
@@ -10707,7 +10747,7 @@
       </c>
       <c r="C20" s="62"/>
       <c r="D20" s="67"/>
-      <c r="E20" s="90" t="str">
+      <c r="E20" s="87" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
@@ -10745,21 +10785,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="92" t="s">
         <v>165</v>
       </c>
       <c r="B1" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="96" t="s">
+      <c r="C1" s="93" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="96" t="s">
+      <c r="D1" s="93" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="93" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -10771,7 +10811,7 @@
       <c r="D2" s="68"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="93" t="s">
         <v>188</v>
       </c>
       <c r="B3" s="65" t="s">
@@ -10794,7 +10834,9 @@
   </sheetPr>
   <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10805,19 +10847,22 @@
     <col min="5" max="16384" width="14.5" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
-      <c r="A1" s="83" t="s">
+    <row r="1" spans="1:5" ht="39" x14ac:dyDescent="0.15">
+      <c r="A1" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="99" t="str">
+      <c r="B1" s="96" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
         <v>Baseline (2017) coverage</v>
       </c>
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="79" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="78" t="s">
         <v>203</v>
+      </c>
+      <c r="E1" s="79" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10831,7 +10876,10 @@
         <v>0.95</v>
       </c>
       <c r="D2" s="76">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="E2" s="76" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10847,7 +10895,9 @@
       <c r="D3" s="76">
         <v>1</v>
       </c>
-      <c r="E3" s="61"/>
+      <c r="E3" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="74" t="s">
@@ -10860,10 +10910,11 @@
         <v>0.95</v>
       </c>
       <c r="D4" s="76">
-        <f>180</f>
-        <v>180</v>
-      </c>
-      <c r="E4" s="61"/>
+        <v>1</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="74" t="s">
@@ -10879,7 +10930,9 @@
         <f>SUM('Programs family planning'!E2:E10)</f>
         <v>0.82100000000000006</v>
       </c>
-      <c r="E5" s="80"/>
+      <c r="E5" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="74" t="s">
@@ -10892,9 +10945,11 @@
         <v>0.95</v>
       </c>
       <c r="D6" s="76">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="E6" s="79"/>
+        <v>1</v>
+      </c>
+      <c r="E6" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="74" t="s">
@@ -10909,7 +10964,9 @@
       <c r="D7" s="76">
         <v>0.75</v>
       </c>
-      <c r="E7" s="79"/>
+      <c r="E7" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="74" t="s">
@@ -10924,10 +10981,12 @@
       <c r="D8" s="76">
         <v>0.19</v>
       </c>
-      <c r="E8" s="79"/>
+      <c r="E8" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="91" t="s">
         <v>191</v>
       </c>
       <c r="B9" s="75">
@@ -10939,9 +10998,12 @@
       <c r="D9" s="76">
         <v>0.73</v>
       </c>
+      <c r="E9" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="94" t="s">
+      <c r="A10" s="91" t="s">
         <v>192</v>
       </c>
       <c r="B10" s="75">
@@ -10953,9 +11015,12 @@
       <c r="D10" s="76">
         <v>1.78</v>
       </c>
+      <c r="E10" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="91" t="s">
         <v>193</v>
       </c>
       <c r="B11" s="75">
@@ -10967,9 +11032,12 @@
       <c r="D11" s="76">
         <v>0.24</v>
       </c>
+      <c r="E11" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="91" t="s">
         <v>194</v>
       </c>
       <c r="B12" s="75">
@@ -10980,6 +11048,9 @@
       </c>
       <c r="D12" s="76">
         <v>0.55000000000000004</v>
+      </c>
+      <c r="E12" s="76" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10995,6 +11066,9 @@
       <c r="D13" s="76">
         <v>0.73</v>
       </c>
+      <c r="E13" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
@@ -11009,6 +11083,9 @@
       <c r="D14" s="76">
         <v>1.78</v>
       </c>
+      <c r="E14" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="74" t="s">
@@ -11023,7 +11100,9 @@
       <c r="D15" s="76">
         <v>2.06</v>
       </c>
-      <c r="E15" s="61"/>
+      <c r="E15" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="74" t="s">
@@ -11038,7 +11117,9 @@
       <c r="D16" s="76">
         <v>0.25</v>
       </c>
-      <c r="E16" s="61"/>
+      <c r="E16" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="74" t="s">
@@ -11050,9 +11131,12 @@
       <c r="C17" s="75">
         <v>0.95</v>
       </c>
-      <c r="D17" s="93">
+      <c r="D17" s="90">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;""))</f>
         <v>0</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11065,9 +11149,12 @@
       <c r="C18" s="75">
         <v>0.95</v>
       </c>
-      <c r="D18" s="93">
+      <c r="D18" s="90">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;""))</f>
         <v>0</v>
+      </c>
+      <c r="E18" s="76" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11080,9 +11167,12 @@
       <c r="C19" s="75">
         <v>0.95</v>
       </c>
-      <c r="D19" s="93">
+      <c r="D19" s="90">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
         <v>0</v>
+      </c>
+      <c r="E19" s="76" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11098,6 +11188,9 @@
       <c r="D20" s="76">
         <v>8.84</v>
       </c>
+      <c r="E20" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="74" t="s">
@@ -11112,7 +11205,9 @@
       <c r="D21" s="76">
         <v>50</v>
       </c>
-      <c r="E21" s="61"/>
+      <c r="E21" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="74" t="s">
@@ -11127,7 +11222,9 @@
       <c r="D22" s="76">
         <v>2.61</v>
       </c>
-      <c r="E22" s="61"/>
+      <c r="E22" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="74" t="s">
@@ -11142,7 +11239,9 @@
       <c r="D23" s="76">
         <v>1</v>
       </c>
-      <c r="E23" s="61"/>
+      <c r="E23" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="74" t="s">
@@ -11157,7 +11256,9 @@
       <c r="D24" s="76">
         <v>1</v>
       </c>
-      <c r="E24" s="78"/>
+      <c r="E24" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="74" t="s">
@@ -11172,7 +11273,9 @@
       <c r="D25" s="76">
         <v>1</v>
       </c>
-      <c r="E25" s="61"/>
+      <c r="E25" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="74" t="s">
@@ -11187,7 +11290,9 @@
       <c r="D26" s="76">
         <v>2.99</v>
       </c>
-      <c r="E26" s="61"/>
+      <c r="E26" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="74" t="s">
@@ -11202,6 +11307,9 @@
       <c r="D27" s="76">
         <v>1</v>
       </c>
+      <c r="E27" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="74" t="s">
@@ -11216,6 +11324,9 @@
       <c r="D28" s="76">
         <v>48</v>
       </c>
+      <c r="E28" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="74" t="s">
@@ -11231,6 +11342,9 @@
         <f>90*AVERAGE('Incidence of conditions'!B4:F4) + 40*AVERAGE('Incidence of conditions'!B3:F3)*IF(ISBLANK(manage_mam), 0, 1)</f>
         <v>0</v>
       </c>
+      <c r="E29" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="74" t="s">
@@ -11245,6 +11359,9 @@
       <c r="D30" s="76">
         <v>0.35</v>
       </c>
+      <c r="E30" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="74" t="s">
@@ -11259,6 +11376,9 @@
       <c r="D31" s="76">
         <v>1</v>
       </c>
+      <c r="E31" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="74" t="s">
@@ -11273,6 +11393,9 @@
       <c r="D32" s="76">
         <v>2.8</v>
       </c>
+      <c r="E32" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="74" t="s">
@@ -11287,6 +11410,9 @@
       <c r="D33" s="76">
         <v>50.26</v>
       </c>
+      <c r="E33" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="74" t="s">
@@ -11301,6 +11427,9 @@
       <c r="D34" s="76">
         <v>36.1</v>
       </c>
+      <c r="E34" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="35" spans="1:6" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="74" t="s">
@@ -11315,6 +11444,9 @@
       <c r="D35" s="76">
         <v>231.85</v>
       </c>
+      <c r="E35" s="76" t="s">
+        <v>205</v>
+      </c>
       <c r="F35" s="53"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11330,6 +11462,9 @@
       <c r="D36" s="76">
         <v>1.5</v>
       </c>
+      <c r="E36" s="76" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="74" t="s">
@@ -11343,6 +11478,9 @@
       </c>
       <c r="D37" s="76">
         <v>1</v>
+      </c>
+      <c r="E37" s="76" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11354,5 +11492,17 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{94C59A25-9C70-754A-8B30-4969E44A372B}">
+          <x14:formula1>
+            <xm:f>'Cost curve options'!$A$1:$A$4</xm:f>
+          </x14:formula1>
+          <xm:sqref>E2:E37</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/demo/data/national/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0064327A-C7AE-F14C-953C-BBBAFF95EA77}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{3124680C-540E-8643-ABF2-B56CD59D54FA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -819,7 +819,7 @@
     <t>Constant (default)</t>
   </si>
   <si>
-    <t>Marginal cost to coverage relationship</t>
+    <t>Marginal costs</t>
   </si>
 </sst>
 </file>
@@ -4158,9 +4158,7 @@
   </sheetPr>
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9932,9 +9930,7 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -9946,7 +9942,7 @@
     <col min="6" max="16384" width="14.5" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="74" t="s">
         <v>69</v>
       </c>

--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{92303F1E-7919-8A4A-863E-99639579E5D2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8AF32AFF-F96D-8B4B-827D-A0F8ADF8096C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
     <sheet name="Reference programs" sheetId="59" state="hidden" r:id="rId12"/>
     <sheet name="Incidence of conditions" sheetId="7" state="hidden" r:id="rId13"/>
     <sheet name="Programs target population" sheetId="21" r:id="rId14"/>
-    <sheet name="Cost curve options" sheetId="61" r:id="rId15"/>
+    <sheet name="Cost curve options" sheetId="61" state="hidden" r:id="rId15"/>
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
@@ -814,7 +814,7 @@
     <t>Mixed</t>
   </si>
   <si>
-    <t>Marginal cost to coverage relationship</t>
+    <t>Marginal costs</t>
   </si>
 </sst>
 </file>
@@ -5604,9 +5604,7 @@
   </sheetPr>
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10835,7 +10833,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10847,7 +10845,7 @@
     <col min="5" max="16384" width="14.5" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="39" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="80" t="s">
         <v>69</v>
       </c>

--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8AF32AFF-F96D-8B4B-827D-A0F8ADF8096C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E472319A-21E1-7E41-89C1-B40BD8F00C56}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -185,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="210">
   <si>
     <t>year</t>
   </si>
@@ -6383,7 +6383,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10830,11 +10830,9 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView zoomScale="106" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10916,7 +10914,7 @@
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="74" t="s">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="B5" s="75">
         <v>0</v>
@@ -10924,34 +10922,34 @@
       <c r="C5" s="75">
         <v>0.95</v>
       </c>
-      <c r="D5" s="77">
+      <c r="D5" s="76">
+        <v>1</v>
+      </c>
+      <c r="E5" s="76" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="74" t="s">
+        <v>201</v>
+      </c>
+      <c r="B6" s="75">
+        <v>0</v>
+      </c>
+      <c r="C6" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D6" s="77">
         <f>SUM('Programs family planning'!E2:E10)</f>
         <v>0.82100000000000006</v>
       </c>
-      <c r="E5" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="75">
-        <v>0</v>
-      </c>
-      <c r="C6" s="75">
-        <v>0.95</v>
-      </c>
-      <c r="D6" s="76">
-        <v>1</v>
-      </c>
       <c r="E6" s="76" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7" s="75">
         <v>0</v>
@@ -10960,7 +10958,7 @@
         <v>0.95</v>
       </c>
       <c r="D7" s="76">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="E7" s="76" t="s">
         <v>205</v>
@@ -10968,7 +10966,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="74" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B8" s="75">
         <v>0</v>
@@ -10977,15 +10975,15 @@
         <v>0.95</v>
       </c>
       <c r="D8" s="76">
-        <v>0.19</v>
+        <v>0.75</v>
       </c>
       <c r="E8" s="76" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="91" t="s">
-        <v>191</v>
+      <c r="A9" s="74" t="s">
+        <v>62</v>
       </c>
       <c r="B9" s="75">
         <v>0</v>
@@ -10994,7 +10992,7 @@
         <v>0.95</v>
       </c>
       <c r="D9" s="76">
-        <v>0.73</v>
+        <v>0.19</v>
       </c>
       <c r="E9" s="76" t="s">
         <v>205</v>
@@ -11002,7 +11000,7 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B10" s="75">
         <v>0</v>
@@ -11011,7 +11009,7 @@
         <v>0.95</v>
       </c>
       <c r="D10" s="76">
-        <v>1.78</v>
+        <v>0.73</v>
       </c>
       <c r="E10" s="76" t="s">
         <v>205</v>
@@ -11019,7 +11017,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="91" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B11" s="75">
         <v>0</v>
@@ -11028,7 +11026,7 @@
         <v>0.95</v>
       </c>
       <c r="D11" s="76">
-        <v>0.24</v>
+        <v>1.78</v>
       </c>
       <c r="E11" s="76" t="s">
         <v>205</v>
@@ -11036,7 +11034,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="91" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B12" s="75">
         <v>0</v>
@@ -11045,15 +11043,15 @@
         <v>0.95</v>
       </c>
       <c r="D12" s="76">
-        <v>0.55000000000000004</v>
+        <v>0.24</v>
       </c>
       <c r="E12" s="76" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="14" t="s">
-        <v>190</v>
+      <c r="A13" s="91" t="s">
+        <v>194</v>
       </c>
       <c r="B13" s="75">
         <v>0</v>
@@ -11062,7 +11060,7 @@
         <v>0.95</v>
       </c>
       <c r="D13" s="76">
-        <v>0.73</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="76" t="s">
         <v>205</v>
@@ -11070,7 +11068,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B14" s="75">
         <v>0</v>
@@ -11079,15 +11077,15 @@
         <v>0.95</v>
       </c>
       <c r="D14" s="76">
-        <v>1.78</v>
+        <v>0.73</v>
       </c>
       <c r="E14" s="76" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="74" t="s">
-        <v>57</v>
+      <c r="A15" s="14" t="s">
+        <v>195</v>
       </c>
       <c r="B15" s="75">
         <v>0</v>
@@ -11096,7 +11094,7 @@
         <v>0.95</v>
       </c>
       <c r="D15" s="76">
-        <v>2.06</v>
+        <v>1.78</v>
       </c>
       <c r="E15" s="76" t="s">
         <v>205</v>
@@ -11104,7 +11102,7 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="74" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B16" s="75">
         <v>0</v>
@@ -11113,7 +11111,7 @@
         <v>0.95</v>
       </c>
       <c r="D16" s="76">
-        <v>0.25</v>
+        <v>2.06</v>
       </c>
       <c r="E16" s="76" t="s">
         <v>205</v>
@@ -11121,7 +11119,7 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="74" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="B17" s="75">
         <v>0</v>
@@ -11129,9 +11127,8 @@
       <c r="C17" s="75">
         <v>0.95</v>
       </c>
-      <c r="D17" s="90">
-        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;""))</f>
-        <v>0</v>
+      <c r="D17" s="76">
+        <v>0.25</v>
       </c>
       <c r="E17" s="76" t="s">
         <v>205</v>
@@ -11139,7 +11136,7 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="74" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B18" s="75">
         <v>0</v>
@@ -11148,7 +11145,7 @@
         <v>0.95</v>
       </c>
       <c r="D18" s="90">
-        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;""))</f>
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E18" s="76" t="s">
@@ -11157,7 +11154,7 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B19" s="75">
         <v>0</v>
@@ -11166,7 +11163,7 @@
         <v>0.95</v>
       </c>
       <c r="D19" s="90">
-        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E19" s="76" t="s">
@@ -11175,7 +11172,7 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="74" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="B20" s="75">
         <v>0</v>
@@ -11183,8 +11180,9 @@
       <c r="C20" s="75">
         <v>0.95</v>
       </c>
-      <c r="D20" s="76">
-        <v>8.84</v>
+      <c r="D20" s="90">
+        <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
+        <v>0</v>
       </c>
       <c r="E20" s="76" t="s">
         <v>205</v>
@@ -11192,7 +11190,7 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="74" t="s">
-        <v>137</v>
+        <v>200</v>
       </c>
       <c r="B21" s="75">
         <v>0</v>
@@ -11201,7 +11199,7 @@
         <v>0.95</v>
       </c>
       <c r="D21" s="76">
-        <v>50</v>
+        <v>8.84</v>
       </c>
       <c r="E21" s="76" t="s">
         <v>205</v>
@@ -11209,7 +11207,7 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="74" t="s">
-        <v>34</v>
+        <v>137</v>
       </c>
       <c r="B22" s="75">
         <v>0</v>
@@ -11218,7 +11216,7 @@
         <v>0.95</v>
       </c>
       <c r="D22" s="76">
-        <v>2.61</v>
+        <v>50</v>
       </c>
       <c r="E22" s="76" t="s">
         <v>205</v>
@@ -11226,7 +11224,7 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="74" t="s">
-        <v>88</v>
+        <v>34</v>
       </c>
       <c r="B23" s="75">
         <v>0</v>
@@ -11235,7 +11233,7 @@
         <v>0.95</v>
       </c>
       <c r="D23" s="76">
-        <v>1</v>
+        <v>2.61</v>
       </c>
       <c r="E23" s="76" t="s">
         <v>205</v>
@@ -11243,7 +11241,7 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="74" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B24" s="75">
         <v>0</v>
@@ -11260,7 +11258,7 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="74" t="s">
-        <v>138</v>
+        <v>87</v>
       </c>
       <c r="B25" s="75">
         <v>0</v>
@@ -11277,7 +11275,7 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="74" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="B26" s="75">
         <v>0</v>
@@ -11286,7 +11284,7 @@
         <v>0.95</v>
       </c>
       <c r="D26" s="76">
-        <v>2.99</v>
+        <v>1</v>
       </c>
       <c r="E26" s="76" t="s">
         <v>205</v>
@@ -11294,7 +11292,7 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="74" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="B27" s="75">
         <v>0</v>
@@ -11303,7 +11301,7 @@
         <v>0.95</v>
       </c>
       <c r="D27" s="76">
-        <v>1</v>
+        <v>2.99</v>
       </c>
       <c r="E27" s="76" t="s">
         <v>205</v>
@@ -11311,7 +11309,7 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="74" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="B28" s="75">
         <v>0</v>
@@ -11320,7 +11318,7 @@
         <v>0.95</v>
       </c>
       <c r="D28" s="76">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="E28" s="76" t="s">
         <v>205</v>
@@ -11328,7 +11326,7 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="74" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="B29" s="75">
         <v>0</v>
@@ -11336,9 +11334,8 @@
       <c r="C29" s="75">
         <v>0.95</v>
       </c>
-      <c r="D29" s="77">
-        <f>90*AVERAGE('Incidence of conditions'!B4:F4) + 40*AVERAGE('Incidence of conditions'!B3:F3)*IF(ISBLANK(manage_mam), 0, 1)</f>
-        <v>0</v>
+      <c r="D29" s="76">
+        <v>48</v>
       </c>
       <c r="E29" s="76" t="s">
         <v>205</v>
@@ -11346,7 +11343,7 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="74" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="B30" s="75">
         <v>0</v>
@@ -11354,8 +11351,9 @@
       <c r="C30" s="75">
         <v>0.95</v>
       </c>
-      <c r="D30" s="76">
-        <v>0.35</v>
+      <c r="D30" s="77">
+        <f>90*AVERAGE('Incidence of conditions'!B4:F4) + 40*AVERAGE('Incidence of conditions'!B3:F3)*IF(ISBLANK(manage_mam), 0, 1)</f>
+        <v>0</v>
       </c>
       <c r="E30" s="76" t="s">
         <v>205</v>
@@ -11363,7 +11361,7 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="74" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="B31" s="75">
         <v>0</v>
@@ -11372,7 +11370,7 @@
         <v>0.95</v>
       </c>
       <c r="D31" s="76">
-        <v>1</v>
+        <v>0.35</v>
       </c>
       <c r="E31" s="76" t="s">
         <v>205</v>
@@ -11380,7 +11378,7 @@
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" s="75">
         <v>0</v>
@@ -11389,7 +11387,7 @@
         <v>0.95</v>
       </c>
       <c r="D32" s="76">
-        <v>2.8</v>
+        <v>1</v>
       </c>
       <c r="E32" s="76" t="s">
         <v>205</v>
@@ -11397,7 +11395,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="74" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B33" s="75">
         <v>0</v>
@@ -11406,7 +11404,7 @@
         <v>0.95</v>
       </c>
       <c r="D33" s="76">
-        <v>50.26</v>
+        <v>2.8</v>
       </c>
       <c r="E33" s="76" t="s">
         <v>205</v>
@@ -11414,7 +11412,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="74" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B34" s="75">
         <v>0</v>
@@ -11423,15 +11421,15 @@
         <v>0.95</v>
       </c>
       <c r="D34" s="76">
-        <v>36.1</v>
+        <v>50.26</v>
       </c>
       <c r="E34" s="76" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="74" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B35" s="75">
         <v>0</v>
@@ -11440,16 +11438,15 @@
         <v>0.95</v>
       </c>
       <c r="D35" s="76">
-        <v>231.85</v>
+        <v>36.1</v>
       </c>
       <c r="E35" s="76" t="s">
         <v>205</v>
       </c>
-      <c r="F35" s="53"/>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:6" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="74" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B36" s="75">
         <v>0</v>
@@ -11458,15 +11455,16 @@
         <v>0.95</v>
       </c>
       <c r="D36" s="76">
-        <v>1.5</v>
+        <v>231.85</v>
       </c>
       <c r="E36" s="76" t="s">
         <v>205</v>
       </c>
+      <c r="F36" s="53"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="74" t="s">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="B37" s="75">
         <v>0</v>
@@ -11475,18 +11473,35 @@
         <v>0.95</v>
       </c>
       <c r="D37" s="76">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E37" s="76" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="F38" s="54"/>
+      <c r="A38" s="74" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="75">
+        <v>0</v>
+      </c>
+      <c r="C38" s="75">
+        <v>0.95</v>
+      </c>
+      <c r="D38" s="76">
+        <v>1</v>
+      </c>
+      <c r="E38" s="76" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="54"/>
     </row>
   </sheetData>
-  <sortState ref="A2:D37">
-    <sortCondition ref="A2:A37"/>
+  <sortState ref="A2:D38">
+    <sortCondition ref="A2:A38"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -11497,7 +11512,7 @@
           <x14:formula1>
             <xm:f>'Cost curve options'!$A$1:$A$4</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E37</xm:sqref>
+          <xm:sqref>E2:E38</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{E472319A-21E1-7E41-89C1-B40BD8F00C56}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{402284F7-AF40-254D-8745-C62D9A3ACBA0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -802,19 +802,19 @@
     <t>Birth spacing</t>
   </si>
   <si>
-    <t>Constant (default)</t>
-  </si>
-  <si>
-    <t>Increasing</t>
-  </si>
-  <si>
-    <t>Decreasing</t>
-  </si>
-  <si>
-    <t>Mixed</t>
-  </si>
-  <si>
-    <t>Marginal costs</t>
+    <t>Cost-coverage relationship</t>
+  </si>
+  <si>
+    <t>Linear (constant marginal cost) [default]</t>
+  </si>
+  <si>
+    <t>Curved with increasing marginal cost</t>
+  </si>
+  <si>
+    <t>Curved with decreasing marginal cost</t>
+  </si>
+  <si>
+    <t>S-shaped (decreasing then increasing marginal cost)</t>
   </si>
 </sst>
 </file>
@@ -8093,28 +8093,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1A136D-8EBE-E34F-8C06-B810409B5736}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -10832,7 +10834,9 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0"/>
+    <sheetView zoomScale="106" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10840,7 +10844,8 @@
     <col min="2" max="2" width="20" style="54" customWidth="1"/>
     <col min="3" max="3" width="20.5" style="53" customWidth="1"/>
     <col min="4" max="4" width="20.1640625" style="53" customWidth="1"/>
-    <col min="5" max="16384" width="14.5" style="53"/>
+    <col min="5" max="5" width="32.33203125" style="53" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.5" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
@@ -10858,7 +10863,7 @@
         <v>203</v>
       </c>
       <c r="E1" s="79" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10875,7 +10880,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10892,7 +10897,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10909,7 +10914,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10926,7 +10931,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10944,7 +10949,7 @@
         <v>0.82100000000000006</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10961,7 +10966,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10978,7 +10983,7 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10995,7 +11000,7 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11012,7 +11017,7 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11029,7 +11034,7 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11046,7 +11051,7 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11063,7 +11068,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11080,7 +11085,7 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11097,7 +11102,7 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11114,7 +11119,7 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11131,7 +11136,7 @@
         <v>0.25</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11149,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11167,7 +11172,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11185,7 +11190,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11202,7 +11207,7 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11219,7 +11224,7 @@
         <v>50</v>
       </c>
       <c r="E22" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11236,7 +11241,7 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11253,7 +11258,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11270,7 +11275,7 @@
         <v>1</v>
       </c>
       <c r="E25" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11287,7 +11292,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11304,7 +11309,7 @@
         <v>2.99</v>
       </c>
       <c r="E27" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11321,7 +11326,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11338,7 +11343,7 @@
         <v>48</v>
       </c>
       <c r="E29" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11356,7 +11361,7 @@
         <v>0</v>
       </c>
       <c r="E30" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11373,7 +11378,7 @@
         <v>0.35</v>
       </c>
       <c r="E31" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11390,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11407,7 +11412,7 @@
         <v>2.8</v>
       </c>
       <c r="E33" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11424,7 +11429,7 @@
         <v>50.26</v>
       </c>
       <c r="E34" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11441,7 +11446,7 @@
         <v>36.1</v>
       </c>
       <c r="E35" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11458,7 +11463,7 @@
         <v>231.85</v>
       </c>
       <c r="E36" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F36" s="53"/>
     </row>
@@ -11476,7 +11481,7 @@
         <v>1.5</v>
       </c>
       <c r="E37" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11493,7 +11498,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="76" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\applications\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{402284F7-AF40-254D-8745-C62D9A3ACBA0}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="15540" tabRatio="961" firstSheet="4" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -84,12 +83,100 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Nick Scott</author>
+  </authors>
+  <commentList>
+    <comment ref="D28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The cost per child per year can be estimated as 
+= (cost per treatment) * (annual diarrhoea incidence)
+Diarrhoea incidence is the average in children under 5.  See user guide for further information</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The cost per child per year can be estimated as 
+= (cost per treatment episode) * (SAM prevalence) * 2.6
+Cost per treatment episode includes management of MAM (if selected) and is an average over delivery modalities. See user guide for further information</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Nick Scott:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+The cost per child per year can be estimated as 
+= (cost per treatment) * (annual diarrhoea incidence)
+Diarrhoea incidence is the average in children under 5.  See user guide for further information</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -141,13 +228,13 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -796,9 +883,6 @@
     <t>Saturation coverage of target population</t>
   </si>
   <si>
-    <t>Unit cost (US$)</t>
-  </si>
-  <si>
     <t>Birth spacing</t>
   </si>
   <si>
@@ -815,19 +899,22 @@
   </si>
   <si>
     <t>S-shaped (decreasing then increasing marginal cost)</t>
+  </si>
+  <si>
+    <t>Unit cost (US$ per person per year)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -966,6 +1053,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1078,7 +1178,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2519,7 +2619,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2562,8 +2662,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2579,8 +2679,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2599,20 +2699,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2624,11 +2724,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2654,20 +2754,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2679,8 +2779,6 @@
     </xf>
     <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2693,8 +2791,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="20" fillId="3" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4157,8 +4255,8 @@
     <cellStyle name="Hyperlink" xfId="1445" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1447" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000A6050000}"/>
-    <cellStyle name="Normal 3" xfId="726" xr:uid="{00000000-0005-0000-0000-0000A7050000}"/>
+    <cellStyle name="Normal 2" xfId="725"/>
+    <cellStyle name="Normal 3" xfId="726"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -5598,22 +5696,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="15" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="14.5" style="15"/>
+    <col min="3" max="16384" width="14.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -5624,112 +5722,112 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>196</v>
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="92">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="95">
+      <c r="C4" s="93">
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C8" s="23"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="23"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="12" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="23"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>97</v>
       </c>
       <c r="C18" s="23"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
         <v>98</v>
       </c>
@@ -5738,74 +5836,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="27" t="s">
         <v>101</v>
       </c>
       <c r="C22" s="23"/>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C23" s="23"/>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="27" t="s">
         <v>103</v>
       </c>
       <c r="C24" s="23"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C25" s="23"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="41" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="42"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="42"/>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="41" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="42"/>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="41" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="42"/>
     </row>
-    <row r="32" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B32" s="45" t="s">
         <v>130</v>
       </c>
@@ -5814,26 +5912,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="60" t="s">
         <v>92</v>
       </c>
       <c r="C36" s="25"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="19" t="s">
         <v>91</v>
       </c>
@@ -5841,7 +5939,7 @@
       <c r="D37" s="20"/>
       <c r="E37" s="21"/>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="19" t="s">
         <v>90</v>
       </c>
@@ -5849,48 +5947,48 @@
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="19" t="s">
         <v>172</v>
       </c>
       <c r="C39" s="25"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="23"/>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="60" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="25"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D42" s="20"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="20"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="20"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="19" t="s">
         <v>12</v>
       </c>
@@ -5898,7 +5996,7 @@
       <c r="D46" s="20"/>
       <c r="E46" s="21"/>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="19" t="s">
         <v>26</v>
       </c>
@@ -5909,52 +6007,52 @@
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D48" s="20"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D49" s="20"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="19" t="s">
         <v>125</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="20"/>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="19" t="s">
         <v>126</v>
       </c>
       <c r="C51" s="7"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="19" t="s">
         <v>127</v>
       </c>
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="19" t="s">
         <v>128</v>
       </c>
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="19" t="s">
         <v>129</v>
       </c>
       <c r="C54" s="7"/>
     </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="9" t="s">
         <v>111</v>
       </c>
@@ -5962,13 +6060,13 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="19" t="s">
         <v>133</v>
       </c>
       <c r="C58" s="24"/>
     </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
     </row>
   </sheetData>
@@ -5978,7 +6076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -5988,78 +6086,78 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="81" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="81"/>
+    <col min="1" max="1" width="18.6640625" style="79" customWidth="1"/>
+    <col min="2" max="16384" width="10.77734375" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
-      <c r="A1" s="86" t="s">
+    <row r="1" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="84" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="83" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="83" t="s">
         <v>179</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="83" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="85" t="s">
+      <c r="E1" s="83" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="84" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="82" t="s">
         <v>165</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="81" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="76"/>
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="83"/>
-      <c r="B3" s="83" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="81"/>
+      <c r="B3" s="81" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="76"/>
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="83"/>
-      <c r="B4" s="83" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="81"/>
+      <c r="B4" s="81" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="76"/>
       <c r="E4" s="76"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="81"/>
+      <c r="B5" s="81" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="76"/>
       <c r="D5" s="76"/>
       <c r="E5" s="76"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="83"/>
-      <c r="B6" s="83" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="81"/>
+      <c r="B6" s="81" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="76"/>
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" s="82"/>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="80"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6067,7 +6165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6077,15 +6175,15 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="53" style="74" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" style="53" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="53" customWidth="1"/>
-    <col min="4" max="16384" width="11.5" style="53"/>
+    <col min="2" max="2" width="47.77734375" style="53" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>69</v>
       </c>
@@ -6096,7 +6194,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>190</v>
       </c>
@@ -6105,7 +6203,7 @@
       </c>
       <c r="C2" s="68"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>195</v>
       </c>
@@ -6114,7 +6212,7 @@
       </c>
       <c r="C3" s="68"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>58</v>
       </c>
@@ -6123,7 +6221,7 @@
       </c>
       <c r="C4" s="68"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>138</v>
       </c>
@@ -6132,28 +6230,28 @@
       </c>
       <c r="C5" s="68"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="49"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="49"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="49"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="49"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="49"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="49"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="49"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="49"/>
     </row>
   </sheetData>
@@ -6164,7 +6262,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6174,85 +6272,85 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" style="53" customWidth="1"/>
-    <col min="2" max="16384" width="11.5" style="53"/>
+    <col min="1" max="1" width="30.109375" style="53" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="68" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="68" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="68" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="68" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="68" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="68"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="68"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="68"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="68"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="68"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="68"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="68"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="68"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="68"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="68"/>
     </row>
   </sheetData>
@@ -6262,7 +6360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -6272,9 +6370,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6294,7 +6392,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -6319,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -6344,7 +6442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -6376,29 +6474,29 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.77734375" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -6445,7 +6543,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -6496,7 +6594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
         <v>150</v>
       </c>
@@ -6540,7 +6638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="9" t="s">
         <v>200</v>
       </c>
@@ -6584,7 +6682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
         <v>137</v>
       </c>
@@ -6630,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>138</v>
       </c>
@@ -6677,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="49" t="s">
         <v>84</v>
       </c>
@@ -6726,7 +6824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
         <v>58</v>
       </c>
@@ -6772,7 +6870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
         <v>67</v>
       </c>
@@ -6820,7 +6918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
@@ -6864,7 +6962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="49" t="s">
         <v>85</v>
       </c>
@@ -6913,7 +7011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>60</v>
       </c>
@@ -6957,10 +7055,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="49"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -7011,7 +7109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="14" t="s">
         <v>86</v>
@@ -7056,7 +7154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
         <v>190</v>
@@ -7105,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="14" t="s">
         <v>195</v>
@@ -7154,7 +7252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="49" t="s">
         <v>57</v>
       </c>
@@ -7202,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>88</v>
       </c>
@@ -7246,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>87</v>
       </c>
@@ -7290,7 +7388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="49" t="s">
         <v>59</v>
       </c>
@@ -7338,14 +7436,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="49"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="89" t="s">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="89" t="s">
         <v>201</v>
       </c>
       <c r="C23" s="52">
@@ -7388,8 +7486,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="91" t="s">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="89" t="s">
         <v>191</v>
       </c>
       <c r="C24" s="52">
@@ -7436,8 +7534,8 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="91" t="s">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="89" t="s">
         <v>192</v>
       </c>
       <c r="C25" s="52">
@@ -7484,8 +7582,8 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="91" t="s">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="89" t="s">
         <v>193</v>
       </c>
       <c r="C26" s="52">
@@ -7532,8 +7630,8 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="91" t="s">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="89" t="s">
         <v>194</v>
       </c>
       <c r="C27" s="52">
@@ -7577,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="14"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -7587,7 +7685,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7645,7 +7743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
         <v>64</v>
       </c>
@@ -7700,7 +7798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
         <v>62</v>
       </c>
@@ -7755,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
         <v>47</v>
       </c>
@@ -7799,7 +7897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>34</v>
       </c>
@@ -7856,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="49" t="s">
         <v>83</v>
       </c>
@@ -7900,7 +7998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="49" t="s">
         <v>82</v>
@@ -7945,7 +8043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="49" t="s">
         <v>81</v>
       </c>
@@ -7989,7 +8087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="49" t="s">
         <v>79</v>
       </c>
@@ -8033,7 +8131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="49" t="s">
         <v>80</v>
       </c>
@@ -8077,7 +8175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="49"/>
     </row>
   </sheetData>
@@ -8090,33 +8188,33 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B1A136D-8EBE-E34F-8C06-B810409B5736}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="15" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
         <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="15" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -8125,7 +8223,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -8135,16 +8233,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="53" customWidth="1"/>
-    <col min="3" max="4" width="11.5" style="53"/>
-    <col min="5" max="5" width="17.5" style="53" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="53"/>
+    <col min="2" max="2" width="12.44140625" style="53" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="53"/>
+    <col min="5" max="5" width="17.44140625" style="53" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>164</v>
       </c>
@@ -8161,7 +8259,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2" s="57" t="s">
         <v>159</v>
       </c>
@@ -8179,7 +8277,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
         <v>158</v>
       </c>
@@ -8197,7 +8295,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="57" t="s">
         <v>157</v>
       </c>
@@ -8215,7 +8313,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="57" t="s">
         <v>156</v>
       </c>
@@ -8233,7 +8331,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="57" t="s">
         <v>155</v>
       </c>
@@ -8251,7 +8349,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="57" t="s">
         <v>154</v>
       </c>
@@ -8269,7 +8367,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="57" t="s">
         <v>153</v>
       </c>
@@ -8287,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="57" t="s">
         <v>152</v>
       </c>
@@ -8305,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
         <v>151</v>
       </c>
@@ -8323,7 +8421,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="54"/>
     </row>
   </sheetData>
@@ -8334,7 +8432,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -8342,14 +8440,14 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="15" customWidth="1"/>
-    <col min="2" max="10" width="16.83203125" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="14.5" style="15"/>
+    <col min="1" max="1" width="8.44140625" style="15" customWidth="1"/>
+    <col min="2" max="10" width="16.77734375" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="14.44140625" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -8381,7 +8479,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9">
         <f>start_year</f>
         <v>2017</v>
@@ -8405,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -8429,7 +8527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -8453,7 +8551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -8477,7 +8575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -8501,7 +8599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -8525,7 +8623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -8549,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -8573,7 +8671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -8597,7 +8695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -8621,7 +8719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -8645,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -8669,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -8693,7 +8791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -8717,7 +8815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8741,7 +8839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8765,7 +8863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8789,7 +8887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8813,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8837,7 +8935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8861,7 +8959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8885,7 +8983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8909,7 +9007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8933,7 +9031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8957,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8981,7 +9079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9005,7 +9103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9029,7 +9127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9053,7 +9151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9077,7 +9175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9101,7 +9199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9125,7 +9223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9149,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9173,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9197,7 +9295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9221,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9245,7 +9343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9269,7 +9367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9293,7 +9391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9329,7 +9427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -9337,13 +9435,13 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.33203125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -9367,7 +9465,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>73</v>
       </c>
@@ -9388,7 +9486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
@@ -9409,7 +9507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
@@ -9430,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>10</v>
       </c>
@@ -9451,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
@@ -9472,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>14</v>
       </c>
@@ -9493,7 +9591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>27</v>
       </c>
@@ -9514,7 +9612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="32" t="s">
         <v>15</v>
       </c>
@@ -9535,7 +9633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="32" t="s">
         <v>71</v>
       </c>
@@ -9550,7 +9648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="32" t="s">
         <v>16</v>
       </c>
@@ -9565,7 +9663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="32" t="s">
         <v>17</v>
       </c>
@@ -9580,7 +9678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
@@ -9595,7 +9693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="32" t="s">
         <v>19</v>
       </c>
@@ -9610,7 +9708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="32" t="s">
         <v>20</v>
       </c>
@@ -9625,7 +9723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="32" t="s">
         <v>21</v>
       </c>
@@ -9640,7 +9738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>22</v>
       </c>
@@ -9655,7 +9753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="32" t="s">
         <v>23</v>
       </c>
@@ -9670,7 +9768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="32" t="s">
         <v>38</v>
       </c>
@@ -9691,7 +9789,7 @@
       </c>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>39</v>
       </c>
@@ -9712,7 +9810,7 @@
       </c>
       <c r="G20" s="35"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>40</v>
       </c>
@@ -9733,7 +9831,7 @@
       </c>
       <c r="G21" s="35"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>41</v>
       </c>
@@ -9754,7 +9852,7 @@
       </c>
       <c r="G22" s="35"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>42</v>
       </c>
@@ -9775,7 +9873,7 @@
       </c>
       <c r="G23" s="35"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>43</v>
       </c>
@@ -9796,7 +9894,7 @@
       </c>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>44</v>
       </c>
@@ -9817,7 +9915,7 @@
       </c>
       <c r="G25" s="35"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>45</v>
       </c>
@@ -9838,7 +9936,7 @@
       </c>
       <c r="G26" s="35"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>46</v>
       </c>
@@ -9867,7 +9965,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -9875,13 +9973,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="1" max="1" width="31.44140625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -9905,7 +10003,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>116</v>
       </c>
@@ -9933,7 +10031,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="14" t="s">
         <v>119</v>
@@ -9959,7 +10057,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="14" t="s">
         <v>117</v>
@@ -9970,7 +10068,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="14" t="s">
         <v>120</v>
@@ -9981,7 +10079,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="17"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -9989,7 +10087,7 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="17"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -9997,7 +10095,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>115</v>
       </c>
@@ -10025,7 +10123,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="9" t="s">
         <v>122</v>
       </c>
@@ -10050,7 +10148,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="9" t="s">
         <v>123</v>
       </c>
@@ -10060,7 +10158,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="9" t="s">
         <v>124</v>
       </c>
@@ -10070,7 +10168,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -10084,7 +10182,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>70</v>
       </c>
@@ -10128,7 +10226,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>132</v>
       </c>
@@ -10146,7 +10244,7 @@
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="19" t="s">
         <v>68</v>
       </c>
@@ -10203,14 +10301,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -10225,7 +10323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -10233,13 +10331,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.83203125" customWidth="1"/>
-    <col min="2" max="7" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="28.77734375" customWidth="1"/>
+    <col min="2" max="7" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -10263,7 +10361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -10276,7 +10374,7 @@
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="61" t="s">
         <v>168</v>
       </c>
@@ -10286,7 +10384,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="61" t="s">
         <v>169</v>
       </c>
@@ -10296,7 +10394,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="61" t="s">
         <v>170</v>
       </c>
@@ -10327,7 +10425,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -10335,13 +10433,13 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.5" customWidth="1"/>
+    <col min="2" max="2" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>139</v>
       </c>
@@ -10376,7 +10474,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -10393,10 +10491,10 @@
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -10413,10 +10511,10 @@
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -10433,7 +10531,7 @@
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
@@ -10447,7 +10545,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="17" t="s">
         <v>145</v>
       </c>
@@ -10461,7 +10559,7 @@
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -10478,7 +10576,7 @@
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="50" t="s">
         <v>147</v>
       </c>
@@ -10492,7 +10590,7 @@
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>74</v>
       </c>
@@ -10509,7 +10607,7 @@
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
         <v>171</v>
       </c>
@@ -10530,7 +10628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10538,15 +10636,15 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17" style="53" customWidth="1"/>
-    <col min="2" max="2" width="19.1640625" style="53" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="53" customWidth="1"/>
-    <col min="4" max="16384" width="11.5" style="53"/>
+    <col min="2" max="2" width="19.109375" style="53" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="72" t="s">
         <v>181</v>
       </c>
@@ -10563,7 +10661,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="70" t="s">
         <v>176</v>
       </c>
@@ -10572,60 +10670,60 @@
       </c>
       <c r="C2" s="68"/>
       <c r="D2" s="68"/>
-      <c r="E2" s="87" t="str">
+      <c r="E2" s="85" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="66"/>
       <c r="B3" s="65" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="68"/>
       <c r="D3" s="68"/>
-      <c r="E3" s="87" t="str">
+      <c r="E3" s="85" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="66"/>
       <c r="B4" s="65" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
-      <c r="E4" s="87" t="str">
+      <c r="E4" s="85" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="66"/>
       <c r="B5" s="65" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="68"/>
       <c r="D5" s="68"/>
-      <c r="E5" s="87" t="str">
+      <c r="E5" s="85" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="66"/>
       <c r="B6" s="65" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="68"/>
       <c r="D6" s="68"/>
-      <c r="E6" s="87" t="str">
+      <c r="E6" s="85" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="66"/>
       <c r="B7" s="65" t="s">
         <v>173</v>
@@ -10634,7 +10732,7 @@
       <c r="D7" s="63"/>
       <c r="E7" s="68"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="72" t="s">
         <v>175</v>
       </c>
@@ -10643,45 +10741,45 @@
       </c>
       <c r="C9" s="68"/>
       <c r="D9" s="68"/>
-      <c r="E9" s="88"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E9" s="86"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="66"/>
       <c r="B10" s="65" t="s">
         <v>1</v>
       </c>
       <c r="C10" s="68"/>
       <c r="D10" s="68"/>
-      <c r="E10" s="87"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E10" s="85"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="66"/>
       <c r="B11" s="65" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="68"/>
       <c r="D11" s="68"/>
-      <c r="E11" s="87"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E11" s="85"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="66"/>
       <c r="B12" s="65" t="s">
         <v>3</v>
       </c>
       <c r="C12" s="68"/>
       <c r="D12" s="68"/>
-      <c r="E12" s="87"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E12" s="85"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="66"/>
       <c r="B13" s="65" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="68"/>
       <c r="D13" s="68"/>
-      <c r="E13" s="87"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="E13" s="85"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="66"/>
       <c r="B14" s="65" t="s">
         <v>173</v>
@@ -10690,7 +10788,7 @@
       <c r="D14" s="63"/>
       <c r="E14" s="68"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="70" t="s">
         <v>174</v>
       </c>
@@ -10699,60 +10797,60 @@
       </c>
       <c r="C16" s="62"/>
       <c r="D16" s="69"/>
-      <c r="E16" s="88" t="str">
+      <c r="E16" s="86" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="66"/>
       <c r="B17" s="65" t="s">
         <v>1</v>
       </c>
       <c r="C17" s="62"/>
       <c r="D17" s="68"/>
-      <c r="E17" s="87" t="str">
+      <c r="E17" s="85" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="66"/>
       <c r="B18" s="65" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="62"/>
       <c r="D18" s="68"/>
-      <c r="E18" s="87" t="str">
+      <c r="E18" s="85" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="66"/>
       <c r="B19" s="65" t="s">
         <v>3</v>
       </c>
       <c r="C19" s="62"/>
       <c r="D19" s="68"/>
-      <c r="E19" s="87" t="str">
+      <c r="E19" s="85" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="66"/>
       <c r="B20" s="65" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="62"/>
       <c r="D20" s="67"/>
-      <c r="E20" s="87" t="str">
+      <c r="E20" s="85" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="66"/>
       <c r="B21" s="65" t="s">
         <v>173</v>
@@ -10768,7 +10866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10776,30 +10874,30 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.5" customWidth="1"/>
-    <col min="3" max="3" width="17.5" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="90" t="s">
         <v>165</v>
       </c>
       <c r="B1" s="73" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="93" t="s">
+      <c r="C1" s="91" t="s">
         <v>185</v>
       </c>
-      <c r="D1" s="93" t="s">
+      <c r="D1" s="91" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="93" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="91" t="s">
         <v>69</v>
       </c>
       <c r="B2" s="65" t="s">
@@ -10810,8 +10908,8 @@
       </c>
       <c r="D2" s="68"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="93" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="91" t="s">
         <v>188</v>
       </c>
       <c r="B3" s="65" t="s">
@@ -10828,45 +10926,45 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="56" style="74" customWidth="1"/>
     <col min="2" max="2" width="20" style="54" customWidth="1"/>
-    <col min="3" max="3" width="20.5" style="53" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="53" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="53" customWidth="1"/>
     <col min="5" max="5" width="32.33203125" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.5" style="53"/>
+    <col min="6" max="16384" width="14.44140625" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
-      <c r="A1" s="80" t="s">
+    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A1" s="78" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="96" t="str">
+      <c r="B1" s="94" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
         <v>Baseline (2017) coverage</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="78" t="s">
-        <v>203</v>
-      </c>
-      <c r="E1" s="79" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D1" s="77" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" s="77" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>29</v>
       </c>
@@ -10880,10 +10978,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>86</v>
       </c>
@@ -10897,10 +10995,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="74" t="s">
         <v>61</v>
       </c>
@@ -10914,10 +11012,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="74" t="s">
         <v>150</v>
       </c>
@@ -10931,10 +11029,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="74" t="s">
         <v>201</v>
       </c>
@@ -10944,15 +11042,14 @@
       <c r="C6" s="75">
         <v>0.95</v>
       </c>
-      <c r="D6" s="77">
-        <f>SUM('Programs family planning'!E2:E10)</f>
-        <v>0.82100000000000006</v>
+      <c r="D6" s="76">
+        <v>1</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="74" t="s">
         <v>63</v>
       </c>
@@ -10966,10 +11063,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="74" t="s">
         <v>64</v>
       </c>
@@ -10983,10 +11080,10 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="74" t="s">
         <v>62</v>
       </c>
@@ -11000,11 +11097,11 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="91" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="89" t="s">
         <v>191</v>
       </c>
       <c r="B10" s="75">
@@ -11017,11 +11114,11 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="91" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="89" t="s">
         <v>192</v>
       </c>
       <c r="B11" s="75">
@@ -11034,11 +11131,11 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="91" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="89" t="s">
         <v>193</v>
       </c>
       <c r="B12" s="75">
@@ -11051,11 +11148,11 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="91" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="89" t="s">
         <v>194</v>
       </c>
       <c r="B13" s="75">
@@ -11068,10 +11165,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>190</v>
       </c>
@@ -11085,10 +11182,10 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>195</v>
       </c>
@@ -11102,10 +11199,10 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="74" t="s">
         <v>57</v>
       </c>
@@ -11119,10 +11216,10 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="74" t="s">
         <v>47</v>
       </c>
@@ -11136,10 +11233,10 @@
         <v>0.25</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="74" t="s">
         <v>176</v>
       </c>
@@ -11149,15 +11246,15 @@
       <c r="C18" s="75">
         <v>0.95</v>
       </c>
-      <c r="D18" s="90">
+      <c r="D18" s="88">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="74" t="s">
         <v>175</v>
       </c>
@@ -11167,15 +11264,15 @@
       <c r="C19" s="75">
         <v>0.95</v>
       </c>
-      <c r="D19" s="90">
+      <c r="D19" s="88">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E19" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="74" t="s">
         <v>174</v>
       </c>
@@ -11185,15 +11282,15 @@
       <c r="C20" s="75">
         <v>0.95</v>
       </c>
-      <c r="D20" s="90">
+      <c r="D20" s="88">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
         <v>0</v>
       </c>
       <c r="E20" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="74" t="s">
         <v>200</v>
       </c>
@@ -11207,10 +11304,10 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="74" t="s">
         <v>137</v>
       </c>
@@ -11224,10 +11321,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="74" t="s">
         <v>34</v>
       </c>
@@ -11241,10 +11338,10 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="74" t="s">
         <v>88</v>
       </c>
@@ -11258,10 +11355,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="74" t="s">
         <v>87</v>
       </c>
@@ -11275,10 +11372,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="74" t="s">
         <v>138</v>
       </c>
@@ -11292,10 +11389,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="74" t="s">
         <v>59</v>
       </c>
@@ -11309,10 +11406,10 @@
         <v>2.99</v>
       </c>
       <c r="E27" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="74" t="s">
         <v>84</v>
       </c>
@@ -11326,10 +11423,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="74" t="s">
         <v>58</v>
       </c>
@@ -11343,10 +11440,10 @@
         <v>48</v>
       </c>
       <c r="E29" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="74" t="s">
         <v>67</v>
       </c>
@@ -11356,15 +11453,14 @@
       <c r="C30" s="75">
         <v>0.95</v>
       </c>
-      <c r="D30" s="77">
-        <f>90*AVERAGE('Incidence of conditions'!B4:F4) + 40*AVERAGE('Incidence of conditions'!B3:F3)*IF(ISBLANK(manage_mam), 0, 1)</f>
-        <v>0</v>
+      <c r="D30" s="76">
+        <v>9.36</v>
       </c>
       <c r="E30" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="74" t="s">
         <v>28</v>
       </c>
@@ -11378,10 +11474,10 @@
         <v>0.35</v>
       </c>
       <c r="E31" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="74" t="s">
         <v>83</v>
       </c>
@@ -11395,10 +11491,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="74" t="s">
         <v>82</v>
       </c>
@@ -11412,10 +11508,10 @@
         <v>2.8</v>
       </c>
       <c r="E33" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="74" t="s">
         <v>81</v>
       </c>
@@ -11429,10 +11525,10 @@
         <v>50.26</v>
       </c>
       <c r="E34" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="74" t="s">
         <v>79</v>
       </c>
@@ -11446,10 +11542,10 @@
         <v>36.1</v>
       </c>
       <c r="E35" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="74" t="s">
         <v>80</v>
       </c>
@@ -11463,11 +11559,11 @@
         <v>231.85</v>
       </c>
       <c r="E36" s="76" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F36" s="53"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="74" t="s">
         <v>85</v>
       </c>
@@ -11481,10 +11577,10 @@
         <v>1.5</v>
       </c>
       <c r="E37" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="74" t="s">
         <v>60</v>
       </c>
@@ -11498,10 +11594,10 @@
         <v>1</v>
       </c>
       <c r="E38" s="76" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="54"/>
     </row>
   </sheetData>
@@ -11510,10 +11606,11 @@
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{94C59A25-9C70-754A-8B30-4969E44A372B}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'Cost curve options'!$A$1:$A$4</xm:f>
           </x14:formula1>

--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\applications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{11BEDE93-9C9B-D64B-A5A7-757D00DCF7CB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="25596" windowHeight="15540" tabRatio="961" firstSheet="4" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -83,12 +84,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0" shapeId="0">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +97,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -105,7 +106,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 The cost per child per year can be estimated as 
@@ -114,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -122,7 +123,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -131,7 +132,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 The cost per child per year can be estimated as 
@@ -140,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0" shapeId="0">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -148,7 +149,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Nick Scott:</t>
         </r>
@@ -157,7 +158,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 The cost per child per year can be estimated as 
@@ -171,12 +172,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -229,12 +230,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -850,18 +851,12 @@
     <t>IFAS (community)</t>
   </si>
   <si>
-    <t>IFAS (hospital)</t>
-  </si>
-  <si>
     <t>IFAS (retailer)</t>
   </si>
   <si>
     <t>IFAS (school)</t>
   </si>
   <si>
-    <t>IFAS for pregnant women (hospital)</t>
-  </si>
-  <si>
     <t>Projection years</t>
   </si>
   <si>
@@ -902,17 +897,23 @@
   </si>
   <si>
     <t>Unit cost (US$ per person per year)</t>
+  </si>
+  <si>
+    <t>IFAS for pregnant women (health facility)</t>
+  </si>
+  <si>
+    <t>IFAS (health facility)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1057,14 +1058,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1178,7 +1179,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2662,8 +2663,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2679,8 +2680,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -2699,20 +2700,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2724,11 +2725,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2754,20 +2755,20 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2791,8 +2792,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
@@ -4255,8 +4256,8 @@
     <cellStyle name="Hyperlink" xfId="1445" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1447" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="725"/>
-    <cellStyle name="Normal 3" xfId="726"/>
+    <cellStyle name="Normal 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000A6050000}"/>
+    <cellStyle name="Normal 3" xfId="726" xr:uid="{00000000-0005-0000-0000-0000A7050000}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -5696,22 +5697,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="27.6640625" style="15" customWidth="1"/>
     <col min="2" max="2" width="38.6640625" style="19" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="15"/>
+    <col min="3" max="16384" width="14.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -5722,112 +5723,112 @@
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
     </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C3" s="92">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C4" s="93">
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C8" s="23"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
         <v>105</v>
       </c>
       <c r="C9" s="23"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C10" s="24"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C11" s="24"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="15" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="12" t="s">
         <v>94</v>
       </c>
       <c r="C15" s="23"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="12" t="s">
         <v>95</v>
       </c>
       <c r="C16" s="23"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
         <v>96</v>
       </c>
       <c r="C17" s="23"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
         <v>97</v>
       </c>
       <c r="C18" s="23"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="12" t="s">
         <v>98</v>
       </c>
@@ -5836,74 +5837,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="15"/>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="27" t="s">
         <v>101</v>
       </c>
       <c r="C22" s="23"/>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="27" t="s">
         <v>102</v>
       </c>
       <c r="C23" s="23"/>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="27" t="s">
         <v>103</v>
       </c>
       <c r="C24" s="23"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="27" t="s">
         <v>104</v>
       </c>
       <c r="C25" s="23"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="41" t="s">
         <v>75</v>
       </c>
       <c r="C28" s="42"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="41" t="s">
         <v>76</v>
       </c>
       <c r="C29" s="42"/>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="41" t="s">
         <v>77</v>
       </c>
       <c r="C30" s="42"/>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="41" t="s">
         <v>78</v>
       </c>
       <c r="C31" s="42"/>
     </row>
-    <row r="32" spans="1:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B32" s="45" t="s">
         <v>130</v>
       </c>
@@ -5912,26 +5913,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="15" t="s">
         <v>74</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="16"/>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="60" t="s">
         <v>92</v>
       </c>
       <c r="C36" s="25"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="19" t="s">
         <v>91</v>
       </c>
@@ -5939,7 +5940,7 @@
       <c r="D37" s="20"/>
       <c r="E37" s="21"/>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="19" t="s">
         <v>90</v>
       </c>
@@ -5947,48 +5948,48 @@
       <c r="D38" s="20"/>
       <c r="E38" s="20"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="19" t="s">
         <v>172</v>
       </c>
       <c r="C39" s="25"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="19" t="s">
         <v>89</v>
       </c>
       <c r="C40" s="23"/>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="60" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="25"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="20"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="15" t="s">
         <v>134</v>
       </c>
       <c r="D43" s="20"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="19" t="s">
         <v>9</v>
       </c>
       <c r="C44" s="23"/>
       <c r="D44" s="20"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="19" t="s">
         <v>11</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="20"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="19" t="s">
         <v>12</v>
       </c>
@@ -5996,7 +5997,7 @@
       <c r="D46" s="20"/>
       <c r="E46" s="21"/>
     </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="19" t="s">
         <v>26</v>
       </c>
@@ -6007,52 +6008,52 @@
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="20"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="15" t="s">
         <v>72</v>
       </c>
       <c r="D49" s="20"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="19" t="s">
         <v>125</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="20"/>
     </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="19" t="s">
         <v>126</v>
       </c>
       <c r="C51" s="7"/>
     </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="19" t="s">
         <v>127</v>
       </c>
       <c r="C52" s="7"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="19" t="s">
         <v>128</v>
       </c>
       <c r="C53" s="7"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="19" t="s">
         <v>129</v>
       </c>
       <c r="C54" s="7"/>
     </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="15" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="9" t="s">
         <v>111</v>
       </c>
@@ -6060,13 +6061,13 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="19" t="s">
         <v>133</v>
       </c>
       <c r="C58" s="24"/>
     </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" s="4"/>
     </row>
   </sheetData>
@@ -6076,7 +6077,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6086,15 +6087,15 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.6640625" style="79" customWidth="1"/>
-    <col min="2" max="16384" width="10.77734375" style="79"/>
+    <col min="2" max="16384" width="10.83203125" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B1" s="83" t="s">
         <v>180</v>
@@ -6109,7 +6110,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="82" t="s">
         <v>165</v>
       </c>
@@ -6120,7 +6121,7 @@
       <c r="D2" s="76"/>
       <c r="E2" s="76"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="81"/>
       <c r="B3" s="81" t="s">
         <v>1</v>
@@ -6129,7 +6130,7 @@
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="81"/>
       <c r="B4" s="81" t="s">
         <v>2</v>
@@ -6138,7 +6139,7 @@
       <c r="D4" s="76"/>
       <c r="E4" s="76"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="81"/>
       <c r="B5" s="81" t="s">
         <v>3</v>
@@ -6147,7 +6148,7 @@
       <c r="D5" s="76"/>
       <c r="E5" s="76"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="81"/>
       <c r="B6" s="81" t="s">
         <v>4</v>
@@ -6156,7 +6157,7 @@
       <c r="D6" s="76"/>
       <c r="E6" s="76"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C9" s="80"/>
     </row>
   </sheetData>
@@ -6165,25 +6166,25 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="53" style="74" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" style="53" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" style="53" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="53"/>
+    <col min="2" max="2" width="47.83203125" style="53" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="58" t="s">
         <v>69</v>
       </c>
@@ -6194,7 +6195,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
         <v>190</v>
       </c>
@@ -6203,16 +6204,16 @@
       </c>
       <c r="C2" s="68"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>59</v>
       </c>
       <c r="C3" s="68"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="74" t="s">
         <v>58</v>
       </c>
@@ -6221,7 +6222,7 @@
       </c>
       <c r="C4" s="68"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="74" t="s">
         <v>138</v>
       </c>
@@ -6230,28 +6231,28 @@
       </c>
       <c r="C5" s="68"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="49"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="49"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="49"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="49"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="49"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="49"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="49"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="49"/>
     </row>
   </sheetData>
@@ -6262,7 +6263,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6272,85 +6273,85 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="53" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="53"/>
+    <col min="1" max="1" width="30.1640625" style="53" customWidth="1"/>
+    <col min="2" max="16384" width="11.5" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="58" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="68" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="68" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="68" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="68" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="68" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="68" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" s="68" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" s="68" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" s="68"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" s="68"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" s="68"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A13" s="68"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A14" s="68"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A15" s="68"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A16" s="68"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="68"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" s="68"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" s="68"/>
     </row>
   </sheetData>
@@ -6360,7 +6361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -6370,9 +6371,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6392,7 +6393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -6417,7 +6418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -6442,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -6474,29 +6475,29 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -6543,7 +6544,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -6594,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
         <v>150</v>
       </c>
@@ -6638,9 +6639,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C4" s="51">
         <v>1</v>
@@ -6682,7 +6683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
         <v>137</v>
       </c>
@@ -6728,7 +6729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
         <v>138</v>
       </c>
@@ -6775,7 +6776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="49" t="s">
         <v>84</v>
       </c>
@@ -6824,7 +6825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="14" t="s">
         <v>58</v>
       </c>
@@ -6870,7 +6871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="14" t="s">
         <v>67</v>
       </c>
@@ -6918,7 +6919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="14" t="s">
         <v>28</v>
       </c>
@@ -6962,7 +6963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="49" t="s">
         <v>85</v>
       </c>
@@ -7011,7 +7012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="14" t="s">
         <v>60</v>
       </c>
@@ -7055,10 +7056,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="49"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -7109,7 +7110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="14" t="s">
         <v>86</v>
@@ -7154,7 +7155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
         <v>190</v>
@@ -7203,10 +7204,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="14" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C17" s="52">
         <v>0</v>
@@ -7252,7 +7253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="49" t="s">
         <v>57</v>
       </c>
@@ -7300,7 +7301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="14" t="s">
         <v>88</v>
       </c>
@@ -7344,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="14" t="s">
         <v>87</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="49" t="s">
         <v>59</v>
       </c>
@@ -7436,15 +7437,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="49"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="87" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C23" s="52">
         <v>0</v>
@@ -7486,7 +7487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="89" t="s">
         <v>191</v>
       </c>
@@ -7534,9 +7535,9 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="89" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="C25" s="52">
         <v>0</v>
@@ -7582,9 +7583,9 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C26" s="52">
         <v>0</v>
@@ -7630,9 +7631,9 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C27" s="52">
         <v>0</v>
@@ -7675,7 +7676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="14"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -7685,7 +7686,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7743,7 +7744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="14" t="s">
         <v>64</v>
       </c>
@@ -7798,7 +7799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="14" t="s">
         <v>62</v>
       </c>
@@ -7853,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="14" t="s">
         <v>47</v>
       </c>
@@ -7897,7 +7898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="14" t="s">
         <v>34</v>
       </c>
@@ -7954,7 +7955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="49" t="s">
         <v>83</v>
       </c>
@@ -7998,7 +7999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
       <c r="B35" s="49" t="s">
         <v>82</v>
@@ -8043,7 +8044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="49" t="s">
         <v>81</v>
       </c>
@@ -8087,7 +8088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="49" t="s">
         <v>79</v>
       </c>
@@ -8131,7 +8132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="49" t="s">
         <v>80</v>
       </c>
@@ -8175,7 +8176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="49"/>
     </row>
   </sheetData>
@@ -8188,33 +8189,33 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="15" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="15" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -8223,7 +8224,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -8233,16 +8234,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="33.6640625" style="53" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="53" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="53"/>
-    <col min="5" max="5" width="17.44140625" style="53" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="53"/>
+    <col min="2" max="2" width="12.5" style="53" customWidth="1"/>
+    <col min="3" max="4" width="11.5" style="53"/>
+    <col min="5" max="5" width="17.5" style="53" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="58" t="s">
         <v>164</v>
       </c>
@@ -8259,7 +8260,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="57" t="s">
         <v>159</v>
       </c>
@@ -8277,7 +8278,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="57" t="s">
         <v>158</v>
       </c>
@@ -8295,7 +8296,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="57" t="s">
         <v>157</v>
       </c>
@@ -8313,7 +8314,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="57" t="s">
         <v>156</v>
       </c>
@@ -8331,7 +8332,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="57" t="s">
         <v>155</v>
       </c>
@@ -8349,7 +8350,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="57" t="s">
         <v>154</v>
       </c>
@@ -8367,7 +8368,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="57" t="s">
         <v>153</v>
       </c>
@@ -8385,7 +8386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="57" t="s">
         <v>152</v>
       </c>
@@ -8403,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="57" t="s">
         <v>151</v>
       </c>
@@ -8421,7 +8422,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="C11" s="54"/>
     </row>
   </sheetData>
@@ -8432,7 +8433,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -8440,14 +8441,14 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="15" customWidth="1"/>
-    <col min="2" max="10" width="16.77734375" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="14.44140625" style="15"/>
+    <col min="1" max="1" width="8.5" style="15" customWidth="1"/>
+    <col min="2" max="10" width="16.83203125" style="15" customWidth="1"/>
+    <col min="11" max="16384" width="14.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -8479,7 +8480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <f>start_year</f>
         <v>2017</v>
@@ -8503,7 +8504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -8527,7 +8528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -8551,7 +8552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -8575,7 +8576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -8599,7 +8600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -8623,7 +8624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -8647,7 +8648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -8671,7 +8672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -8695,7 +8696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="9">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -8719,7 +8720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -8743,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="9">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -8767,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -8791,7 +8792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -8815,7 +8816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8839,7 +8840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8863,7 +8864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8887,7 +8888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8911,7 +8912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8935,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8959,7 +8960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8983,7 +8984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9007,7 +9008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9031,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9055,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9079,7 +9080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9103,7 +9104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9127,7 +9128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9151,7 +9152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9175,7 +9176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9199,7 +9200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9223,7 +9224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9247,7 +9248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9271,7 +9272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9295,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9319,7 +9320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9343,7 +9344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9367,7 +9368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9391,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9427,7 +9428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -9435,13 +9436,13 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="31.33203125" customWidth="1"/>
     <col min="2" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -9465,7 +9466,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>73</v>
       </c>
@@ -9486,7 +9487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
         <v>7</v>
       </c>
@@ -9507,7 +9508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
         <v>8</v>
       </c>
@@ -9528,7 +9529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>10</v>
       </c>
@@ -9549,7 +9550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
@@ -9570,7 +9571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
         <v>14</v>
       </c>
@@ -9591,7 +9592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
         <v>27</v>
       </c>
@@ -9612,7 +9613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
         <v>15</v>
       </c>
@@ -9633,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
         <v>71</v>
       </c>
@@ -9648,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
         <v>16</v>
       </c>
@@ -9663,7 +9664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>17</v>
       </c>
@@ -9678,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
         <v>18</v>
       </c>
@@ -9693,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="32" t="s">
         <v>19</v>
       </c>
@@ -9708,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="32" t="s">
         <v>20</v>
       </c>
@@ -9723,7 +9724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
         <v>21</v>
       </c>
@@ -9738,7 +9739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="32" t="s">
         <v>22</v>
       </c>
@@ -9753,7 +9754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
         <v>23</v>
       </c>
@@ -9768,7 +9769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="32" t="s">
         <v>38</v>
       </c>
@@ -9789,7 +9790,7 @@
       </c>
       <c r="G19" s="35"/>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="32" t="s">
         <v>39</v>
       </c>
@@ -9810,7 +9811,7 @@
       </c>
       <c r="G20" s="35"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="32" t="s">
         <v>40</v>
       </c>
@@ -9831,7 +9832,7 @@
       </c>
       <c r="G21" s="35"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="32" t="s">
         <v>41</v>
       </c>
@@ -9852,7 +9853,7 @@
       </c>
       <c r="G22" s="35"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="32" t="s">
         <v>42</v>
       </c>
@@ -9873,7 +9874,7 @@
       </c>
       <c r="G23" s="35"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="32" t="s">
         <v>43</v>
       </c>
@@ -9894,7 +9895,7 @@
       </c>
       <c r="G24" s="35"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="32" t="s">
         <v>44</v>
       </c>
@@ -9915,7 +9916,7 @@
       </c>
       <c r="G25" s="35"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="32" t="s">
         <v>45</v>
       </c>
@@ -9936,7 +9937,7 @@
       </c>
       <c r="G26" s="35"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="32" t="s">
         <v>46</v>
       </c>
@@ -9965,7 +9966,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -9973,13 +9974,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
@@ -10003,7 +10004,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>116</v>
       </c>
@@ -10031,7 +10032,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="14" t="s">
         <v>119</v>
@@ -10057,7 +10058,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="14" t="s">
         <v>117</v>
@@ -10068,7 +10069,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="14" t="s">
         <v>120</v>
@@ -10079,7 +10080,7 @@
       <c r="F5" s="39"/>
       <c r="G5" s="39"/>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="17"/>
       <c r="C6" s="40"/>
       <c r="D6" s="40"/>
@@ -10087,7 +10088,7 @@
       <c r="F6" s="40"/>
       <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="17"/>
       <c r="C7" s="40"/>
       <c r="D7" s="40"/>
@@ -10095,7 +10096,7 @@
       <c r="F7" s="40"/>
       <c r="G7" s="40"/>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>115</v>
       </c>
@@ -10123,7 +10124,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
         <v>122</v>
       </c>
@@ -10148,7 +10149,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
         <v>123</v>
       </c>
@@ -10158,7 +10159,7 @@
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
         <v>124</v>
       </c>
@@ -10168,7 +10169,7 @@
       <c r="F11" s="39"/>
       <c r="G11" s="39"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
@@ -10182,7 +10183,7 @@
       <c r="N12" s="18"/>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>70</v>
       </c>
@@ -10226,7 +10227,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
         <v>132</v>
       </c>
@@ -10244,7 +10245,7 @@
       <c r="N14" s="48"/>
       <c r="O14" s="48"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="19" t="s">
         <v>68</v>
       </c>
@@ -10301,14 +10302,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -10323,7 +10324,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -10331,13 +10332,13 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="7" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="38" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
@@ -10361,7 +10362,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
@@ -10374,7 +10375,7 @@
       <c r="F2" s="39"/>
       <c r="G2" s="39"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="61" t="s">
         <v>168</v>
       </c>
@@ -10384,7 +10385,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="61" t="s">
         <v>169</v>
       </c>
@@ -10394,7 +10395,7 @@
       <c r="F4" s="39"/>
       <c r="G4" s="39"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="61" t="s">
         <v>170</v>
       </c>
@@ -10425,7 +10426,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -10433,13 +10434,13 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>139</v>
       </c>
@@ -10474,7 +10475,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>140</v>
       </c>
@@ -10491,10 +10492,10 @@
       <c r="J2" s="39"/>
       <c r="K2" s="39"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B3" s="17"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -10511,10 +10512,10 @@
       <c r="J4" s="39"/>
       <c r="K4" s="39"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>142</v>
       </c>
@@ -10531,7 +10532,7 @@
       <c r="J6" s="39"/>
       <c r="K6" s="39"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B7" s="17" t="s">
         <v>32</v>
       </c>
@@ -10545,7 +10546,7 @@
       <c r="J7" s="39"/>
       <c r="K7" s="39"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="17" t="s">
         <v>145</v>
       </c>
@@ -10559,7 +10560,7 @@
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>143</v>
       </c>
@@ -10576,7 +10577,7 @@
       <c r="J10" s="39"/>
       <c r="K10" s="39"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="50" t="s">
         <v>147</v>
       </c>
@@ -10590,7 +10591,7 @@
       <c r="J11" s="39"/>
       <c r="K11" s="39"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="15" t="s">
         <v>74</v>
       </c>
@@ -10607,7 +10608,7 @@
       <c r="J13" s="39"/>
       <c r="K13" s="39"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
         <v>171</v>
       </c>
@@ -10628,7 +10629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10636,15 +10637,15 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="17" style="53" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="53" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="53" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="53"/>
+    <col min="2" max="2" width="19.1640625" style="53" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="53" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="72" t="s">
         <v>181</v>
       </c>
@@ -10661,7 +10662,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="70" t="s">
         <v>176</v>
       </c>
@@ -10675,7 +10676,7 @@
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="66"/>
       <c r="B3" s="65" t="s">
         <v>1</v>
@@ -10687,7 +10688,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="66"/>
       <c r="B4" s="65" t="s">
         <v>2</v>
@@ -10699,7 +10700,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="66"/>
       <c r="B5" s="65" t="s">
         <v>3</v>
@@ -10711,7 +10712,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="66"/>
       <c r="B6" s="65" t="s">
         <v>4</v>
@@ -10723,7 +10724,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="66"/>
       <c r="B7" s="65" t="s">
         <v>173</v>
@@ -10732,7 +10733,7 @@
       <c r="D7" s="63"/>
       <c r="E7" s="68"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="72" t="s">
         <v>175</v>
       </c>
@@ -10743,7 +10744,7 @@
       <c r="D9" s="68"/>
       <c r="E9" s="86"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="66"/>
       <c r="B10" s="65" t="s">
         <v>1</v>
@@ -10752,7 +10753,7 @@
       <c r="D10" s="68"/>
       <c r="E10" s="85"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="66"/>
       <c r="B11" s="65" t="s">
         <v>2</v>
@@ -10761,7 +10762,7 @@
       <c r="D11" s="68"/>
       <c r="E11" s="85"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="66"/>
       <c r="B12" s="65" t="s">
         <v>3</v>
@@ -10770,7 +10771,7 @@
       <c r="D12" s="68"/>
       <c r="E12" s="85"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="66"/>
       <c r="B13" s="65" t="s">
         <v>4</v>
@@ -10779,7 +10780,7 @@
       <c r="D13" s="68"/>
       <c r="E13" s="85"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="66"/>
       <c r="B14" s="65" t="s">
         <v>173</v>
@@ -10788,7 +10789,7 @@
       <c r="D14" s="63"/>
       <c r="E14" s="68"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="70" t="s">
         <v>174</v>
       </c>
@@ -10802,7 +10803,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="66"/>
       <c r="B17" s="65" t="s">
         <v>1</v>
@@ -10814,7 +10815,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="66"/>
       <c r="B18" s="65" t="s">
         <v>2</v>
@@ -10826,7 +10827,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="66"/>
       <c r="B19" s="65" t="s">
         <v>3</v>
@@ -10838,7 +10839,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="66"/>
       <c r="B20" s="65" t="s">
         <v>4</v>
@@ -10850,7 +10851,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="66"/>
       <c r="B21" s="65" t="s">
         <v>173</v>
@@ -10866,7 +10867,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10874,15 +10875,15 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="90" t="s">
         <v>165</v>
       </c>
@@ -10896,7 +10897,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="91" t="s">
         <v>69</v>
       </c>
@@ -10908,7 +10909,7 @@
       </c>
       <c r="D2" s="68"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="91" t="s">
         <v>188</v>
       </c>
@@ -10926,27 +10927,27 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" workbookViewId="0">
+    <sheetView zoomScale="106" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="56" style="74" customWidth="1"/>
     <col min="2" max="2" width="20" style="54" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="53" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="53" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="53" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="53" customWidth="1"/>
     <col min="5" max="5" width="32.33203125" style="53" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="53"/>
+    <col min="6" max="16384" width="14.5" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
       <c r="A1" s="78" t="s">
         <v>69</v>
       </c>
@@ -10955,16 +10956,16 @@
         <v>Baseline (2017) coverage</v>
       </c>
       <c r="C1" s="77" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="77" t="s">
+        <v>207</v>
+      </c>
+      <c r="E1" s="77" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="77" t="s">
-        <v>209</v>
-      </c>
-      <c r="E1" s="77" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="74" t="s">
         <v>29</v>
       </c>
@@ -10978,10 +10979,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="74" t="s">
         <v>86</v>
       </c>
@@ -10995,10 +10996,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="74" t="s">
         <v>61</v>
       </c>
@@ -11012,10 +11013,10 @@
         <v>1</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="74" t="s">
         <v>150</v>
       </c>
@@ -11029,12 +11030,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="74" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B6" s="75">
         <v>0</v>
@@ -11046,10 +11047,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="74" t="s">
         <v>63</v>
       </c>
@@ -11063,10 +11064,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="74" t="s">
         <v>64</v>
       </c>
@@ -11080,10 +11081,10 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="74" t="s">
         <v>62</v>
       </c>
@@ -11097,10 +11098,10 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="89" t="s">
         <v>191</v>
       </c>
@@ -11114,12 +11115,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="89" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="B11" s="75">
         <v>0</v>
@@ -11131,12 +11132,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="75">
         <v>0</v>
@@ -11148,12 +11149,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B13" s="75">
         <v>0</v>
@@ -11165,10 +11166,10 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>190</v>
       </c>
@@ -11182,12 +11183,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B15" s="75">
         <v>0</v>
@@ -11199,10 +11200,10 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="74" t="s">
         <v>57</v>
       </c>
@@ -11216,10 +11217,10 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="74" t="s">
         <v>47</v>
       </c>
@@ -11233,10 +11234,10 @@
         <v>0.25</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="74" t="s">
         <v>176</v>
       </c>
@@ -11251,10 +11252,10 @@
         <v>0</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="74" t="s">
         <v>175</v>
       </c>
@@ -11269,10 +11270,10 @@
         <v>0</v>
       </c>
       <c r="E19" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="74" t="s">
         <v>174</v>
       </c>
@@ -11287,12 +11288,12 @@
         <v>0</v>
       </c>
       <c r="E20" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="74" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B21" s="75">
         <v>0</v>
@@ -11304,10 +11305,10 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="74" t="s">
         <v>137</v>
       </c>
@@ -11321,10 +11322,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="74" t="s">
         <v>34</v>
       </c>
@@ -11338,10 +11339,10 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="74" t="s">
         <v>88</v>
       </c>
@@ -11355,10 +11356,10 @@
         <v>1</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="74" t="s">
         <v>87</v>
       </c>
@@ -11372,10 +11373,10 @@
         <v>1</v>
       </c>
       <c r="E25" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="74" t="s">
         <v>138</v>
       </c>
@@ -11389,10 +11390,10 @@
         <v>1</v>
       </c>
       <c r="E26" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="74" t="s">
         <v>59</v>
       </c>
@@ -11406,10 +11407,10 @@
         <v>2.99</v>
       </c>
       <c r="E27" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="74" t="s">
         <v>84</v>
       </c>
@@ -11423,10 +11424,10 @@
         <v>1</v>
       </c>
       <c r="E28" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="74" t="s">
         <v>58</v>
       </c>
@@ -11440,10 +11441,10 @@
         <v>48</v>
       </c>
       <c r="E29" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="74" t="s">
         <v>67</v>
       </c>
@@ -11457,10 +11458,10 @@
         <v>9.36</v>
       </c>
       <c r="E30" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="74" t="s">
         <v>28</v>
       </c>
@@ -11474,10 +11475,10 @@
         <v>0.35</v>
       </c>
       <c r="E31" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="74" t="s">
         <v>83</v>
       </c>
@@ -11491,10 +11492,10 @@
         <v>1</v>
       </c>
       <c r="E32" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="74" t="s">
         <v>82</v>
       </c>
@@ -11508,10 +11509,10 @@
         <v>2.8</v>
       </c>
       <c r="E33" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="74" t="s">
         <v>81</v>
       </c>
@@ -11525,10 +11526,10 @@
         <v>50.26</v>
       </c>
       <c r="E34" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="74" t="s">
         <v>79</v>
       </c>
@@ -11542,10 +11543,10 @@
         <v>36.1</v>
       </c>
       <c r="E35" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="74" t="s">
         <v>80</v>
       </c>
@@ -11559,11 +11560,11 @@
         <v>231.85</v>
       </c>
       <c r="E36" s="76" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F36" s="53"/>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="74" t="s">
         <v>85</v>
       </c>
@@ -11577,10 +11578,10 @@
         <v>1.5</v>
       </c>
       <c r="E37" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="74" t="s">
         <v>60</v>
       </c>
@@ -11594,10 +11595,10 @@
         <v>1</v>
       </c>
       <c r="E38" s="76" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F39" s="54"/>
     </row>
   </sheetData>
@@ -11610,7 +11611,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000000000000}">
           <x14:formula1>
             <xm:f>'Cost curve options'!$A$1:$A$4</xm:f>
           </x14:formula1>

--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{11BEDE93-9C9B-D64B-A5A7-757D00DCF7CB}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6AB767DB-B60A-3247-A95A-C033BD339DC4}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-320" yWindow="560" windowWidth="25600" windowHeight="15540" tabRatio="961" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Causes of death" sheetId="4" r:id="rId3"/>
     <sheet name="Nutritional status distribution" sheetId="5" r:id="rId4"/>
     <sheet name="Breastfeeding distribution" sheetId="50" r:id="rId5"/>
-    <sheet name="Time trends" sheetId="51" r:id="rId6"/>
+    <sheet name="Time trends" sheetId="51" state="hidden" r:id="rId6"/>
     <sheet name="IYCF packages" sheetId="55" r:id="rId7"/>
     <sheet name="Treatment of SAM" sheetId="60" r:id="rId8"/>
     <sheet name="Programs cost and coverage" sheetId="56" r:id="rId9"/>
@@ -31,53 +31,53 @@
     <sheet name="Programs family planning" sheetId="54" state="hidden" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="abortion" localSheetId="6">'Baseline year population inputs'!$C$37</definedName>
-    <definedName name="abortion">'Baseline year population inputs'!$C$40</definedName>
+    <definedName name="abortion" localSheetId="6">'Baseline year population inputs'!$C$38</definedName>
+    <definedName name="abortion">'Baseline year population inputs'!$C$41</definedName>
     <definedName name="comm_deliv">'Treatment of SAM'!$D$3</definedName>
-    <definedName name="diarrhoea_1_5mo">'Baseline year population inputs'!$C$51</definedName>
-    <definedName name="diarrhoea_12_23mo">'Baseline year population inputs'!$C$53</definedName>
-    <definedName name="diarrhoea_1mo">'Baseline year population inputs'!$C$50</definedName>
-    <definedName name="diarrhoea_24_59mo">'Baseline year population inputs'!$C$54</definedName>
-    <definedName name="diarrhoea_6_11mo">'Baseline year population inputs'!$C$52</definedName>
+    <definedName name="diarrhoea_1_5mo">'Baseline year population inputs'!$C$52</definedName>
+    <definedName name="diarrhoea_12_23mo">'Baseline year population inputs'!$C$54</definedName>
+    <definedName name="diarrhoea_1mo">'Baseline year population inputs'!$C$51</definedName>
+    <definedName name="diarrhoea_24_59mo">'Baseline year population inputs'!$C$55</definedName>
+    <definedName name="diarrhoea_6_11mo">'Baseline year population inputs'!$C$53</definedName>
     <definedName name="end_year">'Baseline year population inputs'!$C$4</definedName>
-    <definedName name="famplan_unmet_need">'Baseline year population inputs'!$C$12</definedName>
-    <definedName name="food_insecure">'Baseline year population inputs'!$C$7</definedName>
-    <definedName name="frac_children_health_facility">'Baseline year population inputs'!$C$11</definedName>
-    <definedName name="frac_diarrhea_severe">'Baseline year population inputs'!$C$57</definedName>
-    <definedName name="frac_maize">'Baseline year population inputs'!$C$18</definedName>
-    <definedName name="frac_malaria_risk">'Baseline year population inputs'!$C$8</definedName>
+    <definedName name="famplan_unmet_need">'Baseline year population inputs'!$C$13</definedName>
+    <definedName name="food_insecure">'Baseline year population inputs'!$C$8</definedName>
+    <definedName name="frac_children_health_facility">'Baseline year population inputs'!$C$12</definedName>
+    <definedName name="frac_diarrhea_severe">'Baseline year population inputs'!$C$58</definedName>
+    <definedName name="frac_maize">'Baseline year population inputs'!$C$19</definedName>
+    <definedName name="frac_malaria_risk">'Baseline year population inputs'!$C$9</definedName>
     <definedName name="frac_mam_1_5months">'Nutritional status distribution'!$D$10</definedName>
     <definedName name="frac_mam_12_23months">'Nutritional status distribution'!$F$10</definedName>
     <definedName name="frac_mam_1month">'Nutritional status distribution'!$C$10</definedName>
     <definedName name="frac_mam_24_59months">'Nutritional status distribution'!$G$10</definedName>
     <definedName name="frac_mam_6_11months">'Nutritional status distribution'!$E$10</definedName>
     <definedName name="frac_MAMtoSAM">'Baseline year population inputs'!#REF!</definedName>
-    <definedName name="frac_other_staples">'Baseline year population inputs'!$C$19</definedName>
-    <definedName name="frac_PW_health_facility">'Baseline year population inputs'!$C$10</definedName>
-    <definedName name="frac_rice">'Baseline year population inputs'!$C$16</definedName>
+    <definedName name="frac_other_staples">'Baseline year population inputs'!$C$20</definedName>
+    <definedName name="frac_PW_health_facility">'Baseline year population inputs'!$C$11</definedName>
+    <definedName name="frac_rice">'Baseline year population inputs'!$C$17</definedName>
     <definedName name="frac_sam_1_5months">'Nutritional status distribution'!$D$11</definedName>
     <definedName name="frac_sam_12_23months">'Nutritional status distribution'!$F$11</definedName>
     <definedName name="frac_sam_1month">'Nutritional status distribution'!$C$11</definedName>
     <definedName name="frac_sam_24_59months">'Nutritional status distribution'!$G$11</definedName>
     <definedName name="frac_sam_6_11months">'Nutritional status distribution'!$E$11</definedName>
     <definedName name="frac_SAMtoMAM">'Baseline year population inputs'!#REF!</definedName>
-    <definedName name="frac_subsistence_farming">'Baseline year population inputs'!$C$15</definedName>
-    <definedName name="frac_wheat">'Baseline year population inputs'!$C$17</definedName>
-    <definedName name="infant_mortality">'Baseline year population inputs'!$C$37</definedName>
-    <definedName name="iron_deficiency_anaemia">'Baseline year population inputs'!$C$58</definedName>
+    <definedName name="frac_subsistence_farming">'Baseline year population inputs'!$C$16</definedName>
+    <definedName name="frac_wheat">'Baseline year population inputs'!$C$18</definedName>
+    <definedName name="infant_mortality">'Baseline year population inputs'!$C$38</definedName>
+    <definedName name="iron_deficiency_anaemia">'Baseline year population inputs'!$C$59</definedName>
     <definedName name="manage_mam">'Treatment of SAM'!$D$2</definedName>
-    <definedName name="maternal_mortality">'Baseline year population inputs'!$C$39</definedName>
-    <definedName name="neonatal_mortality">'Baseline year population inputs'!$C$36</definedName>
-    <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Baseline year population inputs'!$C$10</definedName>
-    <definedName name="preterm_AGA">'Baseline year population inputs'!$C$45</definedName>
-    <definedName name="preterm_SGA">'Baseline year population inputs'!$C$44</definedName>
-    <definedName name="school_attendance">'Baseline year population inputs'!$C$9</definedName>
+    <definedName name="maternal_mortality">'Baseline year population inputs'!$C$40</definedName>
+    <definedName name="neonatal_mortality">'Baseline year population inputs'!$C$37</definedName>
+    <definedName name="Percentage_of_pregnant_women_attending_health_facility">'Baseline year population inputs'!$C$11</definedName>
+    <definedName name="preterm_AGA">'Baseline year population inputs'!$C$46</definedName>
+    <definedName name="preterm_SGA">'Baseline year population inputs'!$C$45</definedName>
+    <definedName name="school_attendance">'Baseline year population inputs'!$C$10</definedName>
     <definedName name="start_year">'Baseline year population inputs'!$C$3</definedName>
-    <definedName name="stillbirth" localSheetId="6">'Baseline year population inputs'!$C$38</definedName>
-    <definedName name="stillbirth">'Baseline year population inputs'!$C$41</definedName>
-    <definedName name="term_AGA">'Baseline year population inputs'!$C$47</definedName>
-    <definedName name="term_SGA">'Baseline year population inputs'!$C$46</definedName>
-    <definedName name="U5_mortality">'Baseline year population inputs'!$C$38</definedName>
+    <definedName name="stillbirth" localSheetId="6">'Baseline year population inputs'!$C$39</definedName>
+    <definedName name="stillbirth">'Baseline year population inputs'!$C$42</definedName>
+    <definedName name="term_AGA">'Baseline year population inputs'!$C$48</definedName>
+    <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
+    <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -614,9 +614,6 @@
     <t>Number of births</t>
   </si>
   <si>
-    <t>Children under 5</t>
-  </si>
-  <si>
     <t>Total WRA</t>
   </si>
   <si>
@@ -903,6 +900,9 @@
   </si>
   <si>
     <t>IFAS (health facility)</t>
+  </si>
+  <si>
+    <t>Children under 5 population</t>
   </si>
 </sst>
 </file>
@@ -2620,7 +2620,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2808,6 +2808,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1449">
     <cellStyle name="Comma" xfId="9" builtinId="3"/>
@@ -5701,7 +5702,7 @@
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -5717,15 +5718,15 @@
         <v>100</v>
       </c>
       <c r="B1" s="59" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="59" t="s">
         <v>165</v>
-      </c>
-      <c r="C1" s="59" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
@@ -5733,7 +5734,7 @@
     <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="92">
         <v>2017</v>
@@ -5742,7 +5743,7 @@
     <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C4" s="93">
         <v>2030</v>
@@ -5759,316 +5760,322 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="19" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="95"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="24"/>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="23"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C9" s="23"/>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="24"/>
+      <c r="C10" s="23"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="24"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C12" s="24"/>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="15"/>
+      <c r="C13" s="24"/>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="15" t="s">
+      <c r="B14" s="15"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="23"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="23"/>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C17" s="23"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C18" s="23"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="23"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C20" s="26">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="15"/>
-    </row>
     <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="15" t="s">
+      <c r="B21" s="15"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="15" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C22" s="23"/>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C23" s="23"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="23"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="23"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="23"/>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="27"/>
-      <c r="C26" s="27"/>
+      <c r="C26" s="23"/>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="15" t="s">
-        <v>201</v>
-      </c>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
     </row>
-    <row r="28" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="41" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="42"/>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="42"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="42"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="42"/>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="C31" s="42"/>
-    </row>
-    <row r="32" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B32" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" s="44">
-        <f>SUM(C28:C31)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
+      <c r="C32" s="42"/>
+    </row>
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="B33" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C33" s="44">
+        <f>SUM(C29:C32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="16"/>
-    </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="60" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="25"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="19" t="s">
-        <v>91</v>
-      </c>
       <c r="C37" s="25"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="21"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C38" s="25"/>
       <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
+      <c r="E38" s="21"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="19" t="s">
-        <v>172</v>
+        <v>90</v>
       </c>
       <c r="C39" s="25"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="25"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="C40" s="23"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="60" t="s">
+      <c r="C41" s="23"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="60" t="s">
         <v>93</v>
       </c>
-      <c r="C41" s="25"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D42" s="20"/>
+      <c r="C42" s="25"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="15" t="s">
-        <v>134</v>
-      </c>
       <c r="D43" s="20"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C44" s="23"/>
+      <c r="A44" s="15" t="s">
+        <v>133</v>
+      </c>
       <c r="D44" s="20"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C45" s="23"/>
       <c r="D45" s="20"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B46" s="19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C46" s="23"/>
       <c r="D46" s="20"/>
-      <c r="E46" s="21"/>
-    </row>
-    <row r="47" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="23"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="21"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="26">
+      <c r="C48" s="26">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>1</v>
       </c>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
     </row>
     <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="15" t="s">
+      <c r="D49" s="20"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="20"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B50" s="19" t="s">
+      <c r="D50" s="20"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="20"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="19" t="s">
         <v>125</v>
-      </c>
-      <c r="C50" s="7"/>
-      <c r="D50" s="20"/>
-    </row>
-    <row r="51" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B51" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B52" s="19" t="s">
-        <v>127</v>
       </c>
       <c r="C52" s="7"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C53" s="7"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C54" s="7"/>
     </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="15" t="s">
-        <v>135</v>
-      </c>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="C55" s="7"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="9" t="s">
+      <c r="A57" s="15" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B58" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C58" s="24">
         <v>0.2</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="24"/>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="4"/>
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C59" s="24"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6095,24 +6102,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
       <c r="A1" s="84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B1" s="83" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1" s="83" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D1" s="83" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E1" s="83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="82" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" s="81" t="s">
         <v>32</v>
@@ -6189,15 +6196,15 @@
         <v>69</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B2" s="68" t="s">
         <v>59</v>
@@ -6206,7 +6213,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B3" s="68" t="s">
         <v>59</v>
@@ -6218,16 +6225,16 @@
         <v>58</v>
       </c>
       <c r="B4" s="68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C4" s="68"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="68"/>
     </row>
@@ -6286,7 +6293,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="68" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
@@ -6398,23 +6405,23 @@
         <v>71</v>
       </c>
       <c r="B2" s="37">
-        <f>'Baseline year population inputs'!C50</f>
+        <f>'Baseline year population inputs'!C51</f>
         <v>0</v>
       </c>
       <c r="C2" s="37">
-        <f>'Baseline year population inputs'!C51</f>
+        <f>'Baseline year population inputs'!C52</f>
         <v>0</v>
       </c>
       <c r="D2" s="37">
-        <f>'Baseline year population inputs'!C52</f>
+        <f>'Baseline year population inputs'!C53</f>
         <v>0</v>
       </c>
       <c r="E2" s="37">
-        <f>'Baseline year population inputs'!C53</f>
+        <f>'Baseline year population inputs'!C54</f>
         <v>0</v>
       </c>
       <c r="F2" s="37">
-        <f>'Baseline year population inputs'!C54</f>
+        <f>'Baseline year population inputs'!C55</f>
         <v>0</v>
       </c>
     </row>
@@ -6481,9 +6488,7 @@
   </sheetPr>
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -6597,7 +6602,7 @@
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C3" s="51">
         <v>1</v>
@@ -6641,7 +6646,7 @@
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" s="51">
         <v>1</v>
@@ -6685,7 +6690,7 @@
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="14" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="51">
         <v>0</v>
@@ -6731,7 +6736,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C6" s="51">
         <v>0</v>
@@ -7158,7 +7163,7 @@
     <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
       <c r="B16" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C16" s="52">
         <v>0</v>
@@ -7207,7 +7212,7 @@
     <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
       <c r="B17" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C17" s="52">
         <v>0</v>
@@ -7445,7 +7450,7 @@
         <v>37</v>
       </c>
       <c r="B23" s="89" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C23" s="52">
         <v>0</v>
@@ -7475,21 +7480,25 @@
         <v>0</v>
       </c>
       <c r="L23" s="51">
-        <v>1</v>
+        <f>famplan_unmet_need</f>
+        <v>0</v>
       </c>
       <c r="M23" s="51">
-        <v>1</v>
+        <f>famplan_unmet_need</f>
+        <v>0</v>
       </c>
       <c r="N23" s="51">
-        <v>1</v>
+        <f>famplan_unmet_need</f>
+        <v>0</v>
       </c>
       <c r="O23" s="51">
-        <v>1</v>
+        <f>famplan_unmet_need</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C24" s="52">
         <v>0</v>
@@ -7537,7 +7546,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C25" s="52">
         <v>0</v>
@@ -7585,7 +7594,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C26" s="52">
         <v>0</v>
@@ -7633,7 +7642,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C27" s="52">
         <v>0</v>
@@ -8200,22 +8209,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -8245,24 +8254,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="58" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B1" s="58" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" s="58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D1" s="58" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E1" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A2" s="57" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B2" s="56">
         <v>0.9</v>
@@ -8280,7 +8289,7 @@
     </row>
     <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A3" s="57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B3" s="56">
         <v>1</v>
@@ -8298,7 +8307,7 @@
     </row>
     <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A4" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B4" s="56">
         <v>1</v>
@@ -8316,7 +8325,7 @@
     </row>
     <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A5" s="57" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B5" s="56">
         <v>1</v>
@@ -8334,7 +8343,7 @@
     </row>
     <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A6" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B6" s="56">
         <v>1</v>
@@ -8352,7 +8361,7 @@
     </row>
     <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A7" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B7" s="56">
         <v>0.93</v>
@@ -8370,7 +8379,7 @@
     </row>
     <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A8" s="57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B8" s="56">
         <v>0.5</v>
@@ -8388,7 +8397,7 @@
     </row>
     <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A9" s="57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" s="56">
         <v>0.5</v>
@@ -8406,7 +8415,7 @@
     </row>
     <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
       <c r="A10" s="57" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B10" s="56">
         <v>0.98</v>
@@ -8437,18 +8446,18 @@
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="8.5" style="15" customWidth="1"/>
-    <col min="2" max="10" width="16.83203125" style="15" customWidth="1"/>
-    <col min="11" max="16384" width="14.5" style="15"/>
+    <col min="2" max="9" width="16.83203125" style="15" customWidth="1"/>
+    <col min="10" max="16384" width="14.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="28" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
@@ -8456,31 +8465,28 @@
         <v>112</v>
       </c>
       <c r="C1" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="D1" s="31" t="s">
-        <v>49</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="31" t="s">
-        <v>52</v>
-      </c>
       <c r="H1" s="31" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="I1" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="J1" s="31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9">
         <f>start_year</f>
         <v>2017</v>
@@ -8490,23 +8496,22 @@
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
+      <c r="G2" s="30">
+        <f t="shared" ref="G2:G40" si="0">C2+D2+E2+F2</f>
+        <v>0</v>
+      </c>
       <c r="H2" s="30">
-        <f t="shared" ref="H2:H40" si="0">D2+E2+F2+G2</f>
+        <f>(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I2" s="30">
-        <f t="shared" ref="I2:I40" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
-        <v>0</v>
-      </c>
-      <c r="J2" s="30">
-        <f>H2-I2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <f>G2-H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9">
-        <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
+        <f t="shared" ref="A3:A40" si="1">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
       </c>
       <c r="B3" s="8"/>
@@ -8514,23 +8519,22 @@
       <c r="D3" s="29"/>
       <c r="E3" s="29"/>
       <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
+      <c r="G3" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H3" s="30">
-        <f t="shared" si="0"/>
+        <f>(B3 + stillbirth*B3/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I3" s="30">
+        <f t="shared" ref="I3:I15" si="2">G3-H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J3" s="30">
-        <f t="shared" ref="J3:J15" si="3">H3-I3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
-        <f t="shared" si="2"/>
         <v>2019</v>
       </c>
       <c r="B4" s="8"/>
@@ -8538,23 +8542,22 @@
       <c r="D4" s="29"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
+      <c r="G4" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H4" s="30">
-        <f t="shared" si="0"/>
+        <f>(B4 + stillbirth*B4/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I4" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J4" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
-        <f t="shared" si="2"/>
         <v>2020</v>
       </c>
       <c r="B5" s="8"/>
@@ -8562,23 +8565,22 @@
       <c r="D5" s="29"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
+      <c r="G5" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H5" s="30">
-        <f t="shared" si="0"/>
+        <f>(B5 + stillbirth*B5/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I5" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
-        <f t="shared" si="2"/>
         <v>2021</v>
       </c>
       <c r="B6" s="8"/>
@@ -8586,23 +8588,22 @@
       <c r="D6" s="29"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
+      <c r="G6" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H6" s="30">
-        <f t="shared" si="0"/>
+        <f>(B6 + stillbirth*B6/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I6" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
-        <f t="shared" si="2"/>
         <v>2022</v>
       </c>
       <c r="B7" s="8"/>
@@ -8610,23 +8611,22 @@
       <c r="D7" s="29"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="G7" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H7" s="30">
-        <f t="shared" si="0"/>
+        <f>(B7 + stillbirth*B7/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I7" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9">
-        <f t="shared" si="2"/>
         <v>2023</v>
       </c>
       <c r="B8" s="8"/>
@@ -8634,23 +8634,22 @@
       <c r="D8" s="29"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
+      <c r="G8" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H8" s="30">
-        <f t="shared" si="0"/>
+        <f>(B8 + stillbirth*B8/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I8" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9">
-        <f t="shared" si="2"/>
         <v>2024</v>
       </c>
       <c r="B9" s="8"/>
@@ -8658,23 +8657,22 @@
       <c r="D9" s="29"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
+      <c r="G9" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H9" s="30">
-        <f t="shared" si="0"/>
+        <f>(B9 + stillbirth*B9/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I9" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9">
-        <f t="shared" si="2"/>
         <v>2025</v>
       </c>
       <c r="B10" s="8"/>
@@ -8682,23 +8680,22 @@
       <c r="D10" s="29"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
+      <c r="G10" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H10" s="30">
-        <f t="shared" si="0"/>
+        <f>(B10 + stillbirth*B10/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I10" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9">
-        <f t="shared" si="2"/>
         <v>2026</v>
       </c>
       <c r="B11" s="8"/>
@@ -8706,23 +8703,22 @@
       <c r="D11" s="29"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
+      <c r="G11" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H11" s="30">
-        <f t="shared" si="0"/>
+        <f>(B11 + stillbirth*B11/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I11" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9">
-        <f t="shared" si="2"/>
         <v>2027</v>
       </c>
       <c r="B12" s="8"/>
@@ -8730,23 +8726,22 @@
       <c r="D12" s="29"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
+      <c r="G12" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H12" s="30">
-        <f t="shared" si="0"/>
+        <f>(B12 + stillbirth*B12/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I12" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9">
-        <f t="shared" si="2"/>
         <v>2028</v>
       </c>
       <c r="B13" s="8"/>
@@ -8754,23 +8749,22 @@
       <c r="D13" s="29"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="G13" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H13" s="30">
-        <f t="shared" si="0"/>
+        <f>(B13 + stillbirth*B13/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I13" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9">
-        <f t="shared" si="2"/>
         <v>2029</v>
       </c>
       <c r="B14" s="8"/>
@@ -8778,23 +8772,22 @@
       <c r="D14" s="29"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
+      <c r="G14" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H14" s="30">
-        <f t="shared" si="0"/>
+        <f>(B14 + stillbirth*B14/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I14" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9">
-        <f t="shared" si="2"/>
         <v>2030</v>
       </c>
       <c r="B15" s="8"/>
@@ -8802,23 +8795,22 @@
       <c r="D15" s="29"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
+      <c r="G15" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H15" s="30">
-        <f t="shared" si="0"/>
+        <f>(B15 + stillbirth*B15/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I15" s="30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="30">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B16" s="8"/>
@@ -8826,23 +8818,22 @@
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
       <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
+      <c r="G16" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H16" s="30">
-        <f t="shared" si="0"/>
+        <f>(B16 + stillbirth*B16/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I16" s="30">
+        <f t="shared" ref="I16:I40" si="3">G16-H16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="30">
-        <f t="shared" ref="J16:J40" si="4">H16-I16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B17" s="8"/>
@@ -8850,23 +8841,22 @@
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
       <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
+      <c r="G17" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H17" s="30">
-        <f t="shared" si="0"/>
+        <f>(B17 + stillbirth*B17/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I17" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B18" s="8"/>
@@ -8874,23 +8864,22 @@
       <c r="D18" s="29"/>
       <c r="E18" s="29"/>
       <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
+      <c r="G18" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H18" s="30">
-        <f t="shared" si="0"/>
+        <f>(B18 + stillbirth*B18/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I18" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B19" s="8"/>
@@ -8898,23 +8887,22 @@
       <c r="D19" s="29"/>
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
+      <c r="G19" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H19" s="30">
-        <f t="shared" si="0"/>
+        <f>(B19 + stillbirth*B19/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I19" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B20" s="8"/>
@@ -8922,23 +8910,22 @@
       <c r="D20" s="29"/>
       <c r="E20" s="29"/>
       <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
+      <c r="G20" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H20" s="30">
-        <f t="shared" si="0"/>
+        <f>(B20 + stillbirth*B20/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I20" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B21" s="8"/>
@@ -8946,23 +8933,22 @@
       <c r="D21" s="29"/>
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
+      <c r="G21" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H21" s="30">
-        <f t="shared" si="0"/>
+        <f>(B21 + stillbirth*B21/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I21" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B22" s="8"/>
@@ -8970,23 +8956,22 @@
       <c r="D22" s="29"/>
       <c r="E22" s="29"/>
       <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
+      <c r="G22" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H22" s="30">
-        <f t="shared" si="0"/>
+        <f>(B22 + stillbirth*B22/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I22" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B23" s="8"/>
@@ -8994,23 +8979,22 @@
       <c r="D23" s="29"/>
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
+      <c r="G23" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H23" s="30">
-        <f t="shared" si="0"/>
+        <f>(B23 + stillbirth*B23/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I23" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B24" s="8"/>
@@ -9018,23 +9002,22 @@
       <c r="D24" s="29"/>
       <c r="E24" s="29"/>
       <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
+      <c r="G24" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H24" s="30">
-        <f t="shared" si="0"/>
+        <f>(B24 + stillbirth*B24/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I24" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B25" s="8"/>
@@ -9042,23 +9025,22 @@
       <c r="D25" s="29"/>
       <c r="E25" s="29"/>
       <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
+      <c r="G25" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H25" s="30">
-        <f t="shared" si="0"/>
+        <f>(B25 + stillbirth*B25/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I25" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B26" s="8"/>
@@ -9066,23 +9048,22 @@
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
+      <c r="G26" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H26" s="30">
-        <f t="shared" si="0"/>
+        <f>(B26 + stillbirth*B26/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I26" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B27" s="8"/>
@@ -9090,23 +9071,22 @@
       <c r="D27" s="29"/>
       <c r="E27" s="29"/>
       <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
+      <c r="G27" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H27" s="30">
-        <f t="shared" si="0"/>
+        <f>(B27 + stillbirth*B27/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I27" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B28" s="8"/>
@@ -9114,23 +9094,22 @@
       <c r="D28" s="29"/>
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
+      <c r="G28" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H28" s="30">
-        <f t="shared" si="0"/>
+        <f>(B28 + stillbirth*B28/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I28" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B29" s="8"/>
@@ -9138,23 +9117,22 @@
       <c r="D29" s="29"/>
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
+      <c r="G29" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H29" s="30">
-        <f t="shared" si="0"/>
+        <f>(B29 + stillbirth*B29/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I29" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B30" s="8"/>
@@ -9162,23 +9140,22 @@
       <c r="D30" s="29"/>
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
-      <c r="G30" s="29"/>
+      <c r="G30" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H30" s="30">
-        <f t="shared" si="0"/>
+        <f>(B30 + stillbirth*B30/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I30" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B31" s="8"/>
@@ -9186,23 +9163,22 @@
       <c r="D31" s="29"/>
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
+      <c r="G31" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H31" s="30">
-        <f t="shared" si="0"/>
+        <f>(B31 + stillbirth*B31/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I31" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B32" s="8"/>
@@ -9210,23 +9186,22 @@
       <c r="D32" s="29"/>
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
-      <c r="G32" s="29"/>
+      <c r="G32" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H32" s="30">
-        <f t="shared" si="0"/>
+        <f>(B32 + stillbirth*B32/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I32" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B33" s="8"/>
@@ -9234,23 +9209,22 @@
       <c r="D33" s="29"/>
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
-      <c r="G33" s="29"/>
+      <c r="G33" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H33" s="30">
-        <f t="shared" si="0"/>
+        <f>(B33 + stillbirth*B33/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I33" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B34" s="8"/>
@@ -9258,23 +9232,22 @@
       <c r="D34" s="29"/>
       <c r="E34" s="29"/>
       <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
+      <c r="G34" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H34" s="30">
-        <f t="shared" si="0"/>
+        <f>(B34 + stillbirth*B34/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I34" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B35" s="8"/>
@@ -9282,23 +9255,22 @@
       <c r="D35" s="29"/>
       <c r="E35" s="29"/>
       <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
+      <c r="G35" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H35" s="30">
-        <f t="shared" si="0"/>
+        <f>(B35 + stillbirth*B35/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I35" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B36" s="8"/>
@@ -9306,23 +9278,22 @@
       <c r="D36" s="29"/>
       <c r="E36" s="29"/>
       <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
+      <c r="G36" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H36" s="30">
-        <f t="shared" si="0"/>
+        <f>(B36 + stillbirth*B36/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I36" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B37" s="8"/>
@@ -9330,23 +9301,22 @@
       <c r="D37" s="29"/>
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
-      <c r="G37" s="29"/>
+      <c r="G37" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H37" s="30">
-        <f t="shared" si="0"/>
+        <f>(B37 + stillbirth*B37/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I37" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J37" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B38" s="8"/>
@@ -9354,23 +9324,22 @@
       <c r="D38" s="29"/>
       <c r="E38" s="29"/>
       <c r="F38" s="29"/>
-      <c r="G38" s="29"/>
+      <c r="G38" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H38" s="30">
-        <f t="shared" si="0"/>
+        <f>(B38 + stillbirth*B38/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I38" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B39" s="8"/>
@@ -9378,23 +9347,22 @@
       <c r="D39" s="29"/>
       <c r="E39" s="29"/>
       <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
+      <c r="G39" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H39" s="30">
-        <f t="shared" si="0"/>
+        <f>(B39 + stillbirth*B39/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I39" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="30">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9" t="str">
-        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="B40" s="8"/>
@@ -9402,22 +9370,21 @@
       <c r="D40" s="29"/>
       <c r="E40" s="29"/>
       <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
+      <c r="G40" s="30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="H40" s="30">
-        <f t="shared" si="0"/>
+        <f>(B40 + stillbirth*B40/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
       <c r="I40" s="30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:J40">
+  <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
     </cfRule>
@@ -10006,10 +9973,10 @@
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C2" s="46" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -10035,7 +10002,7 @@
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
       <c r="B3" s="14" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C3" s="46" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
@@ -10061,7 +10028,7 @@
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
       <c r="B4" s="14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -10072,7 +10039,7 @@
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
       <c r="B5" s="14" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="39"/>
       <c r="D5" s="39"/>
@@ -10098,10 +10065,10 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="46" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
@@ -10126,7 +10093,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="46" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
@@ -10151,7 +10118,7 @@
     </row>
     <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="9" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -10161,7 +10128,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -10229,7 +10196,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="47"/>
       <c r="D14" s="47"/>
@@ -10367,7 +10334,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -10377,7 +10344,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B3" s="61" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -10387,7 +10354,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B4" s="61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -10397,7 +10364,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5" s="61" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C5" s="46">
         <f>1-SUM(C2:C4)</f>
@@ -10442,10 +10409,10 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C1">
         <v>2010</v>
@@ -10477,10 +10444,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C2" s="39"/>
       <c r="D2" s="39"/>
@@ -10497,10 +10464,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="39"/>
@@ -10517,10 +10484,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="39"/>
       <c r="D6" s="39"/>
@@ -10548,7 +10515,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B8" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
@@ -10562,10 +10529,10 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C10" s="39"/>
       <c r="D10" s="39"/>
@@ -10579,7 +10546,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B11" s="50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="39"/>
@@ -10596,7 +10563,7 @@
         <v>74</v>
       </c>
       <c r="B13" s="50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
@@ -10610,7 +10577,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="B14" s="19" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="39"/>
@@ -10647,24 +10614,24 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="72" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C1" s="73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D1" s="73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E1" s="73" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="70" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" s="65" t="s">
         <v>32</v>
@@ -10727,7 +10694,7 @@
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="66"/>
       <c r="B7" s="65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C7" s="64"/>
       <c r="D7" s="63"/>
@@ -10735,7 +10702,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="72" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B9" s="71" t="s">
         <v>32</v>
@@ -10783,7 +10750,7 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="66"/>
       <c r="B14" s="65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C14" s="64"/>
       <c r="D14" s="63"/>
@@ -10791,7 +10758,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="70" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B16" s="65" t="s">
         <v>32</v>
@@ -10854,7 +10821,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="66"/>
       <c r="B21" s="65" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C21" s="64"/>
       <c r="D21" s="63"/>
@@ -10885,16 +10852,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B1" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="91" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="91" t="s">
-        <v>185</v>
-      </c>
       <c r="D1" s="91" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -10905,19 +10872,19 @@
         <v>67</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D2" s="68"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="91" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D3" s="68"/>
     </row>
@@ -10956,13 +10923,13 @@
         <v>Baseline (2017) coverage</v>
       </c>
       <c r="C1" s="77" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D1" s="77" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E1" s="77" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10979,7 +10946,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -10996,7 +10963,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11013,12 +10980,12 @@
         <v>1</v>
       </c>
       <c r="E4" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="74" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B5" s="75">
         <v>0</v>
@@ -11030,12 +10997,12 @@
         <v>1</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="74" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="75">
         <v>0</v>
@@ -11047,7 +11014,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11064,7 +11031,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11081,7 +11048,7 @@
         <v>0.75</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11098,12 +11065,12 @@
         <v>0.19</v>
       </c>
       <c r="E9" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="89" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" s="75">
         <v>0</v>
@@ -11115,12 +11082,12 @@
         <v>0.73</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B11" s="75">
         <v>0</v>
@@ -11132,12 +11099,12 @@
         <v>1.78</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="89" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" s="75">
         <v>0</v>
@@ -11149,12 +11116,12 @@
         <v>0.24</v>
       </c>
       <c r="E12" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" s="75">
         <v>0</v>
@@ -11166,12 +11133,12 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="E13" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B14" s="75">
         <v>0</v>
@@ -11183,12 +11150,12 @@
         <v>0.73</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B15" s="75">
         <v>0</v>
@@ -11200,7 +11167,7 @@
         <v>1.78</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11217,7 +11184,7 @@
         <v>2.06</v>
       </c>
       <c r="E16" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11234,12 +11201,12 @@
         <v>0.25</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="74" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B18" s="75">
         <v>0</v>
@@ -11252,12 +11219,12 @@
         <v>0</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="74" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" s="75">
         <v>0</v>
@@ -11270,12 +11237,12 @@
         <v>0</v>
       </c>
       <c r="E19" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="74" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B20" s="75">
         <v>0</v>
@@ -11288,12 +11255,12 @@
         <v>0</v>
       </c>
       <c r="E20" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="74" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" s="75">
         <v>0</v>
@@ -11305,12 +11272,12 @@
         <v>8.84</v>
       </c>
       <c r="E21" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="74" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B22" s="75">
         <v>0</v>
@@ -11322,7 +11289,7 @@
         <v>50</v>
       </c>
       <c r="E22" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11339,7 +11306,7 @@
         <v>2.61</v>
       </c>
       <c r="E23" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11356,7 +11323,7 @@
         <v>1</v>
       </c>
       <c r="E24" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11373,12 +11340,12 @@
         <v>1</v>
       </c>
       <c r="E25" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="74" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B26" s="75">
         <v>0</v>
@@ -11390,7 +11357,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11407,7 +11374,7 @@
         <v>2.99</v>
       </c>
       <c r="E27" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11424,7 +11391,7 @@
         <v>1</v>
       </c>
       <c r="E28" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11441,7 +11408,7 @@
         <v>48</v>
       </c>
       <c r="E29" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11458,7 +11425,7 @@
         <v>9.36</v>
       </c>
       <c r="E30" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11475,7 +11442,7 @@
         <v>0.35</v>
       </c>
       <c r="E31" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11492,7 +11459,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11509,7 +11476,7 @@
         <v>2.8</v>
       </c>
       <c r="E33" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11526,7 +11493,7 @@
         <v>50.26</v>
       </c>
       <c r="E34" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11543,7 +11510,7 @@
         <v>36.1</v>
       </c>
       <c r="E35" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:6" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11560,7 +11527,7 @@
         <v>231.85</v>
       </c>
       <c r="E36" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F36" s="53"/>
     </row>
@@ -11578,7 +11545,7 @@
         <v>1.5</v>
       </c>
       <c r="E37" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -11595,7 +11562,7 @@
         <v>1</v>
       </c>
       <c r="E38" s="76" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-324" yWindow="564" windowWidth="25596" windowHeight="15540" tabRatio="961"/>
+    <workbookView xWindow="-324" yWindow="564" windowWidth="25596" windowHeight="15540" tabRatio="961" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -2661,7 +2661,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2697,9 +2696,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2708,12 +2704,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -2863,6 +2853,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="3" borderId="1" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -5760,8 +5766,8 @@
   </sheetPr>
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5775,10 +5781,10 @@
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="43" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5786,15 +5792,15 @@
       <c r="A2" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="82">
+      <c r="C3" s="78">
         <v>2017</v>
       </c>
     </row>
@@ -5803,14 +5809,14 @@
       <c r="B4" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="83">
+      <c r="C4" s="79">
         <v>2030</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
@@ -5821,43 +5827,43 @@
       <c r="B7" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="81"/>
+      <c r="C7" s="77"/>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="76"/>
+      <c r="C8" s="72"/>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="73"/>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="77"/>
+      <c r="C10" s="73"/>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="76"/>
+      <c r="C11" s="72"/>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="72"/>
     </row>
     <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="76"/>
+      <c r="C13" s="72"/>
     </row>
     <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="13"/>
@@ -5873,31 +5879,31 @@
       <c r="B16" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="77"/>
+      <c r="C16" s="73"/>
     </row>
     <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="77"/>
+      <c r="C17" s="73"/>
     </row>
     <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="77"/>
+      <c r="C18" s="73"/>
     </row>
     <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="77"/>
+      <c r="C19" s="73"/>
     </row>
     <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="80">
+      <c r="C20" s="76">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>1</v>
       </c>
@@ -5911,69 +5917,69 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="77"/>
+      <c r="C23" s="73"/>
     </row>
     <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="77"/>
+      <c r="C24" s="73"/>
     </row>
     <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="77"/>
+      <c r="C25" s="73"/>
     </row>
     <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="77"/>
+      <c r="C26" s="73"/>
     </row>
     <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
     </row>
     <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="33" t="s">
+      <c r="B29" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="79"/>
+      <c r="C29" s="75"/>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="75"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="75"/>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="33" t="s">
+      <c r="B32" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="79"/>
+      <c r="C32" s="75"/>
     </row>
     <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B33" s="36" t="s">
+      <c r="B33" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="35">
+      <c r="C33" s="99">
         <f>SUM(C29:C32)</f>
         <v>0</v>
       </c>
@@ -5992,16 +5998,16 @@
       <c r="C36" s="14"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="48" t="s">
+      <c r="B37" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="78"/>
+      <c r="C37" s="74"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="78"/>
+      <c r="C38" s="74"/>
       <c r="D38" s="18"/>
       <c r="E38" s="19"/>
     </row>
@@ -6009,7 +6015,7 @@
       <c r="B39" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="78"/>
+      <c r="C39" s="74"/>
       <c r="D39" s="18"/>
       <c r="E39" s="18"/>
     </row>
@@ -6017,19 +6023,19 @@
       <c r="B40" s="17" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="78"/>
+      <c r="C40" s="74"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="77"/>
+      <c r="C41" s="73"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="48" t="s">
+      <c r="B42" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="78"/>
+      <c r="C42" s="74"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D43" s="18"/>
@@ -6044,21 +6050,21 @@
       <c r="B45" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="77"/>
+      <c r="C45" s="73"/>
       <c r="D45" s="18"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="77"/>
+      <c r="C46" s="73"/>
       <c r="D46" s="18"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="77"/>
+      <c r="C47" s="73"/>
       <c r="D47" s="18"/>
       <c r="E47" s="19"/>
     </row>
@@ -6066,7 +6072,7 @@
       <c r="B48" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="21">
+      <c r="C48" s="76">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>1</v>
       </c>
@@ -6086,32 +6092,32 @@
       <c r="B51" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="75"/>
+      <c r="C51" s="71"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="75"/>
+      <c r="C52" s="71"/>
     </row>
     <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="75"/>
+      <c r="C53" s="71"/>
     </row>
     <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="75"/>
+      <c r="C54" s="71"/>
     </row>
     <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B55" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="75"/>
+      <c r="C55" s="71"/>
     </row>
     <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="13" t="s">
@@ -6122,7 +6128,7 @@
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="76">
+      <c r="C58" s="72">
         <v>0.2</v>
       </c>
     </row>
@@ -6130,13 +6136,13 @@
       <c r="B59" s="17" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="76"/>
+      <c r="C59" s="72"/>
     </row>
     <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="u0uXBvnLZOpMZTfV/W/bMBez+Kttsj4K7wOR7RrgKZM/UpBeYuvwMJDCruxEhwtJXQ3noZHueQv1ju7KmF7qrw==" saltValue="jwpxPmys173ohqOmeisWIw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ZmFHu+asAjc9o/ZQi60gz4I/KSQ1N/JG87lXWGVxG4PWyvszJScvaHzl72qMLNDYOp/nw/1tbeh6VRqPtQ60ZQ==" saltValue="8VVhKwlYtQCeH0+7hE9PZg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <protectedRanges>
     <protectedRange sqref="C3:C4 C7:C13 C16:C20 C23:C26 C29:C32 C37:C42 C45:C47 C51:C55 C58:C59" name="Range1"/>
   </protectedRanges>
@@ -6158,79 +6164,79 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="62" customWidth="1"/>
-    <col min="2" max="16384" width="10.77734375" style="62"/>
+    <col min="1" max="1" width="18.6640625" style="58" customWidth="1"/>
+    <col min="2" max="16384" width="10.77734375" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="62" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="62" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="66" t="s">
+      <c r="D1" s="62" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="66" t="s">
+      <c r="E1" s="62" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="61" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B2" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="97"/>
-      <c r="E2" s="97"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64" t="s">
+      <c r="A4" s="60"/>
+      <c r="B4" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="97"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="97"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="64"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="60"/>
+      <c r="B5" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="64"/>
-      <c r="B6" s="64" t="s">
+      <c r="A6" s="60"/>
+      <c r="B6" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="97"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="63"/>
+      <c r="C9" s="59"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="rtesdr+b2MpISrk+TIiXSA+J36vP0zhMaQVd2kqhv/zmFNpzKcudhV9SSE283zywA9S2+oK2psPIXNWOFk+NSA==" saltValue="gOWr7B9HpzmX8wofIU3fiw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="4vfqaHkXQm0illqYKouzCmurJk4RujtKyFFMQxAsKPfEFRNgtxfQqY32HbgIsCzQy0lW38GC3qT7UfL+ghc+hw==" saltValue="aMU9mn9ksNfDCOgOXBJMDQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6242,168 +6248,168 @@
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="53" style="59" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" style="41" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="41"/>
+    <col min="1" max="1" width="53" style="55" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.77734375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" style="37" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="42" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="96" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="92"/>
+      <c r="C2" s="88"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="96" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="92"/>
+      <c r="C3" s="88"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="97" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="92"/>
+      <c r="C4" s="88"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="101" t="s">
+      <c r="A5" s="97" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="92"/>
+      <c r="C5" s="88"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="101"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="95"/>
+      <c r="C6" s="95"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="101"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
+      <c r="A7" s="97"/>
+      <c r="B7" s="95"/>
+      <c r="C7" s="95"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="101"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="95"/>
+      <c r="C8" s="95"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="101"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="95"/>
+      <c r="C9" s="95"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="101"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="95"/>
+      <c r="C10" s="95"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="102"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="95"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="102"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="95"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="102"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="95"/>
+      <c r="C13" s="95"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="102"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="102"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="95"/>
+      <c r="C15" s="95"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="102"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="95"/>
+      <c r="C16" s="95"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="102"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="95"/>
+      <c r="C17" s="95"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="102"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="95"/>
+      <c r="C18" s="95"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="95"/>
+      <c r="C19" s="95"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="95"/>
+      <c r="C20" s="95"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="101"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="95"/>
+      <c r="C21" s="95"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="101"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
+      <c r="B23" s="95"/>
+      <c r="C23" s="95"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
+      <c r="B24" s="95"/>
+      <c r="C24" s="95"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
+      <c r="B25" s="95"/>
+      <c r="C25" s="95"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
+      <c r="B26" s="95"/>
+      <c r="C26" s="95"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="cg3Iot39+7QlmuTzMac1FNqkcWdGrx6XD9aHj8nJIC3NmtZjcO7GVBs7cVUbCCcrYPZ0gk9Vh8QM2fHwygHYiw==" saltValue="rDdf0wn4SyuBtNckgtAsvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="PMangFikzq0M5EAOg72iqApTDUTvMhdbQO5S6wfWC0CiIHdtaYZMTJHgw2O1hu8hS6T+1247pIGBOLEzVACEog==" saltValue="Q+erzvMozqmvePhRN/autg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
@@ -6423,84 +6429,84 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="41" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="41"/>
+    <col min="1" max="1" width="30.109375" style="37" customWidth="1"/>
+    <col min="2" max="16384" width="11.44140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="50" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="50" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="54" t="s">
+      <c r="A4" s="50" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="50" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="54" t="s">
+      <c r="A6" s="50" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="50" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="50" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="50" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54"/>
+      <c r="A10" s="50"/>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54"/>
+      <c r="A11" s="50"/>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="50"/>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="50"/>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="50"/>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="50"/>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="50"/>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="50"/>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="50"/>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="54"/>
+      <c r="A19" s="50"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6545,23 +6551,23 @@
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="28">
         <f>'Baseline year population inputs'!C51</f>
         <v>0</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="28">
         <f>'Baseline year population inputs'!C52</f>
         <v>0</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="28">
         <f>'Baseline year population inputs'!C53</f>
         <v>0</v>
       </c>
-      <c r="E2" s="29">
+      <c r="E2" s="28">
         <f>'Baseline year population inputs'!C54</f>
         <v>0</v>
       </c>
-      <c r="F2" s="29">
+      <c r="F2" s="28">
         <f>'Baseline year population inputs'!C55</f>
         <v>0</v>
       </c>
@@ -6570,23 +6576,23 @@
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="28">
         <f>frac_mam_1month * 2.6</f>
         <v>0</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="28">
         <f>frac_mam_1_5months * 2.6</f>
         <v>0</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="28">
         <f>frac_mam_6_11months * 2.6</f>
         <v>0</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="28">
         <f>frac_mam_12_23months * 2.6</f>
         <v>0</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3" s="28">
         <f>frac_mam_24_59months * 2.6</f>
         <v>0</v>
       </c>
@@ -6595,23 +6601,23 @@
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="28">
         <f>frac_sam_1month * 2.6</f>
         <v>0</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="28">
         <f>frac_sam_1_5months * 2.6</f>
         <v>0</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="28">
         <f>frac_sam_6_11months * 2.6</f>
         <v>0</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="28">
         <f>frac_sam_12_23months * 2.6</f>
         <v>0</v>
       </c>
-      <c r="F4" s="29">
+      <c r="F4" s="28">
         <f>frac_sam_24_59months * 2.6</f>
         <v>0</v>
       </c>
@@ -6630,7 +6636,7 @@
   <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6699,47 +6705,47 @@
       <c r="B2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="39">
-        <v>0</v>
-      </c>
-      <c r="D2" s="39">
+      <c r="C2" s="101">
+        <v>0</v>
+      </c>
+      <c r="D2" s="101">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="101">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="101">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="101">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="H2" s="40">
-        <v>0</v>
-      </c>
-      <c r="I2" s="40">
-        <v>0</v>
-      </c>
-      <c r="J2" s="40">
-        <v>0</v>
-      </c>
-      <c r="K2" s="40">
-        <v>0</v>
-      </c>
-      <c r="L2" s="40">
-        <v>0</v>
-      </c>
-      <c r="M2" s="40">
-        <v>0</v>
-      </c>
-      <c r="N2" s="40">
-        <v>0</v>
-      </c>
-      <c r="O2" s="40">
+      <c r="H2" s="102">
+        <v>0</v>
+      </c>
+      <c r="I2" s="102">
+        <v>0</v>
+      </c>
+      <c r="J2" s="102">
+        <v>0</v>
+      </c>
+      <c r="K2" s="102">
+        <v>0</v>
+      </c>
+      <c r="L2" s="102">
+        <v>0</v>
+      </c>
+      <c r="M2" s="102">
+        <v>0</v>
+      </c>
+      <c r="N2" s="102">
+        <v>0</v>
+      </c>
+      <c r="O2" s="102">
         <v>0</v>
       </c>
     </row>
@@ -6747,43 +6753,43 @@
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="39">
-        <v>1</v>
-      </c>
-      <c r="D3" s="39">
-        <v>0</v>
-      </c>
-      <c r="E3" s="39">
-        <v>0</v>
-      </c>
-      <c r="F3" s="39">
-        <v>0</v>
-      </c>
-      <c r="G3" s="39">
-        <v>0</v>
-      </c>
-      <c r="H3" s="40">
-        <v>0</v>
-      </c>
-      <c r="I3" s="40">
-        <v>0</v>
-      </c>
-      <c r="J3" s="40">
-        <v>0</v>
-      </c>
-      <c r="K3" s="40">
-        <v>0</v>
-      </c>
-      <c r="L3" s="40">
-        <v>0</v>
-      </c>
-      <c r="M3" s="40">
-        <v>0</v>
-      </c>
-      <c r="N3" s="40">
-        <v>0</v>
-      </c>
-      <c r="O3" s="40">
+      <c r="C3" s="101">
+        <v>1</v>
+      </c>
+      <c r="D3" s="101">
+        <v>0</v>
+      </c>
+      <c r="E3" s="101">
+        <v>0</v>
+      </c>
+      <c r="F3" s="101">
+        <v>0</v>
+      </c>
+      <c r="G3" s="101">
+        <v>0</v>
+      </c>
+      <c r="H3" s="102">
+        <v>0</v>
+      </c>
+      <c r="I3" s="102">
+        <v>0</v>
+      </c>
+      <c r="J3" s="102">
+        <v>0</v>
+      </c>
+      <c r="K3" s="102">
+        <v>0</v>
+      </c>
+      <c r="L3" s="102">
+        <v>0</v>
+      </c>
+      <c r="M3" s="102">
+        <v>0</v>
+      </c>
+      <c r="N3" s="102">
+        <v>0</v>
+      </c>
+      <c r="O3" s="102">
         <v>0</v>
       </c>
     </row>
@@ -6791,43 +6797,43 @@
       <c r="B4" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="39">
-        <v>1</v>
-      </c>
-      <c r="D4" s="39">
-        <v>0</v>
-      </c>
-      <c r="E4" s="39">
-        <v>0</v>
-      </c>
-      <c r="F4" s="39">
-        <v>0</v>
-      </c>
-      <c r="G4" s="39">
-        <v>0</v>
-      </c>
-      <c r="H4" s="40">
-        <v>0</v>
-      </c>
-      <c r="I4" s="40">
-        <v>0</v>
-      </c>
-      <c r="J4" s="40">
-        <v>0</v>
-      </c>
-      <c r="K4" s="40">
-        <v>0</v>
-      </c>
-      <c r="L4" s="40">
-        <v>0</v>
-      </c>
-      <c r="M4" s="40">
-        <v>0</v>
-      </c>
-      <c r="N4" s="40">
-        <v>0</v>
-      </c>
-      <c r="O4" s="40">
+      <c r="C4" s="101">
+        <v>1</v>
+      </c>
+      <c r="D4" s="101">
+        <v>0</v>
+      </c>
+      <c r="E4" s="101">
+        <v>0</v>
+      </c>
+      <c r="F4" s="101">
+        <v>0</v>
+      </c>
+      <c r="G4" s="101">
+        <v>0</v>
+      </c>
+      <c r="H4" s="102">
+        <v>0</v>
+      </c>
+      <c r="I4" s="102">
+        <v>0</v>
+      </c>
+      <c r="J4" s="102">
+        <v>0</v>
+      </c>
+      <c r="K4" s="102">
+        <v>0</v>
+      </c>
+      <c r="L4" s="102">
+        <v>0</v>
+      </c>
+      <c r="M4" s="102">
+        <v>0</v>
+      </c>
+      <c r="N4" s="102">
+        <v>0</v>
+      </c>
+      <c r="O4" s="102">
         <v>0</v>
       </c>
     </row>
@@ -6835,45 +6841,45 @@
       <c r="B5" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="39">
-        <v>0</v>
-      </c>
-      <c r="D5" s="39">
-        <v>0</v>
-      </c>
-      <c r="E5" s="39">
+      <c r="C5" s="101">
+        <v>0</v>
+      </c>
+      <c r="D5" s="101">
+        <v>0</v>
+      </c>
+      <c r="E5" s="101">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="101">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="G5" s="39">
-        <v>0</v>
-      </c>
-      <c r="H5" s="40">
-        <v>0</v>
-      </c>
-      <c r="I5" s="40">
-        <v>0</v>
-      </c>
-      <c r="J5" s="40">
-        <v>0</v>
-      </c>
-      <c r="K5" s="40">
-        <v>0</v>
-      </c>
-      <c r="L5" s="40">
-        <v>0</v>
-      </c>
-      <c r="M5" s="40">
-        <v>0</v>
-      </c>
-      <c r="N5" s="40">
-        <v>0</v>
-      </c>
-      <c r="O5" s="40">
+      <c r="G5" s="101">
+        <v>0</v>
+      </c>
+      <c r="H5" s="102">
+        <v>0</v>
+      </c>
+      <c r="I5" s="102">
+        <v>0</v>
+      </c>
+      <c r="J5" s="102">
+        <v>0</v>
+      </c>
+      <c r="K5" s="102">
+        <v>0</v>
+      </c>
+      <c r="L5" s="102">
+        <v>0</v>
+      </c>
+      <c r="M5" s="102">
+        <v>0</v>
+      </c>
+      <c r="N5" s="102">
+        <v>0</v>
+      </c>
+      <c r="O5" s="102">
         <v>0</v>
       </c>
     </row>
@@ -6881,95 +6887,95 @@
       <c r="B6" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="39">
-        <v>0</v>
-      </c>
-      <c r="D6" s="39">
-        <v>0</v>
-      </c>
-      <c r="E6" s="39">
+      <c r="C6" s="101">
+        <v>0</v>
+      </c>
+      <c r="D6" s="101">
+        <v>0</v>
+      </c>
+      <c r="E6" s="101">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="101">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="101">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H6" s="40">
-        <v>0</v>
-      </c>
-      <c r="I6" s="40">
-        <v>0</v>
-      </c>
-      <c r="J6" s="40">
-        <v>0</v>
-      </c>
-      <c r="K6" s="40">
-        <v>0</v>
-      </c>
-      <c r="L6" s="40">
-        <v>0</v>
-      </c>
-      <c r="M6" s="40">
-        <v>0</v>
-      </c>
-      <c r="N6" s="40">
-        <v>0</v>
-      </c>
-      <c r="O6" s="40">
+      <c r="H6" s="102">
+        <v>0</v>
+      </c>
+      <c r="I6" s="102">
+        <v>0</v>
+      </c>
+      <c r="J6" s="102">
+        <v>0</v>
+      </c>
+      <c r="K6" s="102">
+        <v>0</v>
+      </c>
+      <c r="L6" s="102">
+        <v>0</v>
+      </c>
+      <c r="M6" s="102">
+        <v>0</v>
+      </c>
+      <c r="N6" s="102">
+        <v>0</v>
+      </c>
+      <c r="O6" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="101">
         <f>diarrhoea_1mo/26</f>
         <v>0</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="101">
         <f>diarrhoea_1_5mo/26</f>
         <v>0</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="101">
         <f>diarrhoea_6_11mo/26</f>
         <v>0</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="101">
         <f>diarrhoea_12_23mo/26</f>
         <v>0</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="101">
         <f>diarrhoea_24_59mo/26</f>
         <v>0</v>
       </c>
-      <c r="H7" s="40">
-        <v>0</v>
-      </c>
-      <c r="I7" s="40">
-        <v>0</v>
-      </c>
-      <c r="J7" s="40">
-        <v>0</v>
-      </c>
-      <c r="K7" s="40">
-        <v>0</v>
-      </c>
-      <c r="L7" s="40">
-        <v>0</v>
-      </c>
-      <c r="M7" s="40">
-        <v>0</v>
-      </c>
-      <c r="N7" s="40">
-        <v>0</v>
-      </c>
-      <c r="O7" s="40">
+      <c r="H7" s="102">
+        <v>0</v>
+      </c>
+      <c r="I7" s="102">
+        <v>0</v>
+      </c>
+      <c r="J7" s="102">
+        <v>0</v>
+      </c>
+      <c r="K7" s="102">
+        <v>0</v>
+      </c>
+      <c r="L7" s="102">
+        <v>0</v>
+      </c>
+      <c r="M7" s="102">
+        <v>0</v>
+      </c>
+      <c r="N7" s="102">
+        <v>0</v>
+      </c>
+      <c r="O7" s="102">
         <v>0</v>
       </c>
     </row>
@@ -6977,45 +6983,45 @@
       <c r="B8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="39">
-        <v>0</v>
-      </c>
-      <c r="D8" s="39">
-        <v>0</v>
-      </c>
-      <c r="E8" s="39">
+      <c r="C8" s="101">
+        <v>0</v>
+      </c>
+      <c r="D8" s="101">
+        <v>0</v>
+      </c>
+      <c r="E8" s="101">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="101">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="G8" s="39">
-        <v>0</v>
-      </c>
-      <c r="H8" s="40">
-        <v>0</v>
-      </c>
-      <c r="I8" s="40">
-        <v>0</v>
-      </c>
-      <c r="J8" s="40">
-        <v>0</v>
-      </c>
-      <c r="K8" s="40">
-        <v>0</v>
-      </c>
-      <c r="L8" s="40">
-        <v>0</v>
-      </c>
-      <c r="M8" s="40">
-        <v>0</v>
-      </c>
-      <c r="N8" s="40">
-        <v>0</v>
-      </c>
-      <c r="O8" s="40">
+      <c r="G8" s="101">
+        <v>0</v>
+      </c>
+      <c r="H8" s="102">
+        <v>0</v>
+      </c>
+      <c r="I8" s="102">
+        <v>0</v>
+      </c>
+      <c r="J8" s="102">
+        <v>0</v>
+      </c>
+      <c r="K8" s="102">
+        <v>0</v>
+      </c>
+      <c r="L8" s="102">
+        <v>0</v>
+      </c>
+      <c r="M8" s="102">
+        <v>0</v>
+      </c>
+      <c r="N8" s="102">
+        <v>0</v>
+      </c>
+      <c r="O8" s="102">
         <v>0</v>
       </c>
     </row>
@@ -7023,47 +7029,47 @@
       <c r="B9" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="39">
-        <v>0</v>
-      </c>
-      <c r="D9" s="39">
+      <c r="C9" s="101">
+        <v>0</v>
+      </c>
+      <c r="D9" s="101">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="101">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="101">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="101">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="40">
-        <v>0</v>
-      </c>
-      <c r="I9" s="40">
-        <v>0</v>
-      </c>
-      <c r="J9" s="40">
-        <v>0</v>
-      </c>
-      <c r="K9" s="40">
-        <v>0</v>
-      </c>
-      <c r="L9" s="40">
-        <v>0</v>
-      </c>
-      <c r="M9" s="40">
-        <v>0</v>
-      </c>
-      <c r="N9" s="40">
-        <v>0</v>
-      </c>
-      <c r="O9" s="40">
+      <c r="H9" s="102">
+        <v>0</v>
+      </c>
+      <c r="I9" s="102">
+        <v>0</v>
+      </c>
+      <c r="J9" s="102">
+        <v>0</v>
+      </c>
+      <c r="K9" s="102">
+        <v>0</v>
+      </c>
+      <c r="L9" s="102">
+        <v>0</v>
+      </c>
+      <c r="M9" s="102">
+        <v>0</v>
+      </c>
+      <c r="N9" s="102">
+        <v>0</v>
+      </c>
+      <c r="O9" s="102">
         <v>0</v>
       </c>
     </row>
@@ -7071,92 +7077,92 @@
       <c r="B10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="39">
-        <v>0</v>
-      </c>
-      <c r="D10" s="39">
-        <v>0</v>
-      </c>
-      <c r="E10" s="39">
-        <v>1</v>
-      </c>
-      <c r="F10" s="39">
-        <v>1</v>
-      </c>
-      <c r="G10" s="39">
-        <v>1</v>
-      </c>
-      <c r="H10" s="40">
-        <v>0</v>
-      </c>
-      <c r="I10" s="40">
-        <v>0</v>
-      </c>
-      <c r="J10" s="40">
-        <v>0</v>
-      </c>
-      <c r="K10" s="40">
-        <v>0</v>
-      </c>
-      <c r="L10" s="40">
-        <v>0</v>
-      </c>
-      <c r="M10" s="40">
-        <v>0</v>
-      </c>
-      <c r="N10" s="40">
-        <v>0</v>
-      </c>
-      <c r="O10" s="40">
+      <c r="C10" s="101">
+        <v>0</v>
+      </c>
+      <c r="D10" s="101">
+        <v>0</v>
+      </c>
+      <c r="E10" s="101">
+        <v>1</v>
+      </c>
+      <c r="F10" s="101">
+        <v>1</v>
+      </c>
+      <c r="G10" s="101">
+        <v>1</v>
+      </c>
+      <c r="H10" s="102">
+        <v>0</v>
+      </c>
+      <c r="I10" s="102">
+        <v>0</v>
+      </c>
+      <c r="J10" s="102">
+        <v>0</v>
+      </c>
+      <c r="K10" s="102">
+        <v>0</v>
+      </c>
+      <c r="L10" s="102">
+        <v>0</v>
+      </c>
+      <c r="M10" s="102">
+        <v>0</v>
+      </c>
+      <c r="N10" s="102">
+        <v>0</v>
+      </c>
+      <c r="O10" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="39">
+      <c r="C11" s="101">
         <f>diarrhoea_1mo/26</f>
         <v>0</v>
       </c>
-      <c r="D11" s="39">
+      <c r="D11" s="101">
         <f>diarrhoea_1_5mo/26</f>
         <v>0</v>
       </c>
-      <c r="E11" s="39">
+      <c r="E11" s="101">
         <f>diarrhoea_6_11mo/26</f>
         <v>0</v>
       </c>
-      <c r="F11" s="39">
+      <c r="F11" s="101">
         <f>diarrhoea_12_23mo/26</f>
         <v>0</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="101">
         <f>diarrhoea_24_59mo/26</f>
         <v>0</v>
       </c>
-      <c r="H11" s="40">
-        <v>0</v>
-      </c>
-      <c r="I11" s="40">
-        <v>0</v>
-      </c>
-      <c r="J11" s="40">
-        <v>0</v>
-      </c>
-      <c r="K11" s="40">
-        <v>0</v>
-      </c>
-      <c r="L11" s="40">
-        <v>0</v>
-      </c>
-      <c r="M11" s="40">
-        <v>0</v>
-      </c>
-      <c r="N11" s="40">
-        <v>0</v>
-      </c>
-      <c r="O11" s="40">
+      <c r="H11" s="102">
+        <v>0</v>
+      </c>
+      <c r="I11" s="102">
+        <v>0</v>
+      </c>
+      <c r="J11" s="102">
+        <v>0</v>
+      </c>
+      <c r="K11" s="102">
+        <v>0</v>
+      </c>
+      <c r="L11" s="102">
+        <v>0</v>
+      </c>
+      <c r="M11" s="102">
+        <v>0</v>
+      </c>
+      <c r="N11" s="102">
+        <v>0</v>
+      </c>
+      <c r="O11" s="102">
         <v>0</v>
       </c>
     </row>
@@ -7164,97 +7170,97 @@
       <c r="B12" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="39">
-        <v>0</v>
-      </c>
-      <c r="D12" s="39">
-        <v>0</v>
-      </c>
-      <c r="E12" s="39">
-        <v>1</v>
-      </c>
-      <c r="F12" s="39">
-        <v>1</v>
-      </c>
-      <c r="G12" s="39">
-        <v>1</v>
-      </c>
-      <c r="H12" s="40">
-        <v>0</v>
-      </c>
-      <c r="I12" s="40">
-        <v>0</v>
-      </c>
-      <c r="J12" s="40">
-        <v>0</v>
-      </c>
-      <c r="K12" s="40">
-        <v>0</v>
-      </c>
-      <c r="L12" s="40">
-        <v>0</v>
-      </c>
-      <c r="M12" s="40">
-        <v>0</v>
-      </c>
-      <c r="N12" s="40">
-        <v>0</v>
-      </c>
-      <c r="O12" s="40">
+      <c r="C12" s="101">
+        <v>0</v>
+      </c>
+      <c r="D12" s="101">
+        <v>0</v>
+      </c>
+      <c r="E12" s="101">
+        <v>1</v>
+      </c>
+      <c r="F12" s="101">
+        <v>1</v>
+      </c>
+      <c r="G12" s="101">
+        <v>1</v>
+      </c>
+      <c r="H12" s="102">
+        <v>0</v>
+      </c>
+      <c r="I12" s="102">
+        <v>0</v>
+      </c>
+      <c r="J12" s="102">
+        <v>0</v>
+      </c>
+      <c r="K12" s="102">
+        <v>0</v>
+      </c>
+      <c r="L12" s="102">
+        <v>0</v>
+      </c>
+      <c r="M12" s="102">
+        <v>0</v>
+      </c>
+      <c r="N12" s="102">
+        <v>0</v>
+      </c>
+      <c r="O12" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="37"/>
+      <c r="B13" s="35"/>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="40">
-        <v>0</v>
-      </c>
-      <c r="D14" s="40">
-        <v>0</v>
-      </c>
-      <c r="E14" s="40">
-        <v>0</v>
-      </c>
-      <c r="F14" s="40">
-        <v>0</v>
-      </c>
-      <c r="G14" s="40">
-        <v>0</v>
-      </c>
-      <c r="H14" s="39">
+      <c r="C14" s="102">
+        <v>0</v>
+      </c>
+      <c r="D14" s="102">
+        <v>0</v>
+      </c>
+      <c r="E14" s="102">
+        <v>0</v>
+      </c>
+      <c r="F14" s="102">
+        <v>0</v>
+      </c>
+      <c r="G14" s="102">
+        <v>0</v>
+      </c>
+      <c r="H14" s="101">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="I14" s="39">
+      <c r="I14" s="101">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="J14" s="39">
+      <c r="J14" s="101">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="K14" s="39">
+      <c r="K14" s="101">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="L14" s="40">
-        <v>0</v>
-      </c>
-      <c r="M14" s="40">
-        <v>0</v>
-      </c>
-      <c r="N14" s="40">
-        <v>0</v>
-      </c>
-      <c r="O14" s="40">
+      <c r="L14" s="102">
+        <v>0</v>
+      </c>
+      <c r="M14" s="102">
+        <v>0</v>
+      </c>
+      <c r="N14" s="102">
+        <v>0</v>
+      </c>
+      <c r="O14" s="102">
         <v>0</v>
       </c>
     </row>
@@ -7263,43 +7269,43 @@
       <c r="B15" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="40">
-        <v>0</v>
-      </c>
-      <c r="D15" s="40">
-        <v>0</v>
-      </c>
-      <c r="E15" s="40">
-        <v>0</v>
-      </c>
-      <c r="F15" s="40">
-        <v>0</v>
-      </c>
-      <c r="G15" s="40">
-        <v>0</v>
-      </c>
-      <c r="H15" s="39">
-        <v>1</v>
-      </c>
-      <c r="I15" s="39">
-        <v>1</v>
-      </c>
-      <c r="J15" s="39">
-        <v>1</v>
-      </c>
-      <c r="K15" s="39">
-        <v>1</v>
-      </c>
-      <c r="L15" s="40">
-        <v>0</v>
-      </c>
-      <c r="M15" s="40">
-        <v>0</v>
-      </c>
-      <c r="N15" s="40">
-        <v>0</v>
-      </c>
-      <c r="O15" s="40">
+      <c r="C15" s="102">
+        <v>0</v>
+      </c>
+      <c r="D15" s="102">
+        <v>0</v>
+      </c>
+      <c r="E15" s="102">
+        <v>0</v>
+      </c>
+      <c r="F15" s="102">
+        <v>0</v>
+      </c>
+      <c r="G15" s="102">
+        <v>0</v>
+      </c>
+      <c r="H15" s="101">
+        <v>1</v>
+      </c>
+      <c r="I15" s="101">
+        <v>1</v>
+      </c>
+      <c r="J15" s="101">
+        <v>1</v>
+      </c>
+      <c r="K15" s="101">
+        <v>1</v>
+      </c>
+      <c r="L15" s="102">
+        <v>0</v>
+      </c>
+      <c r="M15" s="102">
+        <v>0</v>
+      </c>
+      <c r="N15" s="102">
+        <v>0</v>
+      </c>
+      <c r="O15" s="102">
         <v>0</v>
       </c>
     </row>
@@ -7308,47 +7314,47 @@
       <c r="B16" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="40">
-        <v>0</v>
-      </c>
-      <c r="D16" s="40">
-        <v>0</v>
-      </c>
-      <c r="E16" s="40">
-        <v>0</v>
-      </c>
-      <c r="F16" s="40">
-        <v>0</v>
-      </c>
-      <c r="G16" s="40">
-        <v>0</v>
-      </c>
-      <c r="H16" s="39">
+      <c r="C16" s="102">
+        <v>0</v>
+      </c>
+      <c r="D16" s="102">
+        <v>0</v>
+      </c>
+      <c r="E16" s="102">
+        <v>0</v>
+      </c>
+      <c r="F16" s="102">
+        <v>0</v>
+      </c>
+      <c r="G16" s="102">
+        <v>0</v>
+      </c>
+      <c r="H16" s="101">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="I16" s="39">
+      <c r="I16" s="101">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="J16" s="39">
+      <c r="J16" s="101">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="K16" s="39">
+      <c r="K16" s="101">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="L16" s="40">
-        <v>0</v>
-      </c>
-      <c r="M16" s="40">
-        <v>0</v>
-      </c>
-      <c r="N16" s="40">
-        <v>0</v>
-      </c>
-      <c r="O16" s="40">
+      <c r="L16" s="102">
+        <v>0</v>
+      </c>
+      <c r="M16" s="102">
+        <v>0</v>
+      </c>
+      <c r="N16" s="102">
+        <v>0</v>
+      </c>
+      <c r="O16" s="102">
         <v>0</v>
       </c>
     </row>
@@ -7357,95 +7363,95 @@
       <c r="B17" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="40">
-        <v>0</v>
-      </c>
-      <c r="D17" s="40">
-        <v>0</v>
-      </c>
-      <c r="E17" s="40">
-        <v>0</v>
-      </c>
-      <c r="F17" s="40">
-        <v>0</v>
-      </c>
-      <c r="G17" s="40">
-        <v>0</v>
-      </c>
-      <c r="H17" s="39">
+      <c r="C17" s="102">
+        <v>0</v>
+      </c>
+      <c r="D17" s="102">
+        <v>0</v>
+      </c>
+      <c r="E17" s="102">
+        <v>0</v>
+      </c>
+      <c r="F17" s="102">
+        <v>0</v>
+      </c>
+      <c r="G17" s="102">
+        <v>0</v>
+      </c>
+      <c r="H17" s="101">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="I17" s="39">
+      <c r="I17" s="101">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="J17" s="39">
+      <c r="J17" s="101">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="K17" s="39">
+      <c r="K17" s="101">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="L17" s="40">
-        <v>0</v>
-      </c>
-      <c r="M17" s="40">
-        <v>0</v>
-      </c>
-      <c r="N17" s="40">
-        <v>0</v>
-      </c>
-      <c r="O17" s="40">
+      <c r="L17" s="102">
+        <v>0</v>
+      </c>
+      <c r="M17" s="102">
+        <v>0</v>
+      </c>
+      <c r="N17" s="102">
+        <v>0</v>
+      </c>
+      <c r="O17" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="40">
-        <v>0</v>
-      </c>
-      <c r="D18" s="40">
-        <v>0</v>
-      </c>
-      <c r="E18" s="40">
-        <v>0</v>
-      </c>
-      <c r="F18" s="40">
-        <v>0</v>
-      </c>
-      <c r="G18" s="40">
-        <v>0</v>
-      </c>
-      <c r="H18" s="39">
+      <c r="C18" s="102">
+        <v>0</v>
+      </c>
+      <c r="D18" s="102">
+        <v>0</v>
+      </c>
+      <c r="E18" s="102">
+        <v>0</v>
+      </c>
+      <c r="F18" s="102">
+        <v>0</v>
+      </c>
+      <c r="G18" s="102">
+        <v>0</v>
+      </c>
+      <c r="H18" s="101">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="I18" s="39">
+      <c r="I18" s="101">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="J18" s="39">
+      <c r="J18" s="101">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="K18" s="39">
+      <c r="K18" s="101">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="L18" s="40">
-        <v>0</v>
-      </c>
-      <c r="M18" s="40">
-        <v>0</v>
-      </c>
-      <c r="N18" s="40">
-        <v>0</v>
-      </c>
-      <c r="O18" s="40">
+      <c r="L18" s="102">
+        <v>0</v>
+      </c>
+      <c r="M18" s="102">
+        <v>0</v>
+      </c>
+      <c r="N18" s="102">
+        <v>0</v>
+      </c>
+      <c r="O18" s="102">
         <v>0</v>
       </c>
     </row>
@@ -7453,43 +7459,43 @@
       <c r="B19" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="40">
-        <v>0</v>
-      </c>
-      <c r="D19" s="40">
-        <v>0</v>
-      </c>
-      <c r="E19" s="40">
-        <v>0</v>
-      </c>
-      <c r="F19" s="40">
-        <v>0</v>
-      </c>
-      <c r="G19" s="40">
-        <v>0</v>
-      </c>
-      <c r="H19" s="39">
-        <v>1</v>
-      </c>
-      <c r="I19" s="39">
-        <v>1</v>
-      </c>
-      <c r="J19" s="39">
-        <v>1</v>
-      </c>
-      <c r="K19" s="39">
-        <v>1</v>
-      </c>
-      <c r="L19" s="40">
-        <v>0</v>
-      </c>
-      <c r="M19" s="40">
-        <v>0</v>
-      </c>
-      <c r="N19" s="40">
-        <v>0</v>
-      </c>
-      <c r="O19" s="40">
+      <c r="C19" s="102">
+        <v>0</v>
+      </c>
+      <c r="D19" s="102">
+        <v>0</v>
+      </c>
+      <c r="E19" s="102">
+        <v>0</v>
+      </c>
+      <c r="F19" s="102">
+        <v>0</v>
+      </c>
+      <c r="G19" s="102">
+        <v>0</v>
+      </c>
+      <c r="H19" s="101">
+        <v>1</v>
+      </c>
+      <c r="I19" s="101">
+        <v>1</v>
+      </c>
+      <c r="J19" s="101">
+        <v>1</v>
+      </c>
+      <c r="K19" s="101">
+        <v>1</v>
+      </c>
+      <c r="L19" s="102">
+        <v>0</v>
+      </c>
+      <c r="M19" s="102">
+        <v>0</v>
+      </c>
+      <c r="N19" s="102">
+        <v>0</v>
+      </c>
+      <c r="O19" s="102">
         <v>0</v>
       </c>
     </row>
@@ -7497,334 +7503,334 @@
       <c r="B20" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="40">
-        <v>0</v>
-      </c>
-      <c r="D20" s="40">
-        <v>0</v>
-      </c>
-      <c r="E20" s="40">
-        <v>0</v>
-      </c>
-      <c r="F20" s="40">
-        <v>0</v>
-      </c>
-      <c r="G20" s="40">
-        <v>0</v>
-      </c>
-      <c r="H20" s="39">
-        <v>1</v>
-      </c>
-      <c r="I20" s="39">
-        <v>1</v>
-      </c>
-      <c r="J20" s="39">
-        <v>1</v>
-      </c>
-      <c r="K20" s="39">
-        <v>1</v>
-      </c>
-      <c r="L20" s="40">
-        <v>0</v>
-      </c>
-      <c r="M20" s="40">
-        <v>0</v>
-      </c>
-      <c r="N20" s="40">
-        <v>0</v>
-      </c>
-      <c r="O20" s="40">
+      <c r="C20" s="102">
+        <v>0</v>
+      </c>
+      <c r="D20" s="102">
+        <v>0</v>
+      </c>
+      <c r="E20" s="102">
+        <v>0</v>
+      </c>
+      <c r="F20" s="102">
+        <v>0</v>
+      </c>
+      <c r="G20" s="102">
+        <v>0</v>
+      </c>
+      <c r="H20" s="101">
+        <v>1</v>
+      </c>
+      <c r="I20" s="101">
+        <v>1</v>
+      </c>
+      <c r="J20" s="101">
+        <v>1</v>
+      </c>
+      <c r="K20" s="101">
+        <v>1</v>
+      </c>
+      <c r="L20" s="102">
+        <v>0</v>
+      </c>
+      <c r="M20" s="102">
+        <v>0</v>
+      </c>
+      <c r="N20" s="102">
+        <v>0</v>
+      </c>
+      <c r="O20" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="40">
-        <v>0</v>
-      </c>
-      <c r="D21" s="40">
-        <v>0</v>
-      </c>
-      <c r="E21" s="40">
-        <v>0</v>
-      </c>
-      <c r="F21" s="40">
-        <v>0</v>
-      </c>
-      <c r="G21" s="40">
-        <v>0</v>
-      </c>
-      <c r="H21" s="39">
+      <c r="C21" s="102">
+        <v>0</v>
+      </c>
+      <c r="D21" s="102">
+        <v>0</v>
+      </c>
+      <c r="E21" s="102">
+        <v>0</v>
+      </c>
+      <c r="F21" s="102">
+        <v>0</v>
+      </c>
+      <c r="G21" s="102">
+        <v>0</v>
+      </c>
+      <c r="H21" s="101">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="I21" s="39">
+      <c r="I21" s="101">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="101">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="K21" s="39">
+      <c r="K21" s="101">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L21" s="40">
-        <v>0</v>
-      </c>
-      <c r="M21" s="40">
-        <v>0</v>
-      </c>
-      <c r="N21" s="40">
-        <v>0</v>
-      </c>
-      <c r="O21" s="40">
+      <c r="L21" s="102">
+        <v>0</v>
+      </c>
+      <c r="M21" s="102">
+        <v>0</v>
+      </c>
+      <c r="N21" s="102">
+        <v>0</v>
+      </c>
+      <c r="O21" s="102">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="37"/>
+      <c r="B22" s="35"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="70" t="s">
+      <c r="A23" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="67" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="40">
-        <v>0</v>
-      </c>
-      <c r="D23" s="40">
-        <v>0</v>
-      </c>
-      <c r="E23" s="40">
-        <v>0</v>
-      </c>
-      <c r="F23" s="40">
-        <v>0</v>
-      </c>
-      <c r="G23" s="40">
-        <v>0</v>
-      </c>
-      <c r="H23" s="40">
-        <v>0</v>
-      </c>
-      <c r="I23" s="40">
-        <v>0</v>
-      </c>
-      <c r="J23" s="40">
-        <v>0</v>
-      </c>
-      <c r="K23" s="40">
-        <v>0</v>
-      </c>
-      <c r="L23" s="39">
+      <c r="C23" s="102">
+        <v>0</v>
+      </c>
+      <c r="D23" s="102">
+        <v>0</v>
+      </c>
+      <c r="E23" s="102">
+        <v>0</v>
+      </c>
+      <c r="F23" s="102">
+        <v>0</v>
+      </c>
+      <c r="G23" s="102">
+        <v>0</v>
+      </c>
+      <c r="H23" s="102">
+        <v>0</v>
+      </c>
+      <c r="I23" s="102">
+        <v>0</v>
+      </c>
+      <c r="J23" s="102">
+        <v>0</v>
+      </c>
+      <c r="K23" s="102">
+        <v>0</v>
+      </c>
+      <c r="L23" s="101">
         <f>famplan_unmet_need</f>
         <v>0</v>
       </c>
-      <c r="M23" s="39">
+      <c r="M23" s="101">
         <f>famplan_unmet_need</f>
         <v>0</v>
       </c>
-      <c r="N23" s="39">
+      <c r="N23" s="101">
         <f>famplan_unmet_need</f>
         <v>0</v>
       </c>
-      <c r="O23" s="39">
+      <c r="O23" s="101">
         <f>famplan_unmet_need</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="40">
-        <v>0</v>
-      </c>
-      <c r="D24" s="40">
-        <v>0</v>
-      </c>
-      <c r="E24" s="40">
-        <v>0</v>
-      </c>
-      <c r="F24" s="40">
-        <v>0</v>
-      </c>
-      <c r="G24" s="40">
-        <v>0</v>
-      </c>
-      <c r="H24" s="40">
-        <v>0</v>
-      </c>
-      <c r="I24" s="40">
-        <v>0</v>
-      </c>
-      <c r="J24" s="40">
-        <v>0</v>
-      </c>
-      <c r="K24" s="40">
-        <v>0</v>
-      </c>
-      <c r="L24" s="39">
+      <c r="C24" s="102">
+        <v>0</v>
+      </c>
+      <c r="D24" s="102">
+        <v>0</v>
+      </c>
+      <c r="E24" s="102">
+        <v>0</v>
+      </c>
+      <c r="F24" s="102">
+        <v>0</v>
+      </c>
+      <c r="G24" s="102">
+        <v>0</v>
+      </c>
+      <c r="H24" s="102">
+        <v>0</v>
+      </c>
+      <c r="I24" s="102">
+        <v>0</v>
+      </c>
+      <c r="J24" s="102">
+        <v>0</v>
+      </c>
+      <c r="K24" s="102">
+        <v>0</v>
+      </c>
+      <c r="L24" s="101">
         <f>(1-food_insecure)*(0.49)*(1-school_attendance) + food_insecure*(0.7)*(1-school_attendance)</f>
         <v>0.49</v>
       </c>
-      <c r="M24" s="39">
+      <c r="M24" s="101">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
-      <c r="N24" s="39">
+      <c r="N24" s="101">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
-      <c r="O24" s="39">
+      <c r="O24" s="101">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="71" t="s">
+      <c r="B25" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="C25" s="40">
-        <v>0</v>
-      </c>
-      <c r="D25" s="40">
-        <v>0</v>
-      </c>
-      <c r="E25" s="40">
-        <v>0</v>
-      </c>
-      <c r="F25" s="40">
-        <v>0</v>
-      </c>
-      <c r="G25" s="40">
-        <v>0</v>
-      </c>
-      <c r="H25" s="40">
-        <v>0</v>
-      </c>
-      <c r="I25" s="40">
-        <v>0</v>
-      </c>
-      <c r="J25" s="40">
-        <v>0</v>
-      </c>
-      <c r="K25" s="40">
-        <v>0</v>
-      </c>
-      <c r="L25" s="39">
+      <c r="C25" s="102">
+        <v>0</v>
+      </c>
+      <c r="D25" s="102">
+        <v>0</v>
+      </c>
+      <c r="E25" s="102">
+        <v>0</v>
+      </c>
+      <c r="F25" s="102">
+        <v>0</v>
+      </c>
+      <c r="G25" s="102">
+        <v>0</v>
+      </c>
+      <c r="H25" s="102">
+        <v>0</v>
+      </c>
+      <c r="I25" s="102">
+        <v>0</v>
+      </c>
+      <c r="J25" s="102">
+        <v>0</v>
+      </c>
+      <c r="K25" s="102">
+        <v>0</v>
+      </c>
+      <c r="L25" s="101">
         <f>(1-food_insecure)*(0.21)*(1-school_attendance) + food_insecure*(0.3)*(1-school_attendance)</f>
         <v>0.21</v>
       </c>
-      <c r="M25" s="39">
+      <c r="M25" s="101">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
-      <c r="N25" s="39">
+      <c r="N25" s="101">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
-      <c r="O25" s="39">
+      <c r="O25" s="101">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="40">
-        <v>0</v>
-      </c>
-      <c r="D26" s="40">
-        <v>0</v>
-      </c>
-      <c r="E26" s="40">
-        <v>0</v>
-      </c>
-      <c r="F26" s="40">
-        <v>0</v>
-      </c>
-      <c r="G26" s="40">
-        <v>0</v>
-      </c>
-      <c r="H26" s="40">
-        <v>0</v>
-      </c>
-      <c r="I26" s="40">
-        <v>0</v>
-      </c>
-      <c r="J26" s="40">
-        <v>0</v>
-      </c>
-      <c r="K26" s="40">
-        <v>0</v>
-      </c>
-      <c r="L26" s="39">
+      <c r="C26" s="102">
+        <v>0</v>
+      </c>
+      <c r="D26" s="102">
+        <v>0</v>
+      </c>
+      <c r="E26" s="102">
+        <v>0</v>
+      </c>
+      <c r="F26" s="102">
+        <v>0</v>
+      </c>
+      <c r="G26" s="102">
+        <v>0</v>
+      </c>
+      <c r="H26" s="102">
+        <v>0</v>
+      </c>
+      <c r="I26" s="102">
+        <v>0</v>
+      </c>
+      <c r="J26" s="102">
+        <v>0</v>
+      </c>
+      <c r="K26" s="102">
+        <v>0</v>
+      </c>
+      <c r="L26" s="101">
         <f>(1-food_insecure)*(0.3)*(1-school_attendance)</f>
         <v>0.3</v>
       </c>
-      <c r="M26" s="39">
+      <c r="M26" s="101">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
-      <c r="N26" s="39">
+      <c r="N26" s="101">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
-      <c r="O26" s="39">
+      <c r="O26" s="101">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="71" t="s">
+      <c r="B27" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="40">
-        <v>0</v>
-      </c>
-      <c r="D27" s="40">
-        <v>0</v>
-      </c>
-      <c r="E27" s="40">
-        <v>0</v>
-      </c>
-      <c r="F27" s="40">
-        <v>0</v>
-      </c>
-      <c r="G27" s="40">
-        <v>0</v>
-      </c>
-      <c r="H27" s="40">
-        <v>0</v>
-      </c>
-      <c r="I27" s="40">
-        <v>0</v>
-      </c>
-      <c r="J27" s="40">
-        <v>0</v>
-      </c>
-      <c r="K27" s="40">
-        <v>0</v>
-      </c>
-      <c r="L27" s="39">
+      <c r="C27" s="102">
+        <v>0</v>
+      </c>
+      <c r="D27" s="102">
+        <v>0</v>
+      </c>
+      <c r="E27" s="102">
+        <v>0</v>
+      </c>
+      <c r="F27" s="102">
+        <v>0</v>
+      </c>
+      <c r="G27" s="102">
+        <v>0</v>
+      </c>
+      <c r="H27" s="102">
+        <v>0</v>
+      </c>
+      <c r="I27" s="102">
+        <v>0</v>
+      </c>
+      <c r="J27" s="102">
+        <v>0</v>
+      </c>
+      <c r="K27" s="102">
+        <v>0</v>
+      </c>
+      <c r="L27" s="101">
         <f>(1-food_insecure)*1*school_attendance + food_insecure*1*school_attendance</f>
         <v>0</v>
       </c>
-      <c r="M27" s="39">
-        <v>0</v>
-      </c>
-      <c r="N27" s="39">
-        <v>0</v>
-      </c>
-      <c r="O27" s="39">
+      <c r="M27" s="101">
+        <v>0</v>
+      </c>
+      <c r="N27" s="101">
+        <v>0</v>
+      </c>
+      <c r="O27" s="101">
         <v>0</v>
       </c>
     </row>
@@ -7845,53 +7851,53 @@
       <c r="B29" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="39">
-        <v>0</v>
-      </c>
-      <c r="D29" s="39">
-        <v>0</v>
-      </c>
-      <c r="E29" s="39">
+      <c r="C29" s="101">
+        <v>0</v>
+      </c>
+      <c r="D29" s="101">
+        <v>0</v>
+      </c>
+      <c r="E29" s="101">
         <f t="shared" ref="E29:O29" si="0">frac_maize</f>
         <v>0</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="39">
+      <c r="J29" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="39">
+      <c r="K29" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" s="39">
+      <c r="L29" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="39">
+      <c r="M29" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N29" s="39">
+      <c r="N29" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O29" s="39">
+      <c r="O29" s="101">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7900,53 +7906,53 @@
       <c r="B30" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="39">
-        <v>0</v>
-      </c>
-      <c r="D30" s="39">
-        <v>0</v>
-      </c>
-      <c r="E30" s="39">
+      <c r="C30" s="101">
+        <v>0</v>
+      </c>
+      <c r="D30" s="101">
+        <v>0</v>
+      </c>
+      <c r="E30" s="101">
         <f t="shared" ref="E30:O30" si="1">frac_rice</f>
         <v>0</v>
       </c>
-      <c r="F30" s="39">
+      <c r="F30" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="39">
+      <c r="H30" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="39">
+      <c r="I30" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J30" s="39">
+      <c r="J30" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K30" s="39">
+      <c r="K30" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L30" s="39">
+      <c r="L30" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M30" s="39">
+      <c r="M30" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N30" s="39">
+      <c r="N30" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O30" s="39">
+      <c r="O30" s="101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7955,53 +7961,53 @@
       <c r="B31" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="39">
-        <v>0</v>
-      </c>
-      <c r="D31" s="39">
-        <v>0</v>
-      </c>
-      <c r="E31" s="39">
+      <c r="C31" s="101">
+        <v>0</v>
+      </c>
+      <c r="D31" s="101">
+        <v>0</v>
+      </c>
+      <c r="E31" s="101">
         <f t="shared" ref="E31:O31" si="2">frac_wheat</f>
         <v>0</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H31" s="39">
+      <c r="H31" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I31" s="39">
+      <c r="I31" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31" s="39">
+      <c r="J31" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L31" s="39">
+      <c r="L31" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M31" s="39">
+      <c r="M31" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="39">
+      <c r="N31" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O31" s="39">
+      <c r="O31" s="101">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -8010,43 +8016,43 @@
       <c r="B32" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="39">
-        <v>0</v>
-      </c>
-      <c r="D32" s="39">
-        <v>0</v>
-      </c>
-      <c r="E32" s="39">
-        <v>1</v>
-      </c>
-      <c r="F32" s="39">
-        <v>1</v>
-      </c>
-      <c r="G32" s="39">
-        <v>1</v>
-      </c>
-      <c r="H32" s="39">
-        <v>1</v>
-      </c>
-      <c r="I32" s="39">
-        <v>1</v>
-      </c>
-      <c r="J32" s="39">
-        <v>1</v>
-      </c>
-      <c r="K32" s="39">
-        <v>1</v>
-      </c>
-      <c r="L32" s="39">
-        <v>1</v>
-      </c>
-      <c r="M32" s="39">
-        <v>1</v>
-      </c>
-      <c r="N32" s="39">
-        <v>1</v>
-      </c>
-      <c r="O32" s="39">
+      <c r="C32" s="101">
+        <v>0</v>
+      </c>
+      <c r="D32" s="101">
+        <v>0</v>
+      </c>
+      <c r="E32" s="101">
+        <v>1</v>
+      </c>
+      <c r="F32" s="101">
+        <v>1</v>
+      </c>
+      <c r="G32" s="101">
+        <v>1</v>
+      </c>
+      <c r="H32" s="101">
+        <v>1</v>
+      </c>
+      <c r="I32" s="101">
+        <v>1</v>
+      </c>
+      <c r="J32" s="101">
+        <v>1</v>
+      </c>
+      <c r="K32" s="101">
+        <v>1</v>
+      </c>
+      <c r="L32" s="101">
+        <v>1</v>
+      </c>
+      <c r="M32" s="101">
+        <v>1</v>
+      </c>
+      <c r="N32" s="101">
+        <v>1</v>
+      </c>
+      <c r="O32" s="101">
         <v>1</v>
       </c>
     </row>
@@ -8054,285 +8060,285 @@
       <c r="B33" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="39">
+      <c r="C33" s="101">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H33" s="39">
+      <c r="H33" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I33" s="39">
+      <c r="I33" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J33" s="39">
+      <c r="J33" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L33" s="39">
+      <c r="L33" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M33" s="39">
+      <c r="M33" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N33" s="39">
+      <c r="N33" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O33" s="39">
+      <c r="O33" s="101">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="37" t="s">
+      <c r="B34" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="39">
-        <v>1</v>
-      </c>
-      <c r="D34" s="39">
-        <v>1</v>
-      </c>
-      <c r="E34" s="39">
-        <v>1</v>
-      </c>
-      <c r="F34" s="39">
-        <v>1</v>
-      </c>
-      <c r="G34" s="39">
-        <v>1</v>
-      </c>
-      <c r="H34" s="39">
-        <v>1</v>
-      </c>
-      <c r="I34" s="39">
-        <v>1</v>
-      </c>
-      <c r="J34" s="39">
-        <v>1</v>
-      </c>
-      <c r="K34" s="39">
-        <v>1</v>
-      </c>
-      <c r="L34" s="39">
-        <v>1</v>
-      </c>
-      <c r="M34" s="39">
-        <v>1</v>
-      </c>
-      <c r="N34" s="39">
-        <v>1</v>
-      </c>
-      <c r="O34" s="39">
+      <c r="C34" s="101">
+        <v>1</v>
+      </c>
+      <c r="D34" s="101">
+        <v>1</v>
+      </c>
+      <c r="E34" s="101">
+        <v>1</v>
+      </c>
+      <c r="F34" s="101">
+        <v>1</v>
+      </c>
+      <c r="G34" s="101">
+        <v>1</v>
+      </c>
+      <c r="H34" s="101">
+        <v>1</v>
+      </c>
+      <c r="I34" s="101">
+        <v>1</v>
+      </c>
+      <c r="J34" s="101">
+        <v>1</v>
+      </c>
+      <c r="K34" s="101">
+        <v>1</v>
+      </c>
+      <c r="L34" s="101">
+        <v>1</v>
+      </c>
+      <c r="M34" s="101">
+        <v>1</v>
+      </c>
+      <c r="N34" s="101">
+        <v>1</v>
+      </c>
+      <c r="O34" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="39">
-        <v>1</v>
-      </c>
-      <c r="D35" s="39">
-        <v>1</v>
-      </c>
-      <c r="E35" s="39">
-        <v>1</v>
-      </c>
-      <c r="F35" s="39">
-        <v>1</v>
-      </c>
-      <c r="G35" s="39">
-        <v>1</v>
-      </c>
-      <c r="H35" s="39">
-        <v>1</v>
-      </c>
-      <c r="I35" s="39">
-        <v>1</v>
-      </c>
-      <c r="J35" s="39">
-        <v>1</v>
-      </c>
-      <c r="K35" s="39">
-        <v>1</v>
-      </c>
-      <c r="L35" s="39">
-        <v>1</v>
-      </c>
-      <c r="M35" s="39">
-        <v>1</v>
-      </c>
-      <c r="N35" s="39">
-        <v>1</v>
-      </c>
-      <c r="O35" s="39">
+      <c r="C35" s="101">
+        <v>1</v>
+      </c>
+      <c r="D35" s="101">
+        <v>1</v>
+      </c>
+      <c r="E35" s="101">
+        <v>1</v>
+      </c>
+      <c r="F35" s="101">
+        <v>1</v>
+      </c>
+      <c r="G35" s="101">
+        <v>1</v>
+      </c>
+      <c r="H35" s="101">
+        <v>1</v>
+      </c>
+      <c r="I35" s="101">
+        <v>1</v>
+      </c>
+      <c r="J35" s="101">
+        <v>1</v>
+      </c>
+      <c r="K35" s="101">
+        <v>1</v>
+      </c>
+      <c r="L35" s="101">
+        <v>1</v>
+      </c>
+      <c r="M35" s="101">
+        <v>1</v>
+      </c>
+      <c r="N35" s="101">
+        <v>1</v>
+      </c>
+      <c r="O35" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="37" t="s">
+      <c r="B36" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="39">
-        <v>1</v>
-      </c>
-      <c r="D36" s="39">
-        <v>1</v>
-      </c>
-      <c r="E36" s="39">
-        <v>1</v>
-      </c>
-      <c r="F36" s="39">
-        <v>1</v>
-      </c>
-      <c r="G36" s="39">
-        <v>1</v>
-      </c>
-      <c r="H36" s="39">
-        <v>1</v>
-      </c>
-      <c r="I36" s="39">
-        <v>1</v>
-      </c>
-      <c r="J36" s="39">
-        <v>1</v>
-      </c>
-      <c r="K36" s="39">
-        <v>1</v>
-      </c>
-      <c r="L36" s="39">
-        <v>1</v>
-      </c>
-      <c r="M36" s="39">
-        <v>1</v>
-      </c>
-      <c r="N36" s="39">
-        <v>1</v>
-      </c>
-      <c r="O36" s="39">
+      <c r="C36" s="101">
+        <v>1</v>
+      </c>
+      <c r="D36" s="101">
+        <v>1</v>
+      </c>
+      <c r="E36" s="101">
+        <v>1</v>
+      </c>
+      <c r="F36" s="101">
+        <v>1</v>
+      </c>
+      <c r="G36" s="101">
+        <v>1</v>
+      </c>
+      <c r="H36" s="101">
+        <v>1</v>
+      </c>
+      <c r="I36" s="101">
+        <v>1</v>
+      </c>
+      <c r="J36" s="101">
+        <v>1</v>
+      </c>
+      <c r="K36" s="101">
+        <v>1</v>
+      </c>
+      <c r="L36" s="101">
+        <v>1</v>
+      </c>
+      <c r="M36" s="101">
+        <v>1</v>
+      </c>
+      <c r="N36" s="101">
+        <v>1</v>
+      </c>
+      <c r="O36" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="35" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="39">
-        <v>1</v>
-      </c>
-      <c r="D37" s="39">
-        <v>1</v>
-      </c>
-      <c r="E37" s="39">
-        <v>1</v>
-      </c>
-      <c r="F37" s="39">
-        <v>1</v>
-      </c>
-      <c r="G37" s="39">
-        <v>1</v>
-      </c>
-      <c r="H37" s="39">
-        <v>1</v>
-      </c>
-      <c r="I37" s="39">
-        <v>1</v>
-      </c>
-      <c r="J37" s="39">
-        <v>1</v>
-      </c>
-      <c r="K37" s="39">
-        <v>1</v>
-      </c>
-      <c r="L37" s="39">
-        <v>1</v>
-      </c>
-      <c r="M37" s="39">
-        <v>1</v>
-      </c>
-      <c r="N37" s="39">
-        <v>1</v>
-      </c>
-      <c r="O37" s="39">
+      <c r="C37" s="101">
+        <v>1</v>
+      </c>
+      <c r="D37" s="101">
+        <v>1</v>
+      </c>
+      <c r="E37" s="101">
+        <v>1</v>
+      </c>
+      <c r="F37" s="101">
+        <v>1</v>
+      </c>
+      <c r="G37" s="101">
+        <v>1</v>
+      </c>
+      <c r="H37" s="101">
+        <v>1</v>
+      </c>
+      <c r="I37" s="101">
+        <v>1</v>
+      </c>
+      <c r="J37" s="101">
+        <v>1</v>
+      </c>
+      <c r="K37" s="101">
+        <v>1</v>
+      </c>
+      <c r="L37" s="101">
+        <v>1</v>
+      </c>
+      <c r="M37" s="101">
+        <v>1</v>
+      </c>
+      <c r="N37" s="101">
+        <v>1</v>
+      </c>
+      <c r="O37" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="37" t="s">
+      <c r="B38" s="35" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="39">
-        <v>1</v>
-      </c>
-      <c r="D38" s="39">
-        <v>1</v>
-      </c>
-      <c r="E38" s="39">
-        <v>1</v>
-      </c>
-      <c r="F38" s="39">
-        <v>1</v>
-      </c>
-      <c r="G38" s="39">
-        <v>1</v>
-      </c>
-      <c r="H38" s="39">
-        <v>1</v>
-      </c>
-      <c r="I38" s="39">
-        <v>1</v>
-      </c>
-      <c r="J38" s="39">
-        <v>1</v>
-      </c>
-      <c r="K38" s="39">
-        <v>1</v>
-      </c>
-      <c r="L38" s="39">
-        <v>1</v>
-      </c>
-      <c r="M38" s="39">
-        <v>1</v>
-      </c>
-      <c r="N38" s="39">
-        <v>1</v>
-      </c>
-      <c r="O38" s="39">
+      <c r="C38" s="101">
+        <v>1</v>
+      </c>
+      <c r="D38" s="101">
+        <v>1</v>
+      </c>
+      <c r="E38" s="101">
+        <v>1</v>
+      </c>
+      <c r="F38" s="101">
+        <v>1</v>
+      </c>
+      <c r="G38" s="101">
+        <v>1</v>
+      </c>
+      <c r="H38" s="101">
+        <v>1</v>
+      </c>
+      <c r="I38" s="101">
+        <v>1</v>
+      </c>
+      <c r="J38" s="101">
+        <v>1</v>
+      </c>
+      <c r="K38" s="101">
+        <v>1</v>
+      </c>
+      <c r="L38" s="101">
+        <v>1</v>
+      </c>
+      <c r="M38" s="101">
+        <v>1</v>
+      </c>
+      <c r="N38" s="101">
+        <v>1</v>
+      </c>
+      <c r="O38" s="101">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="37"/>
+      <c r="B39" s="35"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="CV+gq96fPImduRLxDE8yTe099zISGI1MS3RmWnQscz940uiKim+GhcsxYXlLF6kSFuAsqdxkdu+7h4lWi9QriA==" saltValue="yEyehUxb7wFTmtbIOMikyg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="6oMNPZOj5p1yxjZyC3cWukdFKoSh1CKATbl7uT/d1OQzf8J9XiJ/ojI28uZ+t7bQFfyXeraObfh1PN4W7pNYSw==" saltValue="6OVcnh0lkgELEvG9wcZI7g==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <sortState ref="B14:O21">
     <sortCondition ref="B14:B21"/>
   </sortState>
@@ -8389,194 +8395,194 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="41" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="41" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="41"/>
-    <col min="5" max="5" width="17.44140625" style="41" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="41"/>
+    <col min="1" max="1" width="33.6640625" style="37" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" style="37" customWidth="1"/>
+    <col min="3" max="4" width="11.44140625" style="37"/>
+    <col min="5" max="5" width="17.44140625" style="37" customWidth="1"/>
+    <col min="6" max="16384" width="11.44140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="42" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="44">
+      <c r="B2" s="40">
         <v>0.9</v>
       </c>
-      <c r="C2" s="43">
+      <c r="C2" s="39">
         <v>0.09</v>
       </c>
-      <c r="D2" s="41">
+      <c r="D2" s="37">
         <v>0.8</v>
       </c>
-      <c r="E2" s="41">
+      <c r="E2" s="37">
         <f t="shared" ref="E2:E10" si="0">C2*D2</f>
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="44">
-        <v>1</v>
-      </c>
-      <c r="C3" s="43">
+      <c r="B3" s="40">
+        <v>1</v>
+      </c>
+      <c r="C3" s="39">
         <v>0.02</v>
       </c>
-      <c r="D3" s="41">
+      <c r="D3" s="37">
         <v>1.9</v>
       </c>
-      <c r="E3" s="41">
+      <c r="E3" s="37">
         <f t="shared" si="0"/>
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="44">
-        <v>1</v>
-      </c>
-      <c r="C4" s="43">
+      <c r="B4" s="40">
+        <v>1</v>
+      </c>
+      <c r="C4" s="39">
         <v>0.08</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="37">
         <v>2</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="37">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="41" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="44">
-        <v>1</v>
-      </c>
-      <c r="C5" s="43">
+      <c r="B5" s="40">
+        <v>1</v>
+      </c>
+      <c r="C5" s="39">
         <v>0.18</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="37">
         <v>0.7</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="37">
         <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="44">
-        <v>1</v>
-      </c>
-      <c r="C6" s="43">
+      <c r="B6" s="40">
+        <v>1</v>
+      </c>
+      <c r="C6" s="39">
         <v>0.02</v>
       </c>
-      <c r="D6" s="41">
+      <c r="D6" s="37">
         <v>0.7</v>
       </c>
-      <c r="E6" s="41">
+      <c r="E6" s="37">
         <f t="shared" si="0"/>
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="41" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="44">
+      <c r="B7" s="40">
         <v>0.93</v>
       </c>
-      <c r="C7" s="43">
+      <c r="C7" s="39">
         <v>0.45</v>
       </c>
-      <c r="D7" s="41">
+      <c r="D7" s="37">
         <v>0.9</v>
       </c>
-      <c r="E7" s="41">
+      <c r="E7" s="37">
         <f t="shared" si="0"/>
         <v>0.40500000000000003</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="45" t="s">
+      <c r="A8" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="44">
+      <c r="B8" s="40">
         <v>0.5</v>
       </c>
-      <c r="C8" s="43">
+      <c r="C8" s="39">
         <v>0.03</v>
       </c>
-      <c r="D8" s="41">
-        <v>0</v>
-      </c>
-      <c r="E8" s="41">
+      <c r="D8" s="37">
+        <v>0</v>
+      </c>
+      <c r="E8" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="41" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="44">
+      <c r="B9" s="40">
         <v>0.5</v>
       </c>
-      <c r="C9" s="43">
+      <c r="C9" s="39">
         <v>0.11</v>
       </c>
-      <c r="D9" s="41">
-        <v>0</v>
-      </c>
-      <c r="E9" s="41">
+      <c r="D9" s="37">
+        <v>0</v>
+      </c>
+      <c r="E9" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="44">
+      <c r="B10" s="40">
         <v>0.98</v>
       </c>
-      <c r="C10" s="43">
+      <c r="C10" s="39">
         <v>0.01</v>
       </c>
-      <c r="D10" s="41">
+      <c r="D10" s="37">
         <v>0.6</v>
       </c>
-      <c r="E10" s="41">
+      <c r="E10" s="37">
         <f t="shared" si="0"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="42"/>
+      <c r="C11" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8593,7 +8599,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8603,934 +8609,934 @@
     <col min="10" max="16384" width="14.44140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="23" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="28" t="s">
+    <row r="1" spans="1:9" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+      <c r="A2" s="100">
         <f>start_year</f>
         <v>2017</v>
       </c>
-      <c r="B2" s="84"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="24">
+      <c r="B2" s="80"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="23">
         <f t="shared" ref="G2:G40" si="0">C2+D2+E2+F2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="23">
         <f t="shared" ref="H2:H40" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="23">
         <f>G2-H2</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+      <c r="A3" s="100">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="24">
+      <c r="B3" s="80"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="23">
         <f t="shared" ref="I3:I15" si="3">G3-H3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+      <c r="A4" s="100">
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="B4" s="84"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="24">
+      <c r="B4" s="80"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
+      <c r="A5" s="100">
         <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="B5" s="84"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="24">
+      <c r="B5" s="80"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
+      <c r="A6" s="100">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="B6" s="84"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="24">
+      <c r="B6" s="80"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
+      <c r="E6" s="81"/>
+      <c r="F6" s="81"/>
+      <c r="G6" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7">
+      <c r="A7" s="100">
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="B7" s="84"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="24">
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7">
+      <c r="A8" s="100">
         <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="B8" s="84"/>
-      <c r="C8" s="85"/>
-      <c r="D8" s="85"/>
-      <c r="E8" s="85"/>
-      <c r="F8" s="85"/>
-      <c r="G8" s="24">
+      <c r="B8" s="80"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="81"/>
+      <c r="G8" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7">
+      <c r="A9" s="100">
         <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="B9" s="84"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="85"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="85"/>
-      <c r="G9" s="24">
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7">
+      <c r="A10" s="100">
         <f t="shared" si="2"/>
         <v>2025</v>
       </c>
-      <c r="B10" s="84"/>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="24">
+      <c r="B10" s="80"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7">
+      <c r="A11" s="100">
         <f t="shared" si="2"/>
         <v>2026</v>
       </c>
-      <c r="B11" s="84"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="24">
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7">
+      <c r="A12" s="100">
         <f t="shared" si="2"/>
         <v>2027</v>
       </c>
-      <c r="B12" s="84"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="85"/>
-      <c r="E12" s="85"/>
-      <c r="F12" s="85"/>
-      <c r="G12" s="24">
+      <c r="B12" s="80"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="81"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7">
+      <c r="A13" s="100">
         <f t="shared" si="2"/>
         <v>2028</v>
       </c>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="85"/>
-      <c r="F13" s="85"/>
-      <c r="G13" s="24">
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7">
+      <c r="A14" s="100">
         <f t="shared" si="2"/>
         <v>2029</v>
       </c>
-      <c r="B14" s="84"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="24">
+      <c r="B14" s="80"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7">
+      <c r="A15" s="100">
         <f t="shared" si="2"/>
         <v>2030</v>
       </c>
-      <c r="B15" s="84"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="85"/>
-      <c r="E15" s="85"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="24">
+      <c r="B15" s="80"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="str">
+      <c r="A16" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B16" s="84"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="85"/>
-      <c r="E16" s="85"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="24">
+      <c r="B16" s="80"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="23">
         <f t="shared" ref="I16:I40" si="4">G16-H16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="str">
+      <c r="A17" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B17" s="84"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="85"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="85"/>
-      <c r="G17" s="24">
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="81"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="str">
+      <c r="A18" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B18" s="84"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="85"/>
-      <c r="G18" s="24">
+      <c r="B18" s="80"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="str">
+      <c r="A19" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B19" s="84"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
-      <c r="G19" s="24">
+      <c r="B19" s="80"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="str">
+      <c r="A20" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B20" s="84"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="85"/>
-      <c r="E20" s="85"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="24">
+      <c r="B20" s="80"/>
+      <c r="C20" s="81"/>
+      <c r="D20" s="81"/>
+      <c r="E20" s="81"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="7" t="str">
+      <c r="A21" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B21" s="84"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="24">
+      <c r="B21" s="80"/>
+      <c r="C21" s="81"/>
+      <c r="D21" s="81"/>
+      <c r="E21" s="81"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="str">
+      <c r="A22" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B22" s="84"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="24">
+      <c r="B22" s="80"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81"/>
+      <c r="E22" s="81"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="str">
+      <c r="A23" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B23" s="84"/>
-      <c r="C23" s="85"/>
-      <c r="D23" s="85"/>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="24">
+      <c r="B23" s="80"/>
+      <c r="C23" s="81"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="24">
+      <c r="I23" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="str">
+      <c r="A24" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="24">
+      <c r="B24" s="80"/>
+      <c r="C24" s="81"/>
+      <c r="D24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="str">
+      <c r="A25" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B25" s="84"/>
-      <c r="C25" s="85"/>
-      <c r="D25" s="85"/>
-      <c r="E25" s="85"/>
-      <c r="F25" s="85"/>
-      <c r="G25" s="24">
+      <c r="B25" s="80"/>
+      <c r="C25" s="81"/>
+      <c r="D25" s="81"/>
+      <c r="E25" s="81"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="24">
+      <c r="I25" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="str">
+      <c r="A26" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B26" s="84"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="24">
+      <c r="B26" s="80"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="24">
+      <c r="I26" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="str">
+      <c r="A27" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B27" s="84"/>
-      <c r="C27" s="85"/>
-      <c r="D27" s="85"/>
-      <c r="E27" s="85"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="24">
+      <c r="B27" s="80"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="24">
+      <c r="I27" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="str">
+      <c r="A28" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B28" s="84"/>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="85"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="24">
+      <c r="B28" s="80"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="str">
+      <c r="A29" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B29" s="84"/>
-      <c r="C29" s="85"/>
-      <c r="D29" s="85"/>
-      <c r="E29" s="85"/>
-      <c r="F29" s="85"/>
-      <c r="G29" s="24">
+      <c r="B29" s="80"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="24">
+      <c r="I29" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="str">
+      <c r="A30" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B30" s="84"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="85"/>
-      <c r="G30" s="24">
+      <c r="B30" s="80"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="24">
+      <c r="I30" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="str">
+      <c r="A31" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B31" s="84"/>
-      <c r="C31" s="85"/>
-      <c r="D31" s="85"/>
-      <c r="E31" s="85"/>
-      <c r="F31" s="85"/>
-      <c r="G31" s="24">
+      <c r="B31" s="80"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="24">
+      <c r="I31" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="str">
+      <c r="A32" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B32" s="84"/>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="24">
+      <c r="B32" s="80"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="str">
+      <c r="A33" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B33" s="84"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="85"/>
-      <c r="G33" s="24">
+      <c r="B33" s="80"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="24">
+      <c r="I33" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="str">
+      <c r="A34" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B34" s="84"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="24">
+      <c r="B34" s="80"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I34" s="24">
+      <c r="I34" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="str">
+      <c r="A35" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B35" s="84"/>
-      <c r="C35" s="85"/>
-      <c r="D35" s="85"/>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="24">
+      <c r="B35" s="80"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I35" s="24">
+      <c r="I35" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="str">
+      <c r="A36" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B36" s="84"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="85"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="24">
+      <c r="B36" s="80"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="24">
+      <c r="H36" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="str">
+      <c r="A37" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B37" s="84"/>
-      <c r="C37" s="85"/>
-      <c r="D37" s="85"/>
-      <c r="E37" s="85"/>
-      <c r="F37" s="85"/>
-      <c r="G37" s="24">
+      <c r="B37" s="80"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="24">
+      <c r="H37" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I37" s="24">
+      <c r="I37" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="str">
+      <c r="A38" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B38" s="84"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="85"/>
-      <c r="G38" s="24">
+      <c r="B38" s="80"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H38" s="24">
+      <c r="H38" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I38" s="24">
+      <c r="I38" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="str">
+      <c r="A39" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B39" s="84"/>
-      <c r="C39" s="85"/>
-      <c r="D39" s="85"/>
-      <c r="E39" s="85"/>
-      <c r="F39" s="85"/>
-      <c r="G39" s="24">
+      <c r="B39" s="80"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H39" s="24">
+      <c r="H39" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I39" s="24">
+      <c r="I39" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="str">
+      <c r="A40" s="100" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B40" s="84"/>
-      <c r="C40" s="85"/>
-      <c r="D40" s="85"/>
-      <c r="E40" s="85"/>
-      <c r="F40" s="85"/>
-      <c r="G40" s="24">
+      <c r="B40" s="80"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="23">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="aPxuUIW9PgOTKXV23Qx8XN7jW3EcdA3iKMlRNmgfcHa93LJ2PNIiwqfUJ82/ahAi+kE/jTdXR5/WhSwuiFPuZg==" saltValue="FTWsGAonyCWOHyvsJ/RXaQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="kNziof9HF6zIJ23vqpsvDuW5x0DIhmXxUqhPZLZQgdXEPDXg7xu1puT/CwtbHSWbmvJr/hapKR+dAV2b8f7S4g==" saltValue="9MRsFYvPXkc2WXYXWkT/ig==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="B2:I40">
     <cfRule type="expression" dxfId="0" priority="9">
       <formula>$A2=""</formula>
@@ -9548,8 +9554,8 @@
   </sheetPr>
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9563,519 +9569,519 @@
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="27">
-        <v>0</v>
-      </c>
-      <c r="D2" s="27">
-        <v>0</v>
-      </c>
-      <c r="E2" s="27">
-        <v>0</v>
-      </c>
-      <c r="F2" s="27">
-        <v>0</v>
-      </c>
-      <c r="G2" s="27">
+      <c r="B2" s="82"/>
+      <c r="C2" s="26">
+        <v>0</v>
+      </c>
+      <c r="D2" s="26">
+        <v>0</v>
+      </c>
+      <c r="E2" s="26">
+        <v>0</v>
+      </c>
+      <c r="F2" s="26">
+        <v>0</v>
+      </c>
+      <c r="G2" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="86"/>
-      <c r="C3" s="27">
-        <v>0</v>
-      </c>
-      <c r="D3" s="27">
-        <v>0</v>
-      </c>
-      <c r="E3" s="27">
-        <v>0</v>
-      </c>
-      <c r="F3" s="27">
-        <v>0</v>
-      </c>
-      <c r="G3" s="27">
+      <c r="B3" s="82"/>
+      <c r="C3" s="26">
+        <v>0</v>
+      </c>
+      <c r="D3" s="26">
+        <v>0</v>
+      </c>
+      <c r="E3" s="26">
+        <v>0</v>
+      </c>
+      <c r="F3" s="26">
+        <v>0</v>
+      </c>
+      <c r="G3" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="86"/>
-      <c r="C4" s="27">
-        <v>0</v>
-      </c>
-      <c r="D4" s="27">
-        <v>0</v>
-      </c>
-      <c r="E4" s="27">
-        <v>0</v>
-      </c>
-      <c r="F4" s="27">
-        <v>0</v>
-      </c>
-      <c r="G4" s="27">
+      <c r="B4" s="82"/>
+      <c r="C4" s="26">
+        <v>0</v>
+      </c>
+      <c r="D4" s="26">
+        <v>0</v>
+      </c>
+      <c r="E4" s="26">
+        <v>0</v>
+      </c>
+      <c r="F4" s="26">
+        <v>0</v>
+      </c>
+      <c r="G4" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="27">
-        <v>0</v>
-      </c>
-      <c r="D5" s="27">
-        <v>0</v>
-      </c>
-      <c r="E5" s="27">
-        <v>0</v>
-      </c>
-      <c r="F5" s="27">
-        <v>0</v>
-      </c>
-      <c r="G5" s="27">
+      <c r="B5" s="82"/>
+      <c r="C5" s="26">
+        <v>0</v>
+      </c>
+      <c r="D5" s="26">
+        <v>0</v>
+      </c>
+      <c r="E5" s="26">
+        <v>0</v>
+      </c>
+      <c r="F5" s="26">
+        <v>0</v>
+      </c>
+      <c r="G5" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="27">
-        <v>0</v>
-      </c>
-      <c r="D6" s="27">
-        <v>0</v>
-      </c>
-      <c r="E6" s="27">
-        <v>0</v>
-      </c>
-      <c r="F6" s="27">
-        <v>0</v>
-      </c>
-      <c r="G6" s="27">
+      <c r="B6" s="82"/>
+      <c r="C6" s="26">
+        <v>0</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0</v>
+      </c>
+      <c r="E6" s="26">
+        <v>0</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0</v>
+      </c>
+      <c r="G6" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="86"/>
-      <c r="C7" s="27">
-        <v>0</v>
-      </c>
-      <c r="D7" s="27">
-        <v>0</v>
-      </c>
-      <c r="E7" s="27">
-        <v>0</v>
-      </c>
-      <c r="F7" s="27">
-        <v>0</v>
-      </c>
-      <c r="G7" s="27">
+      <c r="B7" s="82"/>
+      <c r="C7" s="26">
+        <v>0</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0</v>
+      </c>
+      <c r="E7" s="26">
+        <v>0</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0</v>
+      </c>
+      <c r="G7" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="86"/>
-      <c r="C8" s="27">
-        <v>0</v>
-      </c>
-      <c r="D8" s="27">
-        <v>0</v>
-      </c>
-      <c r="E8" s="27">
-        <v>0</v>
-      </c>
-      <c r="F8" s="27">
-        <v>0</v>
-      </c>
-      <c r="G8" s="27">
+      <c r="B8" s="82"/>
+      <c r="C8" s="26">
+        <v>0</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0</v>
+      </c>
+      <c r="E8" s="26">
+        <v>0</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0</v>
+      </c>
+      <c r="G8" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="86"/>
-      <c r="C9" s="27">
-        <v>0</v>
-      </c>
-      <c r="D9" s="27">
-        <v>0</v>
-      </c>
-      <c r="E9" s="27">
-        <v>0</v>
-      </c>
-      <c r="F9" s="27">
-        <v>0</v>
-      </c>
-      <c r="G9" s="27">
+      <c r="B9" s="82"/>
+      <c r="C9" s="26">
+        <v>0</v>
+      </c>
+      <c r="D9" s="26">
+        <v>0</v>
+      </c>
+      <c r="E9" s="26">
+        <v>0</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B10" s="27">
-        <v>0</v>
-      </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="27">
+      <c r="B10" s="26">
+        <v>0</v>
+      </c>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="27">
-        <v>0</v>
-      </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="27">
+      <c r="B11" s="26">
+        <v>0</v>
+      </c>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="26" t="s">
+      <c r="A12" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="27">
-        <v>0</v>
-      </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="86"/>
-      <c r="E12" s="86"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="27">
+      <c r="B12" s="26">
+        <v>0</v>
+      </c>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="27">
-        <v>0</v>
-      </c>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="27">
+      <c r="B13" s="26">
+        <v>0</v>
+      </c>
+      <c r="C13" s="82"/>
+      <c r="D13" s="82"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
+      <c r="A14" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="27">
-        <v>0</v>
-      </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="27">
+      <c r="B14" s="26">
+        <v>0</v>
+      </c>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="27">
-        <v>0</v>
-      </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="27">
+      <c r="B15" s="26">
+        <v>0</v>
+      </c>
+      <c r="C15" s="82"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="27">
-        <v>0</v>
-      </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="27">
+      <c r="B16" s="26">
+        <v>0</v>
+      </c>
+      <c r="C16" s="82"/>
+      <c r="D16" s="82"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="27">
-        <v>0</v>
-      </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="86"/>
-      <c r="E17" s="86"/>
-      <c r="F17" s="86"/>
-      <c r="G17" s="27">
+      <c r="B17" s="26">
+        <v>0</v>
+      </c>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="27">
-        <v>0</v>
-      </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="86"/>
-      <c r="E18" s="86"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="27">
+      <c r="B18" s="26">
+        <v>0</v>
+      </c>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="27">
-        <v>0</v>
-      </c>
-      <c r="C19" s="27">
-        <v>0</v>
-      </c>
-      <c r="D19" s="27">
-        <v>0</v>
-      </c>
-      <c r="E19" s="27">
-        <v>0</v>
-      </c>
-      <c r="F19" s="27">
-        <v>0</v>
-      </c>
-      <c r="G19" s="87"/>
+      <c r="B19" s="26">
+        <v>0</v>
+      </c>
+      <c r="C19" s="26">
+        <v>0</v>
+      </c>
+      <c r="D19" s="26">
+        <v>0</v>
+      </c>
+      <c r="E19" s="26">
+        <v>0</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0</v>
+      </c>
+      <c r="G19" s="83"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="26" t="s">
+      <c r="A20" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="27">
-        <v>0</v>
-      </c>
-      <c r="C20" s="27">
-        <v>0</v>
-      </c>
-      <c r="D20" s="27">
-        <v>0</v>
-      </c>
-      <c r="E20" s="27">
-        <v>0</v>
-      </c>
-      <c r="F20" s="27">
-        <v>0</v>
-      </c>
-      <c r="G20" s="87"/>
+      <c r="B20" s="26">
+        <v>0</v>
+      </c>
+      <c r="C20" s="26">
+        <v>0</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0</v>
+      </c>
+      <c r="E20" s="26">
+        <v>0</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0</v>
+      </c>
+      <c r="G20" s="83"/>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+      <c r="A21" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="27">
-        <v>0</v>
-      </c>
-      <c r="C21" s="27">
-        <v>0</v>
-      </c>
-      <c r="D21" s="27">
-        <v>0</v>
-      </c>
-      <c r="E21" s="27">
-        <v>0</v>
-      </c>
-      <c r="F21" s="27">
-        <v>0</v>
-      </c>
-      <c r="G21" s="87"/>
+      <c r="B21" s="26">
+        <v>0</v>
+      </c>
+      <c r="C21" s="26">
+        <v>0</v>
+      </c>
+      <c r="D21" s="26">
+        <v>0</v>
+      </c>
+      <c r="E21" s="26">
+        <v>0</v>
+      </c>
+      <c r="F21" s="26">
+        <v>0</v>
+      </c>
+      <c r="G21" s="83"/>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="27">
-        <v>0</v>
-      </c>
-      <c r="C22" s="27">
-        <v>0</v>
-      </c>
-      <c r="D22" s="27">
-        <v>0</v>
-      </c>
-      <c r="E22" s="27">
-        <v>0</v>
-      </c>
-      <c r="F22" s="27">
-        <v>0</v>
-      </c>
-      <c r="G22" s="87"/>
+      <c r="B22" s="26">
+        <v>0</v>
+      </c>
+      <c r="C22" s="26">
+        <v>0</v>
+      </c>
+      <c r="D22" s="26">
+        <v>0</v>
+      </c>
+      <c r="E22" s="26">
+        <v>0</v>
+      </c>
+      <c r="F22" s="26">
+        <v>0</v>
+      </c>
+      <c r="G22" s="83"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="27">
-        <v>0</v>
-      </c>
-      <c r="C23" s="27">
-        <v>0</v>
-      </c>
-      <c r="D23" s="27">
-        <v>0</v>
-      </c>
-      <c r="E23" s="27">
-        <v>0</v>
-      </c>
-      <c r="F23" s="27">
-        <v>0</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="B23" s="26">
+        <v>0</v>
+      </c>
+      <c r="C23" s="26">
+        <v>0</v>
+      </c>
+      <c r="D23" s="26">
+        <v>0</v>
+      </c>
+      <c r="E23" s="26">
+        <v>0</v>
+      </c>
+      <c r="F23" s="26">
+        <v>0</v>
+      </c>
+      <c r="G23" s="83"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="27">
-        <v>0</v>
-      </c>
-      <c r="C24" s="27">
-        <v>0</v>
-      </c>
-      <c r="D24" s="27">
-        <v>0</v>
-      </c>
-      <c r="E24" s="27">
-        <v>0</v>
-      </c>
-      <c r="F24" s="27">
-        <v>0</v>
-      </c>
-      <c r="G24" s="87"/>
+      <c r="B24" s="26">
+        <v>0</v>
+      </c>
+      <c r="C24" s="26">
+        <v>0</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0</v>
+      </c>
+      <c r="E24" s="26">
+        <v>0</v>
+      </c>
+      <c r="F24" s="26">
+        <v>0</v>
+      </c>
+      <c r="G24" s="83"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="27">
-        <v>0</v>
-      </c>
-      <c r="C25" s="27">
-        <v>0</v>
-      </c>
-      <c r="D25" s="27">
-        <v>0</v>
-      </c>
-      <c r="E25" s="27">
-        <v>0</v>
-      </c>
-      <c r="F25" s="27">
-        <v>0</v>
-      </c>
-      <c r="G25" s="87"/>
+      <c r="B25" s="26">
+        <v>0</v>
+      </c>
+      <c r="C25" s="26">
+        <v>0</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0</v>
+      </c>
+      <c r="E25" s="26">
+        <v>0</v>
+      </c>
+      <c r="F25" s="26">
+        <v>0</v>
+      </c>
+      <c r="G25" s="83"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="27">
-        <v>0</v>
-      </c>
-      <c r="C26" s="27">
-        <v>0</v>
-      </c>
-      <c r="D26" s="27">
-        <v>0</v>
-      </c>
-      <c r="E26" s="27">
-        <v>0</v>
-      </c>
-      <c r="F26" s="27">
-        <v>0</v>
-      </c>
-      <c r="G26" s="87"/>
+      <c r="B26" s="26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="26">
+        <v>0</v>
+      </c>
+      <c r="D26" s="26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="26">
+        <v>0</v>
+      </c>
+      <c r="F26" s="26">
+        <v>0</v>
+      </c>
+      <c r="G26" s="83"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="27">
-        <v>0</v>
-      </c>
-      <c r="C27" s="27">
-        <v>0</v>
-      </c>
-      <c r="D27" s="27">
-        <v>0</v>
-      </c>
-      <c r="E27" s="27">
-        <v>0</v>
-      </c>
-      <c r="F27" s="27">
-        <v>0</v>
-      </c>
-      <c r="G27" s="87"/>
+      <c r="B27" s="26">
+        <v>0</v>
+      </c>
+      <c r="C27" s="26">
+        <v>0</v>
+      </c>
+      <c r="D27" s="26">
+        <v>0</v>
+      </c>
+      <c r="E27" s="26">
+        <v>0</v>
+      </c>
+      <c r="F27" s="26">
+        <v>0</v>
+      </c>
+      <c r="G27" s="83"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="yYK3o5/gM3c+4uxOfdZgtFE/y75Vs6BQKEreRaHrmAii1SL2pPcwDEc7H5Stk1UhtzE1QXEQ24RNdoyA2f5R+g==" saltValue="FDA18ox14ZlgB92WP32D8Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="ki5iB0WvAePgC2tXZhgIEXaBICAGpJqNawhOpNVVh/id+Cp/zlmR7UiOrFO84cZcfvNeM5SdJ5GdxLKqdcrV7w==" saltValue="3U/ANC3kUa9XrW1eBCj0bw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -10089,8 +10095,8 @@
   </sheetPr>
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10100,7 +10106,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="str">
+      <c r="A1" s="29" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
       </c>
@@ -10130,23 +10136,23 @@
       <c r="B2" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="88" t="str">
+      <c r="C2" s="84" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="D2" s="88" t="str">
+      <c r="D2" s="84" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="E2" s="88" t="str">
+      <c r="E2" s="84" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="F2" s="88" t="str">
+      <c r="F2" s="84" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="G2" s="88" t="str">
+      <c r="G2" s="84" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
@@ -10156,23 +10162,23 @@
       <c r="B3" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="88" t="str">
+      <c r="C3" s="84" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v/>
       </c>
-      <c r="D3" s="88" t="str">
+      <c r="D3" s="84" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v/>
       </c>
-      <c r="E3" s="88" t="str">
+      <c r="E3" s="84" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v/>
       </c>
-      <c r="F3" s="88" t="str">
+      <c r="F3" s="84" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v/>
       </c>
-      <c r="G3" s="88" t="str">
+      <c r="G3" s="84" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v/>
       </c>
@@ -10182,38 +10188,38 @@
       <c r="B4" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="89"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="89"/>
-      <c r="G5" s="89"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="31"/>
     </row>
     <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
@@ -10222,23 +10228,23 @@
       <c r="B8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="88" t="str">
+      <c r="C8" s="84" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="D8" s="88" t="str">
+      <c r="D8" s="84" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="E8" s="88" t="str">
+      <c r="E8" s="84" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="F8" s="88" t="str">
+      <c r="F8" s="84" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="G8" s="88" t="str">
+      <c r="G8" s="84" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
@@ -10247,23 +10253,23 @@
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="88" t="str">
+      <c r="C9" s="84" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v/>
       </c>
-      <c r="D9" s="88" t="str">
+      <c r="D9" s="84" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v/>
       </c>
-      <c r="E9" s="88" t="str">
+      <c r="E9" s="84" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v/>
       </c>
-      <c r="F9" s="88" t="str">
+      <c r="F9" s="84" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v/>
       </c>
-      <c r="G9" s="88" t="str">
+      <c r="G9" s="84" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v/>
       </c>
@@ -10272,21 +10278,21 @@
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="89"/>
-      <c r="D10" s="89"/>
-      <c r="E10" s="89"/>
-      <c r="F10" s="89"/>
-      <c r="G10" s="89"/>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="85"/>
+      <c r="F10" s="85"/>
+      <c r="G10" s="85"/>
     </row>
     <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
     </row>
     <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="8"/>
@@ -10321,28 +10327,28 @@
       <c r="G13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="25" t="s">
+      <c r="H13" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="25" t="s">
+      <c r="J13" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="25" t="s">
+      <c r="L13" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="25" t="s">
+      <c r="M13" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="25" t="s">
+      <c r="N13" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="25" t="s">
+      <c r="O13" s="24" t="s">
         <v>52</v>
       </c>
     </row>
@@ -10350,73 +10356,73 @@
       <c r="B14" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-      <c r="J14" s="91"/>
-      <c r="K14" s="91"/>
-      <c r="L14" s="91"/>
-      <c r="M14" s="91"/>
-      <c r="N14" s="91"/>
-      <c r="O14" s="91"/>
+      <c r="C14" s="86"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="87"/>
+      <c r="K14" s="87"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
     </row>
     <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="88">
+      <c r="C15" s="84">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="88">
+      <c r="D15" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="88">
+      <c r="F15" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="88">
+      <c r="G15" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="88">
+      <c r="H15" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="88">
+      <c r="I15" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="88">
+      <c r="J15" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="88">
+      <c r="K15" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="88">
+      <c r="L15" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="88">
+      <c r="M15" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N15" s="88">
+      <c r="N15" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="88">
+      <c r="O15" s="84">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -10436,7 +10442,7 @@
       <c r="G17" s="8"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7fkrSauOdeWmfeb7ZREt29bE+c6KVKmuuXCtaOEon7EkZp6uPnjFbEnNnVZf51xvYJZk9gK4PWT/zTdIYYO3HQ==" saltValue="ZSRIkhLCmmKDRLiinbARWg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vLtzm+3yhVPwxGFr+zHqZfon92hLSKB4Qflf/wyjAEsERwR1NCdcRKRKEuaV6vwTw6eF90k6OE7lUGLoS03h/A==" saltValue="xt+bMrwUJB+JNFUcBi0smQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -10461,7 +10467,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="str">
+      <c r="A1" s="29" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
       </c>
@@ -10488,62 +10494,62 @@
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="85"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="89"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="49" t="s">
+      <c r="B5" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="88">
+      <c r="C5" s="84">
         <f>1-SUM(C2:C4)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="84">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="88">
+      <c r="E5" s="84">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F5" s="88">
+      <c r="F5" s="84">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="88">
+      <c r="G5" s="84">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="mUD7/PZ3eKNEYWVY+NTz7aCuZxBv3U8Rw/ep17qEWaVQ8VWIpf9n4wZxP91OzHSC8GW/e2KjjTg7l/F+oK+kHg==" saltValue="gnVW2djXX7qjtZuCEg/R3Q==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HHF0eDejPA1lRHKybU/HTNqvmeutDz8ShHdRIOBpk7roqYQvN84W8XYTQHJX1uzymfj4ohXeeB+YMJPcPFANAA==" saltValue="ZZ3h0JcjnpiKMytuGONaug==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10605,15 +10611,15 @@
       <c r="B2" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="15"/>
@@ -10625,15 +10631,15 @@
       <c r="B4" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="15"/>
@@ -10645,43 +10651,43 @@
       <c r="B6" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="31"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="31"/>
-      <c r="K7" s="31"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -10690,60 +10696,60 @@
       <c r="B10" s="17" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" s="17" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10764,229 +10770,229 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17" style="41" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="41" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="41" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="41"/>
+    <col min="1" max="1" width="17" style="37" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="37" customWidth="1"/>
+    <col min="4" max="16384" width="11.44140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="53" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="54" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="54" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="68" t="str">
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="64" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="53"/>
-      <c r="B3" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="68" t="str">
+      <c r="A3" s="49"/>
+      <c r="B3" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="64" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="53"/>
-      <c r="B4" s="52" t="s">
+      <c r="A4" s="49"/>
+      <c r="B4" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="92"/>
-      <c r="D4" s="92"/>
-      <c r="E4" s="68" t="str">
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="64" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="52" t="s">
+      <c r="A5" s="49"/>
+      <c r="B5" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="68" t="str">
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="64" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="53"/>
-      <c r="B6" s="52" t="s">
+      <c r="A6" s="49"/>
+      <c r="B6" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="68" t="str">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="64" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="53"/>
-      <c r="B7" s="52" t="s">
+      <c r="A7" s="49"/>
+      <c r="B7" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="51"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="92"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="88"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="69"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="65"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="53"/>
-      <c r="B10" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="68"/>
+      <c r="A10" s="49"/>
+      <c r="B10" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="64"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="53"/>
-      <c r="B11" s="52" t="s">
+      <c r="A11" s="49"/>
+      <c r="B11" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="68"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="49"/>
+      <c r="B12" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="68"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="64"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="49"/>
+      <c r="B13" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="68"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="64"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="53"/>
-      <c r="B14" s="52" t="s">
+      <c r="A14" s="49"/>
+      <c r="B14" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="51"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="92"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="88"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="93"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="69" t="str">
+      <c r="C16" s="89"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="65" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="93"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="68" t="str">
+      <c r="A17" s="49"/>
+      <c r="B17" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="89"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="64" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="52" t="s">
+      <c r="A18" s="49"/>
+      <c r="B18" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="93"/>
-      <c r="D18" s="92"/>
-      <c r="E18" s="68" t="str">
+      <c r="C18" s="89"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="64" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="53"/>
-      <c r="B19" s="52" t="s">
+      <c r="A19" s="49"/>
+      <c r="B19" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="93"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="68" t="str">
+      <c r="C19" s="89"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="64" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="53"/>
-      <c r="B20" s="52" t="s">
+      <c r="A20" s="49"/>
+      <c r="B20" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="68" t="str">
+      <c r="C20" s="89"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="64" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="53"/>
-      <c r="B21" s="52" t="s">
+      <c r="A21" s="49"/>
+      <c r="B21" s="48" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="51"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="93"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="89"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OchbtTKV9EyM0CaNI5n9f21XmrHiYnpZKkszN8uRetc5b/BM5itMnLvyz9hKyScPqKdiE+379H8dIuqblmkR9w==" saltValue="nl29BE71yP9MJHgs3wHAGQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="vq8GGOaRJ/GOerAtWxGFZETtNZKg0CexetWZmxch7xxZfD8kikbgXpfHcTl9WJ8jnE0H0jIRnikgCGGsTyAIVg==" saltValue="HrYs8mMt6vkZgEdYoitBSg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -11012,45 +11018,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="54" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="73" t="s">
+      <c r="C1" s="69" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="73" t="s">
+      <c r="D1" s="69" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="69" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="48" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="92"/>
+      <c r="D2" s="88"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="73" t="s">
+      <c r="A3" s="69" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="92"/>
+      <c r="D3" s="88"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="DtcqdSptQl8eDvPnQh6HXJUB0uw2T5/bGoPZQOtEcDb+e0l2maSUgi5DzDOIptLpttNJkwIriOHgFZQKkFy3sA==" saltValue="zugzWepgf+qRWcuDushwJA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KAK9fjAi0tB9w1PUqeUNgZBXNYGF7t08YNHBjS6f2/uFBIh1t5g5f3mTDoaIfBvsASpqT35v7SBH94ZWCC9pQg==" saltValue="GSmV5uySc7GZpAmsyAcl7Q==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -11063,238 +11069,238 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E38"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56" style="59" customWidth="1"/>
-    <col min="2" max="2" width="20" style="42" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="41" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="41" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="41" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="41"/>
+    <col min="1" max="1" width="56" style="55" customWidth="1"/>
+    <col min="2" max="2" width="20" style="38" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="37" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.44140625" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="74" t="str">
+      <c r="B1" s="70" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
         <v>Baseline (2017) coverage</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="56" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="56" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="96">
-        <v>0</v>
-      </c>
-      <c r="C2" s="96">
+      <c r="B2" s="92">
+        <v>0</v>
+      </c>
+      <c r="C2" s="92">
         <v>0.95</v>
       </c>
-      <c r="D2" s="97">
-        <v>1</v>
-      </c>
-      <c r="E2" s="97" t="s">
+      <c r="D2" s="93">
+        <v>1</v>
+      </c>
+      <c r="E2" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="96">
-        <v>0</v>
-      </c>
-      <c r="C3" s="96">
+      <c r="B3" s="92">
+        <v>0</v>
+      </c>
+      <c r="C3" s="92">
         <v>0.95</v>
       </c>
-      <c r="D3" s="97">
-        <v>1</v>
-      </c>
-      <c r="E3" s="97" t="s">
+      <c r="D3" s="93">
+        <v>1</v>
+      </c>
+      <c r="E3" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="A4" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="96">
-        <v>0</v>
-      </c>
-      <c r="C4" s="96">
+      <c r="B4" s="92">
+        <v>0</v>
+      </c>
+      <c r="C4" s="92">
         <v>0.95</v>
       </c>
-      <c r="D4" s="97">
-        <v>1</v>
-      </c>
-      <c r="E4" s="97" t="s">
+      <c r="D4" s="93">
+        <v>1</v>
+      </c>
+      <c r="E4" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="96">
-        <v>0</v>
-      </c>
-      <c r="C5" s="96">
+      <c r="B5" s="92">
+        <v>0</v>
+      </c>
+      <c r="C5" s="92">
         <v>0.95</v>
       </c>
-      <c r="D5" s="97">
-        <v>1</v>
-      </c>
-      <c r="E5" s="97" t="s">
+      <c r="D5" s="93">
+        <v>1</v>
+      </c>
+      <c r="E5" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="55" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="96">
-        <v>0</v>
-      </c>
-      <c r="C6" s="96">
+      <c r="B6" s="92">
+        <v>0</v>
+      </c>
+      <c r="C6" s="92">
         <v>0.95</v>
       </c>
-      <c r="D6" s="97">
-        <v>1</v>
-      </c>
-      <c r="E6" s="97" t="s">
+      <c r="D6" s="93">
+        <v>1</v>
+      </c>
+      <c r="E6" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="96">
-        <v>0</v>
-      </c>
-      <c r="C7" s="96">
+      <c r="B7" s="92">
+        <v>0</v>
+      </c>
+      <c r="C7" s="92">
         <v>0.95</v>
       </c>
-      <c r="D7" s="97">
-        <v>1</v>
-      </c>
-      <c r="E7" s="97" t="s">
+      <c r="D7" s="93">
+        <v>1</v>
+      </c>
+      <c r="E7" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="96">
-        <v>0</v>
-      </c>
-      <c r="C8" s="96">
+      <c r="B8" s="92">
+        <v>0</v>
+      </c>
+      <c r="C8" s="92">
         <v>0.95</v>
       </c>
-      <c r="D8" s="97">
+      <c r="D8" s="93">
         <v>0.75</v>
       </c>
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="96">
-        <v>0</v>
-      </c>
-      <c r="C9" s="96">
+      <c r="B9" s="92">
+        <v>0</v>
+      </c>
+      <c r="C9" s="92">
         <v>0.95</v>
       </c>
-      <c r="D9" s="97">
+      <c r="D9" s="93">
         <v>0.19</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E9" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="71" t="s">
+      <c r="A10" s="67" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="96">
-        <v>0</v>
-      </c>
-      <c r="C10" s="96">
+      <c r="B10" s="92">
+        <v>0</v>
+      </c>
+      <c r="C10" s="92">
         <v>0.95</v>
       </c>
-      <c r="D10" s="97">
+      <c r="D10" s="93">
         <v>0.73</v>
       </c>
-      <c r="E10" s="97" t="s">
+      <c r="E10" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="71" t="s">
+      <c r="A11" s="67" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="96">
-        <v>0</v>
-      </c>
-      <c r="C11" s="96">
+      <c r="B11" s="92">
+        <v>0</v>
+      </c>
+      <c r="C11" s="92">
         <v>0.95</v>
       </c>
-      <c r="D11" s="97">
+      <c r="D11" s="93">
         <v>1.78</v>
       </c>
-      <c r="E11" s="97" t="s">
+      <c r="E11" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="71" t="s">
+      <c r="A12" s="67" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="96">
-        <v>0</v>
-      </c>
-      <c r="C12" s="96">
+      <c r="B12" s="92">
+        <v>0</v>
+      </c>
+      <c r="C12" s="92">
         <v>0.95</v>
       </c>
-      <c r="D12" s="97">
+      <c r="D12" s="93">
         <v>0.24</v>
       </c>
-      <c r="E12" s="97" t="s">
+      <c r="E12" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="71" t="s">
+      <c r="A13" s="67" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="96">
-        <v>0</v>
-      </c>
-      <c r="C13" s="96">
+      <c r="B13" s="92">
+        <v>0</v>
+      </c>
+      <c r="C13" s="92">
         <v>0.95</v>
       </c>
-      <c r="D13" s="97">
+      <c r="D13" s="93">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E13" s="97" t="s">
+      <c r="E13" s="93" t="s">
         <v>202</v>
       </c>
     </row>
@@ -11302,16 +11308,16 @@
       <c r="A14" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="96">
-        <v>0</v>
-      </c>
-      <c r="C14" s="96">
+      <c r="B14" s="92">
+        <v>0</v>
+      </c>
+      <c r="C14" s="92">
         <v>0.95</v>
       </c>
-      <c r="D14" s="97">
+      <c r="D14" s="93">
         <v>0.73</v>
       </c>
-      <c r="E14" s="97" t="s">
+      <c r="E14" s="93" t="s">
         <v>202</v>
       </c>
     </row>
@@ -11319,419 +11325,419 @@
       <c r="A15" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="96">
-        <v>0</v>
-      </c>
-      <c r="C15" s="96">
+      <c r="B15" s="92">
+        <v>0</v>
+      </c>
+      <c r="C15" s="92">
         <v>0.95</v>
       </c>
-      <c r="D15" s="97">
+      <c r="D15" s="93">
         <v>1.78</v>
       </c>
-      <c r="E15" s="97" t="s">
+      <c r="E15" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59" t="s">
+      <c r="A16" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="96">
-        <v>0</v>
-      </c>
-      <c r="C16" s="96">
+      <c r="B16" s="92">
+        <v>0</v>
+      </c>
+      <c r="C16" s="92">
         <v>0.95</v>
       </c>
-      <c r="D16" s="97">
+      <c r="D16" s="93">
         <v>2.06</v>
       </c>
-      <c r="E16" s="97" t="s">
+      <c r="E16" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59" t="s">
+      <c r="A17" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="96">
-        <v>0</v>
-      </c>
-      <c r="C17" s="96">
+      <c r="B17" s="92">
+        <v>0</v>
+      </c>
+      <c r="C17" s="92">
         <v>0.95</v>
       </c>
-      <c r="D17" s="97">
+      <c r="D17" s="93">
         <v>0.25</v>
       </c>
-      <c r="E17" s="97" t="s">
+      <c r="E17" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59" t="s">
+      <c r="A18" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="96">
-        <v>0</v>
-      </c>
-      <c r="C18" s="96">
+      <c r="B18" s="92">
+        <v>0</v>
+      </c>
+      <c r="C18" s="92">
         <v>0.95</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D18" s="94">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;""))</f>
         <v>0</v>
       </c>
-      <c r="E18" s="97" t="s">
+      <c r="E18" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59" t="s">
+      <c r="A19" s="55" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="96">
-        <v>0</v>
-      </c>
-      <c r="C19" s="96">
+      <c r="B19" s="92">
+        <v>0</v>
+      </c>
+      <c r="C19" s="92">
         <v>0.95</v>
       </c>
-      <c r="D19" s="98">
+      <c r="D19" s="94">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;""))</f>
         <v>0</v>
       </c>
-      <c r="E19" s="97" t="s">
+      <c r="E19" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59" t="s">
+      <c r="A20" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="96">
-        <v>0</v>
-      </c>
-      <c r="C20" s="96">
+      <c r="B20" s="92">
+        <v>0</v>
+      </c>
+      <c r="C20" s="92">
         <v>0.95</v>
       </c>
-      <c r="D20" s="98">
+      <c r="D20" s="94">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
         <v>0</v>
       </c>
-      <c r="E20" s="97" t="s">
+      <c r="E20" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="B21" s="96">
-        <v>0</v>
-      </c>
-      <c r="C21" s="96">
+      <c r="B21" s="92">
+        <v>0</v>
+      </c>
+      <c r="C21" s="92">
         <v>0.95</v>
       </c>
-      <c r="D21" s="97">
+      <c r="D21" s="93">
         <v>8.84</v>
       </c>
-      <c r="E21" s="97" t="s">
+      <c r="E21" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="59" t="s">
+      <c r="A22" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="96">
-        <v>0</v>
-      </c>
-      <c r="C22" s="96">
+      <c r="B22" s="92">
+        <v>0</v>
+      </c>
+      <c r="C22" s="92">
         <v>0.95</v>
       </c>
-      <c r="D22" s="97">
+      <c r="D22" s="93">
         <v>50</v>
       </c>
-      <c r="E22" s="97" t="s">
+      <c r="E22" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="59" t="s">
+      <c r="A23" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="96">
-        <v>0</v>
-      </c>
-      <c r="C23" s="96">
+      <c r="B23" s="92">
+        <v>0</v>
+      </c>
+      <c r="C23" s="92">
         <v>0.95</v>
       </c>
-      <c r="D23" s="97">
+      <c r="D23" s="93">
         <v>2.61</v>
       </c>
-      <c r="E23" s="97" t="s">
+      <c r="E23" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="96">
-        <v>0</v>
-      </c>
-      <c r="C24" s="96">
+      <c r="B24" s="92">
+        <v>0</v>
+      </c>
+      <c r="C24" s="92">
         <v>0.95</v>
       </c>
-      <c r="D24" s="97">
-        <v>1</v>
-      </c>
-      <c r="E24" s="97" t="s">
+      <c r="D24" s="93">
+        <v>1</v>
+      </c>
+      <c r="E24" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="59" t="s">
+      <c r="A25" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="96">
-        <v>0</v>
-      </c>
-      <c r="C25" s="96">
+      <c r="B25" s="92">
+        <v>0</v>
+      </c>
+      <c r="C25" s="92">
         <v>0.95</v>
       </c>
-      <c r="D25" s="97">
-        <v>1</v>
-      </c>
-      <c r="E25" s="97" t="s">
+      <c r="D25" s="93">
+        <v>1</v>
+      </c>
+      <c r="E25" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="59" t="s">
+      <c r="A26" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="96">
-        <v>0</v>
-      </c>
-      <c r="C26" s="96">
+      <c r="B26" s="92">
+        <v>0</v>
+      </c>
+      <c r="C26" s="92">
         <v>0.95</v>
       </c>
-      <c r="D26" s="97">
-        <v>1</v>
-      </c>
-      <c r="E26" s="97" t="s">
+      <c r="D26" s="93">
+        <v>1</v>
+      </c>
+      <c r="E26" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="59" t="s">
+      <c r="A27" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="96">
-        <v>0</v>
-      </c>
-      <c r="C27" s="96">
+      <c r="B27" s="92">
+        <v>0</v>
+      </c>
+      <c r="C27" s="92">
         <v>0.95</v>
       </c>
-      <c r="D27" s="97">
+      <c r="D27" s="93">
         <v>2.99</v>
       </c>
-      <c r="E27" s="97" t="s">
+      <c r="E27" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="59" t="s">
+      <c r="A28" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="96">
-        <v>0</v>
-      </c>
-      <c r="C28" s="96">
+      <c r="B28" s="92">
+        <v>0</v>
+      </c>
+      <c r="C28" s="92">
         <v>0.95</v>
       </c>
-      <c r="D28" s="97">
-        <v>1</v>
-      </c>
-      <c r="E28" s="97" t="s">
+      <c r="D28" s="93">
+        <v>1</v>
+      </c>
+      <c r="E28" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="59" t="s">
+      <c r="A29" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="96">
-        <v>0</v>
-      </c>
-      <c r="C29" s="96">
+      <c r="B29" s="92">
+        <v>0</v>
+      </c>
+      <c r="C29" s="92">
         <v>0.95</v>
       </c>
-      <c r="D29" s="97">
+      <c r="D29" s="93">
         <v>48</v>
       </c>
-      <c r="E29" s="97" t="s">
+      <c r="E29" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="96">
-        <v>0</v>
-      </c>
-      <c r="C30" s="96">
+      <c r="B30" s="92">
+        <v>0</v>
+      </c>
+      <c r="C30" s="92">
         <v>0.95</v>
       </c>
-      <c r="D30" s="97">
+      <c r="D30" s="93">
         <v>9.36</v>
       </c>
-      <c r="E30" s="97" t="s">
+      <c r="E30" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="96">
-        <v>0</v>
-      </c>
-      <c r="C31" s="96">
+      <c r="B31" s="92">
+        <v>0</v>
+      </c>
+      <c r="C31" s="92">
         <v>0.95</v>
       </c>
-      <c r="D31" s="97">
+      <c r="D31" s="93">
         <v>0.35</v>
       </c>
-      <c r="E31" s="97" t="s">
+      <c r="E31" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="59" t="s">
+      <c r="A32" s="55" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="96">
-        <v>0</v>
-      </c>
-      <c r="C32" s="96">
+      <c r="B32" s="92">
+        <v>0</v>
+      </c>
+      <c r="C32" s="92">
         <v>0.95</v>
       </c>
-      <c r="D32" s="97">
-        <v>1</v>
-      </c>
-      <c r="E32" s="97" t="s">
+      <c r="D32" s="93">
+        <v>1</v>
+      </c>
+      <c r="E32" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="96">
-        <v>0</v>
-      </c>
-      <c r="C33" s="96">
+      <c r="B33" s="92">
+        <v>0</v>
+      </c>
+      <c r="C33" s="92">
         <v>0.95</v>
       </c>
-      <c r="D33" s="97">
+      <c r="D33" s="93">
         <v>2.8</v>
       </c>
-      <c r="E33" s="97" t="s">
+      <c r="E33" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59" t="s">
+      <c r="A34" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="96">
-        <v>0</v>
-      </c>
-      <c r="C34" s="96">
+      <c r="B34" s="92">
+        <v>0</v>
+      </c>
+      <c r="C34" s="92">
         <v>0.95</v>
       </c>
-      <c r="D34" s="97">
+      <c r="D34" s="93">
         <v>50.26</v>
       </c>
-      <c r="E34" s="97" t="s">
+      <c r="E34" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="96">
-        <v>0</v>
-      </c>
-      <c r="C35" s="96">
+      <c r="B35" s="92">
+        <v>0</v>
+      </c>
+      <c r="C35" s="92">
         <v>0.95</v>
       </c>
-      <c r="D35" s="97">
+      <c r="D35" s="93">
         <v>36.1</v>
       </c>
-      <c r="E35" s="97" t="s">
+      <c r="E35" s="93" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
+    <row r="36" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="96">
-        <v>0</v>
-      </c>
-      <c r="C36" s="96">
+      <c r="B36" s="92">
+        <v>0</v>
+      </c>
+      <c r="C36" s="92">
         <v>0.95</v>
       </c>
-      <c r="D36" s="97">
+      <c r="D36" s="93">
         <v>231.85</v>
       </c>
-      <c r="E36" s="97" t="s">
+      <c r="E36" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="F36" s="41"/>
+      <c r="F36" s="37"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="96">
-        <v>0</v>
-      </c>
-      <c r="C37" s="96">
+      <c r="B37" s="92">
+        <v>0</v>
+      </c>
+      <c r="C37" s="92">
         <v>0.95</v>
       </c>
-      <c r="D37" s="97">
+      <c r="D37" s="93">
         <v>1.5</v>
       </c>
-      <c r="E37" s="97" t="s">
+      <c r="E37" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="59" t="s">
+      <c r="A38" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="96">
-        <v>0</v>
-      </c>
-      <c r="C38" s="96">
+      <c r="B38" s="92">
+        <v>0</v>
+      </c>
+      <c r="C38" s="92">
         <v>0.95</v>
       </c>
-      <c r="D38" s="97">
-        <v>1</v>
-      </c>
-      <c r="E38" s="97" t="s">
+      <c r="D38" s="93">
+        <v>1</v>
+      </c>
+      <c r="E38" s="93" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="42"/>
+      <c r="F39" s="38"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zTGK3pPY3Z1QZlOb+CgqDQJYbn+ZTjc/0W0b4wBkTpjix7Jc4vngEc9vcVGCmp1/zUr/ylW9g+SQk/jozr5mDQ==" saltValue="zjqsnfFG/JWlNk3QWZttvA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="wtv/HM4kAqRqMIiLkAYQC7Lcjqz7qSMF7Fo+6qi+BfjtDEm3dmaJR2oG6r16A5EzV4QlJ3rsskLmp+Scq5MAEw==" saltValue="phkuzZ1elu1sMpGSD/cRFg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
   <sortState ref="A2:D38">
     <sortCondition ref="A2:A38"/>
   </sortState>

--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nick.scott\Desktop\Nutrition\applications\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{64F89FF4-3FFF-6C4B-ACB2-49D1E651D2E8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-324" yWindow="564" windowWidth="25596" windowHeight="15540" tabRatio="961" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -83,12 +84,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0" shapeId="0">
+    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0">
+    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -140,7 +141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0" shapeId="0">
+    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -171,12 +172,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -200,7 +201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -229,12 +230,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -272,7 +273,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="212">
   <si>
     <t>year</t>
   </si>
@@ -902,17 +903,23 @@
   </si>
   <si>
     <t>Children under 5 population</t>
+  </si>
+  <si>
+    <t>Neonatal</t>
+  </si>
+  <si>
+    <t>Causes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
@@ -1178,7 +1185,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2619,7 +2626,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2633,9 +2640,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2656,8 +2660,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2667,29 +2671,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="9" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -2722,7 +2723,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="725" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="725" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2744,8 +2745,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="726" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="4" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="20" fillId="3" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="725" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2769,7 +2770,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -2790,44 +2791,40 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="3" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="1" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="2" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="3" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="725" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -4319,8 +4316,8 @@
     <cellStyle name="Hyperlink" xfId="1445" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1447" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="725"/>
-    <cellStyle name="Normal 3" xfId="726"/>
+    <cellStyle name="Normal 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000A6050000}"/>
+    <cellStyle name="Normal 3" xfId="726" xr:uid="{00000000-0005-0000-0000-0000A7050000}"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -5760,7 +5757,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -5770,375 +5767,375 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="13" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="17" customWidth="1"/>
-    <col min="3" max="16384" width="14.44140625" style="13"/>
+    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="41" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-    </row>
-    <row r="3" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+    </row>
+    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="C3" s="78">
+      <c r="C3" s="76">
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1"/>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="79">
+      <c r="C4" s="77">
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-    </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
+      <c r="B5" s="41"/>
+      <c r="C5" s="41"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="C7" s="77"/>
-    </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C7" s="75"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="72"/>
-    </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+      <c r="C8" s="70"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="73"/>
-    </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
+      <c r="C9" s="71"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="73"/>
-    </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="71"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C11" s="72"/>
-    </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="70"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C12" s="72"/>
-    </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="70"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C13" s="72"/>
-    </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="13"/>
-    </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="C13" s="70"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="10" t="s">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="73"/>
-    </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="10" t="s">
+      <c r="C16" s="71"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C17" s="73"/>
-    </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+      <c r="C17" s="71"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="73"/>
-    </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="10" t="s">
+      <c r="C18" s="71"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="73"/>
-    </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="10" t="s">
+      <c r="C19" s="71"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="76">
+      <c r="C20" s="74">
         <f>1-frac_rice-frac_wheat-frac_maize</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="13"/>
-    </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="21" t="s">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C23" s="73"/>
-    </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="21" t="s">
+      <c r="C23" s="71"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C24" s="73"/>
-    </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="21" t="s">
+      <c r="C24" s="71"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C25" s="73"/>
-    </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="21" t="s">
+      <c r="C25" s="71"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="73"/>
-    </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="21"/>
-      <c r="C27" s="21"/>
-    </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="C26" s="71"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+    </row>
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-    </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="32" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+    </row>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="75"/>
-    </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="32" t="s">
+      <c r="C29" s="73"/>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="75"/>
-    </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="32" t="s">
+      <c r="C30" s="73"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C31" s="75"/>
-    </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="32" t="s">
+      <c r="C31" s="73"/>
+    </row>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="C32" s="75"/>
-    </row>
-    <row r="33" spans="1:5" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B33" s="34" t="s">
+      <c r="C32" s="73"/>
+    </row>
+    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="C33" s="99">
+      <c r="C33" s="96">
         <f>SUM(C29:C32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
-      <c r="C36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="44" t="s">
+      <c r="C36" s="13"/>
+    </row>
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="C37" s="74"/>
-    </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="17" t="s">
+      <c r="C37" s="72"/>
+    </row>
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="18"/>
-      <c r="E38" s="19"/>
-    </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="17" t="s">
+      <c r="C38" s="72"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="18"/>
+    </row>
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="18"/>
-    </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="17" t="s">
+      <c r="C39" s="72"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="74"/>
-    </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="17" t="s">
+      <c r="C40" s="72"/>
+    </row>
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
-      <c r="C41" s="73"/>
-    </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="44" t="s">
+      <c r="C41" s="71"/>
+    </row>
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C42" s="74"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D43" s="18"/>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="C42" s="72"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="18"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="17" t="s">
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="73"/>
-      <c r="D45" s="18"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="17" t="s">
+      <c r="C45" s="71"/>
+      <c r="D45" s="17"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C46" s="73"/>
-      <c r="D46" s="18"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="17" t="s">
+      <c r="C46" s="71"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C47" s="73"/>
-      <c r="D47" s="18"/>
-      <c r="E47" s="19"/>
-    </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="17" t="s">
+      <c r="C47" s="71"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="18"/>
+    </row>
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C48" s="76">
+      <c r="C48" s="74">
         <f>1-term_SGA-preterm_AGA-preterm_SGA</f>
         <v>1</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="18"/>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D49" s="18"/>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="18"/>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="17" t="s">
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="18"/>
-    </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="17" t="s">
+      <c r="C51" s="69"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
-      <c r="C52" s="71"/>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="17" t="s">
+      <c r="C52" s="69"/>
+    </row>
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="C53" s="71"/>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="17" t="s">
+      <c r="C53" s="69"/>
+    </row>
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="71"/>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="17" t="s">
+      <c r="C54" s="69"/>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="71"/>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="C55" s="69"/>
+    </row>
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C58" s="72">
+      <c r="C58" s="70">
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="17" t="s">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="C59" s="72"/>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="70"/>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6152,7 +6149,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6162,78 +6159,78 @@
       <selection activeCell="C2" sqref="C2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="58" customWidth="1"/>
-    <col min="2" max="16384" width="10.77734375" style="58"/>
+    <col min="1" max="1" width="18.6640625" style="56" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="53.4" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+    <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
+      <c r="A1" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="60" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="62" t="s">
+      <c r="C1" s="60" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="62" t="s">
+      <c r="E1" s="60" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="59" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="60"/>
-      <c r="B3" s="60" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="60"/>
-      <c r="B4" s="60" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="58"/>
+      <c r="B3" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="58"/>
+      <c r="B4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="60"/>
-      <c r="B5" s="60" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="58"/>
+      <c r="B5" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="93"/>
-      <c r="D5" s="93"/>
-      <c r="E5" s="93"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="60"/>
-      <c r="B6" s="60" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="58"/>
+      <c r="B6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="93"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="93"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="59"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" s="57"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="4vfqaHkXQm0illqYKouzCmurJk4RujtKyFFMQxAsKPfEFRNgtxfQqY32HbgIsCzQy0lW38GC3qT7UfL+ghc+hw==" saltValue="aMU9mn9ksNfDCOgOXBJMDQ==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
@@ -6242,171 +6239,171 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="53" style="55" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.77734375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" style="37" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="37"/>
+    <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.5" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="93" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="88"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
+      <c r="C2" s="85"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" s="93" t="s">
         <v>207</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="88"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="C3" s="85"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="88"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
+      <c r="C4" s="85"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" s="94" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="88"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="97"/>
-      <c r="B6" s="95"/>
-      <c r="C6" s="95"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="97"/>
-      <c r="B7" s="95"/>
-      <c r="C7" s="95"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="97"/>
-      <c r="B8" s="95"/>
-      <c r="C8" s="95"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="97"/>
-      <c r="B9" s="95"/>
-      <c r="C9" s="95"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="97"/>
-      <c r="B10" s="95"/>
-      <c r="C10" s="95"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="95"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
-      <c r="B12" s="95"/>
-      <c r="C12" s="95"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="95"/>
-      <c r="C13" s="95"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="95"/>
-      <c r="C15" s="95"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
-      <c r="B16" s="95"/>
-      <c r="C16" s="95"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="95"/>
-      <c r="C17" s="95"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
-      <c r="B18" s="95"/>
-      <c r="C18" s="95"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="97"/>
-      <c r="B19" s="95"/>
-      <c r="C19" s="95"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="97"/>
-      <c r="B20" s="95"/>
-      <c r="C20" s="95"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="97"/>
-      <c r="B21" s="95"/>
-      <c r="C21" s="95"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="97"/>
-      <c r="B22" s="95"/>
-      <c r="C22" s="95"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23" s="95"/>
-      <c r="C23" s="95"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B24" s="95"/>
-      <c r="C24" s="95"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="95"/>
-      <c r="C25" s="95"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B26" s="95"/>
-      <c r="C26" s="95"/>
+      <c r="C5" s="85"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" s="94"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" s="94"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" s="94"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="94"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" s="94"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="95"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="95"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="95"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="95"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" s="95"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="95"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" s="95"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" s="95"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" s="94"/>
+      <c r="B19" s="92"/>
+      <c r="C19" s="92"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" s="94"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="92"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" s="94"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" s="94"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="92"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B26" s="92"/>
+      <c r="C26" s="92"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="PMangFikzq0M5EAOg72iqApTDUTvMhdbQO5S6wfWC0CiIHdtaYZMTJHgw2O1hu8hS6T+1247pIGBOLEzVACEog==" saltValue="Q+erzvMozqmvePhRN/autg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
@@ -6417,7 +6414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6427,86 +6424,86 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="30.109375" style="37" customWidth="1"/>
-    <col min="2" max="16384" width="11.44140625" style="37"/>
+    <col min="1" max="1" width="30.1640625" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.5" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="48" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="50"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="50"/>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="50"/>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="50"/>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="50"/>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="50"/>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="50"/>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="50"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="50"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="50"/>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" s="48"/>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" s="48"/>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A12" s="48"/>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A13" s="48"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A14" s="48"/>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A15" s="48"/>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A16" s="48"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" s="48"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="48"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" s="48"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6515,7 +6512,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -6525,9 +6522,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6547,77 +6544,77 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="26">
         <f>'Baseline year population inputs'!C51</f>
         <v>0</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="26">
         <f>'Baseline year population inputs'!C52</f>
         <v>0</v>
       </c>
-      <c r="D2" s="28">
+      <c r="D2" s="26">
         <f>'Baseline year population inputs'!C53</f>
         <v>0</v>
       </c>
-      <c r="E2" s="28">
+      <c r="E2" s="26">
         <f>'Baseline year population inputs'!C54</f>
         <v>0</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="26">
         <f>'Baseline year population inputs'!C55</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="26">
         <f>frac_mam_1month * 2.6</f>
         <v>0</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="26">
         <f>frac_mam_1_5months * 2.6</f>
         <v>0</v>
       </c>
-      <c r="D3" s="28">
+      <c r="D3" s="26">
         <f>frac_mam_6_11months * 2.6</f>
         <v>0</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="26">
         <f>frac_mam_12_23months * 2.6</f>
         <v>0</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="26">
         <f>frac_mam_24_59months * 2.6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <f>frac_sam_1month * 2.6</f>
         <v>0</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="26">
         <f>frac_sam_1_5months * 2.6</f>
         <v>0</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="26">
         <f>frac_sam_6_11months * 2.6</f>
         <v>0</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="26">
         <f>frac_sam_12_23months * 2.6</f>
         <v>0</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="26">
         <f>frac_sam_24_59months * 2.6</f>
         <v>0</v>
       </c>
@@ -6629,7 +6626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6639,19 +6636,19 @@
       <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.77734375" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -6698,1644 +6695,1644 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="101">
-        <v>0</v>
-      </c>
-      <c r="D2" s="101">
+      <c r="C2" s="98">
+        <v>0</v>
+      </c>
+      <c r="D2" s="98">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="E2" s="101">
+      <c r="E2" s="98">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="F2" s="101">
+      <c r="F2" s="98">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="G2" s="101">
+      <c r="G2" s="98">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="H2" s="102">
-        <v>0</v>
-      </c>
-      <c r="I2" s="102">
-        <v>0</v>
-      </c>
-      <c r="J2" s="102">
-        <v>0</v>
-      </c>
-      <c r="K2" s="102">
-        <v>0</v>
-      </c>
-      <c r="L2" s="102">
-        <v>0</v>
-      </c>
-      <c r="M2" s="102">
-        <v>0</v>
-      </c>
-      <c r="N2" s="102">
-        <v>0</v>
-      </c>
-      <c r="O2" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="99">
+        <v>0</v>
+      </c>
+      <c r="I2" s="99">
+        <v>0</v>
+      </c>
+      <c r="J2" s="99">
+        <v>0</v>
+      </c>
+      <c r="K2" s="99">
+        <v>0</v>
+      </c>
+      <c r="L2" s="99">
+        <v>0</v>
+      </c>
+      <c r="M2" s="99">
+        <v>0</v>
+      </c>
+      <c r="N2" s="99">
+        <v>0</v>
+      </c>
+      <c r="O2" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="101">
-        <v>1</v>
-      </c>
-      <c r="D3" s="101">
-        <v>0</v>
-      </c>
-      <c r="E3" s="101">
-        <v>0</v>
-      </c>
-      <c r="F3" s="101">
-        <v>0</v>
-      </c>
-      <c r="G3" s="101">
-        <v>0</v>
-      </c>
-      <c r="H3" s="102">
-        <v>0</v>
-      </c>
-      <c r="I3" s="102">
-        <v>0</v>
-      </c>
-      <c r="J3" s="102">
-        <v>0</v>
-      </c>
-      <c r="K3" s="102">
-        <v>0</v>
-      </c>
-      <c r="L3" s="102">
-        <v>0</v>
-      </c>
-      <c r="M3" s="102">
-        <v>0</v>
-      </c>
-      <c r="N3" s="102">
-        <v>0</v>
-      </c>
-      <c r="O3" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="98">
+        <v>1</v>
+      </c>
+      <c r="D3" s="98">
+        <v>0</v>
+      </c>
+      <c r="E3" s="98">
+        <v>0</v>
+      </c>
+      <c r="F3" s="98">
+        <v>0</v>
+      </c>
+      <c r="G3" s="98">
+        <v>0</v>
+      </c>
+      <c r="H3" s="99">
+        <v>0</v>
+      </c>
+      <c r="I3" s="99">
+        <v>0</v>
+      </c>
+      <c r="J3" s="99">
+        <v>0</v>
+      </c>
+      <c r="K3" s="99">
+        <v>0</v>
+      </c>
+      <c r="L3" s="99">
+        <v>0</v>
+      </c>
+      <c r="M3" s="99">
+        <v>0</v>
+      </c>
+      <c r="N3" s="99">
+        <v>0</v>
+      </c>
+      <c r="O3" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="C4" s="101">
-        <v>1</v>
-      </c>
-      <c r="D4" s="101">
-        <v>0</v>
-      </c>
-      <c r="E4" s="101">
-        <v>0</v>
-      </c>
-      <c r="F4" s="101">
-        <v>0</v>
-      </c>
-      <c r="G4" s="101">
-        <v>0</v>
-      </c>
-      <c r="H4" s="102">
-        <v>0</v>
-      </c>
-      <c r="I4" s="102">
-        <v>0</v>
-      </c>
-      <c r="J4" s="102">
-        <v>0</v>
-      </c>
-      <c r="K4" s="102">
-        <v>0</v>
-      </c>
-      <c r="L4" s="102">
-        <v>0</v>
-      </c>
-      <c r="M4" s="102">
-        <v>0</v>
-      </c>
-      <c r="N4" s="102">
-        <v>0</v>
-      </c>
-      <c r="O4" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="12" t="s">
+      <c r="C4" s="98">
+        <v>1</v>
+      </c>
+      <c r="D4" s="98">
+        <v>0</v>
+      </c>
+      <c r="E4" s="98">
+        <v>0</v>
+      </c>
+      <c r="F4" s="98">
+        <v>0</v>
+      </c>
+      <c r="G4" s="98">
+        <v>0</v>
+      </c>
+      <c r="H4" s="99">
+        <v>0</v>
+      </c>
+      <c r="I4" s="99">
+        <v>0</v>
+      </c>
+      <c r="J4" s="99">
+        <v>0</v>
+      </c>
+      <c r="K4" s="99">
+        <v>0</v>
+      </c>
+      <c r="L4" s="99">
+        <v>0</v>
+      </c>
+      <c r="M4" s="99">
+        <v>0</v>
+      </c>
+      <c r="N4" s="99">
+        <v>0</v>
+      </c>
+      <c r="O4" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="101">
-        <v>0</v>
-      </c>
-      <c r="D5" s="101">
-        <v>0</v>
-      </c>
-      <c r="E5" s="101">
+      <c r="C5" s="98">
+        <v>0</v>
+      </c>
+      <c r="D5" s="98">
+        <v>0</v>
+      </c>
+      <c r="E5" s="98">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="F5" s="101">
+      <c r="F5" s="98">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="G5" s="101">
-        <v>0</v>
-      </c>
-      <c r="H5" s="102">
-        <v>0</v>
-      </c>
-      <c r="I5" s="102">
-        <v>0</v>
-      </c>
-      <c r="J5" s="102">
-        <v>0</v>
-      </c>
-      <c r="K5" s="102">
-        <v>0</v>
-      </c>
-      <c r="L5" s="102">
-        <v>0</v>
-      </c>
-      <c r="M5" s="102">
-        <v>0</v>
-      </c>
-      <c r="N5" s="102">
-        <v>0</v>
-      </c>
-      <c r="O5" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
+      <c r="G5" s="98">
+        <v>0</v>
+      </c>
+      <c r="H5" s="99">
+        <v>0</v>
+      </c>
+      <c r="I5" s="99">
+        <v>0</v>
+      </c>
+      <c r="J5" s="99">
+        <v>0</v>
+      </c>
+      <c r="K5" s="99">
+        <v>0</v>
+      </c>
+      <c r="L5" s="99">
+        <v>0</v>
+      </c>
+      <c r="M5" s="99">
+        <v>0</v>
+      </c>
+      <c r="N5" s="99">
+        <v>0</v>
+      </c>
+      <c r="O5" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C6" s="101">
-        <v>0</v>
-      </c>
-      <c r="D6" s="101">
-        <v>0</v>
-      </c>
-      <c r="E6" s="101">
+      <c r="C6" s="98">
+        <v>0</v>
+      </c>
+      <c r="D6" s="98">
+        <v>0</v>
+      </c>
+      <c r="E6" s="98">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="F6" s="101">
+      <c r="F6" s="98">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="G6" s="101">
+      <c r="G6" s="98">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="H6" s="102">
-        <v>0</v>
-      </c>
-      <c r="I6" s="102">
-        <v>0</v>
-      </c>
-      <c r="J6" s="102">
-        <v>0</v>
-      </c>
-      <c r="K6" s="102">
-        <v>0</v>
-      </c>
-      <c r="L6" s="102">
-        <v>0</v>
-      </c>
-      <c r="M6" s="102">
-        <v>0</v>
-      </c>
-      <c r="N6" s="102">
-        <v>0</v>
-      </c>
-      <c r="O6" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="35" t="s">
+      <c r="H6" s="99">
+        <v>0</v>
+      </c>
+      <c r="I6" s="99">
+        <v>0</v>
+      </c>
+      <c r="J6" s="99">
+        <v>0</v>
+      </c>
+      <c r="K6" s="99">
+        <v>0</v>
+      </c>
+      <c r="L6" s="99">
+        <v>0</v>
+      </c>
+      <c r="M6" s="99">
+        <v>0</v>
+      </c>
+      <c r="N6" s="99">
+        <v>0</v>
+      </c>
+      <c r="O6" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C7" s="101">
+      <c r="C7" s="98">
         <f>diarrhoea_1mo/26</f>
         <v>0</v>
       </c>
-      <c r="D7" s="101">
+      <c r="D7" s="98">
         <f>diarrhoea_1_5mo/26</f>
         <v>0</v>
       </c>
-      <c r="E7" s="101">
+      <c r="E7" s="98">
         <f>diarrhoea_6_11mo/26</f>
         <v>0</v>
       </c>
-      <c r="F7" s="101">
+      <c r="F7" s="98">
         <f>diarrhoea_12_23mo/26</f>
         <v>0</v>
       </c>
-      <c r="G7" s="101">
+      <c r="G7" s="98">
         <f>diarrhoea_24_59mo/26</f>
         <v>0</v>
       </c>
-      <c r="H7" s="102">
-        <v>0</v>
-      </c>
-      <c r="I7" s="102">
-        <v>0</v>
-      </c>
-      <c r="J7" s="102">
-        <v>0</v>
-      </c>
-      <c r="K7" s="102">
-        <v>0</v>
-      </c>
-      <c r="L7" s="102">
-        <v>0</v>
-      </c>
-      <c r="M7" s="102">
-        <v>0</v>
-      </c>
-      <c r="N7" s="102">
-        <v>0</v>
-      </c>
-      <c r="O7" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12" t="s">
+      <c r="H7" s="99">
+        <v>0</v>
+      </c>
+      <c r="I7" s="99">
+        <v>0</v>
+      </c>
+      <c r="J7" s="99">
+        <v>0</v>
+      </c>
+      <c r="K7" s="99">
+        <v>0</v>
+      </c>
+      <c r="L7" s="99">
+        <v>0</v>
+      </c>
+      <c r="M7" s="99">
+        <v>0</v>
+      </c>
+      <c r="N7" s="99">
+        <v>0</v>
+      </c>
+      <c r="O7" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="101">
-        <v>0</v>
-      </c>
-      <c r="D8" s="101">
-        <v>0</v>
-      </c>
-      <c r="E8" s="101">
+      <c r="C8" s="98">
+        <v>0</v>
+      </c>
+      <c r="D8" s="98">
+        <v>0</v>
+      </c>
+      <c r="E8" s="98">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="F8" s="101">
+      <c r="F8" s="98">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="G8" s="101">
-        <v>0</v>
-      </c>
-      <c r="H8" s="102">
-        <v>0</v>
-      </c>
-      <c r="I8" s="102">
-        <v>0</v>
-      </c>
-      <c r="J8" s="102">
-        <v>0</v>
-      </c>
-      <c r="K8" s="102">
-        <v>0</v>
-      </c>
-      <c r="L8" s="102">
-        <v>0</v>
-      </c>
-      <c r="M8" s="102">
-        <v>0</v>
-      </c>
-      <c r="N8" s="102">
-        <v>0</v>
-      </c>
-      <c r="O8" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12" t="s">
+      <c r="G8" s="98">
+        <v>0</v>
+      </c>
+      <c r="H8" s="99">
+        <v>0</v>
+      </c>
+      <c r="I8" s="99">
+        <v>0</v>
+      </c>
+      <c r="J8" s="99">
+        <v>0</v>
+      </c>
+      <c r="K8" s="99">
+        <v>0</v>
+      </c>
+      <c r="L8" s="99">
+        <v>0</v>
+      </c>
+      <c r="M8" s="99">
+        <v>0</v>
+      </c>
+      <c r="N8" s="99">
+        <v>0</v>
+      </c>
+      <c r="O8" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="101">
-        <v>0</v>
-      </c>
-      <c r="D9" s="101">
+      <c r="C9" s="98">
+        <v>0</v>
+      </c>
+      <c r="D9" s="98">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="101">
+      <c r="E9" s="98">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="F9" s="101">
+      <c r="F9" s="98">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="G9" s="101">
+      <c r="G9" s="98">
         <f>IF(ISBLANK(comm_deliv), frac_children_health_facility,1)</f>
         <v>0</v>
       </c>
-      <c r="H9" s="102">
-        <v>0</v>
-      </c>
-      <c r="I9" s="102">
-        <v>0</v>
-      </c>
-      <c r="J9" s="102">
-        <v>0</v>
-      </c>
-      <c r="K9" s="102">
-        <v>0</v>
-      </c>
-      <c r="L9" s="102">
-        <v>0</v>
-      </c>
-      <c r="M9" s="102">
-        <v>0</v>
-      </c>
-      <c r="N9" s="102">
-        <v>0</v>
-      </c>
-      <c r="O9" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
+      <c r="H9" s="99">
+        <v>0</v>
+      </c>
+      <c r="I9" s="99">
+        <v>0</v>
+      </c>
+      <c r="J9" s="99">
+        <v>0</v>
+      </c>
+      <c r="K9" s="99">
+        <v>0</v>
+      </c>
+      <c r="L9" s="99">
+        <v>0</v>
+      </c>
+      <c r="M9" s="99">
+        <v>0</v>
+      </c>
+      <c r="N9" s="99">
+        <v>0</v>
+      </c>
+      <c r="O9" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="101">
-        <v>0</v>
-      </c>
-      <c r="D10" s="101">
-        <v>0</v>
-      </c>
-      <c r="E10" s="101">
-        <v>1</v>
-      </c>
-      <c r="F10" s="101">
-        <v>1</v>
-      </c>
-      <c r="G10" s="101">
-        <v>1</v>
-      </c>
-      <c r="H10" s="102">
-        <v>0</v>
-      </c>
-      <c r="I10" s="102">
-        <v>0</v>
-      </c>
-      <c r="J10" s="102">
-        <v>0</v>
-      </c>
-      <c r="K10" s="102">
-        <v>0</v>
-      </c>
-      <c r="L10" s="102">
-        <v>0</v>
-      </c>
-      <c r="M10" s="102">
-        <v>0</v>
-      </c>
-      <c r="N10" s="102">
-        <v>0</v>
-      </c>
-      <c r="O10" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="35" t="s">
+      <c r="C10" s="98">
+        <v>0</v>
+      </c>
+      <c r="D10" s="98">
+        <v>0</v>
+      </c>
+      <c r="E10" s="98">
+        <v>1</v>
+      </c>
+      <c r="F10" s="98">
+        <v>1</v>
+      </c>
+      <c r="G10" s="98">
+        <v>1</v>
+      </c>
+      <c r="H10" s="99">
+        <v>0</v>
+      </c>
+      <c r="I10" s="99">
+        <v>0</v>
+      </c>
+      <c r="J10" s="99">
+        <v>0</v>
+      </c>
+      <c r="K10" s="99">
+        <v>0</v>
+      </c>
+      <c r="L10" s="99">
+        <v>0</v>
+      </c>
+      <c r="M10" s="99">
+        <v>0</v>
+      </c>
+      <c r="N10" s="99">
+        <v>0</v>
+      </c>
+      <c r="O10" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="33" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="101">
+      <c r="C11" s="98">
         <f>diarrhoea_1mo/26</f>
         <v>0</v>
       </c>
-      <c r="D11" s="101">
+      <c r="D11" s="98">
         <f>diarrhoea_1_5mo/26</f>
         <v>0</v>
       </c>
-      <c r="E11" s="101">
+      <c r="E11" s="98">
         <f>diarrhoea_6_11mo/26</f>
         <v>0</v>
       </c>
-      <c r="F11" s="101">
+      <c r="F11" s="98">
         <f>diarrhoea_12_23mo/26</f>
         <v>0</v>
       </c>
-      <c r="G11" s="101">
+      <c r="G11" s="98">
         <f>diarrhoea_24_59mo/26</f>
         <v>0</v>
       </c>
-      <c r="H11" s="102">
-        <v>0</v>
-      </c>
-      <c r="I11" s="102">
-        <v>0</v>
-      </c>
-      <c r="J11" s="102">
-        <v>0</v>
-      </c>
-      <c r="K11" s="102">
-        <v>0</v>
-      </c>
-      <c r="L11" s="102">
-        <v>0</v>
-      </c>
-      <c r="M11" s="102">
-        <v>0</v>
-      </c>
-      <c r="N11" s="102">
-        <v>0</v>
-      </c>
-      <c r="O11" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12" t="s">
+      <c r="H11" s="99">
+        <v>0</v>
+      </c>
+      <c r="I11" s="99">
+        <v>0</v>
+      </c>
+      <c r="J11" s="99">
+        <v>0</v>
+      </c>
+      <c r="K11" s="99">
+        <v>0</v>
+      </c>
+      <c r="L11" s="99">
+        <v>0</v>
+      </c>
+      <c r="M11" s="99">
+        <v>0</v>
+      </c>
+      <c r="N11" s="99">
+        <v>0</v>
+      </c>
+      <c r="O11" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="101">
-        <v>0</v>
-      </c>
-      <c r="D12" s="101">
-        <v>0</v>
-      </c>
-      <c r="E12" s="101">
-        <v>1</v>
-      </c>
-      <c r="F12" s="101">
-        <v>1</v>
-      </c>
-      <c r="G12" s="101">
-        <v>1</v>
-      </c>
-      <c r="H12" s="102">
-        <v>0</v>
-      </c>
-      <c r="I12" s="102">
-        <v>0</v>
-      </c>
-      <c r="J12" s="102">
-        <v>0</v>
-      </c>
-      <c r="K12" s="102">
-        <v>0</v>
-      </c>
-      <c r="L12" s="102">
-        <v>0</v>
-      </c>
-      <c r="M12" s="102">
-        <v>0</v>
-      </c>
-      <c r="N12" s="102">
-        <v>0</v>
-      </c>
-      <c r="O12" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="35"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="98">
+        <v>0</v>
+      </c>
+      <c r="D12" s="98">
+        <v>0</v>
+      </c>
+      <c r="E12" s="98">
+        <v>1</v>
+      </c>
+      <c r="F12" s="98">
+        <v>1</v>
+      </c>
+      <c r="G12" s="98">
+        <v>1</v>
+      </c>
+      <c r="H12" s="99">
+        <v>0</v>
+      </c>
+      <c r="I12" s="99">
+        <v>0</v>
+      </c>
+      <c r="J12" s="99">
+        <v>0</v>
+      </c>
+      <c r="K12" s="99">
+        <v>0</v>
+      </c>
+      <c r="L12" s="99">
+        <v>0</v>
+      </c>
+      <c r="M12" s="99">
+        <v>0</v>
+      </c>
+      <c r="N12" s="99">
+        <v>0</v>
+      </c>
+      <c r="O12" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="33"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="102">
-        <v>0</v>
-      </c>
-      <c r="D14" s="102">
-        <v>0</v>
-      </c>
-      <c r="E14" s="102">
-        <v>0</v>
-      </c>
-      <c r="F14" s="102">
-        <v>0</v>
-      </c>
-      <c r="G14" s="102">
-        <v>0</v>
-      </c>
-      <c r="H14" s="101">
+      <c r="C14" s="99">
+        <v>0</v>
+      </c>
+      <c r="D14" s="99">
+        <v>0</v>
+      </c>
+      <c r="E14" s="99">
+        <v>0</v>
+      </c>
+      <c r="F14" s="99">
+        <v>0</v>
+      </c>
+      <c r="G14" s="99">
+        <v>0</v>
+      </c>
+      <c r="H14" s="98">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="I14" s="101">
+      <c r="I14" s="98">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="J14" s="101">
+      <c r="J14" s="98">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="K14" s="101">
+      <c r="K14" s="98">
         <f>food_insecure</f>
         <v>0</v>
       </c>
-      <c r="L14" s="102">
-        <v>0</v>
-      </c>
-      <c r="M14" s="102">
-        <v>0</v>
-      </c>
-      <c r="N14" s="102">
-        <v>0</v>
-      </c>
-      <c r="O14" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="99">
+        <v>0</v>
+      </c>
+      <c r="M14" s="99">
+        <v>0</v>
+      </c>
+      <c r="N14" s="99">
+        <v>0</v>
+      </c>
+      <c r="O14" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="102">
-        <v>0</v>
-      </c>
-      <c r="D15" s="102">
-        <v>0</v>
-      </c>
-      <c r="E15" s="102">
-        <v>0</v>
-      </c>
-      <c r="F15" s="102">
-        <v>0</v>
-      </c>
-      <c r="G15" s="102">
-        <v>0</v>
-      </c>
-      <c r="H15" s="101">
-        <v>1</v>
-      </c>
-      <c r="I15" s="101">
-        <v>1</v>
-      </c>
-      <c r="J15" s="101">
-        <v>1</v>
-      </c>
-      <c r="K15" s="101">
-        <v>1</v>
-      </c>
-      <c r="L15" s="102">
-        <v>0</v>
-      </c>
-      <c r="M15" s="102">
-        <v>0</v>
-      </c>
-      <c r="N15" s="102">
-        <v>0</v>
-      </c>
-      <c r="O15" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="99">
+        <v>0</v>
+      </c>
+      <c r="D15" s="99">
+        <v>0</v>
+      </c>
+      <c r="E15" s="99">
+        <v>0</v>
+      </c>
+      <c r="F15" s="99">
+        <v>0</v>
+      </c>
+      <c r="G15" s="99">
+        <v>0</v>
+      </c>
+      <c r="H15" s="98">
+        <v>1</v>
+      </c>
+      <c r="I15" s="98">
+        <v>1</v>
+      </c>
+      <c r="J15" s="98">
+        <v>1</v>
+      </c>
+      <c r="K15" s="98">
+        <v>1</v>
+      </c>
+      <c r="L15" s="99">
+        <v>0</v>
+      </c>
+      <c r="M15" s="99">
+        <v>0</v>
+      </c>
+      <c r="N15" s="99">
+        <v>0</v>
+      </c>
+      <c r="O15" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4"/>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="C16" s="102">
-        <v>0</v>
-      </c>
-      <c r="D16" s="102">
-        <v>0</v>
-      </c>
-      <c r="E16" s="102">
-        <v>0</v>
-      </c>
-      <c r="F16" s="102">
-        <v>0</v>
-      </c>
-      <c r="G16" s="102">
-        <v>0</v>
-      </c>
-      <c r="H16" s="101">
+      <c r="C16" s="99">
+        <v>0</v>
+      </c>
+      <c r="D16" s="99">
+        <v>0</v>
+      </c>
+      <c r="E16" s="99">
+        <v>0</v>
+      </c>
+      <c r="F16" s="99">
+        <v>0</v>
+      </c>
+      <c r="G16" s="99">
+        <v>0</v>
+      </c>
+      <c r="H16" s="98">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="I16" s="101">
+      <c r="I16" s="98">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="J16" s="101">
+      <c r="J16" s="98">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="K16" s="101">
+      <c r="K16" s="98">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
-      <c r="L16" s="102">
-        <v>0</v>
-      </c>
-      <c r="M16" s="102">
-        <v>0</v>
-      </c>
-      <c r="N16" s="102">
-        <v>0</v>
-      </c>
-      <c r="O16" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="99">
+        <v>0</v>
+      </c>
+      <c r="M16" s="99">
+        <v>0</v>
+      </c>
+      <c r="N16" s="99">
+        <v>0</v>
+      </c>
+      <c r="O16" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4"/>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="C17" s="102">
-        <v>0</v>
-      </c>
-      <c r="D17" s="102">
-        <v>0</v>
-      </c>
-      <c r="E17" s="102">
-        <v>0</v>
-      </c>
-      <c r="F17" s="102">
-        <v>0</v>
-      </c>
-      <c r="G17" s="102">
-        <v>0</v>
-      </c>
-      <c r="H17" s="101">
+      <c r="C17" s="99">
+        <v>0</v>
+      </c>
+      <c r="D17" s="99">
+        <v>0</v>
+      </c>
+      <c r="E17" s="99">
+        <v>0</v>
+      </c>
+      <c r="F17" s="99">
+        <v>0</v>
+      </c>
+      <c r="G17" s="99">
+        <v>0</v>
+      </c>
+      <c r="H17" s="98">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="I17" s="101">
+      <c r="I17" s="98">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="J17" s="101">
+      <c r="J17" s="98">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="K17" s="101">
+      <c r="K17" s="98">
         <f>frac_PW_health_facility</f>
         <v>0</v>
       </c>
-      <c r="L17" s="102">
-        <v>0</v>
-      </c>
-      <c r="M17" s="102">
-        <v>0</v>
-      </c>
-      <c r="N17" s="102">
-        <v>0</v>
-      </c>
-      <c r="O17" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="35" t="s">
+      <c r="L17" s="99">
+        <v>0</v>
+      </c>
+      <c r="M17" s="99">
+        <v>0</v>
+      </c>
+      <c r="N17" s="99">
+        <v>0</v>
+      </c>
+      <c r="O17" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="102">
-        <v>0</v>
-      </c>
-      <c r="D18" s="102">
-        <v>0</v>
-      </c>
-      <c r="E18" s="102">
-        <v>0</v>
-      </c>
-      <c r="F18" s="102">
-        <v>0</v>
-      </c>
-      <c r="G18" s="102">
-        <v>0</v>
-      </c>
-      <c r="H18" s="101">
+      <c r="C18" s="99">
+        <v>0</v>
+      </c>
+      <c r="D18" s="99">
+        <v>0</v>
+      </c>
+      <c r="E18" s="99">
+        <v>0</v>
+      </c>
+      <c r="F18" s="99">
+        <v>0</v>
+      </c>
+      <c r="G18" s="99">
+        <v>0</v>
+      </c>
+      <c r="H18" s="98">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="I18" s="101">
+      <c r="I18" s="98">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="J18" s="101">
+      <c r="J18" s="98">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="K18" s="101">
+      <c r="K18" s="98">
         <f>frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="L18" s="102">
-        <v>0</v>
-      </c>
-      <c r="M18" s="102">
-        <v>0</v>
-      </c>
-      <c r="N18" s="102">
-        <v>0</v>
-      </c>
-      <c r="O18" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="12" t="s">
+      <c r="L18" s="99">
+        <v>0</v>
+      </c>
+      <c r="M18" s="99">
+        <v>0</v>
+      </c>
+      <c r="N18" s="99">
+        <v>0</v>
+      </c>
+      <c r="O18" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="102">
-        <v>0</v>
-      </c>
-      <c r="D19" s="102">
-        <v>0</v>
-      </c>
-      <c r="E19" s="102">
-        <v>0</v>
-      </c>
-      <c r="F19" s="102">
-        <v>0</v>
-      </c>
-      <c r="G19" s="102">
-        <v>0</v>
-      </c>
-      <c r="H19" s="101">
-        <v>1</v>
-      </c>
-      <c r="I19" s="101">
-        <v>1</v>
-      </c>
-      <c r="J19" s="101">
-        <v>1</v>
-      </c>
-      <c r="K19" s="101">
-        <v>1</v>
-      </c>
-      <c r="L19" s="102">
-        <v>0</v>
-      </c>
-      <c r="M19" s="102">
-        <v>0</v>
-      </c>
-      <c r="N19" s="102">
-        <v>0</v>
-      </c>
-      <c r="O19" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
+      <c r="C19" s="99">
+        <v>0</v>
+      </c>
+      <c r="D19" s="99">
+        <v>0</v>
+      </c>
+      <c r="E19" s="99">
+        <v>0</v>
+      </c>
+      <c r="F19" s="99">
+        <v>0</v>
+      </c>
+      <c r="G19" s="99">
+        <v>0</v>
+      </c>
+      <c r="H19" s="98">
+        <v>1</v>
+      </c>
+      <c r="I19" s="98">
+        <v>1</v>
+      </c>
+      <c r="J19" s="98">
+        <v>1</v>
+      </c>
+      <c r="K19" s="98">
+        <v>1</v>
+      </c>
+      <c r="L19" s="99">
+        <v>0</v>
+      </c>
+      <c r="M19" s="99">
+        <v>0</v>
+      </c>
+      <c r="N19" s="99">
+        <v>0</v>
+      </c>
+      <c r="O19" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="102">
-        <v>0</v>
-      </c>
-      <c r="D20" s="102">
-        <v>0</v>
-      </c>
-      <c r="E20" s="102">
-        <v>0</v>
-      </c>
-      <c r="F20" s="102">
-        <v>0</v>
-      </c>
-      <c r="G20" s="102">
-        <v>0</v>
-      </c>
-      <c r="H20" s="101">
-        <v>1</v>
-      </c>
-      <c r="I20" s="101">
-        <v>1</v>
-      </c>
-      <c r="J20" s="101">
-        <v>1</v>
-      </c>
-      <c r="K20" s="101">
-        <v>1</v>
-      </c>
-      <c r="L20" s="102">
-        <v>0</v>
-      </c>
-      <c r="M20" s="102">
-        <v>0</v>
-      </c>
-      <c r="N20" s="102">
-        <v>0</v>
-      </c>
-      <c r="O20" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="35" t="s">
+      <c r="C20" s="99">
+        <v>0</v>
+      </c>
+      <c r="D20" s="99">
+        <v>0</v>
+      </c>
+      <c r="E20" s="99">
+        <v>0</v>
+      </c>
+      <c r="F20" s="99">
+        <v>0</v>
+      </c>
+      <c r="G20" s="99">
+        <v>0</v>
+      </c>
+      <c r="H20" s="98">
+        <v>1</v>
+      </c>
+      <c r="I20" s="98">
+        <v>1</v>
+      </c>
+      <c r="J20" s="98">
+        <v>1</v>
+      </c>
+      <c r="K20" s="98">
+        <v>1</v>
+      </c>
+      <c r="L20" s="99">
+        <v>0</v>
+      </c>
+      <c r="M20" s="99">
+        <v>0</v>
+      </c>
+      <c r="N20" s="99">
+        <v>0</v>
+      </c>
+      <c r="O20" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="102">
-        <v>0</v>
-      </c>
-      <c r="D21" s="102">
-        <v>0</v>
-      </c>
-      <c r="E21" s="102">
-        <v>0</v>
-      </c>
-      <c r="F21" s="102">
-        <v>0</v>
-      </c>
-      <c r="G21" s="102">
-        <v>0</v>
-      </c>
-      <c r="H21" s="101">
+      <c r="C21" s="99">
+        <v>0</v>
+      </c>
+      <c r="D21" s="99">
+        <v>0</v>
+      </c>
+      <c r="E21" s="99">
+        <v>0</v>
+      </c>
+      <c r="F21" s="99">
+        <v>0</v>
+      </c>
+      <c r="G21" s="99">
+        <v>0</v>
+      </c>
+      <c r="H21" s="98">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="I21" s="101">
+      <c r="I21" s="98">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="J21" s="101">
+      <c r="J21" s="98">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="K21" s="101">
+      <c r="K21" s="98">
         <f>1</f>
         <v>1</v>
       </c>
-      <c r="L21" s="102">
-        <v>0</v>
-      </c>
-      <c r="M21" s="102">
-        <v>0</v>
-      </c>
-      <c r="N21" s="102">
-        <v>0</v>
-      </c>
-      <c r="O21" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="35"/>
-    </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="66" t="s">
+      <c r="L21" s="99">
+        <v>0</v>
+      </c>
+      <c r="M21" s="99">
+        <v>0</v>
+      </c>
+      <c r="N21" s="99">
+        <v>0</v>
+      </c>
+      <c r="O21" s="99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="33"/>
+    </row>
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="67" t="s">
+      <c r="B23" s="65" t="s">
         <v>198</v>
       </c>
-      <c r="C23" s="102">
-        <v>0</v>
-      </c>
-      <c r="D23" s="102">
-        <v>0</v>
-      </c>
-      <c r="E23" s="102">
-        <v>0</v>
-      </c>
-      <c r="F23" s="102">
-        <v>0</v>
-      </c>
-      <c r="G23" s="102">
-        <v>0</v>
-      </c>
-      <c r="H23" s="102">
-        <v>0</v>
-      </c>
-      <c r="I23" s="102">
-        <v>0</v>
-      </c>
-      <c r="J23" s="102">
-        <v>0</v>
-      </c>
-      <c r="K23" s="102">
-        <v>0</v>
-      </c>
-      <c r="L23" s="101">
+      <c r="C23" s="99">
+        <v>0</v>
+      </c>
+      <c r="D23" s="99">
+        <v>0</v>
+      </c>
+      <c r="E23" s="99">
+        <v>0</v>
+      </c>
+      <c r="F23" s="99">
+        <v>0</v>
+      </c>
+      <c r="G23" s="99">
+        <v>0</v>
+      </c>
+      <c r="H23" s="99">
+        <v>0</v>
+      </c>
+      <c r="I23" s="99">
+        <v>0</v>
+      </c>
+      <c r="J23" s="99">
+        <v>0</v>
+      </c>
+      <c r="K23" s="99">
+        <v>0</v>
+      </c>
+      <c r="L23" s="98">
         <f>famplan_unmet_need</f>
         <v>0</v>
       </c>
-      <c r="M23" s="101">
+      <c r="M23" s="98">
         <f>famplan_unmet_need</f>
         <v>0</v>
       </c>
-      <c r="N23" s="101">
+      <c r="N23" s="98">
         <f>famplan_unmet_need</f>
         <v>0</v>
       </c>
-      <c r="O23" s="101">
+      <c r="O23" s="98">
         <f>famplan_unmet_need</f>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="67" t="s">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="C24" s="102">
-        <v>0</v>
-      </c>
-      <c r="D24" s="102">
-        <v>0</v>
-      </c>
-      <c r="E24" s="102">
-        <v>0</v>
-      </c>
-      <c r="F24" s="102">
-        <v>0</v>
-      </c>
-      <c r="G24" s="102">
-        <v>0</v>
-      </c>
-      <c r="H24" s="102">
-        <v>0</v>
-      </c>
-      <c r="I24" s="102">
-        <v>0</v>
-      </c>
-      <c r="J24" s="102">
-        <v>0</v>
-      </c>
-      <c r="K24" s="102">
-        <v>0</v>
-      </c>
-      <c r="L24" s="101">
+      <c r="C24" s="99">
+        <v>0</v>
+      </c>
+      <c r="D24" s="99">
+        <v>0</v>
+      </c>
+      <c r="E24" s="99">
+        <v>0</v>
+      </c>
+      <c r="F24" s="99">
+        <v>0</v>
+      </c>
+      <c r="G24" s="99">
+        <v>0</v>
+      </c>
+      <c r="H24" s="99">
+        <v>0</v>
+      </c>
+      <c r="I24" s="99">
+        <v>0</v>
+      </c>
+      <c r="J24" s="99">
+        <v>0</v>
+      </c>
+      <c r="K24" s="99">
+        <v>0</v>
+      </c>
+      <c r="L24" s="98">
         <f>(1-food_insecure)*(0.49)*(1-school_attendance) + food_insecure*(0.7)*(1-school_attendance)</f>
         <v>0.49</v>
       </c>
-      <c r="M24" s="101">
+      <c r="M24" s="98">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
-      <c r="N24" s="101">
+      <c r="N24" s="98">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
-      <c r="O24" s="101">
+      <c r="O24" s="98">
         <f>(1-food_insecure)*(0.49)+food_insecure*(0.7)</f>
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="67" t="s">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="C25" s="102">
-        <v>0</v>
-      </c>
-      <c r="D25" s="102">
-        <v>0</v>
-      </c>
-      <c r="E25" s="102">
-        <v>0</v>
-      </c>
-      <c r="F25" s="102">
-        <v>0</v>
-      </c>
-      <c r="G25" s="102">
-        <v>0</v>
-      </c>
-      <c r="H25" s="102">
-        <v>0</v>
-      </c>
-      <c r="I25" s="102">
-        <v>0</v>
-      </c>
-      <c r="J25" s="102">
-        <v>0</v>
-      </c>
-      <c r="K25" s="102">
-        <v>0</v>
-      </c>
-      <c r="L25" s="101">
+      <c r="C25" s="99">
+        <v>0</v>
+      </c>
+      <c r="D25" s="99">
+        <v>0</v>
+      </c>
+      <c r="E25" s="99">
+        <v>0</v>
+      </c>
+      <c r="F25" s="99">
+        <v>0</v>
+      </c>
+      <c r="G25" s="99">
+        <v>0</v>
+      </c>
+      <c r="H25" s="99">
+        <v>0</v>
+      </c>
+      <c r="I25" s="99">
+        <v>0</v>
+      </c>
+      <c r="J25" s="99">
+        <v>0</v>
+      </c>
+      <c r="K25" s="99">
+        <v>0</v>
+      </c>
+      <c r="L25" s="98">
         <f>(1-food_insecure)*(0.21)*(1-school_attendance) + food_insecure*(0.3)*(1-school_attendance)</f>
         <v>0.21</v>
       </c>
-      <c r="M25" s="101">
+      <c r="M25" s="98">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
-      <c r="N25" s="101">
+      <c r="N25" s="98">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
-      <c r="O25" s="101">
+      <c r="O25" s="98">
         <f>(1-food_insecure)*(0.21)+food_insecure*(0.3)</f>
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="67" t="s">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="C26" s="102">
-        <v>0</v>
-      </c>
-      <c r="D26" s="102">
-        <v>0</v>
-      </c>
-      <c r="E26" s="102">
-        <v>0</v>
-      </c>
-      <c r="F26" s="102">
-        <v>0</v>
-      </c>
-      <c r="G26" s="102">
-        <v>0</v>
-      </c>
-      <c r="H26" s="102">
-        <v>0</v>
-      </c>
-      <c r="I26" s="102">
-        <v>0</v>
-      </c>
-      <c r="J26" s="102">
-        <v>0</v>
-      </c>
-      <c r="K26" s="102">
-        <v>0</v>
-      </c>
-      <c r="L26" s="101">
+      <c r="C26" s="99">
+        <v>0</v>
+      </c>
+      <c r="D26" s="99">
+        <v>0</v>
+      </c>
+      <c r="E26" s="99">
+        <v>0</v>
+      </c>
+      <c r="F26" s="99">
+        <v>0</v>
+      </c>
+      <c r="G26" s="99">
+        <v>0</v>
+      </c>
+      <c r="H26" s="99">
+        <v>0</v>
+      </c>
+      <c r="I26" s="99">
+        <v>0</v>
+      </c>
+      <c r="J26" s="99">
+        <v>0</v>
+      </c>
+      <c r="K26" s="99">
+        <v>0</v>
+      </c>
+      <c r="L26" s="98">
         <f>(1-food_insecure)*(0.3)*(1-school_attendance)</f>
         <v>0.3</v>
       </c>
-      <c r="M26" s="101">
+      <c r="M26" s="98">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
-      <c r="N26" s="101">
+      <c r="N26" s="98">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
-      <c r="O26" s="101">
+      <c r="O26" s="98">
         <f>(1-food_insecure)*(0.3)</f>
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="67" t="s">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="C27" s="102">
-        <v>0</v>
-      </c>
-      <c r="D27" s="102">
-        <v>0</v>
-      </c>
-      <c r="E27" s="102">
-        <v>0</v>
-      </c>
-      <c r="F27" s="102">
-        <v>0</v>
-      </c>
-      <c r="G27" s="102">
-        <v>0</v>
-      </c>
-      <c r="H27" s="102">
-        <v>0</v>
-      </c>
-      <c r="I27" s="102">
-        <v>0</v>
-      </c>
-      <c r="J27" s="102">
-        <v>0</v>
-      </c>
-      <c r="K27" s="102">
-        <v>0</v>
-      </c>
-      <c r="L27" s="101">
+      <c r="C27" s="99">
+        <v>0</v>
+      </c>
+      <c r="D27" s="99">
+        <v>0</v>
+      </c>
+      <c r="E27" s="99">
+        <v>0</v>
+      </c>
+      <c r="F27" s="99">
+        <v>0</v>
+      </c>
+      <c r="G27" s="99">
+        <v>0</v>
+      </c>
+      <c r="H27" s="99">
+        <v>0</v>
+      </c>
+      <c r="I27" s="99">
+        <v>0</v>
+      </c>
+      <c r="J27" s="99">
+        <v>0</v>
+      </c>
+      <c r="K27" s="99">
+        <v>0</v>
+      </c>
+      <c r="L27" s="98">
         <f>(1-food_insecure)*1*school_attendance + food_insecure*1*school_attendance</f>
         <v>0</v>
       </c>
-      <c r="M27" s="101">
-        <v>0</v>
-      </c>
-      <c r="N27" s="101">
-        <v>0</v>
-      </c>
-      <c r="O27" s="101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="12"/>
+      <c r="M27" s="98">
+        <v>0</v>
+      </c>
+      <c r="N27" s="98">
+        <v>0</v>
+      </c>
+      <c r="O27" s="98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+    </row>
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="101">
-        <v>0</v>
-      </c>
-      <c r="D29" s="101">
-        <v>0</v>
-      </c>
-      <c r="E29" s="101">
+      <c r="C29" s="98">
+        <v>0</v>
+      </c>
+      <c r="D29" s="98">
+        <v>0</v>
+      </c>
+      <c r="E29" s="98">
         <f t="shared" ref="E29:O29" si="0">frac_maize</f>
         <v>0</v>
       </c>
-      <c r="F29" s="101">
+      <c r="F29" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G29" s="101">
+      <c r="G29" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="101">
+      <c r="H29" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I29" s="101">
+      <c r="I29" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J29" s="101">
+      <c r="J29" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K29" s="101">
+      <c r="K29" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L29" s="101">
+      <c r="L29" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M29" s="101">
+      <c r="M29" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N29" s="101">
+      <c r="N29" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O29" s="101">
+      <c r="O29" s="98">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="12" t="s">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C30" s="101">
-        <v>0</v>
-      </c>
-      <c r="D30" s="101">
-        <v>0</v>
-      </c>
-      <c r="E30" s="101">
+      <c r="C30" s="98">
+        <v>0</v>
+      </c>
+      <c r="D30" s="98">
+        <v>0</v>
+      </c>
+      <c r="E30" s="98">
         <f t="shared" ref="E30:O30" si="1">frac_rice</f>
         <v>0</v>
       </c>
-      <c r="F30" s="101">
+      <c r="F30" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G30" s="101">
+      <c r="G30" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H30" s="101">
+      <c r="H30" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="101">
+      <c r="I30" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J30" s="101">
+      <c r="J30" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K30" s="101">
+      <c r="K30" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L30" s="101">
+      <c r="L30" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="M30" s="101">
+      <c r="M30" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="N30" s="101">
+      <c r="N30" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O30" s="101">
+      <c r="O30" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="12" t="s">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C31" s="101">
-        <v>0</v>
-      </c>
-      <c r="D31" s="101">
-        <v>0</v>
-      </c>
-      <c r="E31" s="101">
+      <c r="C31" s="98">
+        <v>0</v>
+      </c>
+      <c r="D31" s="98">
+        <v>0</v>
+      </c>
+      <c r="E31" s="98">
         <f t="shared" ref="E31:O31" si="2">frac_wheat</f>
         <v>0</v>
       </c>
-      <c r="F31" s="101">
+      <c r="F31" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G31" s="101">
+      <c r="G31" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H31" s="101">
+      <c r="H31" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I31" s="101">
+      <c r="I31" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="J31" s="101">
+      <c r="J31" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K31" s="101">
+      <c r="K31" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L31" s="101">
+      <c r="L31" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="M31" s="101">
+      <c r="M31" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="N31" s="101">
+      <c r="N31" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O31" s="101">
+      <c r="O31" s="98">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="12" t="s">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="101">
-        <v>0</v>
-      </c>
-      <c r="D32" s="101">
-        <v>0</v>
-      </c>
-      <c r="E32" s="101">
-        <v>1</v>
-      </c>
-      <c r="F32" s="101">
-        <v>1</v>
-      </c>
-      <c r="G32" s="101">
-        <v>1</v>
-      </c>
-      <c r="H32" s="101">
-        <v>1</v>
-      </c>
-      <c r="I32" s="101">
-        <v>1</v>
-      </c>
-      <c r="J32" s="101">
-        <v>1</v>
-      </c>
-      <c r="K32" s="101">
-        <v>1</v>
-      </c>
-      <c r="L32" s="101">
-        <v>1</v>
-      </c>
-      <c r="M32" s="101">
-        <v>1</v>
-      </c>
-      <c r="N32" s="101">
-        <v>1</v>
-      </c>
-      <c r="O32" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="12" t="s">
+      <c r="C32" s="98">
+        <v>0</v>
+      </c>
+      <c r="D32" s="98">
+        <v>0</v>
+      </c>
+      <c r="E32" s="98">
+        <v>1</v>
+      </c>
+      <c r="F32" s="98">
+        <v>1</v>
+      </c>
+      <c r="G32" s="98">
+        <v>1</v>
+      </c>
+      <c r="H32" s="98">
+        <v>1</v>
+      </c>
+      <c r="I32" s="98">
+        <v>1</v>
+      </c>
+      <c r="J32" s="98">
+        <v>1</v>
+      </c>
+      <c r="K32" s="98">
+        <v>1</v>
+      </c>
+      <c r="L32" s="98">
+        <v>1</v>
+      </c>
+      <c r="M32" s="98">
+        <v>1</v>
+      </c>
+      <c r="N32" s="98">
+        <v>1</v>
+      </c>
+      <c r="O32" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C33" s="101">
+      <c r="C33" s="98">
         <f t="shared" ref="C33:O33" si="3">frac_malaria_risk</f>
         <v>0</v>
       </c>
-      <c r="D33" s="101">
+      <c r="D33" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="E33" s="101">
+      <c r="E33" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="F33" s="101">
+      <c r="F33" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="101">
+      <c r="G33" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="H33" s="101">
+      <c r="H33" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="I33" s="101">
+      <c r="I33" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="J33" s="101">
+      <c r="J33" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K33" s="101">
+      <c r="K33" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L33" s="101">
+      <c r="L33" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M33" s="101">
+      <c r="M33" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N33" s="101">
+      <c r="N33" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O33" s="101">
+      <c r="O33" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="35" t="s">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="33" t="s">
         <v>83</v>
       </c>
-      <c r="C34" s="101">
-        <v>1</v>
-      </c>
-      <c r="D34" s="101">
-        <v>1</v>
-      </c>
-      <c r="E34" s="101">
-        <v>1</v>
-      </c>
-      <c r="F34" s="101">
-        <v>1</v>
-      </c>
-      <c r="G34" s="101">
-        <v>1</v>
-      </c>
-      <c r="H34" s="101">
-        <v>1</v>
-      </c>
-      <c r="I34" s="101">
-        <v>1</v>
-      </c>
-      <c r="J34" s="101">
-        <v>1</v>
-      </c>
-      <c r="K34" s="101">
-        <v>1</v>
-      </c>
-      <c r="L34" s="101">
-        <v>1</v>
-      </c>
-      <c r="M34" s="101">
-        <v>1</v>
-      </c>
-      <c r="N34" s="101">
-        <v>1</v>
-      </c>
-      <c r="O34" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C34" s="98">
+        <v>1</v>
+      </c>
+      <c r="D34" s="98">
+        <v>1</v>
+      </c>
+      <c r="E34" s="98">
+        <v>1</v>
+      </c>
+      <c r="F34" s="98">
+        <v>1</v>
+      </c>
+      <c r="G34" s="98">
+        <v>1</v>
+      </c>
+      <c r="H34" s="98">
+        <v>1</v>
+      </c>
+      <c r="I34" s="98">
+        <v>1</v>
+      </c>
+      <c r="J34" s="98">
+        <v>1</v>
+      </c>
+      <c r="K34" s="98">
+        <v>1</v>
+      </c>
+      <c r="L34" s="98">
+        <v>1</v>
+      </c>
+      <c r="M34" s="98">
+        <v>1</v>
+      </c>
+      <c r="N34" s="98">
+        <v>1</v>
+      </c>
+      <c r="O34" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="5"/>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="33" t="s">
         <v>82</v>
       </c>
-      <c r="C35" s="101">
-        <v>1</v>
-      </c>
-      <c r="D35" s="101">
-        <v>1</v>
-      </c>
-      <c r="E35" s="101">
-        <v>1</v>
-      </c>
-      <c r="F35" s="101">
-        <v>1</v>
-      </c>
-      <c r="G35" s="101">
-        <v>1</v>
-      </c>
-      <c r="H35" s="101">
-        <v>1</v>
-      </c>
-      <c r="I35" s="101">
-        <v>1</v>
-      </c>
-      <c r="J35" s="101">
-        <v>1</v>
-      </c>
-      <c r="K35" s="101">
-        <v>1</v>
-      </c>
-      <c r="L35" s="101">
-        <v>1</v>
-      </c>
-      <c r="M35" s="101">
-        <v>1</v>
-      </c>
-      <c r="N35" s="101">
-        <v>1</v>
-      </c>
-      <c r="O35" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="35" t="s">
+      <c r="C35" s="98">
+        <v>1</v>
+      </c>
+      <c r="D35" s="98">
+        <v>1</v>
+      </c>
+      <c r="E35" s="98">
+        <v>1</v>
+      </c>
+      <c r="F35" s="98">
+        <v>1</v>
+      </c>
+      <c r="G35" s="98">
+        <v>1</v>
+      </c>
+      <c r="H35" s="98">
+        <v>1</v>
+      </c>
+      <c r="I35" s="98">
+        <v>1</v>
+      </c>
+      <c r="J35" s="98">
+        <v>1</v>
+      </c>
+      <c r="K35" s="98">
+        <v>1</v>
+      </c>
+      <c r="L35" s="98">
+        <v>1</v>
+      </c>
+      <c r="M35" s="98">
+        <v>1</v>
+      </c>
+      <c r="N35" s="98">
+        <v>1</v>
+      </c>
+      <c r="O35" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="33" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="101">
-        <v>1</v>
-      </c>
-      <c r="D36" s="101">
-        <v>1</v>
-      </c>
-      <c r="E36" s="101">
-        <v>1</v>
-      </c>
-      <c r="F36" s="101">
-        <v>1</v>
-      </c>
-      <c r="G36" s="101">
-        <v>1</v>
-      </c>
-      <c r="H36" s="101">
-        <v>1</v>
-      </c>
-      <c r="I36" s="101">
-        <v>1</v>
-      </c>
-      <c r="J36" s="101">
-        <v>1</v>
-      </c>
-      <c r="K36" s="101">
-        <v>1</v>
-      </c>
-      <c r="L36" s="101">
-        <v>1</v>
-      </c>
-      <c r="M36" s="101">
-        <v>1</v>
-      </c>
-      <c r="N36" s="101">
-        <v>1</v>
-      </c>
-      <c r="O36" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="35" t="s">
+      <c r="C36" s="98">
+        <v>1</v>
+      </c>
+      <c r="D36" s="98">
+        <v>1</v>
+      </c>
+      <c r="E36" s="98">
+        <v>1</v>
+      </c>
+      <c r="F36" s="98">
+        <v>1</v>
+      </c>
+      <c r="G36" s="98">
+        <v>1</v>
+      </c>
+      <c r="H36" s="98">
+        <v>1</v>
+      </c>
+      <c r="I36" s="98">
+        <v>1</v>
+      </c>
+      <c r="J36" s="98">
+        <v>1</v>
+      </c>
+      <c r="K36" s="98">
+        <v>1</v>
+      </c>
+      <c r="L36" s="98">
+        <v>1</v>
+      </c>
+      <c r="M36" s="98">
+        <v>1</v>
+      </c>
+      <c r="N36" s="98">
+        <v>1</v>
+      </c>
+      <c r="O36" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="C37" s="101">
-        <v>1</v>
-      </c>
-      <c r="D37" s="101">
-        <v>1</v>
-      </c>
-      <c r="E37" s="101">
-        <v>1</v>
-      </c>
-      <c r="F37" s="101">
-        <v>1</v>
-      </c>
-      <c r="G37" s="101">
-        <v>1</v>
-      </c>
-      <c r="H37" s="101">
-        <v>1</v>
-      </c>
-      <c r="I37" s="101">
-        <v>1</v>
-      </c>
-      <c r="J37" s="101">
-        <v>1</v>
-      </c>
-      <c r="K37" s="101">
-        <v>1</v>
-      </c>
-      <c r="L37" s="101">
-        <v>1</v>
-      </c>
-      <c r="M37" s="101">
-        <v>1</v>
-      </c>
-      <c r="N37" s="101">
-        <v>1</v>
-      </c>
-      <c r="O37" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="35" t="s">
+      <c r="C37" s="98">
+        <v>1</v>
+      </c>
+      <c r="D37" s="98">
+        <v>1</v>
+      </c>
+      <c r="E37" s="98">
+        <v>1</v>
+      </c>
+      <c r="F37" s="98">
+        <v>1</v>
+      </c>
+      <c r="G37" s="98">
+        <v>1</v>
+      </c>
+      <c r="H37" s="98">
+        <v>1</v>
+      </c>
+      <c r="I37" s="98">
+        <v>1</v>
+      </c>
+      <c r="J37" s="98">
+        <v>1</v>
+      </c>
+      <c r="K37" s="98">
+        <v>1</v>
+      </c>
+      <c r="L37" s="98">
+        <v>1</v>
+      </c>
+      <c r="M37" s="98">
+        <v>1</v>
+      </c>
+      <c r="N37" s="98">
+        <v>1</v>
+      </c>
+      <c r="O37" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="33" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="101">
-        <v>1</v>
-      </c>
-      <c r="D38" s="101">
-        <v>1</v>
-      </c>
-      <c r="E38" s="101">
-        <v>1</v>
-      </c>
-      <c r="F38" s="101">
-        <v>1</v>
-      </c>
-      <c r="G38" s="101">
-        <v>1</v>
-      </c>
-      <c r="H38" s="101">
-        <v>1</v>
-      </c>
-      <c r="I38" s="101">
-        <v>1</v>
-      </c>
-      <c r="J38" s="101">
-        <v>1</v>
-      </c>
-      <c r="K38" s="101">
-        <v>1</v>
-      </c>
-      <c r="L38" s="101">
-        <v>1</v>
-      </c>
-      <c r="M38" s="101">
-        <v>1</v>
-      </c>
-      <c r="N38" s="101">
-        <v>1</v>
-      </c>
-      <c r="O38" s="101">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="35"/>
+      <c r="C38" s="98">
+        <v>1</v>
+      </c>
+      <c r="D38" s="98">
+        <v>1</v>
+      </c>
+      <c r="E38" s="98">
+        <v>1</v>
+      </c>
+      <c r="F38" s="98">
+        <v>1</v>
+      </c>
+      <c r="G38" s="98">
+        <v>1</v>
+      </c>
+      <c r="H38" s="98">
+        <v>1</v>
+      </c>
+      <c r="I38" s="98">
+        <v>1</v>
+      </c>
+      <c r="J38" s="98">
+        <v>1</v>
+      </c>
+      <c r="K38" s="98">
+        <v>1</v>
+      </c>
+      <c r="L38" s="98">
+        <v>1</v>
+      </c>
+      <c r="M38" s="98">
+        <v>1</v>
+      </c>
+      <c r="N38" s="98">
+        <v>1</v>
+      </c>
+      <c r="O38" s="98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="33"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="6oMNPZOj5p1yxjZyC3cWukdFKoSh1CKATbl7uT/d1OQzf8J9XiJ/ojI28uZ+t7bQFfyXeraObfh1PN4W7pNYSw==" saltValue="6OVcnh0lkgELEvG9wcZI7g==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
@@ -8348,32 +8345,32 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" s="12" t="s">
         <v>205</v>
       </c>
     </row>
@@ -8383,7 +8380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -8393,196 +8390,196 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="37" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="37" customWidth="1"/>
-    <col min="3" max="4" width="11.44140625" style="37"/>
-    <col min="5" max="5" width="17.44140625" style="37" customWidth="1"/>
-    <col min="6" max="16384" width="11.44140625" style="37"/>
+    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.5" style="35"/>
+    <col min="5" max="5" width="17.5" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.5" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="40" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="40" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="40">
+      <c r="B2" s="38">
         <v>0.9</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="37">
         <v>0.09</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="35">
         <v>0.8</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="35">
         <f t="shared" ref="E2:E10" si="0">C2*D2</f>
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="B3" s="40">
-        <v>1</v>
-      </c>
-      <c r="C3" s="39">
+      <c r="B3" s="38">
+        <v>1</v>
+      </c>
+      <c r="C3" s="37">
         <v>0.02</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="35">
         <v>1.9</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="35">
         <f t="shared" si="0"/>
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="40">
-        <v>1</v>
-      </c>
-      <c r="C4" s="39">
+      <c r="B4" s="38">
+        <v>1</v>
+      </c>
+      <c r="C4" s="37">
         <v>0.08</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="35">
         <v>2</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="35">
         <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
-      <c r="B5" s="40">
-        <v>1</v>
-      </c>
-      <c r="C5" s="39">
+      <c r="B5" s="38">
+        <v>1</v>
+      </c>
+      <c r="C5" s="37">
         <v>0.18</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="35">
         <v>0.7</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="35">
         <f t="shared" si="0"/>
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="B6" s="40">
-        <v>1</v>
-      </c>
-      <c r="C6" s="39">
+      <c r="B6" s="38">
+        <v>1</v>
+      </c>
+      <c r="C6" s="37">
         <v>0.02</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="35">
         <v>0.7</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="35">
         <f t="shared" si="0"/>
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
-      <c r="B7" s="40">
+      <c r="B7" s="38">
         <v>0.93</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="37">
         <v>0.45</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="35">
         <v>0.9</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="35">
         <f t="shared" si="0"/>
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="B8" s="40">
+      <c r="B8" s="38">
         <v>0.5</v>
       </c>
-      <c r="C8" s="39">
+      <c r="C8" s="37">
         <v>0.03</v>
       </c>
-      <c r="D8" s="37">
-        <v>0</v>
-      </c>
-      <c r="E8" s="37">
+      <c r="D8" s="35">
+        <v>0</v>
+      </c>
+      <c r="E8" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="38">
         <v>0.5</v>
       </c>
-      <c r="C9" s="39">
+      <c r="C9" s="37">
         <v>0.11</v>
       </c>
-      <c r="D9" s="37">
-        <v>0</v>
-      </c>
-      <c r="E9" s="37">
+      <c r="D9" s="35">
+        <v>0</v>
+      </c>
+      <c r="E9" s="35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+      <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="B10" s="40">
+      <c r="B10" s="38">
         <v>0.98</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="37">
         <v>0.01</v>
       </c>
-      <c r="D10" s="37">
+      <c r="D10" s="35">
         <v>0.6</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="35">
         <f t="shared" si="0"/>
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="38"/>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="C11" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8592,7 +8589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -8602,935 +8599,935 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" style="13" customWidth="1"/>
-    <col min="2" max="9" width="16.77734375" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="14.44140625" style="13"/>
+    <col min="1" max="1" width="8.5" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.83203125" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.5" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="100">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="97">
         <f>start_year</f>
         <v>2017</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="23">
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="22">
         <f t="shared" ref="G2:G40" si="0">C2+D2+E2+F2</f>
         <v>0</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="22">
         <f t="shared" ref="H2:H40" si="1">(B2 + stillbirth*B2/(1000-stillbirth))/(1-abortion)</f>
         <v>0</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="22">
         <f>G2-H2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="100">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="97">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
       </c>
-      <c r="B3" s="80"/>
-      <c r="C3" s="81"/>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="23">
+      <c r="B3" s="78"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="22">
         <f t="shared" ref="I3:I15" si="3">G3-H3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="100">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="97">
         <f t="shared" si="2"/>
         <v>2019</v>
       </c>
-      <c r="B4" s="80"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="23">
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I4" s="23">
+      <c r="I4" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="100">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="97">
         <f t="shared" si="2"/>
         <v>2020</v>
       </c>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="23">
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="100">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="97">
         <f t="shared" si="2"/>
         <v>2021</v>
       </c>
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="23">
+      <c r="B6" s="78"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="100">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="97">
         <f t="shared" si="2"/>
         <v>2022</v>
       </c>
-      <c r="B7" s="80"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81"/>
-      <c r="G7" s="23">
+      <c r="B7" s="78"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="100">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="97">
         <f t="shared" si="2"/>
         <v>2023</v>
       </c>
-      <c r="B8" s="80"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="81"/>
-      <c r="F8" s="81"/>
-      <c r="G8" s="23">
+      <c r="B8" s="78"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I8" s="23">
+      <c r="I8" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="100">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="97">
         <f t="shared" si="2"/>
         <v>2024</v>
       </c>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="23">
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I9" s="23">
+      <c r="I9" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="100">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="97">
         <f t="shared" si="2"/>
         <v>2025</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="23">
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H10" s="23">
+      <c r="H10" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="100">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="97">
         <f t="shared" si="2"/>
         <v>2026</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="23">
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="23">
+      <c r="H11" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="100">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="97">
         <f t="shared" si="2"/>
         <v>2027</v>
       </c>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="23">
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H12" s="23">
+      <c r="H12" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I12" s="23">
+      <c r="I12" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="100">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="97">
         <f t="shared" si="2"/>
         <v>2028</v>
       </c>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="23">
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H13" s="23">
+      <c r="H13" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I13" s="23">
+      <c r="I13" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="100">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="97">
         <f t="shared" si="2"/>
         <v>2029</v>
       </c>
-      <c r="B14" s="80"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="23">
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H14" s="23">
+      <c r="H14" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I14" s="23">
+      <c r="I14" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="100">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="97">
         <f t="shared" si="2"/>
         <v>2030</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="23">
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="22">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="100" t="str">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B16" s="80"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="23">
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H16" s="23">
+      <c r="H16" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I16" s="23">
+      <c r="I16" s="22">
         <f t="shared" ref="I16:I40" si="4">G16-H16</f>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="100" t="str">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B17" s="80"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="23">
+      <c r="B17" s="78"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I17" s="23">
+      <c r="I17" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="100" t="str">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B18" s="80"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="23">
+      <c r="B18" s="78"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H18" s="23">
+      <c r="H18" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="100" t="str">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="23">
+      <c r="B19" s="78"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H19" s="23">
+      <c r="H19" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I19" s="23">
+      <c r="I19" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="100" t="str">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B20" s="80"/>
-      <c r="C20" s="81"/>
-      <c r="D20" s="81"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="23">
+      <c r="B20" s="78"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H20" s="23">
+      <c r="H20" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="23">
+      <c r="I20" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="100" t="str">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B21" s="80"/>
-      <c r="C21" s="81"/>
-      <c r="D21" s="81"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="23">
+      <c r="B21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H21" s="23">
+      <c r="H21" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="100" t="str">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B22" s="80"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="23">
+      <c r="B22" s="78"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H22" s="23">
+      <c r="H22" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="100" t="str">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="81"/>
-      <c r="D23" s="81"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="23">
+      <c r="B23" s="78"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H23" s="23">
+      <c r="H23" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I23" s="23">
+      <c r="I23" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="100" t="str">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="81"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="23">
+      <c r="B24" s="78"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H24" s="23">
+      <c r="H24" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="100" t="str">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B25" s="80"/>
-      <c r="C25" s="81"/>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="23">
+      <c r="B25" s="78"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H25" s="23">
+      <c r="H25" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="100" t="str">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B26" s="80"/>
-      <c r="C26" s="81"/>
-      <c r="D26" s="81"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="23">
+      <c r="B26" s="78"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H26" s="23">
+      <c r="H26" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I26" s="23">
+      <c r="I26" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="100" t="str">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="81"/>
-      <c r="D27" s="81"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="23">
+      <c r="B27" s="78"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H27" s="23">
+      <c r="H27" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I27" s="23">
+      <c r="I27" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="100" t="str">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B28" s="80"/>
-      <c r="C28" s="81"/>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="23">
+      <c r="B28" s="78"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H28" s="23">
+      <c r="H28" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I28" s="23">
+      <c r="I28" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="100" t="str">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B29" s="80"/>
-      <c r="C29" s="81"/>
-      <c r="D29" s="81"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="23">
+      <c r="B29" s="78"/>
+      <c r="C29" s="79"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="23">
+      <c r="H29" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I29" s="23">
+      <c r="I29" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="100" t="str">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B30" s="80"/>
-      <c r="C30" s="81"/>
-      <c r="D30" s="81"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="23">
+      <c r="B30" s="78"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H30" s="23">
+      <c r="H30" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I30" s="23">
+      <c r="I30" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="100" t="str">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="23">
+      <c r="B31" s="78"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H31" s="23">
+      <c r="H31" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I31" s="23">
+      <c r="I31" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="100" t="str">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="81"/>
-      <c r="D32" s="81"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="23">
+      <c r="B32" s="78"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H32" s="23">
+      <c r="H32" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I32" s="23">
+      <c r="I32" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="100" t="str">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B33" s="80"/>
-      <c r="C33" s="81"/>
-      <c r="D33" s="81"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="23">
+      <c r="B33" s="78"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H33" s="23">
+      <c r="H33" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I33" s="23">
+      <c r="I33" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="100" t="str">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B34" s="80"/>
-      <c r="C34" s="81"/>
-      <c r="D34" s="81"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="23">
+      <c r="B34" s="78"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H34" s="23">
+      <c r="H34" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I34" s="23">
+      <c r="I34" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="100" t="str">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="81"/>
-      <c r="D35" s="81"/>
-      <c r="E35" s="81"/>
-      <c r="F35" s="81"/>
-      <c r="G35" s="23">
+      <c r="B35" s="78"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H35" s="23">
+      <c r="H35" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I35" s="23">
+      <c r="I35" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="100" t="str">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B36" s="80"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-      <c r="E36" s="81"/>
-      <c r="F36" s="81"/>
-      <c r="G36" s="23">
+      <c r="B36" s="78"/>
+      <c r="C36" s="79"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H36" s="23">
+      <c r="H36" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I36" s="23">
+      <c r="I36" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="100" t="str">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B37" s="80"/>
-      <c r="C37" s="81"/>
-      <c r="D37" s="81"/>
-      <c r="E37" s="81"/>
-      <c r="F37" s="81"/>
-      <c r="G37" s="23">
+      <c r="B37" s="78"/>
+      <c r="C37" s="79"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H37" s="23">
+      <c r="H37" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I37" s="23">
+      <c r="I37" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="100" t="str">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B38" s="80"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="23">
+      <c r="B38" s="78"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="79"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H38" s="23">
+      <c r="H38" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I38" s="23">
+      <c r="I38" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="100" t="str">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="81"/>
-      <c r="D39" s="81"/>
-      <c r="E39" s="81"/>
-      <c r="F39" s="81"/>
-      <c r="G39" s="23">
+      <c r="B39" s="78"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="79"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H39" s="23">
+      <c r="H39" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I39" s="23">
+      <c r="I39" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="100" t="str">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="81"/>
-      <c r="F40" s="81"/>
-      <c r="G40" s="23">
+      <c r="B40" s="78"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="22">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H40" s="23">
+      <c r="H40" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I40" s="23">
+      <c r="I40" s="22">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
@@ -9548,540 +9545,438 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.33203125" customWidth="1"/>
-    <col min="2" max="7" width="13" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="str">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="80">
+        <v>2.7000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="80">
+        <v>0.1966</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="80">
+        <v>6.2100000000000002E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="80">
+        <v>0.29289999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="80">
+        <v>0.24709999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="80">
+        <v>4.7999999999999996E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="80">
+        <v>0.13200000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="80">
+        <v>6.1800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="96">
+        <f>SUM(C3:C10)</f>
+        <v>1</v>
+      </c>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="32"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C13" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F13" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="80">
+        <v>0.1368</v>
+      </c>
+      <c r="D14" s="80">
+        <v>0.1368</v>
+      </c>
+      <c r="E14" s="80">
+        <v>0.1368</v>
+      </c>
+      <c r="F14" s="80">
+        <v>0.1368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="80">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="D15" s="80">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="E15" s="80">
+        <v>0.20660000000000001</v>
+      </c>
+      <c r="F15" s="80">
+        <v>0.20660000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="80">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="D16" s="80">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="E16" s="80">
+        <v>2.1100000000000001E-2</v>
+      </c>
+      <c r="F16" s="80">
+        <v>2.1100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="80">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="D17" s="80">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="E17" s="80">
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="F17" s="80">
+        <v>7.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="80">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="D18" s="80">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="E18" s="80">
+        <v>8.6199999999999999E-2</v>
+      </c>
+      <c r="F18" s="80">
+        <v>8.6199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="80">
+        <v>2.86E-2</v>
+      </c>
+      <c r="D19" s="80">
+        <v>2.86E-2</v>
+      </c>
+      <c r="E19" s="80">
+        <v>2.86E-2</v>
+      </c>
+      <c r="F19" s="80">
+        <v>2.86E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="80">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="D20" s="80">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="E20" s="80">
+        <v>1.5299999999999999E-2</v>
+      </c>
+      <c r="F20" s="80">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="80">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="D21" s="80">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="E21" s="80">
+        <v>0.13589999999999999</v>
+      </c>
+      <c r="F21" s="80">
+        <v>0.13589999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="80">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="D22" s="80">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="E22" s="80">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="F22" s="80">
+        <v>0.36199999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" s="96">
+        <f>SUM(C14:C22)</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="96">
+        <f t="shared" ref="D23:F23" si="0">SUM(D14:D22)</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="96">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F23" s="96">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="32"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="26">
-        <v>0</v>
-      </c>
-      <c r="D2" s="26">
-        <v>0</v>
-      </c>
-      <c r="E2" s="26">
-        <v>0</v>
-      </c>
-      <c r="F2" s="26">
-        <v>0</v>
-      </c>
-      <c r="G2" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="82"/>
-      <c r="C3" s="26">
-        <v>0</v>
-      </c>
-      <c r="D3" s="26">
-        <v>0</v>
-      </c>
-      <c r="E3" s="26">
-        <v>0</v>
-      </c>
-      <c r="F3" s="26">
-        <v>0</v>
-      </c>
-      <c r="G3" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="82"/>
-      <c r="C4" s="26">
-        <v>0</v>
-      </c>
-      <c r="D4" s="26">
-        <v>0</v>
-      </c>
-      <c r="E4" s="26">
-        <v>0</v>
-      </c>
-      <c r="F4" s="26">
-        <v>0</v>
-      </c>
-      <c r="G4" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="82"/>
-      <c r="C5" s="26">
-        <v>0</v>
-      </c>
-      <c r="D5" s="26">
-        <v>0</v>
-      </c>
-      <c r="E5" s="26">
-        <v>0</v>
-      </c>
-      <c r="F5" s="26">
-        <v>0</v>
-      </c>
-      <c r="G5" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="82"/>
-      <c r="C6" s="26">
-        <v>0</v>
-      </c>
-      <c r="D6" s="26">
-        <v>0</v>
-      </c>
-      <c r="E6" s="26">
-        <v>0</v>
-      </c>
-      <c r="F6" s="26">
-        <v>0</v>
-      </c>
-      <c r="G6" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="26">
-        <v>0</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0</v>
-      </c>
-      <c r="E7" s="26">
-        <v>0</v>
-      </c>
-      <c r="F7" s="26">
-        <v>0</v>
-      </c>
-      <c r="G7" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="82"/>
-      <c r="C8" s="26">
-        <v>0</v>
-      </c>
-      <c r="D8" s="26">
-        <v>0</v>
-      </c>
-      <c r="E8" s="26">
-        <v>0</v>
-      </c>
-      <c r="F8" s="26">
-        <v>0</v>
-      </c>
-      <c r="G8" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="82"/>
-      <c r="C9" s="26">
-        <v>0</v>
-      </c>
-      <c r="D9" s="26">
-        <v>0</v>
-      </c>
-      <c r="E9" s="26">
-        <v>0</v>
-      </c>
-      <c r="F9" s="26">
-        <v>0</v>
-      </c>
-      <c r="G9" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="26">
-        <v>0</v>
-      </c>
-      <c r="C10" s="82"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="26">
-        <v>0</v>
-      </c>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="26">
-        <v>0</v>
-      </c>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="26">
-        <v>0</v>
-      </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="26">
-        <v>0</v>
-      </c>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="26">
-        <v>0</v>
-      </c>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="26">
-        <v>0</v>
-      </c>
-      <c r="C16" s="82"/>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="26">
-        <v>0</v>
-      </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="26">
-        <v>0</v>
-      </c>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="B25" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="26">
-        <v>0</v>
-      </c>
-      <c r="C19" s="26">
-        <v>0</v>
-      </c>
-      <c r="D19" s="26">
-        <v>0</v>
-      </c>
-      <c r="E19" s="26">
-        <v>0</v>
-      </c>
-      <c r="F19" s="26">
-        <v>0</v>
-      </c>
-      <c r="G19" s="83"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25" t="s">
+      <c r="C26" s="80">
+        <v>0.10082724000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="26">
-        <v>0</v>
-      </c>
-      <c r="C20" s="26">
-        <v>0</v>
-      </c>
-      <c r="D20" s="26">
-        <v>0</v>
-      </c>
-      <c r="E20" s="26">
-        <v>0</v>
-      </c>
-      <c r="F20" s="26">
-        <v>0</v>
-      </c>
-      <c r="G20" s="83"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25" t="s">
+      <c r="C27" s="80">
+        <v>3.1206000000000002E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="26">
-        <v>0</v>
-      </c>
-      <c r="C21" s="26">
-        <v>0</v>
-      </c>
-      <c r="D21" s="26">
-        <v>0</v>
-      </c>
-      <c r="E21" s="26">
-        <v>0</v>
-      </c>
-      <c r="F21" s="26">
-        <v>0</v>
-      </c>
-      <c r="G21" s="83"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="C28" s="80">
+        <v>0.15891214000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="26">
-        <v>0</v>
-      </c>
-      <c r="C22" s="26">
-        <v>0</v>
-      </c>
-      <c r="D22" s="26">
-        <v>0</v>
-      </c>
-      <c r="E22" s="26">
-        <v>0</v>
-      </c>
-      <c r="F22" s="26">
-        <v>0</v>
-      </c>
-      <c r="G22" s="83"/>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25" t="s">
+      <c r="C29" s="80">
+        <v>0.12598688999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="26">
-        <v>0</v>
-      </c>
-      <c r="C23" s="26">
-        <v>0</v>
-      </c>
-      <c r="D23" s="26">
-        <v>0</v>
-      </c>
-      <c r="E23" s="26">
-        <v>0</v>
-      </c>
-      <c r="F23" s="26">
-        <v>0</v>
-      </c>
-      <c r="G23" s="83"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="C30" s="80">
+        <v>0.12434007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="26">
-        <v>0</v>
-      </c>
-      <c r="C24" s="26">
-        <v>0</v>
-      </c>
-      <c r="D24" s="26">
-        <v>0</v>
-      </c>
-      <c r="E24" s="26">
-        <v>0</v>
-      </c>
-      <c r="F24" s="26">
-        <v>0</v>
-      </c>
-      <c r="G24" s="83"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="25" t="s">
+      <c r="C31" s="80">
+        <v>3.9028409999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="26">
-        <v>0</v>
-      </c>
-      <c r="C25" s="26">
-        <v>0</v>
-      </c>
-      <c r="D25" s="26">
-        <v>0</v>
-      </c>
-      <c r="E25" s="26">
-        <v>0</v>
-      </c>
-      <c r="F25" s="26">
-        <v>0</v>
-      </c>
-      <c r="G25" s="83"/>
-    </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="25" t="s">
+      <c r="C32" s="80">
+        <v>8.5254999999999999E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B26" s="26">
-        <v>0</v>
-      </c>
-      <c r="C26" s="26">
-        <v>0</v>
-      </c>
-      <c r="D26" s="26">
-        <v>0</v>
-      </c>
-      <c r="E26" s="26">
-        <v>0</v>
-      </c>
-      <c r="F26" s="26">
-        <v>0</v>
-      </c>
-      <c r="G26" s="83"/>
-    </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="25" t="s">
+      <c r="C33" s="80">
+        <v>6.8467810000000004E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="26">
-        <v>0</v>
-      </c>
-      <c r="C27" s="26">
-        <v>0</v>
-      </c>
-      <c r="D27" s="26">
-        <v>0</v>
-      </c>
-      <c r="E27" s="26">
-        <v>0</v>
-      </c>
-      <c r="F27" s="26">
-        <v>0</v>
-      </c>
-      <c r="G27" s="83"/>
+      <c r="C34" s="80">
+        <v>0.38127283000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="96">
+        <f>SUM(C26:C34)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="ki5iB0WvAePgC2tXZhgIEXaBICAGpJqNawhOpNVVh/id+Cp/zlmR7UiOrFO84cZcfvNeM5SdJ5GdxLKqdcrV7w==" saltValue="3U/ANC3kUa9XrW1eBCj0bw==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="69" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -10089,7 +9984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -10099,342 +9994,342 @@
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="31.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="str">
+    <row r="1" spans="1:15" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="str">
         <f>"Percentage of population in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of population in each category in baseline year (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="17" t="s">
+      <c r="C1" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="84" t="str">
+      <c r="C2" s="81" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="D2" s="84" t="str">
+      <c r="D2" s="81" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="E2" s="84" t="str">
+      <c r="E2" s="81" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="F2" s="84" t="str">
+      <c r="F2" s="81" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="G2" s="84" t="str">
+      <c r="G2" s="81" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="84" t="str">
+      <c r="C3" s="81" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C4:C5), 0, 1) + 1, 0, 1, TRUE) - SUM(C4:C5), "")</f>
         <v/>
       </c>
-      <c r="D3" s="84" t="str">
+      <c r="D3" s="81" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D4:D5), 0, 1) + 1, 0, 1, TRUE) - SUM(D4:D5), "")</f>
         <v/>
       </c>
-      <c r="E3" s="84" t="str">
+      <c r="E3" s="81" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E4:E5), 0, 1) + 1, 0, 1, TRUE) - SUM(E4:E5), "")</f>
         <v/>
       </c>
-      <c r="F3" s="84" t="str">
+      <c r="F3" s="81" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F4:F5), 0, 1) + 1, 0, 1, TRUE) - SUM(F4:F5), "")</f>
         <v/>
       </c>
-      <c r="G3" s="84" t="str">
+      <c r="G3" s="81" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G4:G5), 0, 1) + 1, 0, 1, TRUE) - SUM(G4:G5), "")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-    </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+    </row>
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="15"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="14"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="14"/>
+      <c r="C7" s="29"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C8" s="84" t="str">
+      <c r="C8" s="81" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="D8" s="84" t="str">
+      <c r="D8" s="81" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="E8" s="84" t="str">
+      <c r="E8" s="81" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="F8" s="84" t="str">
+      <c r="F8" s="81" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
-      <c r="G8" s="84" t="str">
+      <c r="G8" s="81" t="str">
         <f>IFERROR(1-_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE), "")</f>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="84" t="str">
+      <c r="C9" s="81" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(C10:C11), 0, 1) + 1, 0, 1, TRUE) - SUM(C10:C11), "")</f>
         <v/>
       </c>
-      <c r="D9" s="84" t="str">
+      <c r="D9" s="81" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(D10:D11), 0, 1) + 1, 0, 1, TRUE) - SUM(D10:D11), "")</f>
         <v/>
       </c>
-      <c r="E9" s="84" t="str">
+      <c r="E9" s="81" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(E10:E11), 0, 1) + 1, 0, 1, TRUE) - SUM(E10:E11), "")</f>
         <v/>
       </c>
-      <c r="F9" s="84" t="str">
+      <c r="F9" s="81" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(F10:F11), 0, 1) + 1, 0, 1, TRUE) - SUM(F10:F11), "")</f>
         <v/>
       </c>
-      <c r="G9" s="84" t="str">
+      <c r="G9" s="81" t="str">
         <f>IFERROR(_xlfn.NORM.DIST(_xlfn.NORM.INV(SUM(G10:G11), 0, 1) + 1, 0, 1, TRUE) - SUM(G10:G11), "")</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="85"/>
-      <c r="E10" s="85"/>
-      <c r="F10" s="85"/>
-      <c r="G10" s="85"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-    </row>
-    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:15" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G13" s="17" t="s">
+      <c r="G13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="K13" s="24" t="s">
+      <c r="K13" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="24" t="s">
+      <c r="L13" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="M13" s="24" t="s">
+      <c r="M13" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="N13" s="24" t="s">
+      <c r="N13" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="24" t="s">
+      <c r="O13" s="23" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="16" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="86"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="87"/>
-      <c r="J14" s="87"/>
-      <c r="K14" s="87"/>
-      <c r="L14" s="87"/>
-      <c r="M14" s="87"/>
-      <c r="N14" s="87"/>
-      <c r="O14" s="87"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="17" t="s">
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="84"/>
+      <c r="O14" s="84"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="84">
+      <c r="C15" s="81">
         <f t="shared" ref="C15:O15" si="0">iron_deficiency_anaemia*C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="84">
+      <c r="D15" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E15" s="84">
+      <c r="E15" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="84">
+      <c r="F15" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="84">
+      <c r="G15" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H15" s="84">
+      <c r="H15" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I15" s="84">
+      <c r="I15" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J15" s="84">
+      <c r="J15" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K15" s="84">
+      <c r="K15" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L15" s="84">
+      <c r="L15" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="84">
+      <c r="M15" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N15" s="84">
+      <c r="N15" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O15" s="84">
+      <c r="O15" s="81">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
     </row>
-    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
@@ -10450,7 +10345,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -10460,90 +10355,90 @@
       <selection activeCell="C2" sqref="C2:G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="7" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" customWidth="1"/>
+    <col min="2" max="7" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="str">
+    <row r="1" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="27" t="str">
         <f>"Percentage of children in each category in baseline year ("&amp;start_year&amp;")"</f>
         <v>Percentage of children in each category in baseline year (2017)</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
+      <c r="C1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B3" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="45" t="s">
+      <c r="C3" s="82"/>
+      <c r="D3" s="82"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="82"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B4" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B5" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="C5" s="84">
+      <c r="C5" s="81">
         <f>1-SUM(C2:C4)</f>
         <v>1</v>
       </c>
-      <c r="D5" s="84">
+      <c r="D5" s="81">
         <f t="shared" ref="D5:G5" si="0">1-SUM(D2:D4)</f>
         <v>1</v>
       </c>
-      <c r="E5" s="84">
+      <c r="E5" s="81">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="F5" s="84">
+      <c r="F5" s="81">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="G5" s="84">
+      <c r="G5" s="81">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
@@ -10555,7 +10450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -10563,13 +10458,13 @@
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -10604,152 +10499,152 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" s="15"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="15"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>141</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="30"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-      <c r="K7" s="30"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B8" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>142</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="36" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B11" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>148</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="17" t="s">
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B14" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10758,7 +10653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -10768,228 +10663,228 @@
       <selection activeCell="E21" activeCellId="5" sqref="C2:D6 E7 C9:D13 E14 C16:D20 E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="17" style="37" customWidth="1"/>
-    <col min="2" max="2" width="19.109375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" style="37" customWidth="1"/>
-    <col min="4" max="16384" width="11.44140625" style="37"/>
+    <col min="1" max="1" width="17" style="35" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.5" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="54" t="s">
+      <c r="C1" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="54" t="s">
+      <c r="D1" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="54" t="s">
+      <c r="E1" s="52" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="49" t="s">
         <v>175</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="64" t="str">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="62" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="64" t="str">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="47"/>
+      <c r="B3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="62" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="48" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="47"/>
+      <c r="B4" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="64" t="str">
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="62" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="48" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="47"/>
+      <c r="B5" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="64" t="str">
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="62" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="48" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="47"/>
+      <c r="B6" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="64" t="str">
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="62" t="str">
         <f>IF(E$7="","",E$7)</f>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="48" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="47"/>
+      <c r="B7" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="88"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="53" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="85"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="65"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="64"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="48" t="s">
+      <c r="C9" s="85"/>
+      <c r="D9" s="85"/>
+      <c r="E9" s="63"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="47"/>
+      <c r="B10" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="85"/>
+      <c r="D10" s="85"/>
+      <c r="E10" s="62"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="47"/>
+      <c r="B11" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="64"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="48" t="s">
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="62"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="47"/>
+      <c r="B12" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="88"/>
-      <c r="E12" s="64"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="48" t="s">
+      <c r="C12" s="85"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="62"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="47"/>
+      <c r="B13" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="64"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="48" t="s">
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="62"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="47"/>
+      <c r="B14" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="88"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="51" t="s">
+      <c r="C14" s="45"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="85"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="49" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="89"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="65" t="str">
+      <c r="C16" s="86"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="63" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="89"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="64" t="str">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="47"/>
+      <c r="B17" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="86"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="62" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="49"/>
-      <c r="B18" s="48" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="47"/>
+      <c r="B18" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="89"/>
-      <c r="D18" s="88"/>
-      <c r="E18" s="64" t="str">
+      <c r="C18" s="86"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="62" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="48" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="47"/>
+      <c r="B19" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="89"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="64" t="str">
+      <c r="C19" s="86"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="62" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="48" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="47"/>
+      <c r="B20" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="89"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="64" t="str">
+      <c r="C20" s="86"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="62" t="str">
         <f>IF(E$21="","",E$21)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="48" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="47"/>
+      <c r="B21" s="46" t="s">
         <v>172</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="89"/>
+      <c r="C21" s="45"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="86"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="vq8GGOaRJ/GOerAtWxGFZETtNZKg0CexetWZmxch7xxZfD8kikbgXpfHcTl9WJ8jnE0H0jIRnikgCGGsTyAIVg==" saltValue="HrYs8mMt6vkZgEdYoitBSg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
@@ -10999,7 +10894,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -11009,51 +10904,51 @@
       <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.44140625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
-    <col min="4" max="4" width="12.77734375" customWidth="1"/>
+    <col min="2" max="2" width="15.5" customWidth="1"/>
+    <col min="3" max="3" width="17.5" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="66" t="s">
         <v>164</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="69" t="s">
+      <c r="C1" s="67" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="69" t="s">
+      <c r="D1" s="67" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="48" t="s">
+      <c r="C2" s="46" t="s">
         <v>185</v>
       </c>
-      <c r="D2" s="88"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="69" t="s">
+      <c r="D2" s="85"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="67" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="46" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="46" t="s">
         <v>186</v>
       </c>
-      <c r="D3" s="88"/>
+      <c r="D3" s="85"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="KAK9fjAi0tB9w1PUqeUNgZBXNYGF7t08YNHBjS6f2/uFBIh1t5g5f3mTDoaIfBvsASpqT35v7SBH94ZWCC9pQg==" saltValue="GSmV5uySc7GZpAmsyAcl7Q==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
@@ -11062,7 +10957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -11072,669 +10967,669 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="56" style="55" customWidth="1"/>
-    <col min="2" max="2" width="20" style="38" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" style="37" customWidth="1"/>
-    <col min="4" max="4" width="20.109375" style="37" customWidth="1"/>
-    <col min="5" max="5" width="32.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="14.44140625" style="37"/>
+    <col min="1" max="1" width="56" style="53" customWidth="1"/>
+    <col min="2" max="2" width="20" style="36" customWidth="1"/>
+    <col min="3" max="3" width="20.5" style="35" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" style="35" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="14.5" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:5" ht="26" x14ac:dyDescent="0.15">
+      <c r="A1" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="70" t="str">
+      <c r="B1" s="68" t="str">
         <f>"Baseline ("&amp;start_year&amp;") coverage"</f>
         <v>Baseline (2017) coverage</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="54" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="92">
-        <v>0</v>
-      </c>
-      <c r="C2" s="92">
+      <c r="B2" s="89">
+        <v>0</v>
+      </c>
+      <c r="C2" s="89">
         <v>0.95</v>
       </c>
-      <c r="D2" s="93">
-        <v>1</v>
-      </c>
-      <c r="E2" s="93" t="s">
+      <c r="D2" s="90">
+        <v>1</v>
+      </c>
+      <c r="E2" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="53" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="92">
-        <v>0</v>
-      </c>
-      <c r="C3" s="92">
+      <c r="B3" s="89">
+        <v>0</v>
+      </c>
+      <c r="C3" s="89">
         <v>0.95</v>
       </c>
-      <c r="D3" s="93">
-        <v>1</v>
-      </c>
-      <c r="E3" s="93" t="s">
+      <c r="D3" s="90">
+        <v>1</v>
+      </c>
+      <c r="E3" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="B4" s="92">
-        <v>0</v>
-      </c>
-      <c r="C4" s="92">
+      <c r="B4" s="89">
+        <v>0</v>
+      </c>
+      <c r="C4" s="89">
         <v>0.95</v>
       </c>
-      <c r="D4" s="93">
-        <v>1</v>
-      </c>
-      <c r="E4" s="93" t="s">
+      <c r="D4" s="90">
+        <v>1</v>
+      </c>
+      <c r="E4" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="53" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="92">
-        <v>0</v>
-      </c>
-      <c r="C5" s="92">
+      <c r="B5" s="89">
+        <v>0</v>
+      </c>
+      <c r="C5" s="89">
         <v>0.95</v>
       </c>
-      <c r="D5" s="93">
-        <v>1</v>
-      </c>
-      <c r="E5" s="93" t="s">
+      <c r="D5" s="90">
+        <v>1</v>
+      </c>
+      <c r="E5" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="53" t="s">
         <v>198</v>
       </c>
-      <c r="B6" s="92">
-        <v>0</v>
-      </c>
-      <c r="C6" s="92">
+      <c r="B6" s="89">
+        <v>0</v>
+      </c>
+      <c r="C6" s="89">
         <v>0.95</v>
       </c>
-      <c r="D6" s="93">
-        <v>1</v>
-      </c>
-      <c r="E6" s="93" t="s">
+      <c r="D6" s="90">
+        <v>1</v>
+      </c>
+      <c r="E6" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="92">
-        <v>0</v>
-      </c>
-      <c r="C7" s="92">
+      <c r="B7" s="89">
+        <v>0</v>
+      </c>
+      <c r="C7" s="89">
         <v>0.95</v>
       </c>
-      <c r="D7" s="93">
-        <v>1</v>
-      </c>
-      <c r="E7" s="93" t="s">
+      <c r="D7" s="90">
+        <v>1</v>
+      </c>
+      <c r="E7" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="92">
-        <v>0</v>
-      </c>
-      <c r="C8" s="92">
+      <c r="B8" s="89">
+        <v>0</v>
+      </c>
+      <c r="C8" s="89">
         <v>0.95</v>
       </c>
-      <c r="D8" s="93">
+      <c r="D8" s="90">
         <v>0.75</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="E8" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="92">
-        <v>0</v>
-      </c>
-      <c r="C9" s="92">
+      <c r="B9" s="89">
+        <v>0</v>
+      </c>
+      <c r="C9" s="89">
         <v>0.95</v>
       </c>
-      <c r="D9" s="93">
+      <c r="D9" s="90">
         <v>0.19</v>
       </c>
-      <c r="E9" s="93" t="s">
+      <c r="E9" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="67" t="s">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="65" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="92">
-        <v>0</v>
-      </c>
-      <c r="C10" s="92">
+      <c r="B10" s="89">
+        <v>0</v>
+      </c>
+      <c r="C10" s="89">
         <v>0.95</v>
       </c>
-      <c r="D10" s="93">
+      <c r="D10" s="90">
         <v>0.73</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="65" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="92">
-        <v>0</v>
-      </c>
-      <c r="C11" s="92">
+      <c r="B11" s="89">
+        <v>0</v>
+      </c>
+      <c r="C11" s="89">
         <v>0.95</v>
       </c>
-      <c r="D11" s="93">
+      <c r="D11" s="90">
         <v>1.78</v>
       </c>
-      <c r="E11" s="93" t="s">
+      <c r="E11" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="65" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="92">
-        <v>0</v>
-      </c>
-      <c r="C12" s="92">
+      <c r="B12" s="89">
+        <v>0</v>
+      </c>
+      <c r="C12" s="89">
         <v>0.95</v>
       </c>
-      <c r="D12" s="93">
+      <c r="D12" s="90">
         <v>0.24</v>
       </c>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="65" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="92">
-        <v>0</v>
-      </c>
-      <c r="C13" s="92">
+      <c r="B13" s="89">
+        <v>0</v>
+      </c>
+      <c r="C13" s="89">
         <v>0.95</v>
       </c>
-      <c r="D13" s="93">
+      <c r="D13" s="90">
         <v>0.55000000000000004</v>
       </c>
-      <c r="E13" s="93" t="s">
+      <c r="E13" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="11" t="s">
         <v>189</v>
       </c>
-      <c r="B14" s="92">
-        <v>0</v>
-      </c>
-      <c r="C14" s="92">
+      <c r="B14" s="89">
+        <v>0</v>
+      </c>
+      <c r="C14" s="89">
         <v>0.95</v>
       </c>
-      <c r="D14" s="93">
+      <c r="D14" s="90">
         <v>0.73</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="B15" s="92">
-        <v>0</v>
-      </c>
-      <c r="C15" s="92">
+      <c r="B15" s="89">
+        <v>0</v>
+      </c>
+      <c r="C15" s="89">
         <v>0.95</v>
       </c>
-      <c r="D15" s="93">
+      <c r="D15" s="90">
         <v>1.78</v>
       </c>
-      <c r="E15" s="93" t="s">
+      <c r="E15" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="92">
-        <v>0</v>
-      </c>
-      <c r="C16" s="92">
+      <c r="B16" s="89">
+        <v>0</v>
+      </c>
+      <c r="C16" s="89">
         <v>0.95</v>
       </c>
-      <c r="D16" s="93">
+      <c r="D16" s="90">
         <v>2.06</v>
       </c>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="B17" s="92">
-        <v>0</v>
-      </c>
-      <c r="C17" s="92">
+      <c r="B17" s="89">
+        <v>0</v>
+      </c>
+      <c r="C17" s="89">
         <v>0.95</v>
       </c>
-      <c r="D17" s="93">
+      <c r="D17" s="90">
         <v>0.25</v>
       </c>
-      <c r="E17" s="93" t="s">
+      <c r="E17" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="53" t="s">
         <v>175</v>
       </c>
-      <c r="B18" s="92">
-        <v>0</v>
-      </c>
-      <c r="C18" s="92">
+      <c r="B18" s="89">
+        <v>0</v>
+      </c>
+      <c r="C18" s="89">
         <v>0.95</v>
       </c>
-      <c r="D18" s="94">
+      <c r="D18" s="91">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$2:$E$6&lt;&gt;""))</f>
         <v>0</v>
       </c>
-      <c r="E18" s="93" t="s">
+      <c r="E18" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="53" t="s">
         <v>174</v>
       </c>
-      <c r="B19" s="92">
-        <v>0</v>
-      </c>
-      <c r="C19" s="92">
+      <c r="B19" s="89">
+        <v>0</v>
+      </c>
+      <c r="C19" s="89">
         <v>0.95</v>
       </c>
-      <c r="D19" s="94">
+      <c r="D19" s="91">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$9:$E$13&lt;&gt;""))</f>
         <v>0</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="E19" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="53" t="s">
         <v>173</v>
       </c>
-      <c r="B20" s="92">
-        <v>0</v>
-      </c>
-      <c r="C20" s="92">
+      <c r="B20" s="89">
+        <v>0</v>
+      </c>
+      <c r="C20" s="89">
         <v>0.95</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="91">
         <f>SUMPRODUCT(('IYCF cost'!$C$2:$E$6)*('IYCF packages'!$C$16:$E$20&lt;&gt;""))</f>
         <v>0</v>
       </c>
-      <c r="E20" s="93" t="s">
+      <c r="E20" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="B21" s="92">
-        <v>0</v>
-      </c>
-      <c r="C21" s="92">
+      <c r="B21" s="89">
+        <v>0</v>
+      </c>
+      <c r="C21" s="89">
         <v>0.95</v>
       </c>
-      <c r="D21" s="93">
+      <c r="D21" s="90">
         <v>8.84</v>
       </c>
-      <c r="E21" s="93" t="s">
+      <c r="E21" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="53" t="s">
         <v>136</v>
       </c>
-      <c r="B22" s="92">
-        <v>0</v>
-      </c>
-      <c r="C22" s="92">
+      <c r="B22" s="89">
+        <v>0</v>
+      </c>
+      <c r="C22" s="89">
         <v>0.95</v>
       </c>
-      <c r="D22" s="93">
+      <c r="D22" s="90">
         <v>50</v>
       </c>
-      <c r="E22" s="93" t="s">
+      <c r="E22" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="92">
-        <v>0</v>
-      </c>
-      <c r="C23" s="92">
+      <c r="B23" s="89">
+        <v>0</v>
+      </c>
+      <c r="C23" s="89">
         <v>0.95</v>
       </c>
-      <c r="D23" s="93">
+      <c r="D23" s="90">
         <v>2.61</v>
       </c>
-      <c r="E23" s="93" t="s">
+      <c r="E23" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="92">
-        <v>0</v>
-      </c>
-      <c r="C24" s="92">
+      <c r="B24" s="89">
+        <v>0</v>
+      </c>
+      <c r="C24" s="89">
         <v>0.95</v>
       </c>
-      <c r="D24" s="93">
-        <v>1</v>
-      </c>
-      <c r="E24" s="93" t="s">
+      <c r="D24" s="90">
+        <v>1</v>
+      </c>
+      <c r="E24" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="53" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="92">
-        <v>0</v>
-      </c>
-      <c r="C25" s="92">
+      <c r="B25" s="89">
+        <v>0</v>
+      </c>
+      <c r="C25" s="89">
         <v>0.95</v>
       </c>
-      <c r="D25" s="93">
-        <v>1</v>
-      </c>
-      <c r="E25" s="93" t="s">
+      <c r="D25" s="90">
+        <v>1</v>
+      </c>
+      <c r="E25" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="B26" s="92">
-        <v>0</v>
-      </c>
-      <c r="C26" s="92">
+      <c r="B26" s="89">
+        <v>0</v>
+      </c>
+      <c r="C26" s="89">
         <v>0.95</v>
       </c>
-      <c r="D26" s="93">
-        <v>1</v>
-      </c>
-      <c r="E26" s="93" t="s">
+      <c r="D26" s="90">
+        <v>1</v>
+      </c>
+      <c r="E26" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="92">
-        <v>0</v>
-      </c>
-      <c r="C27" s="92">
+      <c r="B27" s="89">
+        <v>0</v>
+      </c>
+      <c r="C27" s="89">
         <v>0.95</v>
       </c>
-      <c r="D27" s="93">
+      <c r="D27" s="90">
         <v>2.99</v>
       </c>
-      <c r="E27" s="93" t="s">
+      <c r="E27" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="53" t="s">
         <v>84</v>
       </c>
-      <c r="B28" s="92">
-        <v>0</v>
-      </c>
-      <c r="C28" s="92">
+      <c r="B28" s="89">
+        <v>0</v>
+      </c>
+      <c r="C28" s="89">
         <v>0.95</v>
       </c>
-      <c r="D28" s="93">
-        <v>1</v>
-      </c>
-      <c r="E28" s="93" t="s">
+      <c r="D28" s="90">
+        <v>1</v>
+      </c>
+      <c r="E28" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="92">
-        <v>0</v>
-      </c>
-      <c r="C29" s="92">
+      <c r="B29" s="89">
+        <v>0</v>
+      </c>
+      <c r="C29" s="89">
         <v>0.95</v>
       </c>
-      <c r="D29" s="93">
+      <c r="D29" s="90">
         <v>48</v>
       </c>
-      <c r="E29" s="93" t="s">
+      <c r="E29" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="92">
-        <v>0</v>
-      </c>
-      <c r="C30" s="92">
+      <c r="B30" s="89">
+        <v>0</v>
+      </c>
+      <c r="C30" s="89">
         <v>0.95</v>
       </c>
-      <c r="D30" s="93">
+      <c r="D30" s="90">
         <v>9.36</v>
       </c>
-      <c r="E30" s="93" t="s">
+      <c r="E30" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="92">
-        <v>0</v>
-      </c>
-      <c r="C31" s="92">
+      <c r="B31" s="89">
+        <v>0</v>
+      </c>
+      <c r="C31" s="89">
         <v>0.95</v>
       </c>
-      <c r="D31" s="93">
+      <c r="D31" s="90">
         <v>0.35</v>
       </c>
-      <c r="E31" s="93" t="s">
+      <c r="E31" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="53" t="s">
         <v>83</v>
       </c>
-      <c r="B32" s="92">
-        <v>0</v>
-      </c>
-      <c r="C32" s="92">
+      <c r="B32" s="89">
+        <v>0</v>
+      </c>
+      <c r="C32" s="89">
         <v>0.95</v>
       </c>
-      <c r="D32" s="93">
-        <v>1</v>
-      </c>
-      <c r="E32" s="93" t="s">
+      <c r="D32" s="90">
+        <v>1</v>
+      </c>
+      <c r="E32" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="53" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="92">
-        <v>0</v>
-      </c>
-      <c r="C33" s="92">
+      <c r="B33" s="89">
+        <v>0</v>
+      </c>
+      <c r="C33" s="89">
         <v>0.95</v>
       </c>
-      <c r="D33" s="93">
+      <c r="D33" s="90">
         <v>2.8</v>
       </c>
-      <c r="E33" s="93" t="s">
+      <c r="E33" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="53" t="s">
         <v>81</v>
       </c>
-      <c r="B34" s="92">
-        <v>0</v>
-      </c>
-      <c r="C34" s="92">
+      <c r="B34" s="89">
+        <v>0</v>
+      </c>
+      <c r="C34" s="89">
         <v>0.95</v>
       </c>
-      <c r="D34" s="93">
+      <c r="D34" s="90">
         <v>50.26</v>
       </c>
-      <c r="E34" s="93" t="s">
+      <c r="E34" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55" t="s">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="92">
-        <v>0</v>
-      </c>
-      <c r="C35" s="92">
+      <c r="B35" s="89">
+        <v>0</v>
+      </c>
+      <c r="C35" s="89">
         <v>0.95</v>
       </c>
-      <c r="D35" s="93">
+      <c r="D35" s="90">
         <v>36.1</v>
       </c>
-      <c r="E35" s="93" t="s">
+      <c r="E35" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
+    <row r="36" spans="1:6" s="36" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="92">
-        <v>0</v>
-      </c>
-      <c r="C36" s="92">
+      <c r="B36" s="89">
+        <v>0</v>
+      </c>
+      <c r="C36" s="89">
         <v>0.95</v>
       </c>
-      <c r="D36" s="93">
+      <c r="D36" s="90">
         <v>231.85</v>
       </c>
-      <c r="E36" s="93" t="s">
+      <c r="E36" s="90" t="s">
         <v>202</v>
       </c>
-      <c r="F36" s="37"/>
-    </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
+      <c r="F36" s="35"/>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="53" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="92">
-        <v>0</v>
-      </c>
-      <c r="C37" s="92">
+      <c r="B37" s="89">
+        <v>0</v>
+      </c>
+      <c r="C37" s="89">
         <v>0.95</v>
       </c>
-      <c r="D37" s="93">
+      <c r="D37" s="90">
         <v>1.5</v>
       </c>
-      <c r="E37" s="93" t="s">
+      <c r="E37" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="B38" s="92">
-        <v>0</v>
-      </c>
-      <c r="C38" s="92">
+      <c r="B38" s="89">
+        <v>0</v>
+      </c>
+      <c r="C38" s="89">
         <v>0.95</v>
       </c>
-      <c r="D38" s="93">
-        <v>1</v>
-      </c>
-      <c r="E38" s="93" t="s">
+      <c r="D38" s="90">
+        <v>1</v>
+      </c>
+      <c r="E38" s="90" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F39" s="38"/>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F39" s="36"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="wtv/HM4kAqRqMIiLkAYQC7Lcjqz7qSMF7Fo+6qi+BfjtDEm3dmaJR2oG6r16A5EzV4QlJ3rsskLmp+Scq5MAEw==" saltValue="phkuzZ1elu1sMpGSD/cRFg==" spinCount="100000" sheet="1" scenarios="1" selectLockedCells="1"/>
@@ -11747,7 +11642,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000000000000}">
           <x14:formula1>
             <xm:f>'Cost curve options'!$A$1:$A$4</xm:f>
           </x14:formula1>

--- a/applications/template_input.xlsx
+++ b/applications/template_input.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10523"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samhainsworth/Desktop/github_projects/Nutrition/applications/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{64F89FF4-3FFF-6C4B-ACB2-49D1E651D2E8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="961" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="20730" windowHeight="11760" tabRatio="961" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Baseline year population inputs" sheetId="1" r:id="rId1"/>
@@ -79,17 +73,17 @@
     <definedName name="term_SGA">'Baseline year population inputs'!$C$47</definedName>
     <definedName name="U5_mortality">'Baseline year population inputs'!$C$39</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Nick Scott</author>
   </authors>
   <commentList>
-    <comment ref="D28" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
+    <comment ref="D28" authorId="0">
       <text>
         <r>
           <rPr>
@@ -115,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D30" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="D30" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +135,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D37" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="D37" authorId="0">
       <text>
         <r>
           <rPr>
@@ -172,12 +166,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
+    <comment ref="B1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -230,12 +224,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Sam</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -914,7 +908,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -4316,8 +4310,8 @@
     <cellStyle name="Hyperlink" xfId="1445" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1447" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="725" xr:uid="{00000000-0005-0000-0000-0000A6050000}"/>
-    <cellStyle name="Normal 3" xfId="726" xr:uid="{00000000-0005-0000-0000-0000A7050000}"/>
+    <cellStyle name="Normal 2" xfId="725"/>
+    <cellStyle name="Normal 3" xfId="726"/>
     <cellStyle name="Percent" xfId="10" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -4376,7 +4370,7 @@
         <xdr:cNvPr id="2049" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001080000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000001080000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4433,7 +4427,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4490,7 +4484,7 @@
         <xdr:cNvPr id="3" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4547,7 +4541,7 @@
         <xdr:cNvPr id="4" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4604,7 +4598,7 @@
         <xdr:cNvPr id="5" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4661,7 +4655,7 @@
         <xdr:cNvPr id="6" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4718,7 +4712,7 @@
         <xdr:cNvPr id="7" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4775,7 +4769,7 @@
         <xdr:cNvPr id="8" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4832,7 +4826,7 @@
         <xdr:cNvPr id="9" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4889,7 +4883,7 @@
         <xdr:cNvPr id="10" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4946,7 +4940,7 @@
         <xdr:cNvPr id="11" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5003,7 +4997,7 @@
         <xdr:cNvPr id="12" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5060,7 +5054,7 @@
         <xdr:cNvPr id="13" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5117,7 +5111,7 @@
         <xdr:cNvPr id="14" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5174,7 +5168,7 @@
         <xdr:cNvPr id="15" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5231,7 +5225,7 @@
         <xdr:cNvPr id="16" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5288,7 +5282,7 @@
         <xdr:cNvPr id="17" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5345,7 +5339,7 @@
         <xdr:cNvPr id="18" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5394,7 +5388,7 @@
         <xdr:cNvPr id="19" name="Rectangle 1" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0500-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5757,7 +5751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -5767,14 +5761,14 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" style="12" customWidth="1"/>
-    <col min="2" max="2" width="38.6640625" style="16" customWidth="1"/>
-    <col min="3" max="16384" width="14.5" style="12"/>
+    <col min="1" max="1" width="27.7109375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="16" customWidth="1"/>
+    <col min="3" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>100</v>
       </c>
@@ -5785,14 +5779,14 @@
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>193</v>
       </c>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>195</v>
@@ -5801,7 +5795,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
         <v>194</v>
@@ -5810,93 +5804,93 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="41"/>
       <c r="C5" s="41"/>
     </row>
-    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="16" t="s">
         <v>209</v>
       </c>
       <c r="C7" s="75"/>
     </row>
-    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>106</v>
       </c>
       <c r="C8" s="70"/>
     </row>
-    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C9" s="71"/>
     </row>
-    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C10" s="71"/>
     </row>
-    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="7" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="70"/>
     </row>
-    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="7" t="s">
         <v>109</v>
       </c>
       <c r="C12" s="70"/>
     </row>
-    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="7" t="s">
         <v>110</v>
       </c>
       <c r="C13" s="70"/>
     </row>
-    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="12"/>
     </row>
-    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="19"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C16" s="71"/>
     </row>
-    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C17" s="71"/>
     </row>
-    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C18" s="71"/>
     </row>
-    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C19" s="71"/>
     </row>
-    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>98</v>
       </c>
@@ -5905,74 +5899,74 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="12"/>
     </row>
-    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="20" t="s">
         <v>101</v>
       </c>
       <c r="C23" s="71"/>
     </row>
-    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C24" s="71"/>
     </row>
-    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="20" t="s">
         <v>103</v>
       </c>
       <c r="C25" s="71"/>
     </row>
-    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="20" t="s">
         <v>104</v>
       </c>
       <c r="C26" s="71"/>
     </row>
-    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="20"/>
       <c r="C27" s="20"/>
     </row>
-    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12" t="s">
         <v>200</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="20"/>
     </row>
-    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="30" t="s">
         <v>75</v>
       </c>
       <c r="C29" s="73"/>
     </row>
-    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C30" s="73"/>
     </row>
-    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="30" t="s">
         <v>77</v>
       </c>
       <c r="C31" s="73"/>
     </row>
-    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C32" s="73"/>
     </row>
-    <row r="33" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="32" t="s">
         <v>129</v>
       </c>
@@ -5981,26 +5975,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="B36" s="7"/>
       <c r="C36" s="13"/>
     </row>
-    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="42" t="s">
         <v>92</v>
       </c>
       <c r="C37" s="72"/>
     </row>
-    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="16" t="s">
         <v>91</v>
       </c>
@@ -6008,7 +6002,7 @@
       <c r="D38" s="17"/>
       <c r="E38" s="18"/>
     </row>
-    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="16" t="s">
         <v>90</v>
       </c>
@@ -6016,48 +6010,48 @@
       <c r="D39" s="17"/>
       <c r="E39" s="17"/>
     </row>
-    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="16" t="s">
         <v>171</v>
       </c>
       <c r="C40" s="72"/>
     </row>
-    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C41" s="71"/>
     </row>
-    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="42" t="s">
         <v>93</v>
       </c>
       <c r="C42" s="72"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D43" s="17"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D44" s="17"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C45" s="71"/>
       <c r="D45" s="17"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="16" t="s">
         <v>11</v>
       </c>
       <c r="C46" s="71"/>
       <c r="D46" s="17"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="16" t="s">
         <v>12</v>
       </c>
@@ -6065,7 +6059,7 @@
       <c r="D47" s="17"/>
       <c r="E47" s="18"/>
     </row>
-    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="16" t="s">
         <v>26</v>
       </c>
@@ -6076,52 +6070,52 @@
       <c r="D48" s="17"/>
       <c r="E48" s="17"/>
     </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D49" s="17"/>
     </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12" t="s">
         <v>72</v>
       </c>
       <c r="D50" s="17"/>
     </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="16" t="s">
         <v>124</v>
       </c>
       <c r="C51" s="69"/>
       <c r="D51" s="17"/>
     </row>
-    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="16" t="s">
         <v>125</v>
       </c>
       <c r="C52" s="69"/>
     </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="16" t="s">
         <v>126</v>
       </c>
       <c r="C53" s="69"/>
     </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="16" t="s">
         <v>127</v>
       </c>
       <c r="C54" s="69"/>
     </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="16" t="s">
         <v>128</v>
       </c>
       <c r="C55" s="69"/>
     </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="7" t="s">
         <v>111</v>
       </c>
@@ -6129,13 +6123,13 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="16" t="s">
         <v>132</v>
       </c>
       <c r="C59" s="70"/>
     </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4"/>
     </row>
   </sheetData>
@@ -6149,7 +6143,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6159,13 +6153,13 @@
       <selection activeCell="C2" sqref="C2:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="56" customWidth="1"/>
-    <col min="2" max="16384" width="10.83203125" style="56"/>
+    <col min="1" max="1" width="18.7109375" style="56" customWidth="1"/>
+    <col min="2" max="16384" width="10.85546875" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="40" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>196</v>
       </c>
@@ -6182,7 +6176,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="59" t="s">
         <v>164</v>
       </c>
@@ -6193,7 +6187,7 @@
       <c r="D2" s="90"/>
       <c r="E2" s="90"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="58"/>
       <c r="B3" s="58" t="s">
         <v>1</v>
@@ -6202,7 +6196,7 @@
       <c r="D3" s="90"/>
       <c r="E3" s="90"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="58"/>
       <c r="B4" s="58" t="s">
         <v>2</v>
@@ -6211,7 +6205,7 @@
       <c r="D4" s="90"/>
       <c r="E4" s="90"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="58"/>
       <c r="B5" s="58" t="s">
         <v>3</v>
@@ -6220,7 +6214,7 @@
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="58"/>
       <c r="B6" s="58" t="s">
         <v>4</v>
@@ -6229,7 +6223,7 @@
       <c r="D6" s="90"/>
       <c r="E6" s="90"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="57"/>
     </row>
   </sheetData>
@@ -6239,7 +6233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6249,15 +6243,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" style="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.83203125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="42.5" style="35" customWidth="1"/>
-    <col min="4" max="16384" width="11.5" style="35"/>
+    <col min="2" max="2" width="47.85546875" style="35" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" style="35" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
@@ -6268,7 +6262,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="93" t="s">
         <v>189</v>
       </c>
@@ -6277,7 +6271,7 @@
       </c>
       <c r="C2" s="85"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="93" t="s">
         <v>207</v>
       </c>
@@ -6286,7 +6280,7 @@
       </c>
       <c r="C3" s="85"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="94" t="s">
         <v>58</v>
       </c>
@@ -6295,7 +6289,7 @@
       </c>
       <c r="C4" s="85"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="94" t="s">
         <v>137</v>
       </c>
@@ -6304,104 +6298,104 @@
       </c>
       <c r="C5" s="85"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="94"/>
       <c r="B6" s="92"/>
       <c r="C6" s="92"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="94"/>
       <c r="B7" s="92"/>
       <c r="C7" s="92"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="94"/>
       <c r="B8" s="92"/>
       <c r="C8" s="92"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="94"/>
       <c r="B9" s="92"/>
       <c r="C9" s="92"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="94"/>
       <c r="B10" s="92"/>
       <c r="C10" s="92"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="95"/>
       <c r="B11" s="92"/>
       <c r="C11" s="92"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="95"/>
       <c r="B12" s="92"/>
       <c r="C12" s="92"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="95"/>
       <c r="B13" s="92"/>
       <c r="C13" s="92"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="95"/>
       <c r="B14" s="92"/>
       <c r="C14" s="92"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="95"/>
       <c r="B15" s="92"/>
       <c r="C15" s="92"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="95"/>
       <c r="B16" s="92"/>
       <c r="C16" s="92"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="95"/>
       <c r="B17" s="92"/>
       <c r="C17" s="92"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="95"/>
       <c r="B18" s="92"/>
       <c r="C18" s="92"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="94"/>
       <c r="B19" s="92"/>
       <c r="C19" s="92"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="94"/>
       <c r="B20" s="92"/>
       <c r="C20" s="92"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="94"/>
       <c r="B21" s="92"/>
       <c r="C21" s="92"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="94"/>
       <c r="B22" s="92"/>
       <c r="C22" s="92"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="92"/>
       <c r="C23" s="92"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B24" s="92"/>
       <c r="C24" s="92"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B25" s="92"/>
       <c r="C25" s="92"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B26" s="92"/>
       <c r="C26" s="92"/>
     </row>
@@ -6414,7 +6408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6424,85 +6418,85 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.1640625" style="35" customWidth="1"/>
-    <col min="2" max="16384" width="11.5" style="35"/>
+    <col min="1" max="1" width="30.140625" style="35" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="48" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="48" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="48" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="48" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="48" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="48" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="48" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="48"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="48"/>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="48"/>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="48"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="48"/>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="48"/>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="48"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="48"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="48"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="48"/>
     </row>
   </sheetData>
@@ -6512,7 +6506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
@@ -6522,9 +6516,9 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
@@ -6544,7 +6538,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>71</v>
       </c>
@@ -6569,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>65</v>
       </c>
@@ -6594,7 +6588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>66</v>
       </c>
@@ -6626,7 +6620,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -6636,19 +6630,19 @@
       <selection activeCell="C29" activeCellId="3" sqref="C2:O12 C14:O21 C23:O27 C29:O38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.83203125" customWidth="1"/>
-    <col min="3" max="3" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>33</v>
       </c>
@@ -6695,7 +6689,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>31</v>
       </c>
@@ -6746,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="7" t="s">
         <v>149</v>
       </c>
@@ -6790,7 +6784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="7" t="s">
         <v>197</v>
       </c>
@@ -6834,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11" t="s">
         <v>136</v>
       </c>
@@ -6880,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="11" t="s">
         <v>137</v>
       </c>
@@ -6927,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="33" t="s">
         <v>84</v>
       </c>
@@ -6976,7 +6970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>58</v>
       </c>
@@ -7022,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>67</v>
       </c>
@@ -7070,7 +7064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>28</v>
       </c>
@@ -7114,7 +7108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>85</v>
       </c>
@@ -7163,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>60</v>
       </c>
@@ -7207,10 +7201,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="33"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>32</v>
       </c>
@@ -7261,7 +7255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4"/>
       <c r="B15" s="11" t="s">
         <v>86</v>
@@ -7306,7 +7300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4"/>
       <c r="B16" s="11" t="s">
         <v>189</v>
@@ -7355,7 +7349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
         <v>207</v>
@@ -7404,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="33" t="s">
         <v>57</v>
       </c>
@@ -7452,7 +7446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>88</v>
       </c>
@@ -7496,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -7540,7 +7534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="33" t="s">
         <v>59</v>
       </c>
@@ -7588,10 +7582,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="64" t="s">
         <v>37</v>
       </c>
@@ -7642,7 +7636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="65" t="s">
         <v>190</v>
       </c>
@@ -7690,7 +7684,7 @@
         <v>0.49</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="65" t="s">
         <v>208</v>
       </c>
@@ -7738,7 +7732,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="65" t="s">
         <v>191</v>
       </c>
@@ -7786,7 +7780,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="65" t="s">
         <v>192</v>
       </c>
@@ -7831,7 +7825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="11"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -7841,7 +7835,7 @@
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
     </row>
-    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>35</v>
       </c>
@@ -7899,7 +7893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>64</v>
       </c>
@@ -7954,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>62</v>
       </c>
@@ -8009,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>47</v>
       </c>
@@ -8053,7 +8047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="11" t="s">
         <v>34</v>
       </c>
@@ -8110,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="33" t="s">
         <v>83</v>
       </c>
@@ -8154,7 +8148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5"/>
       <c r="B35" s="33" t="s">
         <v>82</v>
@@ -8199,7 +8193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="33" t="s">
         <v>81</v>
       </c>
@@ -8243,7 +8237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="33" t="s">
         <v>79</v>
       </c>
@@ -8287,7 +8281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:15" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="33" t="s">
         <v>80</v>
       </c>
@@ -8331,7 +8325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="33"/>
     </row>
   </sheetData>
@@ -8345,31 +8339,31 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="12" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
         <v>205</v>
       </c>
@@ -8380,7 +8374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
@@ -8390,16 +8384,16 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="33.6640625" style="35" customWidth="1"/>
-    <col min="2" max="2" width="12.5" style="35" customWidth="1"/>
-    <col min="3" max="4" width="11.5" style="35"/>
-    <col min="5" max="5" width="17.5" style="35" customWidth="1"/>
-    <col min="6" max="16384" width="11.5" style="35"/>
+    <col min="1" max="1" width="33.7109375" style="35" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" style="35" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="35"/>
+    <col min="5" max="5" width="17.42578125" style="35" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="35"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>163</v>
       </c>
@@ -8416,7 +8410,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>158</v>
       </c>
@@ -8434,7 +8428,7 @@
         <v>7.1999999999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>157</v>
       </c>
@@ -8452,7 +8446,7 @@
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>156</v>
       </c>
@@ -8470,7 +8464,7 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>155</v>
       </c>
@@ -8488,7 +8482,7 @@
         <v>0.126</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>154</v>
       </c>
@@ -8506,7 +8500,7 @@
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>153</v>
       </c>
@@ -8524,7 +8518,7 @@
         <v>0.40500000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>152</v>
       </c>
@@ -8542,7 +8536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>151</v>
       </c>
@@ -8560,7 +8554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A10" s="39" t="s">
         <v>150</v>
       </c>
@@ -8578,7 +8572,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C11" s="36"/>
     </row>
   </sheetData>
@@ -8589,7 +8583,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
@@ -8599,14 +8593,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="12" customWidth="1"/>
-    <col min="2" max="9" width="16.83203125" style="12" customWidth="1"/>
-    <col min="10" max="16384" width="14.5" style="12"/>
+    <col min="1" max="1" width="8.42578125" style="12" customWidth="1"/>
+    <col min="2" max="9" width="16.85546875" style="12" customWidth="1"/>
+    <col min="10" max="16384" width="14.42578125" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" s="21" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -8635,7 +8629,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="97">
         <f>start_year</f>
         <v>2017</v>
@@ -8658,7 +8652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="97">
         <f t="shared" ref="A3:A40" si="2">IF($A$2+ROW(A3)-2&lt;=end_year,A2+1,"")</f>
         <v>2018</v>
@@ -8681,7 +8675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="97">
         <f t="shared" si="2"/>
         <v>2019</v>
@@ -8704,7 +8698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="97">
         <f t="shared" si="2"/>
         <v>2020</v>
@@ -8727,7 +8721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="97">
         <f t="shared" si="2"/>
         <v>2021</v>
@@ -8750,7 +8744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="97">
         <f t="shared" si="2"/>
         <v>2022</v>
@@ -8773,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="97">
         <f t="shared" si="2"/>
         <v>2023</v>
@@ -8796,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="97">
         <f t="shared" si="2"/>
         <v>2024</v>
@@ -8819,7 +8813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="97">
         <f t="shared" si="2"/>
         <v>2025</v>
@@ -8842,7 +8836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="97">
         <f t="shared" si="2"/>
         <v>2026</v>
@@ -8865,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="97">
         <f t="shared" si="2"/>
         <v>2027</v>
@@ -8888,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="97">
         <f t="shared" si="2"/>
         <v>2028</v>
@@ -8911,7 +8905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="97">
         <f t="shared" si="2"/>
         <v>2029</v>
@@ -8934,7 +8928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="97">
         <f t="shared" si="2"/>
         <v>2030</v>
@@ -8957,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -8980,7 +8974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9003,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9026,7 +9020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9049,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9072,7 +9066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9095,7 +9089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9118,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9141,7 +9135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9164,7 +9158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9187,7 +9181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9210,7 +9204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9233,7 +9227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9256,7 +9250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9279,7 +9273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9302,7 +9296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9325,7 +9319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9348,7 +9342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9371,7 +9365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9394,7 +9388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9417,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9440,7 +9434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9463,7 +9457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9486,7 +9480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9509,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="97" t="str">
         <f t="shared" si="2"/>
         <v/>
@@ -9545,24 +9539,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF007600"/>
   </sheetPr>
   <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
     <col min="3" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="str">
         <f>"Percentage of deaths in baseline year ("&amp;start_year&amp;") attributable to cause"</f>
         <v>Percentage of deaths in baseline year (2017) attributable to cause</v>
@@ -9573,7 +9567,7 @@
       <c r="E1" s="41"/>
       <c r="F1" s="41"/>
     </row>
-    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>210</v>
       </c>
@@ -9588,7 +9582,7 @@
       <c r="F2" s="41"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="24" t="s">
         <v>73</v>
       </c>
@@ -9596,7 +9590,7 @@
         <v>2.7000000000000001E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="24" t="s">
         <v>7</v>
       </c>
@@ -9604,7 +9598,7 @@
         <v>0.1966</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -9612,7 +9606,7 @@
         <v>6.2100000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="24" t="s">
         <v>10</v>
       </c>
@@ -9620,7 +9614,7 @@
         <v>0.29289999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.1